--- a/storage/app/eventbatch.xlsx
+++ b/storage/app/eventbatch.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\CookingPoint\laravel\dev\storage\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\CookingPoint\laravel\v2\storage\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="eventbatch" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">eventbatch!$A$1:$C$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">eventbatch!$A$1:$E$489</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="5">
   <si>
     <t>PAELLA</t>
   </si>
@@ -37,13 +37,19 @@
   <si>
     <t>TAPAS</t>
   </si>
+  <si>
+    <t>FESTIVO</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -76,7 +82,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,25 +398,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:E623"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>+WEEKDAY(B2,2)</f>
+        <f t="shared" ref="A2:A23" si="0">+WEEKDAY(B2,2)</f>
         <v>6</v>
       </c>
       <c r="B2" s="1">
@@ -423,12 +432,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>+WEEKDAY(B3,2)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B3" s="1">
+        <f>+B2+1</f>
         <v>42645</v>
       </c>
       <c r="C3" t="s">
@@ -438,12 +448,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>+WEEKDAY(B4,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B4" s="1">
+        <f t="shared" ref="B4:B66" si="1">+B3+1</f>
         <v>42646</v>
       </c>
       <c r="C4" t="s">
@@ -453,12 +464,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>+WEEKDAY(B5,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B5" s="1">
+        <f t="shared" si="1"/>
         <v>42647</v>
       </c>
       <c r="C5" t="s">
@@ -468,12 +480,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>+WEEKDAY(B6,2)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" s="1">
+        <f t="shared" si="1"/>
         <v>42648</v>
       </c>
       <c r="C6" t="s">
@@ -483,12 +496,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>+WEEKDAY(B7,2)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B7" s="1">
+        <f t="shared" si="1"/>
         <v>42649</v>
       </c>
       <c r="C7" t="s">
@@ -498,12 +512,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>+WEEKDAY(B8,2)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B8" s="1">
+        <f t="shared" si="1"/>
         <v>42650</v>
       </c>
       <c r="C8" t="s">
@@ -513,12 +528,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>+WEEKDAY(B9,2)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B9" s="1">
+        <f t="shared" si="1"/>
         <v>42651</v>
       </c>
       <c r="C9" t="s">
@@ -528,12 +544,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>+WEEKDAY(B10,2)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B10" s="1">
+        <f t="shared" si="1"/>
         <v>42652</v>
       </c>
       <c r="C10" t="s">
@@ -543,12 +560,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>+WEEKDAY(B11,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B11" s="1">
+        <f t="shared" si="1"/>
         <v>42653</v>
       </c>
       <c r="C11" t="s">
@@ -558,12 +576,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>+WEEKDAY(B12,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B12" s="1">
+        <f t="shared" si="1"/>
         <v>42654</v>
       </c>
       <c r="C12" t="s">
@@ -573,12 +592,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>+WEEKDAY(B13,2)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B13" s="1">
+        <f t="shared" si="1"/>
         <v>42655</v>
       </c>
       <c r="C13" t="s">
@@ -588,12 +608,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>+WEEKDAY(B14,2)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B14" s="1">
+        <f t="shared" si="1"/>
         <v>42656</v>
       </c>
       <c r="C14" t="s">
@@ -603,12 +624,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>+WEEKDAY(B15,2)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B15" s="1">
+        <f t="shared" si="1"/>
         <v>42657</v>
       </c>
       <c r="C15" t="s">
@@ -618,12 +640,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>+WEEKDAY(B16,2)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B16" s="1">
+        <f t="shared" si="1"/>
         <v>42658</v>
       </c>
       <c r="C16" t="s">
@@ -635,10 +658,11 @@
     </row>
     <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>+WEEKDAY(B17,2)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B17" s="1">
+        <f t="shared" si="1"/>
         <v>42659</v>
       </c>
       <c r="C17" t="s">
@@ -650,10 +674,11 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>+WEEKDAY(B18,2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B18" s="1">
+        <f t="shared" si="1"/>
         <v>42660</v>
       </c>
       <c r="C18" t="s">
@@ -665,10 +690,11 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>+WEEKDAY(B19,2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B19" s="1">
+        <f t="shared" si="1"/>
         <v>42661</v>
       </c>
       <c r="C19" t="s">
@@ -680,10 +706,11 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f>+WEEKDAY(B20,2)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B20" s="1">
+        <f t="shared" si="1"/>
         <v>42662</v>
       </c>
       <c r="C20" t="s">
@@ -695,10 +722,11 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f>+WEEKDAY(B21,2)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B21" s="1">
+        <f t="shared" si="1"/>
         <v>42663</v>
       </c>
       <c r="C21" t="s">
@@ -710,10 +738,11 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>+WEEKDAY(B22,2)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B22" s="1">
+        <f t="shared" si="1"/>
         <v>42664</v>
       </c>
       <c r="C22" t="s">
@@ -723,12 +752,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>+WEEKDAY(B23,2)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B23" s="1">
+        <f t="shared" si="1"/>
         <v>42665</v>
       </c>
       <c r="C23" t="s">
@@ -740,10 +770,11 @@
     </row>
     <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" ref="A24:A69" si="0">+WEEKDAY(B24,2)</f>
+        <f t="shared" ref="A24:A68" si="2">+WEEKDAY(B24,2)</f>
         <v>7</v>
       </c>
       <c r="B24" s="1">
+        <f t="shared" si="1"/>
         <v>42666</v>
       </c>
       <c r="C24" t="s">
@@ -755,10 +786,11 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B25" s="1">
+        <f t="shared" si="1"/>
         <v>42667</v>
       </c>
       <c r="C25" t="s">
@@ -770,10 +802,11 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B26" s="1">
+        <f t="shared" si="1"/>
         <v>42668</v>
       </c>
       <c r="C26" t="s">
@@ -785,10 +818,11 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B27" s="1">
+        <f t="shared" si="1"/>
         <v>42669</v>
       </c>
       <c r="C27" t="s">
@@ -800,10 +834,11 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B28" s="1">
+        <f t="shared" si="1"/>
         <v>42670</v>
       </c>
       <c r="C28" t="s">
@@ -815,10 +850,11 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B29" s="1">
+        <f t="shared" si="1"/>
         <v>42671</v>
       </c>
       <c r="C29" t="s">
@@ -828,12 +864,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B30" s="1">
+        <f t="shared" si="1"/>
         <v>42672</v>
       </c>
       <c r="C30" t="s">
@@ -845,10 +882,11 @@
     </row>
     <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B31" s="1">
+        <f t="shared" si="1"/>
         <v>42673</v>
       </c>
       <c r="C31" t="s">
@@ -860,10 +898,11 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B32" s="1">
+        <f t="shared" si="1"/>
         <v>42674</v>
       </c>
       <c r="C32" t="s">
@@ -875,10 +914,11 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B33" s="1">
+        <f t="shared" si="1"/>
         <v>42675</v>
       </c>
       <c r="C33" t="s">
@@ -890,10 +930,11 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B34" s="1">
+        <f t="shared" si="1"/>
         <v>42676</v>
       </c>
       <c r="C34" t="s">
@@ -905,10 +946,11 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B35" s="1">
+        <f t="shared" si="1"/>
         <v>42677</v>
       </c>
       <c r="C35" t="s">
@@ -920,10 +962,11 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B36" s="1">
+        <f t="shared" si="1"/>
         <v>42678</v>
       </c>
       <c r="C36" t="s">
@@ -933,12 +976,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B37" s="1">
+        <f t="shared" si="1"/>
         <v>42679</v>
       </c>
       <c r="C37" t="s">
@@ -950,10 +994,11 @@
     </row>
     <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B38" s="1">
+        <f t="shared" si="1"/>
         <v>42680</v>
       </c>
       <c r="C38" t="s">
@@ -965,10 +1010,11 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B39" s="1">
+        <f t="shared" si="1"/>
         <v>42681</v>
       </c>
       <c r="C39" t="s">
@@ -980,10 +1026,11 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B40" s="1">
+        <f t="shared" si="1"/>
         <v>42682</v>
       </c>
       <c r="C40" t="s">
@@ -995,10 +1042,11 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B41" s="1">
+        <f t="shared" si="1"/>
         <v>42683</v>
       </c>
       <c r="C41" t="s">
@@ -1010,10 +1058,11 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B42" s="1">
+        <f t="shared" si="1"/>
         <v>42684</v>
       </c>
       <c r="C42" t="s">
@@ -1025,10 +1074,11 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B43" s="1">
+        <f t="shared" si="1"/>
         <v>42685</v>
       </c>
       <c r="C43" t="s">
@@ -1038,12 +1088,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B44" s="1">
+        <f t="shared" si="1"/>
         <v>42686</v>
       </c>
       <c r="C44" t="s">
@@ -1055,10 +1106,11 @@
     </row>
     <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B45" s="1">
+        <f t="shared" si="1"/>
         <v>42687</v>
       </c>
       <c r="C45" t="s">
@@ -1070,10 +1122,11 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B46" s="1">
+        <f t="shared" si="1"/>
         <v>42688</v>
       </c>
       <c r="C46" t="s">
@@ -1085,10 +1138,11 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B47" s="1">
+        <f t="shared" si="1"/>
         <v>42689</v>
       </c>
       <c r="C47" t="s">
@@ -1100,10 +1154,11 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B48" s="1">
+        <f t="shared" si="1"/>
         <v>42690</v>
       </c>
       <c r="C48" t="s">
@@ -1115,10 +1170,11 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B49" s="1">
+        <f t="shared" si="1"/>
         <v>42691</v>
       </c>
       <c r="C49" t="s">
@@ -1130,10 +1186,11 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B50" s="1">
+        <f t="shared" si="1"/>
         <v>42692</v>
       </c>
       <c r="C50" t="s">
@@ -1143,12 +1200,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B51" s="1">
+        <f t="shared" si="1"/>
         <v>42693</v>
       </c>
       <c r="C51" t="s">
@@ -1160,10 +1218,11 @@
     </row>
     <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B52" s="1">
+        <f t="shared" si="1"/>
         <v>42694</v>
       </c>
       <c r="C52" t="s">
@@ -1175,10 +1234,11 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B53" s="1">
+        <f t="shared" si="1"/>
         <v>42695</v>
       </c>
       <c r="C53" t="s">
@@ -1190,10 +1250,11 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B54" s="1">
+        <f t="shared" si="1"/>
         <v>42696</v>
       </c>
       <c r="C54" t="s">
@@ -1205,10 +1266,11 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B55" s="1">
+        <f t="shared" si="1"/>
         <v>42697</v>
       </c>
       <c r="C55" t="s">
@@ -1220,10 +1282,11 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B56" s="1">
+        <f t="shared" si="1"/>
         <v>42698</v>
       </c>
       <c r="C56" t="s">
@@ -1235,10 +1298,11 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B57" s="1">
+        <f t="shared" si="1"/>
         <v>42699</v>
       </c>
       <c r="C57" t="s">
@@ -1248,12 +1312,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B58" s="1">
+        <f t="shared" si="1"/>
         <v>42700</v>
       </c>
       <c r="C58" t="s">
@@ -1265,10 +1330,11 @@
     </row>
     <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B59" s="1">
+        <f t="shared" si="1"/>
         <v>42701</v>
       </c>
       <c r="C59" t="s">
@@ -1280,10 +1346,11 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B60" s="1">
+        <f t="shared" si="1"/>
         <v>42702</v>
       </c>
       <c r="C60" t="s">
@@ -1295,10 +1362,11 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B61" s="1">
+        <f t="shared" si="1"/>
         <v>42703</v>
       </c>
       <c r="C61" t="s">
@@ -1310,10 +1378,11 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="B62" s="1">
+        <f t="shared" si="1"/>
         <v>42704</v>
       </c>
       <c r="C62" t="s">
@@ -1325,10 +1394,11 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B63" s="1">
+        <f t="shared" si="1"/>
         <v>42705</v>
       </c>
       <c r="C63" t="s">
@@ -1340,10 +1410,11 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B64" s="1">
+        <f t="shared" si="1"/>
         <v>42706</v>
       </c>
       <c r="C64" t="s">
@@ -1353,12 +1424,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B65" s="1">
+        <f t="shared" si="1"/>
         <v>42707</v>
       </c>
       <c r="C65" t="s">
@@ -1370,10 +1442,11 @@
     </row>
     <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B66" s="1">
+        <f t="shared" si="1"/>
         <v>42708</v>
       </c>
       <c r="C66" t="s">
@@ -1385,10 +1458,11 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="B67" s="1">
+        <f t="shared" ref="B67:B68" si="3">+B66+1</f>
         <v>42709</v>
       </c>
       <c r="C67" t="s">
@@ -1400,10 +1474,11 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="B68" s="1">
+        <f t="shared" si="3"/>
         <v>42710</v>
       </c>
       <c r="C68" t="s">
@@ -1415,10 +1490,11 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A69:A86" si="4">+WEEKDAY(B69,2)</f>
         <v>3</v>
       </c>
       <c r="B69" s="1">
+        <f t="shared" ref="B69:B86" si="5">+B68+1</f>
         <v>42711</v>
       </c>
       <c r="C69" t="s">
@@ -1428,8 +1504,7142 @@
         <v>2</v>
       </c>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="5"/>
+        <v>42712</v>
+      </c>
+      <c r="C70" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="5"/>
+        <v>42713</v>
+      </c>
+      <c r="C71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" si="5"/>
+        <v>42714</v>
+      </c>
+      <c r="C72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" si="5"/>
+        <v>42715</v>
+      </c>
+      <c r="C73" t="s">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B74" s="1">
+        <f t="shared" si="5"/>
+        <v>42716</v>
+      </c>
+      <c r="C74" t="s">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" si="5"/>
+        <v>42717</v>
+      </c>
+      <c r="C75" t="s">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" si="5"/>
+        <v>42718</v>
+      </c>
+      <c r="C76" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B77" s="1">
+        <f t="shared" si="5"/>
+        <v>42719</v>
+      </c>
+      <c r="C77" t="s">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" si="5"/>
+        <v>42720</v>
+      </c>
+      <c r="C78" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" si="5"/>
+        <v>42721</v>
+      </c>
+      <c r="C79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B80" s="1">
+        <f t="shared" si="5"/>
+        <v>42722</v>
+      </c>
+      <c r="C80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" si="5"/>
+        <v>42723</v>
+      </c>
+      <c r="C81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" si="5"/>
+        <v>42724</v>
+      </c>
+      <c r="C82" t="s">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="B83" s="1">
+        <f t="shared" si="5"/>
+        <v>42725</v>
+      </c>
+      <c r="C83" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="B84" s="1">
+        <f t="shared" si="5"/>
+        <v>42726</v>
+      </c>
+      <c r="C84" t="s">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <f t="shared" si="5"/>
+        <v>42727</v>
+      </c>
+      <c r="C85" t="s">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B86" s="1">
+        <f t="shared" si="5"/>
+        <v>42728</v>
+      </c>
+      <c r="C86" t="s">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" ref="A87:A106" si="6">+WEEKDAY(B87,2)</f>
+        <v>7</v>
+      </c>
+      <c r="B87" s="1">
+        <f t="shared" ref="B87:B106" si="7">+B86+1</f>
+        <v>42729</v>
+      </c>
+      <c r="C87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B88" s="1">
+        <f t="shared" si="7"/>
+        <v>42730</v>
+      </c>
+      <c r="C88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="B89" s="1">
+        <f t="shared" si="7"/>
+        <v>42731</v>
+      </c>
+      <c r="C89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B90" s="1">
+        <f t="shared" si="7"/>
+        <v>42732</v>
+      </c>
+      <c r="C90" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B91" s="1">
+        <f t="shared" si="7"/>
+        <v>42733</v>
+      </c>
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <f t="shared" si="7"/>
+        <v>42734</v>
+      </c>
+      <c r="C92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="B93" s="1">
+        <f t="shared" si="7"/>
+        <v>42735</v>
+      </c>
+      <c r="C93" t="s">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="B94" s="1">
+        <f t="shared" si="7"/>
+        <v>42736</v>
+      </c>
+      <c r="C94" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B95" s="1">
+        <f t="shared" si="7"/>
+        <v>42737</v>
+      </c>
+      <c r="C95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="B96" s="1">
+        <f t="shared" si="7"/>
+        <v>42738</v>
+      </c>
+      <c r="C96" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B97" s="1">
+        <f t="shared" si="7"/>
+        <v>42739</v>
+      </c>
+      <c r="C97" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B98" s="1">
+        <f t="shared" si="7"/>
+        <v>42740</v>
+      </c>
+      <c r="C98" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <f t="shared" si="7"/>
+        <v>42741</v>
+      </c>
+      <c r="C99" t="s">
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="B100" s="1">
+        <f t="shared" si="7"/>
+        <v>42742</v>
+      </c>
+      <c r="C100" t="s">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="B101" s="1">
+        <f t="shared" si="7"/>
+        <v>42743</v>
+      </c>
+      <c r="C101" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="B102" s="1">
+        <f t="shared" si="7"/>
+        <v>42744</v>
+      </c>
+      <c r="C102" t="s">
+        <v>0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="B103" s="1">
+        <f t="shared" si="7"/>
+        <v>42745</v>
+      </c>
+      <c r="C103" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="B104" s="1">
+        <f t="shared" si="7"/>
+        <v>42746</v>
+      </c>
+      <c r="C104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" si="7"/>
+        <v>42747</v>
+      </c>
+      <c r="C105" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <f t="shared" si="7"/>
+        <v>42748</v>
+      </c>
+      <c r="C106" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" ref="A107:A170" si="8">+WEEKDAY(B107,2)</f>
+        <v>6</v>
+      </c>
+      <c r="B107" s="1">
+        <f t="shared" ref="B107:B170" si="9">+B106+1</f>
+        <v>42749</v>
+      </c>
+      <c r="C107" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B108" s="1">
+        <f t="shared" si="9"/>
+        <v>42750</v>
+      </c>
+      <c r="C108" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B109" s="1">
+        <f t="shared" si="9"/>
+        <v>42751</v>
+      </c>
+      <c r="C109" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B110" s="1">
+        <f t="shared" si="9"/>
+        <v>42752</v>
+      </c>
+      <c r="C110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="B111" s="1">
+        <f t="shared" si="9"/>
+        <v>42753</v>
+      </c>
+      <c r="C111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B112" s="1">
+        <f t="shared" si="9"/>
+        <v>42754</v>
+      </c>
+      <c r="C112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B113" s="1">
+        <f t="shared" si="9"/>
+        <v>42755</v>
+      </c>
+      <c r="C113" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B114" s="1">
+        <f t="shared" si="9"/>
+        <v>42756</v>
+      </c>
+      <c r="C114" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B115" s="1">
+        <f t="shared" si="9"/>
+        <v>42757</v>
+      </c>
+      <c r="C115" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B116" s="1">
+        <f t="shared" si="9"/>
+        <v>42758</v>
+      </c>
+      <c r="C116" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B117" s="1">
+        <f t="shared" si="9"/>
+        <v>42759</v>
+      </c>
+      <c r="C117" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="B118" s="1">
+        <f t="shared" si="9"/>
+        <v>42760</v>
+      </c>
+      <c r="C118" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B119" s="1">
+        <f t="shared" si="9"/>
+        <v>42761</v>
+      </c>
+      <c r="C119" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B120" s="1">
+        <f t="shared" si="9"/>
+        <v>42762</v>
+      </c>
+      <c r="C120" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B121" s="1">
+        <f t="shared" si="9"/>
+        <v>42763</v>
+      </c>
+      <c r="C121" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B122" s="1">
+        <f t="shared" si="9"/>
+        <v>42764</v>
+      </c>
+      <c r="C122" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B123" s="1">
+        <f t="shared" si="9"/>
+        <v>42765</v>
+      </c>
+      <c r="C123" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B124" s="1">
+        <f t="shared" si="9"/>
+        <v>42766</v>
+      </c>
+      <c r="C124" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="B125" s="1">
+        <f t="shared" si="9"/>
+        <v>42767</v>
+      </c>
+      <c r="C125" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B126" s="1">
+        <f t="shared" si="9"/>
+        <v>42768</v>
+      </c>
+      <c r="C126" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B127" s="1">
+        <f t="shared" si="9"/>
+        <v>42769</v>
+      </c>
+      <c r="C127" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B128" s="1">
+        <f t="shared" si="9"/>
+        <v>42770</v>
+      </c>
+      <c r="C128" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B129" s="1">
+        <f t="shared" si="9"/>
+        <v>42771</v>
+      </c>
+      <c r="C129" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B130" s="1">
+        <f t="shared" si="9"/>
+        <v>42772</v>
+      </c>
+      <c r="C130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B131" s="1">
+        <f t="shared" si="9"/>
+        <v>42773</v>
+      </c>
+      <c r="C131" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="B132" s="1">
+        <f t="shared" si="9"/>
+        <v>42774</v>
+      </c>
+      <c r="C132" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B133" s="1">
+        <f t="shared" si="9"/>
+        <v>42775</v>
+      </c>
+      <c r="C133" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B134" s="1">
+        <f t="shared" si="9"/>
+        <v>42776</v>
+      </c>
+      <c r="C134" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B135" s="1">
+        <f t="shared" si="9"/>
+        <v>42777</v>
+      </c>
+      <c r="C135" t="s">
+        <v>0</v>
+      </c>
+      <c r="D135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B136" s="1">
+        <f t="shared" si="9"/>
+        <v>42778</v>
+      </c>
+      <c r="C136" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B137" s="1">
+        <f t="shared" si="9"/>
+        <v>42779</v>
+      </c>
+      <c r="C137" t="s">
+        <v>0</v>
+      </c>
+      <c r="D137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B138" s="1">
+        <f t="shared" si="9"/>
+        <v>42780</v>
+      </c>
+      <c r="C138" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="B139" s="1">
+        <f t="shared" si="9"/>
+        <v>42781</v>
+      </c>
+      <c r="C139" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B140" s="1">
+        <f t="shared" si="9"/>
+        <v>42782</v>
+      </c>
+      <c r="C140" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B141" s="1">
+        <f t="shared" si="9"/>
+        <v>42783</v>
+      </c>
+      <c r="C141" t="s">
+        <v>0</v>
+      </c>
+      <c r="D141" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B142" s="1">
+        <f t="shared" si="9"/>
+        <v>42784</v>
+      </c>
+      <c r="C142" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B143" s="1">
+        <f t="shared" si="9"/>
+        <v>42785</v>
+      </c>
+      <c r="C143" t="s">
+        <v>0</v>
+      </c>
+      <c r="D143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B144" s="1">
+        <f t="shared" si="9"/>
+        <v>42786</v>
+      </c>
+      <c r="C144" t="s">
+        <v>0</v>
+      </c>
+      <c r="D144" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B145" s="1">
+        <f t="shared" si="9"/>
+        <v>42787</v>
+      </c>
+      <c r="C145" t="s">
+        <v>0</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="B146" s="1">
+        <f t="shared" si="9"/>
+        <v>42788</v>
+      </c>
+      <c r="C146" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B147" s="1">
+        <f t="shared" si="9"/>
+        <v>42789</v>
+      </c>
+      <c r="C147" t="s">
+        <v>0</v>
+      </c>
+      <c r="D147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B148" s="1">
+        <f t="shared" si="9"/>
+        <v>42790</v>
+      </c>
+      <c r="C148" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B149" s="1">
+        <f t="shared" si="9"/>
+        <v>42791</v>
+      </c>
+      <c r="C149" t="s">
+        <v>0</v>
+      </c>
+      <c r="D149" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B150" s="1">
+        <f t="shared" si="9"/>
+        <v>42792</v>
+      </c>
+      <c r="C150" t="s">
+        <v>0</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B151" s="1">
+        <f t="shared" si="9"/>
+        <v>42793</v>
+      </c>
+      <c r="C151" t="s">
+        <v>0</v>
+      </c>
+      <c r="D151" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B152" s="1">
+        <f t="shared" si="9"/>
+        <v>42794</v>
+      </c>
+      <c r="C152" t="s">
+        <v>0</v>
+      </c>
+      <c r="D152" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="B153" s="1">
+        <f t="shared" si="9"/>
+        <v>42795</v>
+      </c>
+      <c r="C153" t="s">
+        <v>0</v>
+      </c>
+      <c r="D153" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B154" s="1">
+        <f t="shared" si="9"/>
+        <v>42796</v>
+      </c>
+      <c r="C154" t="s">
+        <v>0</v>
+      </c>
+      <c r="D154" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B155" s="1">
+        <f t="shared" si="9"/>
+        <v>42797</v>
+      </c>
+      <c r="C155" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B156" s="1">
+        <f t="shared" si="9"/>
+        <v>42798</v>
+      </c>
+      <c r="C156" t="s">
+        <v>0</v>
+      </c>
+      <c r="D156" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B157" s="1">
+        <f t="shared" si="9"/>
+        <v>42799</v>
+      </c>
+      <c r="C157" t="s">
+        <v>0</v>
+      </c>
+      <c r="D157" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B158" s="1">
+        <f t="shared" si="9"/>
+        <v>42800</v>
+      </c>
+      <c r="C158" t="s">
+        <v>0</v>
+      </c>
+      <c r="D158" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B159" s="1">
+        <f t="shared" si="9"/>
+        <v>42801</v>
+      </c>
+      <c r="C159" t="s">
+        <v>0</v>
+      </c>
+      <c r="D159" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="B160" s="1">
+        <f t="shared" si="9"/>
+        <v>42802</v>
+      </c>
+      <c r="C160" t="s">
+        <v>0</v>
+      </c>
+      <c r="D160" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B161" s="1">
+        <f t="shared" si="9"/>
+        <v>42803</v>
+      </c>
+      <c r="C161" t="s">
+        <v>0</v>
+      </c>
+      <c r="D161" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B162" s="1">
+        <f t="shared" si="9"/>
+        <v>42804</v>
+      </c>
+      <c r="C162" t="s">
+        <v>0</v>
+      </c>
+      <c r="D162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B163" s="1">
+        <f t="shared" si="9"/>
+        <v>42805</v>
+      </c>
+      <c r="C163" t="s">
+        <v>0</v>
+      </c>
+      <c r="D163" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B164" s="1">
+        <f t="shared" si="9"/>
+        <v>42806</v>
+      </c>
+      <c r="C164" t="s">
+        <v>0</v>
+      </c>
+      <c r="D164" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B165" s="1">
+        <f t="shared" si="9"/>
+        <v>42807</v>
+      </c>
+      <c r="C165" t="s">
+        <v>0</v>
+      </c>
+      <c r="D165" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B166" s="1">
+        <f t="shared" si="9"/>
+        <v>42808</v>
+      </c>
+      <c r="C166" t="s">
+        <v>0</v>
+      </c>
+      <c r="D166" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="B167" s="1">
+        <f t="shared" si="9"/>
+        <v>42809</v>
+      </c>
+      <c r="C167" t="s">
+        <v>0</v>
+      </c>
+      <c r="D167" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B168" s="1">
+        <f t="shared" si="9"/>
+        <v>42810</v>
+      </c>
+      <c r="C168" t="s">
+        <v>0</v>
+      </c>
+      <c r="D168" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="B169" s="1">
+        <f t="shared" si="9"/>
+        <v>42811</v>
+      </c>
+      <c r="C169" t="s">
+        <v>0</v>
+      </c>
+      <c r="D169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="B170" s="1">
+        <f t="shared" si="9"/>
+        <v>42812</v>
+      </c>
+      <c r="C170" t="s">
+        <v>0</v>
+      </c>
+      <c r="D170" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <f t="shared" ref="A171:A207" si="10">+WEEKDAY(B171,2)</f>
+        <v>7</v>
+      </c>
+      <c r="B171" s="1">
+        <f t="shared" ref="B171:B207" si="11">+B170+1</f>
+        <v>42813</v>
+      </c>
+      <c r="C171" t="s">
+        <v>0</v>
+      </c>
+      <c r="D171" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B172" s="1">
+        <f t="shared" si="11"/>
+        <v>42814</v>
+      </c>
+      <c r="C172" t="s">
+        <v>0</v>
+      </c>
+      <c r="D172" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B173" s="1">
+        <f t="shared" si="11"/>
+        <v>42815</v>
+      </c>
+      <c r="C173" t="s">
+        <v>0</v>
+      </c>
+      <c r="D173" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B174" s="1">
+        <f t="shared" si="11"/>
+        <v>42816</v>
+      </c>
+      <c r="C174" t="s">
+        <v>0</v>
+      </c>
+      <c r="D174" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="B175" s="1">
+        <f t="shared" si="11"/>
+        <v>42817</v>
+      </c>
+      <c r="C175" t="s">
+        <v>0</v>
+      </c>
+      <c r="D175" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="B176" s="1">
+        <f t="shared" si="11"/>
+        <v>42818</v>
+      </c>
+      <c r="C176" t="s">
+        <v>0</v>
+      </c>
+      <c r="D176" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="B177" s="1">
+        <f t="shared" si="11"/>
+        <v>42819</v>
+      </c>
+      <c r="C177" t="s">
+        <v>0</v>
+      </c>
+      <c r="D177" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="B178" s="1">
+        <f t="shared" si="11"/>
+        <v>42820</v>
+      </c>
+      <c r="C178" t="s">
+        <v>0</v>
+      </c>
+      <c r="D178" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B179" s="1">
+        <f t="shared" si="11"/>
+        <v>42821</v>
+      </c>
+      <c r="C179" t="s">
+        <v>0</v>
+      </c>
+      <c r="D179" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B180" s="1">
+        <f t="shared" si="11"/>
+        <v>42822</v>
+      </c>
+      <c r="C180" t="s">
+        <v>0</v>
+      </c>
+      <c r="D180" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B181" s="1">
+        <f t="shared" si="11"/>
+        <v>42823</v>
+      </c>
+      <c r="C181" t="s">
+        <v>0</v>
+      </c>
+      <c r="D181" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="B182" s="1">
+        <f t="shared" si="11"/>
+        <v>42824</v>
+      </c>
+      <c r="C182" t="s">
+        <v>0</v>
+      </c>
+      <c r="D182" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="B183" s="1">
+        <f t="shared" si="11"/>
+        <v>42825</v>
+      </c>
+      <c r="C183" t="s">
+        <v>0</v>
+      </c>
+      <c r="D183" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="B184" s="1">
+        <f t="shared" si="11"/>
+        <v>42826</v>
+      </c>
+      <c r="C184" t="s">
+        <v>0</v>
+      </c>
+      <c r="D184" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="B185" s="1">
+        <f t="shared" si="11"/>
+        <v>42827</v>
+      </c>
+      <c r="C185" t="s">
+        <v>0</v>
+      </c>
+      <c r="D185" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B186" s="1">
+        <f t="shared" si="11"/>
+        <v>42828</v>
+      </c>
+      <c r="C186" t="s">
+        <v>0</v>
+      </c>
+      <c r="D186" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B187" s="1">
+        <f t="shared" si="11"/>
+        <v>42829</v>
+      </c>
+      <c r="C187" t="s">
+        <v>0</v>
+      </c>
+      <c r="D187" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B188" s="1">
+        <f t="shared" si="11"/>
+        <v>42830</v>
+      </c>
+      <c r="C188" t="s">
+        <v>0</v>
+      </c>
+      <c r="D188" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="B189" s="1">
+        <f t="shared" si="11"/>
+        <v>42831</v>
+      </c>
+      <c r="C189" t="s">
+        <v>0</v>
+      </c>
+      <c r="D189" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="B190" s="1">
+        <f t="shared" si="11"/>
+        <v>42832</v>
+      </c>
+      <c r="C190" t="s">
+        <v>0</v>
+      </c>
+      <c r="D190" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="B191" s="1">
+        <f t="shared" si="11"/>
+        <v>42833</v>
+      </c>
+      <c r="C191" t="s">
+        <v>0</v>
+      </c>
+      <c r="D191" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="B192" s="1">
+        <f t="shared" si="11"/>
+        <v>42834</v>
+      </c>
+      <c r="C192" t="s">
+        <v>0</v>
+      </c>
+      <c r="D192" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B193" s="1">
+        <f t="shared" si="11"/>
+        <v>42835</v>
+      </c>
+      <c r="C193" t="s">
+        <v>0</v>
+      </c>
+      <c r="D193" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B194" s="1">
+        <f t="shared" si="11"/>
+        <v>42836</v>
+      </c>
+      <c r="C194" t="s">
+        <v>0</v>
+      </c>
+      <c r="D194" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B195" s="1">
+        <f t="shared" si="11"/>
+        <v>42837</v>
+      </c>
+      <c r="C195" t="s">
+        <v>0</v>
+      </c>
+      <c r="D195" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="B196" s="1">
+        <f t="shared" si="11"/>
+        <v>42838</v>
+      </c>
+      <c r="C196" t="s">
+        <v>0</v>
+      </c>
+      <c r="D196" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="B197" s="1">
+        <f t="shared" si="11"/>
+        <v>42839</v>
+      </c>
+      <c r="C197" t="s">
+        <v>0</v>
+      </c>
+      <c r="D197" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="B198" s="1">
+        <f t="shared" si="11"/>
+        <v>42840</v>
+      </c>
+      <c r="C198" t="s">
+        <v>0</v>
+      </c>
+      <c r="D198" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="B199" s="1">
+        <f t="shared" si="11"/>
+        <v>42841</v>
+      </c>
+      <c r="C199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D199" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B200" s="1">
+        <f t="shared" si="11"/>
+        <v>42842</v>
+      </c>
+      <c r="C200" t="s">
+        <v>0</v>
+      </c>
+      <c r="D200" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="B201" s="1">
+        <f t="shared" si="11"/>
+        <v>42843</v>
+      </c>
+      <c r="C201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D201" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="B202" s="1">
+        <f t="shared" si="11"/>
+        <v>42844</v>
+      </c>
+      <c r="C202" t="s">
+        <v>0</v>
+      </c>
+      <c r="D202" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="B203" s="1">
+        <f t="shared" si="11"/>
+        <v>42845</v>
+      </c>
+      <c r="C203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D203" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="B204" s="1">
+        <f t="shared" si="11"/>
+        <v>42846</v>
+      </c>
+      <c r="C204" t="s">
+        <v>0</v>
+      </c>
+      <c r="D204" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="B205" s="1">
+        <f t="shared" si="11"/>
+        <v>42847</v>
+      </c>
+      <c r="C205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D205" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="B206" s="1">
+        <f t="shared" si="11"/>
+        <v>42848</v>
+      </c>
+      <c r="C206" t="s">
+        <v>0</v>
+      </c>
+      <c r="D206" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="B207" s="1">
+        <f t="shared" si="11"/>
+        <v>42849</v>
+      </c>
+      <c r="C207" t="s">
+        <v>0</v>
+      </c>
+      <c r="D207" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <f t="shared" ref="A208:A271" si="12">+WEEKDAY(B208,2)</f>
+        <v>2</v>
+      </c>
+      <c r="B208" s="1">
+        <f t="shared" ref="B208:B271" si="13">+B207+1</f>
+        <v>42850</v>
+      </c>
+      <c r="C208" t="s">
+        <v>0</v>
+      </c>
+      <c r="D208" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="B209" s="1">
+        <f t="shared" si="13"/>
+        <v>42851</v>
+      </c>
+      <c r="C209" t="s">
+        <v>0</v>
+      </c>
+      <c r="D209" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B210" s="1">
+        <f t="shared" si="13"/>
+        <v>42852</v>
+      </c>
+      <c r="C210" t="s">
+        <v>0</v>
+      </c>
+      <c r="D210" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B211" s="1">
+        <f t="shared" si="13"/>
+        <v>42853</v>
+      </c>
+      <c r="C211" t="s">
+        <v>0</v>
+      </c>
+      <c r="D211" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="B212" s="1">
+        <f t="shared" si="13"/>
+        <v>42854</v>
+      </c>
+      <c r="C212" t="s">
+        <v>0</v>
+      </c>
+      <c r="D212" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="B213" s="1">
+        <f t="shared" si="13"/>
+        <v>42855</v>
+      </c>
+      <c r="C213" t="s">
+        <v>0</v>
+      </c>
+      <c r="D213" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="B214" s="1">
+        <f t="shared" si="13"/>
+        <v>42856</v>
+      </c>
+      <c r="C214" t="s">
+        <v>0</v>
+      </c>
+      <c r="D214" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="B215" s="1">
+        <f t="shared" si="13"/>
+        <v>42857</v>
+      </c>
+      <c r="C215" t="s">
+        <v>0</v>
+      </c>
+      <c r="D215" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="B216" s="1">
+        <f t="shared" si="13"/>
+        <v>42858</v>
+      </c>
+      <c r="C216" t="s">
+        <v>0</v>
+      </c>
+      <c r="D216" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B217" s="1">
+        <f t="shared" si="13"/>
+        <v>42859</v>
+      </c>
+      <c r="C217" t="s">
+        <v>0</v>
+      </c>
+      <c r="D217" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B218" s="1">
+        <f t="shared" si="13"/>
+        <v>42860</v>
+      </c>
+      <c r="C218" t="s">
+        <v>0</v>
+      </c>
+      <c r="D218" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="B219" s="1">
+        <f t="shared" si="13"/>
+        <v>42861</v>
+      </c>
+      <c r="C219" t="s">
+        <v>0</v>
+      </c>
+      <c r="D219" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="B220" s="1">
+        <f t="shared" si="13"/>
+        <v>42862</v>
+      </c>
+      <c r="C220" t="s">
+        <v>0</v>
+      </c>
+      <c r="D220" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="B221" s="1">
+        <f t="shared" si="13"/>
+        <v>42863</v>
+      </c>
+      <c r="C221" t="s">
+        <v>0</v>
+      </c>
+      <c r="D221" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="B222" s="1">
+        <f t="shared" si="13"/>
+        <v>42864</v>
+      </c>
+      <c r="C222" t="s">
+        <v>0</v>
+      </c>
+      <c r="D222" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="B223" s="1">
+        <f t="shared" si="13"/>
+        <v>42865</v>
+      </c>
+      <c r="C223" t="s">
+        <v>0</v>
+      </c>
+      <c r="D223" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B224" s="1">
+        <f t="shared" si="13"/>
+        <v>42866</v>
+      </c>
+      <c r="C224" t="s">
+        <v>0</v>
+      </c>
+      <c r="D224" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B225" s="1">
+        <f t="shared" si="13"/>
+        <v>42867</v>
+      </c>
+      <c r="C225" t="s">
+        <v>0</v>
+      </c>
+      <c r="D225" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="B226" s="1">
+        <f t="shared" si="13"/>
+        <v>42868</v>
+      </c>
+      <c r="C226" t="s">
+        <v>0</v>
+      </c>
+      <c r="D226" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="B227" s="1">
+        <f t="shared" si="13"/>
+        <v>42869</v>
+      </c>
+      <c r="C227" t="s">
+        <v>0</v>
+      </c>
+      <c r="D227" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="B228" s="1">
+        <f t="shared" si="13"/>
+        <v>42870</v>
+      </c>
+      <c r="C228" t="s">
+        <v>0</v>
+      </c>
+      <c r="D228" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="B229" s="1">
+        <f t="shared" si="13"/>
+        <v>42871</v>
+      </c>
+      <c r="C229" t="s">
+        <v>0</v>
+      </c>
+      <c r="D229" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="B230" s="1">
+        <f t="shared" si="13"/>
+        <v>42872</v>
+      </c>
+      <c r="C230" t="s">
+        <v>0</v>
+      </c>
+      <c r="D230" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B231" s="1">
+        <f t="shared" si="13"/>
+        <v>42873</v>
+      </c>
+      <c r="C231" t="s">
+        <v>0</v>
+      </c>
+      <c r="D231" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B232" s="1">
+        <f t="shared" si="13"/>
+        <v>42874</v>
+      </c>
+      <c r="C232" t="s">
+        <v>0</v>
+      </c>
+      <c r="D232" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="B233" s="1">
+        <f t="shared" si="13"/>
+        <v>42875</v>
+      </c>
+      <c r="C233" t="s">
+        <v>0</v>
+      </c>
+      <c r="D233" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="B234" s="1">
+        <f t="shared" si="13"/>
+        <v>42876</v>
+      </c>
+      <c r="C234" t="s">
+        <v>0</v>
+      </c>
+      <c r="D234" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="B235" s="1">
+        <f t="shared" si="13"/>
+        <v>42877</v>
+      </c>
+      <c r="C235" t="s">
+        <v>0</v>
+      </c>
+      <c r="D235" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="B236" s="1">
+        <f t="shared" si="13"/>
+        <v>42878</v>
+      </c>
+      <c r="C236" t="s">
+        <v>0</v>
+      </c>
+      <c r="D236" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="B237" s="1">
+        <f t="shared" si="13"/>
+        <v>42879</v>
+      </c>
+      <c r="C237" t="s">
+        <v>0</v>
+      </c>
+      <c r="D237" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B238" s="1">
+        <f t="shared" si="13"/>
+        <v>42880</v>
+      </c>
+      <c r="C238" t="s">
+        <v>0</v>
+      </c>
+      <c r="D238" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B239" s="1">
+        <f t="shared" si="13"/>
+        <v>42881</v>
+      </c>
+      <c r="C239" t="s">
+        <v>0</v>
+      </c>
+      <c r="D239" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="B240" s="1">
+        <f t="shared" si="13"/>
+        <v>42882</v>
+      </c>
+      <c r="C240" t="s">
+        <v>0</v>
+      </c>
+      <c r="D240" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="B241" s="1">
+        <f t="shared" si="13"/>
+        <v>42883</v>
+      </c>
+      <c r="C241" t="s">
+        <v>0</v>
+      </c>
+      <c r="D241" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="B242" s="1">
+        <f t="shared" si="13"/>
+        <v>42884</v>
+      </c>
+      <c r="C242" t="s">
+        <v>0</v>
+      </c>
+      <c r="D242" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="B243" s="1">
+        <f t="shared" si="13"/>
+        <v>42885</v>
+      </c>
+      <c r="C243" t="s">
+        <v>0</v>
+      </c>
+      <c r="D243" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="B244" s="1">
+        <f t="shared" si="13"/>
+        <v>42886</v>
+      </c>
+      <c r="C244" t="s">
+        <v>0</v>
+      </c>
+      <c r="D244" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B245" s="1">
+        <f t="shared" si="13"/>
+        <v>42887</v>
+      </c>
+      <c r="C245" t="s">
+        <v>0</v>
+      </c>
+      <c r="D245" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B246" s="1">
+        <f t="shared" si="13"/>
+        <v>42888</v>
+      </c>
+      <c r="C246" t="s">
+        <v>0</v>
+      </c>
+      <c r="D246" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="B247" s="1">
+        <f t="shared" si="13"/>
+        <v>42889</v>
+      </c>
+      <c r="C247" t="s">
+        <v>0</v>
+      </c>
+      <c r="D247" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="B248" s="1">
+        <f t="shared" si="13"/>
+        <v>42890</v>
+      </c>
+      <c r="C248" t="s">
+        <v>0</v>
+      </c>
+      <c r="D248" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="B249" s="1">
+        <f t="shared" si="13"/>
+        <v>42891</v>
+      </c>
+      <c r="C249" t="s">
+        <v>0</v>
+      </c>
+      <c r="D249" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="B250" s="1">
+        <f t="shared" si="13"/>
+        <v>42892</v>
+      </c>
+      <c r="C250" t="s">
+        <v>0</v>
+      </c>
+      <c r="D250" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="B251" s="1">
+        <f t="shared" si="13"/>
+        <v>42893</v>
+      </c>
+      <c r="C251" t="s">
+        <v>0</v>
+      </c>
+      <c r="D251" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B252" s="1">
+        <f t="shared" si="13"/>
+        <v>42894</v>
+      </c>
+      <c r="C252" t="s">
+        <v>0</v>
+      </c>
+      <c r="D252" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B253" s="1">
+        <f t="shared" si="13"/>
+        <v>42895</v>
+      </c>
+      <c r="C253" t="s">
+        <v>0</v>
+      </c>
+      <c r="D253" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="B254" s="1">
+        <f t="shared" si="13"/>
+        <v>42896</v>
+      </c>
+      <c r="C254" t="s">
+        <v>0</v>
+      </c>
+      <c r="D254" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="B255" s="1">
+        <f t="shared" si="13"/>
+        <v>42897</v>
+      </c>
+      <c r="C255" t="s">
+        <v>0</v>
+      </c>
+      <c r="D255" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="B256" s="1">
+        <f t="shared" si="13"/>
+        <v>42898</v>
+      </c>
+      <c r="C256" t="s">
+        <v>0</v>
+      </c>
+      <c r="D256" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="B257" s="1">
+        <f t="shared" si="13"/>
+        <v>42899</v>
+      </c>
+      <c r="C257" t="s">
+        <v>0</v>
+      </c>
+      <c r="D257" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="B258" s="1">
+        <f t="shared" si="13"/>
+        <v>42900</v>
+      </c>
+      <c r="C258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D258" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B259" s="1">
+        <f t="shared" si="13"/>
+        <v>42901</v>
+      </c>
+      <c r="C259" t="s">
+        <v>0</v>
+      </c>
+      <c r="D259" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B260" s="1">
+        <f t="shared" si="13"/>
+        <v>42902</v>
+      </c>
+      <c r="C260" t="s">
+        <v>0</v>
+      </c>
+      <c r="D260" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="B261" s="1">
+        <f t="shared" si="13"/>
+        <v>42903</v>
+      </c>
+      <c r="C261" t="s">
+        <v>0</v>
+      </c>
+      <c r="D261" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="B262" s="1">
+        <f t="shared" si="13"/>
+        <v>42904</v>
+      </c>
+      <c r="C262" t="s">
+        <v>0</v>
+      </c>
+      <c r="D262" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="B263" s="1">
+        <f t="shared" si="13"/>
+        <v>42905</v>
+      </c>
+      <c r="C263" t="s">
+        <v>0</v>
+      </c>
+      <c r="D263" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="B264" s="1">
+        <f t="shared" si="13"/>
+        <v>42906</v>
+      </c>
+      <c r="C264" t="s">
+        <v>0</v>
+      </c>
+      <c r="D264" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="B265" s="1">
+        <f t="shared" si="13"/>
+        <v>42907</v>
+      </c>
+      <c r="C265" t="s">
+        <v>0</v>
+      </c>
+      <c r="D265" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B266" s="1">
+        <f t="shared" si="13"/>
+        <v>42908</v>
+      </c>
+      <c r="C266" t="s">
+        <v>0</v>
+      </c>
+      <c r="D266" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B267" s="1">
+        <f t="shared" si="13"/>
+        <v>42909</v>
+      </c>
+      <c r="C267" t="s">
+        <v>0</v>
+      </c>
+      <c r="D267" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="B268" s="1">
+        <f t="shared" si="13"/>
+        <v>42910</v>
+      </c>
+      <c r="C268" t="s">
+        <v>0</v>
+      </c>
+      <c r="D268" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="B269" s="1">
+        <f t="shared" si="13"/>
+        <v>42911</v>
+      </c>
+      <c r="C269" t="s">
+        <v>0</v>
+      </c>
+      <c r="D269" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="B270" s="1">
+        <f t="shared" si="13"/>
+        <v>42912</v>
+      </c>
+      <c r="C270" t="s">
+        <v>0</v>
+      </c>
+      <c r="D270" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="B271" s="1">
+        <f t="shared" si="13"/>
+        <v>42913</v>
+      </c>
+      <c r="C271" t="s">
+        <v>0</v>
+      </c>
+      <c r="D271" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <f t="shared" ref="A272:A335" si="14">+WEEKDAY(B272,2)</f>
+        <v>3</v>
+      </c>
+      <c r="B272" s="1">
+        <f t="shared" ref="B272:B312" si="15">+B271+1</f>
+        <v>42914</v>
+      </c>
+      <c r="C272" t="s">
+        <v>0</v>
+      </c>
+      <c r="D272" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="B273" s="1">
+        <f t="shared" si="15"/>
+        <v>42915</v>
+      </c>
+      <c r="C273" t="s">
+        <v>0</v>
+      </c>
+      <c r="D273" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="B274" s="1">
+        <f t="shared" si="15"/>
+        <v>42916</v>
+      </c>
+      <c r="C274" t="s">
+        <v>0</v>
+      </c>
+      <c r="D274" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B275" s="1">
+        <f t="shared" si="15"/>
+        <v>42917</v>
+      </c>
+      <c r="C275" t="s">
+        <v>0</v>
+      </c>
+      <c r="D275" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B276" s="1">
+        <f t="shared" si="15"/>
+        <v>42918</v>
+      </c>
+      <c r="C276" t="s">
+        <v>0</v>
+      </c>
+      <c r="D276" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="B277" s="1">
+        <f t="shared" si="15"/>
+        <v>42919</v>
+      </c>
+      <c r="C277" t="s">
+        <v>0</v>
+      </c>
+      <c r="D277" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="B278" s="1">
+        <f t="shared" si="15"/>
+        <v>42920</v>
+      </c>
+      <c r="C278" t="s">
+        <v>0</v>
+      </c>
+      <c r="D278" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="B279" s="1">
+        <f t="shared" si="15"/>
+        <v>42921</v>
+      </c>
+      <c r="C279" t="s">
+        <v>0</v>
+      </c>
+      <c r="D279" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="B280" s="1">
+        <f t="shared" si="15"/>
+        <v>42922</v>
+      </c>
+      <c r="C280" t="s">
+        <v>0</v>
+      </c>
+      <c r="D280" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="B281" s="1">
+        <f t="shared" si="15"/>
+        <v>42923</v>
+      </c>
+      <c r="C281" t="s">
+        <v>0</v>
+      </c>
+      <c r="D281" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B282" s="1">
+        <f t="shared" si="15"/>
+        <v>42924</v>
+      </c>
+      <c r="C282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D282" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B283" s="1">
+        <f t="shared" si="15"/>
+        <v>42925</v>
+      </c>
+      <c r="C283" t="s">
+        <v>0</v>
+      </c>
+      <c r="D283" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="B284" s="1">
+        <f t="shared" si="15"/>
+        <v>42926</v>
+      </c>
+      <c r="C284" t="s">
+        <v>0</v>
+      </c>
+      <c r="D284" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="B285" s="1">
+        <f t="shared" si="15"/>
+        <v>42927</v>
+      </c>
+      <c r="C285" t="s">
+        <v>0</v>
+      </c>
+      <c r="D285" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="B286" s="1">
+        <f t="shared" si="15"/>
+        <v>42928</v>
+      </c>
+      <c r="C286" t="s">
+        <v>0</v>
+      </c>
+      <c r="D286" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="B287" s="1">
+        <f t="shared" si="15"/>
+        <v>42929</v>
+      </c>
+      <c r="C287" t="s">
+        <v>0</v>
+      </c>
+      <c r="D287" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="B288" s="1">
+        <f t="shared" si="15"/>
+        <v>42930</v>
+      </c>
+      <c r="C288" t="s">
+        <v>0</v>
+      </c>
+      <c r="D288" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B289" s="1">
+        <f t="shared" si="15"/>
+        <v>42931</v>
+      </c>
+      <c r="C289" t="s">
+        <v>0</v>
+      </c>
+      <c r="D289" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B290" s="1">
+        <f t="shared" si="15"/>
+        <v>42932</v>
+      </c>
+      <c r="C290" t="s">
+        <v>0</v>
+      </c>
+      <c r="D290" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="B291" s="1">
+        <f t="shared" si="15"/>
+        <v>42933</v>
+      </c>
+      <c r="C291" t="s">
+        <v>0</v>
+      </c>
+      <c r="D291" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="B292" s="1">
+        <f t="shared" si="15"/>
+        <v>42934</v>
+      </c>
+      <c r="C292" t="s">
+        <v>0</v>
+      </c>
+      <c r="D292" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="B293" s="1">
+        <f t="shared" si="15"/>
+        <v>42935</v>
+      </c>
+      <c r="C293" t="s">
+        <v>0</v>
+      </c>
+      <c r="D293" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="B294" s="1">
+        <f t="shared" si="15"/>
+        <v>42936</v>
+      </c>
+      <c r="C294" t="s">
+        <v>0</v>
+      </c>
+      <c r="D294" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="B295" s="1">
+        <f t="shared" si="15"/>
+        <v>42937</v>
+      </c>
+      <c r="C295" t="s">
+        <v>0</v>
+      </c>
+      <c r="D295" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B296" s="1">
+        <f t="shared" si="15"/>
+        <v>42938</v>
+      </c>
+      <c r="C296" t="s">
+        <v>0</v>
+      </c>
+      <c r="D296" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B297" s="1">
+        <f t="shared" si="15"/>
+        <v>42939</v>
+      </c>
+      <c r="C297" t="s">
+        <v>0</v>
+      </c>
+      <c r="D297" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="B298" s="1">
+        <f t="shared" si="15"/>
+        <v>42940</v>
+      </c>
+      <c r="C298" t="s">
+        <v>0</v>
+      </c>
+      <c r="D298" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="B299" s="1">
+        <f t="shared" si="15"/>
+        <v>42941</v>
+      </c>
+      <c r="C299" t="s">
+        <v>0</v>
+      </c>
+      <c r="D299" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="B300" s="1">
+        <f t="shared" si="15"/>
+        <v>42942</v>
+      </c>
+      <c r="C300" t="s">
+        <v>0</v>
+      </c>
+      <c r="D300" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="B301" s="1">
+        <f t="shared" si="15"/>
+        <v>42943</v>
+      </c>
+      <c r="C301" t="s">
+        <v>0</v>
+      </c>
+      <c r="D301" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="B302" s="1">
+        <f t="shared" si="15"/>
+        <v>42944</v>
+      </c>
+      <c r="C302" t="s">
+        <v>0</v>
+      </c>
+      <c r="D302" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B303" s="1">
+        <f t="shared" si="15"/>
+        <v>42945</v>
+      </c>
+      <c r="C303" t="s">
+        <v>0</v>
+      </c>
+      <c r="D303" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B304" s="1">
+        <f t="shared" si="15"/>
+        <v>42946</v>
+      </c>
+      <c r="C304" t="s">
+        <v>0</v>
+      </c>
+      <c r="D304" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="B305" s="1">
+        <f t="shared" si="15"/>
+        <v>42947</v>
+      </c>
+      <c r="C305" t="s">
+        <v>0</v>
+      </c>
+      <c r="D305" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="B306" s="1">
+        <f t="shared" si="15"/>
+        <v>42948</v>
+      </c>
+      <c r="C306" t="s">
+        <v>0</v>
+      </c>
+      <c r="D306" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="B307" s="1">
+        <f t="shared" si="15"/>
+        <v>42949</v>
+      </c>
+      <c r="C307" t="s">
+        <v>0</v>
+      </c>
+      <c r="D307" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="B308" s="1">
+        <f t="shared" si="15"/>
+        <v>42950</v>
+      </c>
+      <c r="C308" t="s">
+        <v>0</v>
+      </c>
+      <c r="D308" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="B309" s="1">
+        <f t="shared" si="15"/>
+        <v>42951</v>
+      </c>
+      <c r="C309" t="s">
+        <v>0</v>
+      </c>
+      <c r="D309" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B310" s="1">
+        <f t="shared" si="15"/>
+        <v>42952</v>
+      </c>
+      <c r="C310" t="s">
+        <v>0</v>
+      </c>
+      <c r="D310" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B311" s="1">
+        <f t="shared" si="15"/>
+        <v>42953</v>
+      </c>
+      <c r="C311" t="s">
+        <v>0</v>
+      </c>
+      <c r="D311" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="B312" s="1">
+        <f t="shared" si="15"/>
+        <v>42954</v>
+      </c>
+      <c r="C312" t="s">
+        <v>0</v>
+      </c>
+      <c r="D312" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="B313" s="1">
+        <f>+B312+1</f>
+        <v>42955</v>
+      </c>
+      <c r="C313" t="s">
+        <v>0</v>
+      </c>
+      <c r="D313" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="B314" s="1">
+        <f t="shared" ref="B314:B377" si="16">+B313+1</f>
+        <v>42956</v>
+      </c>
+      <c r="C314" t="s">
+        <v>0</v>
+      </c>
+      <c r="D314" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="B315" s="1">
+        <f t="shared" si="16"/>
+        <v>42957</v>
+      </c>
+      <c r="C315" t="s">
+        <v>0</v>
+      </c>
+      <c r="D315" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="B316" s="1">
+        <f t="shared" si="16"/>
+        <v>42958</v>
+      </c>
+      <c r="C316" t="s">
+        <v>0</v>
+      </c>
+      <c r="D316" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B317" s="1">
+        <f t="shared" si="16"/>
+        <v>42959</v>
+      </c>
+      <c r="C317" t="s">
+        <v>0</v>
+      </c>
+      <c r="D317" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B318" s="1">
+        <f t="shared" si="16"/>
+        <v>42960</v>
+      </c>
+      <c r="C318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D318" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="B319" s="1">
+        <f t="shared" si="16"/>
+        <v>42961</v>
+      </c>
+      <c r="C319" t="s">
+        <v>0</v>
+      </c>
+      <c r="D319" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="B320" s="1">
+        <f t="shared" si="16"/>
+        <v>42962</v>
+      </c>
+      <c r="C320" t="s">
+        <v>0</v>
+      </c>
+      <c r="D320" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="B321" s="1">
+        <f t="shared" si="16"/>
+        <v>42963</v>
+      </c>
+      <c r="C321" t="s">
+        <v>0</v>
+      </c>
+      <c r="D321" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="B322" s="1">
+        <f t="shared" si="16"/>
+        <v>42964</v>
+      </c>
+      <c r="C322" t="s">
+        <v>0</v>
+      </c>
+      <c r="D322" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="B323" s="1">
+        <f t="shared" si="16"/>
+        <v>42965</v>
+      </c>
+      <c r="C323" t="s">
+        <v>0</v>
+      </c>
+      <c r="D323" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B324" s="1">
+        <f t="shared" si="16"/>
+        <v>42966</v>
+      </c>
+      <c r="C324" t="s">
+        <v>0</v>
+      </c>
+      <c r="D324" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B325" s="1">
+        <f t="shared" si="16"/>
+        <v>42967</v>
+      </c>
+      <c r="C325" t="s">
+        <v>0</v>
+      </c>
+      <c r="D325" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="B326" s="1">
+        <f t="shared" si="16"/>
+        <v>42968</v>
+      </c>
+      <c r="C326" t="s">
+        <v>0</v>
+      </c>
+      <c r="D326" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="B327" s="1">
+        <f t="shared" si="16"/>
+        <v>42969</v>
+      </c>
+      <c r="C327" t="s">
+        <v>0</v>
+      </c>
+      <c r="D327" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="B328" s="1">
+        <f t="shared" si="16"/>
+        <v>42970</v>
+      </c>
+      <c r="C328" t="s">
+        <v>0</v>
+      </c>
+      <c r="D328" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="B329" s="1">
+        <f t="shared" si="16"/>
+        <v>42971</v>
+      </c>
+      <c r="C329" t="s">
+        <v>0</v>
+      </c>
+      <c r="D329" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="B330" s="1">
+        <f t="shared" si="16"/>
+        <v>42972</v>
+      </c>
+      <c r="C330" t="s">
+        <v>0</v>
+      </c>
+      <c r="D330" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="B331" s="1">
+        <f t="shared" si="16"/>
+        <v>42973</v>
+      </c>
+      <c r="C331" t="s">
+        <v>0</v>
+      </c>
+      <c r="D331" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="B332" s="1">
+        <f t="shared" si="16"/>
+        <v>42974</v>
+      </c>
+      <c r="C332" t="s">
+        <v>0</v>
+      </c>
+      <c r="D332" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="B333" s="1">
+        <f t="shared" si="16"/>
+        <v>42975</v>
+      </c>
+      <c r="C333" t="s">
+        <v>0</v>
+      </c>
+      <c r="D333" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="B334" s="1">
+        <f t="shared" si="16"/>
+        <v>42976</v>
+      </c>
+      <c r="C334" t="s">
+        <v>0</v>
+      </c>
+      <c r="D334" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="B335" s="1">
+        <f t="shared" si="16"/>
+        <v>42977</v>
+      </c>
+      <c r="C335" t="s">
+        <v>0</v>
+      </c>
+      <c r="D335" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <f t="shared" ref="A336:A399" si="17">+WEEKDAY(B336,2)</f>
+        <v>4</v>
+      </c>
+      <c r="B336" s="1">
+        <f t="shared" si="16"/>
+        <v>42978</v>
+      </c>
+      <c r="C336" t="s">
+        <v>0</v>
+      </c>
+      <c r="D336" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="B337" s="1">
+        <f t="shared" si="16"/>
+        <v>42979</v>
+      </c>
+      <c r="C337" t="s">
+        <v>0</v>
+      </c>
+      <c r="D337" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="B338" s="1">
+        <f t="shared" si="16"/>
+        <v>42980</v>
+      </c>
+      <c r="C338" t="s">
+        <v>0</v>
+      </c>
+      <c r="D338" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="B339" s="1">
+        <f t="shared" si="16"/>
+        <v>42981</v>
+      </c>
+      <c r="C339" t="s">
+        <v>0</v>
+      </c>
+      <c r="D339" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B340" s="1">
+        <f t="shared" si="16"/>
+        <v>42982</v>
+      </c>
+      <c r="C340" t="s">
+        <v>0</v>
+      </c>
+      <c r="D340" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="B341" s="1">
+        <f t="shared" si="16"/>
+        <v>42983</v>
+      </c>
+      <c r="C341" t="s">
+        <v>0</v>
+      </c>
+      <c r="D341" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="B342" s="1">
+        <f t="shared" si="16"/>
+        <v>42984</v>
+      </c>
+      <c r="C342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D342" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="B343" s="1">
+        <f t="shared" si="16"/>
+        <v>42985</v>
+      </c>
+      <c r="C343" t="s">
+        <v>0</v>
+      </c>
+      <c r="D343" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="B344" s="1">
+        <f t="shared" si="16"/>
+        <v>42986</v>
+      </c>
+      <c r="C344" t="s">
+        <v>0</v>
+      </c>
+      <c r="D344" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="B345" s="1">
+        <f t="shared" si="16"/>
+        <v>42987</v>
+      </c>
+      <c r="C345" t="s">
+        <v>0</v>
+      </c>
+      <c r="D345" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="B346" s="1">
+        <f t="shared" si="16"/>
+        <v>42988</v>
+      </c>
+      <c r="C346" t="s">
+        <v>0</v>
+      </c>
+      <c r="D346" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B347" s="1">
+        <f t="shared" si="16"/>
+        <v>42989</v>
+      </c>
+      <c r="C347" t="s">
+        <v>0</v>
+      </c>
+      <c r="D347" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="B348" s="1">
+        <f t="shared" si="16"/>
+        <v>42990</v>
+      </c>
+      <c r="C348" t="s">
+        <v>0</v>
+      </c>
+      <c r="D348" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="B349" s="1">
+        <f t="shared" si="16"/>
+        <v>42991</v>
+      </c>
+      <c r="C349" t="s">
+        <v>0</v>
+      </c>
+      <c r="D349" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="B350" s="1">
+        <f t="shared" si="16"/>
+        <v>42992</v>
+      </c>
+      <c r="C350" t="s">
+        <v>0</v>
+      </c>
+      <c r="D350" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="B351" s="1">
+        <f t="shared" si="16"/>
+        <v>42993</v>
+      </c>
+      <c r="C351" t="s">
+        <v>0</v>
+      </c>
+      <c r="D351" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="B352" s="1">
+        <f t="shared" si="16"/>
+        <v>42994</v>
+      </c>
+      <c r="C352" t="s">
+        <v>0</v>
+      </c>
+      <c r="D352" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="B353" s="1">
+        <f t="shared" si="16"/>
+        <v>42995</v>
+      </c>
+      <c r="C353" t="s">
+        <v>0</v>
+      </c>
+      <c r="D353" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B354" s="1">
+        <f t="shared" si="16"/>
+        <v>42996</v>
+      </c>
+      <c r="C354" t="s">
+        <v>0</v>
+      </c>
+      <c r="D354" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="B355" s="1">
+        <f t="shared" si="16"/>
+        <v>42997</v>
+      </c>
+      <c r="C355" t="s">
+        <v>0</v>
+      </c>
+      <c r="D355" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="B356" s="1">
+        <f t="shared" si="16"/>
+        <v>42998</v>
+      </c>
+      <c r="C356" t="s">
+        <v>0</v>
+      </c>
+      <c r="D356" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="B357" s="1">
+        <f t="shared" si="16"/>
+        <v>42999</v>
+      </c>
+      <c r="C357" t="s">
+        <v>0</v>
+      </c>
+      <c r="D357" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="B358" s="1">
+        <f t="shared" si="16"/>
+        <v>43000</v>
+      </c>
+      <c r="C358" t="s">
+        <v>0</v>
+      </c>
+      <c r="D358" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="B359" s="1">
+        <f t="shared" si="16"/>
+        <v>43001</v>
+      </c>
+      <c r="C359" t="s">
+        <v>0</v>
+      </c>
+      <c r="D359" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="B360" s="1">
+        <f t="shared" si="16"/>
+        <v>43002</v>
+      </c>
+      <c r="C360" t="s">
+        <v>0</v>
+      </c>
+      <c r="D360" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B361" s="1">
+        <f t="shared" si="16"/>
+        <v>43003</v>
+      </c>
+      <c r="C361" t="s">
+        <v>0</v>
+      </c>
+      <c r="D361" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="B362" s="1">
+        <f t="shared" si="16"/>
+        <v>43004</v>
+      </c>
+      <c r="C362" t="s">
+        <v>0</v>
+      </c>
+      <c r="D362" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="B363" s="1">
+        <f t="shared" si="16"/>
+        <v>43005</v>
+      </c>
+      <c r="C363" t="s">
+        <v>0</v>
+      </c>
+      <c r="D363" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="B364" s="1">
+        <f t="shared" si="16"/>
+        <v>43006</v>
+      </c>
+      <c r="C364" t="s">
+        <v>0</v>
+      </c>
+      <c r="D364" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="B365" s="1">
+        <f t="shared" si="16"/>
+        <v>43007</v>
+      </c>
+      <c r="C365" t="s">
+        <v>0</v>
+      </c>
+      <c r="D365" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="B366" s="1">
+        <f t="shared" si="16"/>
+        <v>43008</v>
+      </c>
+      <c r="C366" t="s">
+        <v>0</v>
+      </c>
+      <c r="D366" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="B367" s="1">
+        <f t="shared" si="16"/>
+        <v>43009</v>
+      </c>
+      <c r="C367" t="s">
+        <v>0</v>
+      </c>
+      <c r="D367" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B368" s="1">
+        <f t="shared" si="16"/>
+        <v>43010</v>
+      </c>
+      <c r="C368" t="s">
+        <v>0</v>
+      </c>
+      <c r="D368" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="B369" s="1">
+        <f t="shared" si="16"/>
+        <v>43011</v>
+      </c>
+      <c r="C369" t="s">
+        <v>0</v>
+      </c>
+      <c r="D369" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="B370" s="1">
+        <f t="shared" si="16"/>
+        <v>43012</v>
+      </c>
+      <c r="C370" t="s">
+        <v>0</v>
+      </c>
+      <c r="D370" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="B371" s="1">
+        <f t="shared" si="16"/>
+        <v>43013</v>
+      </c>
+      <c r="C371" t="s">
+        <v>0</v>
+      </c>
+      <c r="D371" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="B372" s="1">
+        <f t="shared" si="16"/>
+        <v>43014</v>
+      </c>
+      <c r="C372" t="s">
+        <v>0</v>
+      </c>
+      <c r="D372" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="B373" s="1">
+        <f t="shared" si="16"/>
+        <v>43015</v>
+      </c>
+      <c r="C373" t="s">
+        <v>0</v>
+      </c>
+      <c r="D373" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="B374" s="1">
+        <f t="shared" si="16"/>
+        <v>43016</v>
+      </c>
+      <c r="C374" t="s">
+        <v>0</v>
+      </c>
+      <c r="D374" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B375" s="1">
+        <f t="shared" si="16"/>
+        <v>43017</v>
+      </c>
+      <c r="C375" t="s">
+        <v>0</v>
+      </c>
+      <c r="D375" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="B376" s="1">
+        <f t="shared" si="16"/>
+        <v>43018</v>
+      </c>
+      <c r="C376" t="s">
+        <v>0</v>
+      </c>
+      <c r="D376" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="B377" s="1">
+        <f t="shared" si="16"/>
+        <v>43019</v>
+      </c>
+      <c r="C377" t="s">
+        <v>0</v>
+      </c>
+      <c r="D377" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="B378" s="1">
+        <f t="shared" ref="B378:B441" si="18">+B377+1</f>
+        <v>43020</v>
+      </c>
+      <c r="C378" t="s">
+        <v>0</v>
+      </c>
+      <c r="D378" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="B379" s="1">
+        <f t="shared" si="18"/>
+        <v>43021</v>
+      </c>
+      <c r="C379" t="s">
+        <v>0</v>
+      </c>
+      <c r="D379" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="B380" s="1">
+        <f t="shared" si="18"/>
+        <v>43022</v>
+      </c>
+      <c r="C380" t="s">
+        <v>0</v>
+      </c>
+      <c r="D380" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="B381" s="1">
+        <f t="shared" si="18"/>
+        <v>43023</v>
+      </c>
+      <c r="C381" t="s">
+        <v>0</v>
+      </c>
+      <c r="D381" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B382" s="1">
+        <f t="shared" si="18"/>
+        <v>43024</v>
+      </c>
+      <c r="C382" t="s">
+        <v>0</v>
+      </c>
+      <c r="D382" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="B383" s="1">
+        <f t="shared" si="18"/>
+        <v>43025</v>
+      </c>
+      <c r="C383" t="s">
+        <v>0</v>
+      </c>
+      <c r="D383" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="B384" s="1">
+        <f t="shared" si="18"/>
+        <v>43026</v>
+      </c>
+      <c r="C384" t="s">
+        <v>0</v>
+      </c>
+      <c r="D384" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="B385" s="1">
+        <f t="shared" si="18"/>
+        <v>43027</v>
+      </c>
+      <c r="C385" t="s">
+        <v>0</v>
+      </c>
+      <c r="D385" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="B386" s="1">
+        <f t="shared" si="18"/>
+        <v>43028</v>
+      </c>
+      <c r="C386" t="s">
+        <v>0</v>
+      </c>
+      <c r="D386" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="B387" s="1">
+        <f t="shared" si="18"/>
+        <v>43029</v>
+      </c>
+      <c r="C387" t="s">
+        <v>0</v>
+      </c>
+      <c r="D387" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="B388" s="1">
+        <f t="shared" si="18"/>
+        <v>43030</v>
+      </c>
+      <c r="C388" t="s">
+        <v>0</v>
+      </c>
+      <c r="D388" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B389" s="1">
+        <f t="shared" si="18"/>
+        <v>43031</v>
+      </c>
+      <c r="C389" t="s">
+        <v>0</v>
+      </c>
+      <c r="D389" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="B390" s="1">
+        <f t="shared" si="18"/>
+        <v>43032</v>
+      </c>
+      <c r="C390" t="s">
+        <v>0</v>
+      </c>
+      <c r="D390" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="B391" s="1">
+        <f t="shared" si="18"/>
+        <v>43033</v>
+      </c>
+      <c r="C391" t="s">
+        <v>0</v>
+      </c>
+      <c r="D391" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="B392" s="1">
+        <f t="shared" si="18"/>
+        <v>43034</v>
+      </c>
+      <c r="C392" t="s">
+        <v>0</v>
+      </c>
+      <c r="D392" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="B393" s="1">
+        <f t="shared" si="18"/>
+        <v>43035</v>
+      </c>
+      <c r="C393" t="s">
+        <v>0</v>
+      </c>
+      <c r="D393" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="B394" s="1">
+        <f t="shared" si="18"/>
+        <v>43036</v>
+      </c>
+      <c r="C394" t="s">
+        <v>0</v>
+      </c>
+      <c r="D394" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="B395" s="1">
+        <f t="shared" si="18"/>
+        <v>43037</v>
+      </c>
+      <c r="C395" t="s">
+        <v>0</v>
+      </c>
+      <c r="D395" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B396" s="1">
+        <f t="shared" si="18"/>
+        <v>43038</v>
+      </c>
+      <c r="C396" t="s">
+        <v>0</v>
+      </c>
+      <c r="D396" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="B397" s="1">
+        <f t="shared" si="18"/>
+        <v>43039</v>
+      </c>
+      <c r="C397" t="s">
+        <v>0</v>
+      </c>
+      <c r="D397" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="B398" s="1">
+        <f t="shared" si="18"/>
+        <v>43040</v>
+      </c>
+      <c r="C398" t="s">
+        <v>0</v>
+      </c>
+      <c r="D398" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="B399" s="1">
+        <f t="shared" si="18"/>
+        <v>43041</v>
+      </c>
+      <c r="C399" t="s">
+        <v>0</v>
+      </c>
+      <c r="D399" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <f t="shared" ref="A400:A463" si="19">+WEEKDAY(B400,2)</f>
+        <v>5</v>
+      </c>
+      <c r="B400" s="1">
+        <f t="shared" si="18"/>
+        <v>43042</v>
+      </c>
+      <c r="C400" t="s">
+        <v>0</v>
+      </c>
+      <c r="D400" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="B401" s="1">
+        <f t="shared" si="18"/>
+        <v>43043</v>
+      </c>
+      <c r="C401" t="s">
+        <v>0</v>
+      </c>
+      <c r="D401" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="B402" s="1">
+        <f t="shared" si="18"/>
+        <v>43044</v>
+      </c>
+      <c r="C402" t="s">
+        <v>0</v>
+      </c>
+      <c r="D402" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="B403" s="1">
+        <f t="shared" si="18"/>
+        <v>43045</v>
+      </c>
+      <c r="C403" t="s">
+        <v>0</v>
+      </c>
+      <c r="D403" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="B404" s="1">
+        <f t="shared" si="18"/>
+        <v>43046</v>
+      </c>
+      <c r="C404" t="s">
+        <v>0</v>
+      </c>
+      <c r="D404" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="B405" s="1">
+        <f t="shared" si="18"/>
+        <v>43047</v>
+      </c>
+      <c r="C405" t="s">
+        <v>0</v>
+      </c>
+      <c r="D405" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="B406" s="1">
+        <f t="shared" si="18"/>
+        <v>43048</v>
+      </c>
+      <c r="C406" t="s">
+        <v>0</v>
+      </c>
+      <c r="D406" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="B407" s="1">
+        <f t="shared" si="18"/>
+        <v>43049</v>
+      </c>
+      <c r="C407" t="s">
+        <v>0</v>
+      </c>
+      <c r="D407" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="B408" s="1">
+        <f t="shared" si="18"/>
+        <v>43050</v>
+      </c>
+      <c r="C408" t="s">
+        <v>0</v>
+      </c>
+      <c r="D408" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="B409" s="1">
+        <f t="shared" si="18"/>
+        <v>43051</v>
+      </c>
+      <c r="C409" t="s">
+        <v>0</v>
+      </c>
+      <c r="D409" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="B410" s="1">
+        <f t="shared" si="18"/>
+        <v>43052</v>
+      </c>
+      <c r="C410" t="s">
+        <v>0</v>
+      </c>
+      <c r="D410" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="B411" s="1">
+        <f t="shared" si="18"/>
+        <v>43053</v>
+      </c>
+      <c r="C411" t="s">
+        <v>0</v>
+      </c>
+      <c r="D411" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="B412" s="1">
+        <f t="shared" si="18"/>
+        <v>43054</v>
+      </c>
+      <c r="C412" t="s">
+        <v>0</v>
+      </c>
+      <c r="D412" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="B413" s="1">
+        <f t="shared" si="18"/>
+        <v>43055</v>
+      </c>
+      <c r="C413" t="s">
+        <v>0</v>
+      </c>
+      <c r="D413" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="B414" s="1">
+        <f t="shared" si="18"/>
+        <v>43056</v>
+      </c>
+      <c r="C414" t="s">
+        <v>0</v>
+      </c>
+      <c r="D414" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="B415" s="1">
+        <f t="shared" si="18"/>
+        <v>43057</v>
+      </c>
+      <c r="C415" t="s">
+        <v>0</v>
+      </c>
+      <c r="D415" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="B416" s="1">
+        <f t="shared" si="18"/>
+        <v>43058</v>
+      </c>
+      <c r="C416" t="s">
+        <v>0</v>
+      </c>
+      <c r="D416" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="B417" s="1">
+        <f t="shared" si="18"/>
+        <v>43059</v>
+      </c>
+      <c r="C417" t="s">
+        <v>0</v>
+      </c>
+      <c r="D417" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="B418" s="1">
+        <f t="shared" si="18"/>
+        <v>43060</v>
+      </c>
+      <c r="C418" t="s">
+        <v>0</v>
+      </c>
+      <c r="D418" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="B419" s="1">
+        <f t="shared" si="18"/>
+        <v>43061</v>
+      </c>
+      <c r="C419" t="s">
+        <v>0</v>
+      </c>
+      <c r="D419" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="B420" s="1">
+        <f t="shared" si="18"/>
+        <v>43062</v>
+      </c>
+      <c r="C420" t="s">
+        <v>0</v>
+      </c>
+      <c r="D420" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="B421" s="1">
+        <f t="shared" si="18"/>
+        <v>43063</v>
+      </c>
+      <c r="C421" t="s">
+        <v>0</v>
+      </c>
+      <c r="D421" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="B422" s="1">
+        <f t="shared" si="18"/>
+        <v>43064</v>
+      </c>
+      <c r="C422" t="s">
+        <v>0</v>
+      </c>
+      <c r="D422" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="B423" s="1">
+        <f t="shared" si="18"/>
+        <v>43065</v>
+      </c>
+      <c r="C423" t="s">
+        <v>0</v>
+      </c>
+      <c r="D423" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="B424" s="1">
+        <f t="shared" si="18"/>
+        <v>43066</v>
+      </c>
+      <c r="C424" t="s">
+        <v>0</v>
+      </c>
+      <c r="D424" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="B425" s="1">
+        <f t="shared" si="18"/>
+        <v>43067</v>
+      </c>
+      <c r="C425" t="s">
+        <v>0</v>
+      </c>
+      <c r="D425" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="B426" s="1">
+        <f t="shared" si="18"/>
+        <v>43068</v>
+      </c>
+      <c r="C426" t="s">
+        <v>0</v>
+      </c>
+      <c r="D426" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="B427" s="1">
+        <f t="shared" si="18"/>
+        <v>43069</v>
+      </c>
+      <c r="C427" t="s">
+        <v>0</v>
+      </c>
+      <c r="D427" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="B428" s="1">
+        <f t="shared" si="18"/>
+        <v>43070</v>
+      </c>
+      <c r="C428" t="s">
+        <v>0</v>
+      </c>
+      <c r="D428" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="B429" s="1">
+        <f t="shared" si="18"/>
+        <v>43071</v>
+      </c>
+      <c r="C429" t="s">
+        <v>0</v>
+      </c>
+      <c r="D429" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="B430" s="1">
+        <f t="shared" si="18"/>
+        <v>43072</v>
+      </c>
+      <c r="C430" t="s">
+        <v>0</v>
+      </c>
+      <c r="D430" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="B431" s="1">
+        <f t="shared" si="18"/>
+        <v>43073</v>
+      </c>
+      <c r="C431" t="s">
+        <v>0</v>
+      </c>
+      <c r="D431" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="B432" s="1">
+        <f t="shared" si="18"/>
+        <v>43074</v>
+      </c>
+      <c r="C432" t="s">
+        <v>0</v>
+      </c>
+      <c r="D432" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="B433" s="1">
+        <f t="shared" si="18"/>
+        <v>43075</v>
+      </c>
+      <c r="C433" t="s">
+        <v>0</v>
+      </c>
+      <c r="D433" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="B434" s="1">
+        <f t="shared" si="18"/>
+        <v>43076</v>
+      </c>
+      <c r="C434" t="s">
+        <v>0</v>
+      </c>
+      <c r="D434" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="B435" s="1">
+        <f t="shared" si="18"/>
+        <v>43077</v>
+      </c>
+      <c r="C435" t="s">
+        <v>0</v>
+      </c>
+      <c r="D435" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="B436" s="1">
+        <f t="shared" si="18"/>
+        <v>43078</v>
+      </c>
+      <c r="C436" t="s">
+        <v>0</v>
+      </c>
+      <c r="D436" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="B437" s="1">
+        <f t="shared" si="18"/>
+        <v>43079</v>
+      </c>
+      <c r="C437" t="s">
+        <v>0</v>
+      </c>
+      <c r="D437" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="B438" s="1">
+        <f t="shared" si="18"/>
+        <v>43080</v>
+      </c>
+      <c r="C438" t="s">
+        <v>0</v>
+      </c>
+      <c r="D438" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="B439" s="1">
+        <f t="shared" si="18"/>
+        <v>43081</v>
+      </c>
+      <c r="C439" t="s">
+        <v>0</v>
+      </c>
+      <c r="D439" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="B440" s="1">
+        <f t="shared" si="18"/>
+        <v>43082</v>
+      </c>
+      <c r="C440" t="s">
+        <v>0</v>
+      </c>
+      <c r="D440" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="B441" s="1">
+        <f t="shared" si="18"/>
+        <v>43083</v>
+      </c>
+      <c r="C441" t="s">
+        <v>0</v>
+      </c>
+      <c r="D441" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="B442" s="1">
+        <f t="shared" ref="B442:B488" si="20">+B441+1</f>
+        <v>43084</v>
+      </c>
+      <c r="C442" t="s">
+        <v>0</v>
+      </c>
+      <c r="D442" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="B443" s="1">
+        <f t="shared" si="20"/>
+        <v>43085</v>
+      </c>
+      <c r="C443" t="s">
+        <v>0</v>
+      </c>
+      <c r="D443" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="B444" s="1">
+        <f t="shared" si="20"/>
+        <v>43086</v>
+      </c>
+      <c r="C444" t="s">
+        <v>0</v>
+      </c>
+      <c r="D444" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="B445" s="1">
+        <f t="shared" si="20"/>
+        <v>43087</v>
+      </c>
+      <c r="C445" t="s">
+        <v>0</v>
+      </c>
+      <c r="D445" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="B446" s="1">
+        <f t="shared" si="20"/>
+        <v>43088</v>
+      </c>
+      <c r="C446" t="s">
+        <v>0</v>
+      </c>
+      <c r="D446" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="B447" s="1">
+        <f t="shared" si="20"/>
+        <v>43089</v>
+      </c>
+      <c r="C447" t="s">
+        <v>0</v>
+      </c>
+      <c r="D447" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="B448" s="1">
+        <f t="shared" si="20"/>
+        <v>43090</v>
+      </c>
+      <c r="C448" t="s">
+        <v>0</v>
+      </c>
+      <c r="D448" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="B449" s="1">
+        <f t="shared" si="20"/>
+        <v>43091</v>
+      </c>
+      <c r="C449" t="s">
+        <v>0</v>
+      </c>
+      <c r="D449" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="B450" s="1">
+        <f t="shared" si="20"/>
+        <v>43092</v>
+      </c>
+      <c r="C450" t="s">
+        <v>0</v>
+      </c>
+      <c r="D450" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="B451" s="1">
+        <f t="shared" si="20"/>
+        <v>43093</v>
+      </c>
+      <c r="C451" t="s">
+        <v>0</v>
+      </c>
+      <c r="D451" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="B452" s="1">
+        <f t="shared" si="20"/>
+        <v>43094</v>
+      </c>
+      <c r="C452" t="s">
+        <v>0</v>
+      </c>
+      <c r="D452" t="s">
+        <v>2</v>
+      </c>
+      <c r="E452" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="B453" s="1">
+        <f t="shared" si="20"/>
+        <v>43095</v>
+      </c>
+      <c r="C453" t="s">
+        <v>0</v>
+      </c>
+      <c r="D453" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="B454" s="1">
+        <f t="shared" si="20"/>
+        <v>43096</v>
+      </c>
+      <c r="C454" t="s">
+        <v>0</v>
+      </c>
+      <c r="D454" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="B455" s="1">
+        <f t="shared" si="20"/>
+        <v>43097</v>
+      </c>
+      <c r="C455" t="s">
+        <v>0</v>
+      </c>
+      <c r="D455" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="B456" s="1">
+        <f t="shared" si="20"/>
+        <v>43098</v>
+      </c>
+      <c r="C456" t="s">
+        <v>0</v>
+      </c>
+      <c r="D456" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="B457" s="1">
+        <f t="shared" si="20"/>
+        <v>43099</v>
+      </c>
+      <c r="C457" t="s">
+        <v>0</v>
+      </c>
+      <c r="D457" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="B458" s="1">
+        <f t="shared" si="20"/>
+        <v>43100</v>
+      </c>
+      <c r="C458" t="s">
+        <v>0</v>
+      </c>
+      <c r="D458" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="B459" s="1">
+        <f t="shared" si="20"/>
+        <v>43101</v>
+      </c>
+      <c r="C459" t="s">
+        <v>0</v>
+      </c>
+      <c r="D459" t="s">
+        <v>2</v>
+      </c>
+      <c r="E459" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="B460" s="1">
+        <f t="shared" si="20"/>
+        <v>43102</v>
+      </c>
+      <c r="C460" t="s">
+        <v>0</v>
+      </c>
+      <c r="D460" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="B461" s="1">
+        <f t="shared" si="20"/>
+        <v>43103</v>
+      </c>
+      <c r="C461" t="s">
+        <v>0</v>
+      </c>
+      <c r="D461" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="B462" s="1">
+        <f t="shared" si="20"/>
+        <v>43104</v>
+      </c>
+      <c r="C462" t="s">
+        <v>0</v>
+      </c>
+      <c r="D462" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="B463" s="1">
+        <f t="shared" si="20"/>
+        <v>43105</v>
+      </c>
+      <c r="C463" t="s">
+        <v>0</v>
+      </c>
+      <c r="D463" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <f t="shared" ref="A464:A488" si="21">+WEEKDAY(B464,2)</f>
+        <v>6</v>
+      </c>
+      <c r="B464" s="1">
+        <f t="shared" si="20"/>
+        <v>43106</v>
+      </c>
+      <c r="C464" t="s">
+        <v>0</v>
+      </c>
+      <c r="D464" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="B465" s="1">
+        <f t="shared" si="20"/>
+        <v>43107</v>
+      </c>
+      <c r="C465" t="s">
+        <v>0</v>
+      </c>
+      <c r="D465" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="B466" s="1">
+        <f t="shared" si="20"/>
+        <v>43108</v>
+      </c>
+      <c r="C466" t="s">
+        <v>0</v>
+      </c>
+      <c r="D466" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="B467" s="1">
+        <f t="shared" si="20"/>
+        <v>43109</v>
+      </c>
+      <c r="C467" t="s">
+        <v>0</v>
+      </c>
+      <c r="D467" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="B468" s="1">
+        <f t="shared" si="20"/>
+        <v>43110</v>
+      </c>
+      <c r="C468" t="s">
+        <v>0</v>
+      </c>
+      <c r="D468" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="B469" s="1">
+        <f t="shared" si="20"/>
+        <v>43111</v>
+      </c>
+      <c r="C469" t="s">
+        <v>0</v>
+      </c>
+      <c r="D469" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="B470" s="1">
+        <f t="shared" si="20"/>
+        <v>43112</v>
+      </c>
+      <c r="C470" t="s">
+        <v>0</v>
+      </c>
+      <c r="D470" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="B471" s="1">
+        <f t="shared" si="20"/>
+        <v>43113</v>
+      </c>
+      <c r="C471" t="s">
+        <v>0</v>
+      </c>
+      <c r="D471" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="B472" s="1">
+        <f t="shared" si="20"/>
+        <v>43114</v>
+      </c>
+      <c r="C472" t="s">
+        <v>0</v>
+      </c>
+      <c r="D472" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="B473" s="1">
+        <f t="shared" si="20"/>
+        <v>43115</v>
+      </c>
+      <c r="C473" t="s">
+        <v>0</v>
+      </c>
+      <c r="D473" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="B474" s="1">
+        <f t="shared" si="20"/>
+        <v>43116</v>
+      </c>
+      <c r="C474" t="s">
+        <v>0</v>
+      </c>
+      <c r="D474" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="B475" s="1">
+        <f t="shared" si="20"/>
+        <v>43117</v>
+      </c>
+      <c r="C475" t="s">
+        <v>0</v>
+      </c>
+      <c r="D475" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="B476" s="1">
+        <f t="shared" si="20"/>
+        <v>43118</v>
+      </c>
+      <c r="C476" t="s">
+        <v>0</v>
+      </c>
+      <c r="D476" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="B477" s="1">
+        <f t="shared" si="20"/>
+        <v>43119</v>
+      </c>
+      <c r="C477" t="s">
+        <v>0</v>
+      </c>
+      <c r="D477" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="B478" s="1">
+        <f t="shared" si="20"/>
+        <v>43120</v>
+      </c>
+      <c r="C478" t="s">
+        <v>0</v>
+      </c>
+      <c r="D478" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="B479" s="1">
+        <f t="shared" si="20"/>
+        <v>43121</v>
+      </c>
+      <c r="C479" t="s">
+        <v>0</v>
+      </c>
+      <c r="D479" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="B480" s="1">
+        <f t="shared" si="20"/>
+        <v>43122</v>
+      </c>
+      <c r="C480" t="s">
+        <v>0</v>
+      </c>
+      <c r="D480" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="B481" s="1">
+        <f t="shared" si="20"/>
+        <v>43123</v>
+      </c>
+      <c r="C481" t="s">
+        <v>0</v>
+      </c>
+      <c r="D481" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="B482" s="1">
+        <f t="shared" si="20"/>
+        <v>43124</v>
+      </c>
+      <c r="C482" t="s">
+        <v>0</v>
+      </c>
+      <c r="D482" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="B483" s="1">
+        <f t="shared" si="20"/>
+        <v>43125</v>
+      </c>
+      <c r="C483" t="s">
+        <v>0</v>
+      </c>
+      <c r="D483" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <f t="shared" si="21"/>
+        <v>5</v>
+      </c>
+      <c r="B484" s="1">
+        <f t="shared" si="20"/>
+        <v>43126</v>
+      </c>
+      <c r="C484" t="s">
+        <v>0</v>
+      </c>
+      <c r="D484" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <f t="shared" si="21"/>
+        <v>6</v>
+      </c>
+      <c r="B485" s="1">
+        <f t="shared" si="20"/>
+        <v>43127</v>
+      </c>
+      <c r="C485" t="s">
+        <v>0</v>
+      </c>
+      <c r="D485" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <f t="shared" si="21"/>
+        <v>7</v>
+      </c>
+      <c r="B486" s="1">
+        <f t="shared" si="20"/>
+        <v>43128</v>
+      </c>
+      <c r="C486" t="s">
+        <v>0</v>
+      </c>
+      <c r="D486" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="B487" s="1">
+        <f t="shared" si="20"/>
+        <v>43129</v>
+      </c>
+      <c r="C487" t="s">
+        <v>0</v>
+      </c>
+      <c r="D487" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="B488" s="1">
+        <f t="shared" si="20"/>
+        <v>43130</v>
+      </c>
+      <c r="C488" t="s">
+        <v>0</v>
+      </c>
+      <c r="D488" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <f t="shared" ref="A489" si="22">+WEEKDAY(B489,2)</f>
+        <v>3</v>
+      </c>
+      <c r="B489" s="1">
+        <f t="shared" ref="B489" si="23">+B488+1</f>
+        <v>43131</v>
+      </c>
+      <c r="C489" t="s">
+        <v>0</v>
+      </c>
+      <c r="D489" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B490" s="1"/>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B491" s="1"/>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B492" s="1"/>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B493" s="1"/>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B494" s="1"/>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B495" s="1"/>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B496" s="1"/>
+    </row>
+    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B497" s="1"/>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B498" s="1"/>
+    </row>
+    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B499" s="1"/>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B500" s="1"/>
+    </row>
+    <row r="501" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B501" s="1"/>
+    </row>
+    <row r="502" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B502" s="1"/>
+    </row>
+    <row r="503" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B503" s="1"/>
+    </row>
+    <row r="504" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B504" s="1"/>
+    </row>
+    <row r="505" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B505" s="1"/>
+    </row>
+    <row r="506" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B506" s="1"/>
+    </row>
+    <row r="507" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B507" s="1"/>
+    </row>
+    <row r="508" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B508" s="1"/>
+    </row>
+    <row r="509" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B509" s="1"/>
+    </row>
+    <row r="510" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B510" s="1"/>
+    </row>
+    <row r="511" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B511" s="1"/>
+    </row>
+    <row r="512" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B512" s="1"/>
+    </row>
+    <row r="513" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B513" s="1"/>
+    </row>
+    <row r="514" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B514" s="1"/>
+    </row>
+    <row r="515" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B515" s="1"/>
+    </row>
+    <row r="516" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B516" s="1"/>
+    </row>
+    <row r="517" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B517" s="1"/>
+    </row>
+    <row r="518" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B518" s="1"/>
+    </row>
+    <row r="519" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B519" s="1"/>
+    </row>
+    <row r="520" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B520" s="1"/>
+    </row>
+    <row r="521" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B521" s="1"/>
+    </row>
+    <row r="522" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B522" s="1"/>
+    </row>
+    <row r="523" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B523" s="1"/>
+    </row>
+    <row r="524" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B524" s="1"/>
+    </row>
+    <row r="525" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B525" s="1"/>
+    </row>
+    <row r="526" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B526" s="1"/>
+    </row>
+    <row r="527" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B527" s="1"/>
+    </row>
+    <row r="528" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B528" s="1"/>
+    </row>
+    <row r="529" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B529" s="1"/>
+    </row>
+    <row r="530" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B530" s="1"/>
+    </row>
+    <row r="531" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B531" s="1"/>
+    </row>
+    <row r="532" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B532" s="1"/>
+    </row>
+    <row r="533" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B533" s="1"/>
+    </row>
+    <row r="534" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B534" s="1"/>
+    </row>
+    <row r="535" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B535" s="1"/>
+    </row>
+    <row r="536" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B536" s="1"/>
+    </row>
+    <row r="537" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B537" s="1"/>
+    </row>
+    <row r="538" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B538" s="1"/>
+    </row>
+    <row r="539" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B539" s="1"/>
+    </row>
+    <row r="540" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B540" s="1"/>
+    </row>
+    <row r="541" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B541" s="1"/>
+    </row>
+    <row r="542" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B542" s="1"/>
+    </row>
+    <row r="543" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B543" s="1"/>
+    </row>
+    <row r="544" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B544" s="1"/>
+    </row>
+    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B545" s="1"/>
+    </row>
+    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B546" s="1"/>
+    </row>
+    <row r="547" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B547" s="1"/>
+    </row>
+    <row r="548" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B548" s="1"/>
+    </row>
+    <row r="549" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B549" s="1"/>
+    </row>
+    <row r="550" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B550" s="1"/>
+    </row>
+    <row r="551" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B551" s="1"/>
+    </row>
+    <row r="552" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B552" s="1"/>
+    </row>
+    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B553" s="1"/>
+    </row>
+    <row r="554" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B554" s="1"/>
+    </row>
+    <row r="555" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B555" s="1"/>
+    </row>
+    <row r="556" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B556" s="1"/>
+    </row>
+    <row r="557" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B557" s="1"/>
+    </row>
+    <row r="558" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B558" s="1"/>
+    </row>
+    <row r="559" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B559" s="1"/>
+    </row>
+    <row r="560" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B560" s="1"/>
+    </row>
+    <row r="561" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B561" s="1"/>
+    </row>
+    <row r="562" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B562" s="1"/>
+    </row>
+    <row r="563" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B563" s="1"/>
+    </row>
+    <row r="564" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B564" s="1"/>
+    </row>
+    <row r="565" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B565" s="1"/>
+    </row>
+    <row r="566" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B566" s="1"/>
+    </row>
+    <row r="567" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B567" s="1"/>
+    </row>
+    <row r="568" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B568" s="1"/>
+    </row>
+    <row r="569" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B569" s="1"/>
+    </row>
+    <row r="570" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B570" s="1"/>
+    </row>
+    <row r="571" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B571" s="1"/>
+    </row>
+    <row r="572" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B572" s="1"/>
+    </row>
+    <row r="573" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B573" s="1"/>
+    </row>
+    <row r="574" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B574" s="1"/>
+    </row>
+    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B575" s="1"/>
+    </row>
+    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B576" s="1"/>
+    </row>
+    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B577" s="1"/>
+    </row>
+    <row r="578" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B578" s="1"/>
+    </row>
+    <row r="579" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B579" s="1"/>
+    </row>
+    <row r="580" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B580" s="1"/>
+    </row>
+    <row r="581" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B581" s="1"/>
+    </row>
+    <row r="582" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B582" s="1"/>
+    </row>
+    <row r="583" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B583" s="1"/>
+    </row>
+    <row r="584" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B584" s="1"/>
+    </row>
+    <row r="585" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B585" s="1"/>
+    </row>
+    <row r="586" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B586" s="1"/>
+    </row>
+    <row r="587" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B587" s="1"/>
+    </row>
+    <row r="588" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B588" s="1"/>
+    </row>
+    <row r="589" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B589" s="1"/>
+    </row>
+    <row r="590" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B590" s="1"/>
+    </row>
+    <row r="591" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B591" s="1"/>
+    </row>
+    <row r="592" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B592" s="1"/>
+    </row>
+    <row r="593" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B593" s="1"/>
+    </row>
+    <row r="594" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B594" s="1"/>
+    </row>
+    <row r="595" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B595" s="1"/>
+    </row>
+    <row r="596" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B596" s="1"/>
+    </row>
+    <row r="597" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B597" s="1"/>
+    </row>
+    <row r="598" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B598" s="1"/>
+    </row>
+    <row r="599" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B599" s="1"/>
+    </row>
+    <row r="600" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B600" s="1"/>
+    </row>
+    <row r="601" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B601" s="1"/>
+    </row>
+    <row r="602" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B602" s="1"/>
+    </row>
+    <row r="603" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B603" s="1"/>
+    </row>
+    <row r="604" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B604" s="1"/>
+    </row>
+    <row r="605" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B605" s="1"/>
+    </row>
+    <row r="606" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B606" s="1"/>
+    </row>
+    <row r="607" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B607" s="1"/>
+    </row>
+    <row r="608" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B608" s="1"/>
+    </row>
+    <row r="609" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B609" s="1"/>
+    </row>
+    <row r="610" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B610" s="1"/>
+    </row>
+    <row r="611" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B611" s="1"/>
+    </row>
+    <row r="612" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B612" s="1"/>
+    </row>
+    <row r="613" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B613" s="1"/>
+    </row>
+    <row r="614" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B614" s="1"/>
+    </row>
+    <row r="615" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B615" s="1"/>
+    </row>
+    <row r="616" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B616" s="1"/>
+    </row>
+    <row r="617" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B617" s="1"/>
+    </row>
+    <row r="618" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B618" s="1"/>
+    </row>
+    <row r="619" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B619" s="1"/>
+    </row>
+    <row r="620" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B620" s="1"/>
+    </row>
+    <row r="621" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B621" s="1"/>
+    </row>
+    <row r="622" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B622" s="1"/>
+    </row>
+    <row r="623" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B623" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C69">
+  <autoFilter ref="A1:E489">
     <filterColumn colId="0">
       <filters>
         <filter val="1"/>
@@ -1437,7 +8647,11 @@
         <filter val="3"/>
         <filter val="4"/>
         <filter val="5"/>
+        <filter val="6"/>
       </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/storage/app/eventbatch.xlsx
+++ b/storage/app/eventbatch.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\CookingPoint\laravel\v2\storage\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\CookingPoint\laravel\dev\storage\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eventbatch" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">eventbatch!$A$1:$E$489</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">eventbatch!$A$2:$E$368</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="6">
   <si>
     <t>PAELLA</t>
   </si>
@@ -43,11 +43,14 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>filtrar domingo y festivos!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -60,12 +63,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,9 +89,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,12 +408,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E623"/>
+  <dimension ref="A1:E381"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D489"/>
+    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:D368"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,36 +422,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f t="shared" ref="A2:A23" si="0">+WEEKDAY(B2,2)</f>
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
-        <v>42644</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" ref="A3:A24" si="0">+WEEKDAY(B3,2)</f>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <f>+B2+1</f>
-        <v>42645</v>
+        <v>43132</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -451,11 +456,11 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B66" si="1">+B3+1</f>
-        <v>42646</v>
+        <f>+B3+1</f>
+        <v>43133</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -467,11 +472,11 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <f t="shared" si="1"/>
-        <v>42647</v>
+        <f t="shared" ref="B5:B67" si="1">+B4+1</f>
+        <v>43134</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -480,14 +485,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
-        <v>42648</v>
+        <v>43135</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -499,11 +504,11 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
-        <v>42649</v>
+        <v>43136</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -515,11 +520,11 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
-        <v>42650</v>
+        <v>43137</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -531,11 +536,11 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
-        <v>42651</v>
+        <v>43138</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -544,14 +549,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
-        <v>42652</v>
+        <v>43139</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -563,11 +568,11 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
-        <v>42653</v>
+        <v>43140</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -579,11 +584,11 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
-        <v>42654</v>
+        <v>43141</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -592,14 +597,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
-        <v>42655</v>
+        <v>43142</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -611,11 +616,11 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
-        <v>42656</v>
+        <v>43143</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -627,11 +632,11 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
-        <v>42657</v>
+        <v>43144</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
@@ -643,11 +648,11 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
-        <v>42658</v>
+        <v>43145</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -656,14 +661,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
-        <v>42659</v>
+        <v>43146</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -675,11 +680,11 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
-        <v>42660</v>
+        <v>43147</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -691,11 +696,11 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
-        <v>42661</v>
+        <v>43148</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -704,14 +709,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
-        <v>42662</v>
+        <v>43149</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -723,11 +728,11 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
-        <v>42663</v>
+        <v>43150</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -739,11 +744,11 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
-        <v>42664</v>
+        <v>43151</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -755,11 +760,11 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
-        <v>42665</v>
+        <v>43152</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -768,14 +773,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" ref="A24:A68" si="2">+WEEKDAY(B24,2)</f>
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
-        <v>42666</v>
+        <v>43153</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -786,12 +791,12 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" ref="A25:A69" si="2">+WEEKDAY(B25,2)</f>
+        <v>5</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
-        <v>42667</v>
+        <v>43154</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
@@ -803,11 +808,11 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
-        <v>42668</v>
+        <v>43155</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -816,14 +821,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
-        <v>42669</v>
+        <v>43156</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
@@ -835,11 +840,11 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
-        <v>42670</v>
+        <v>43157</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
@@ -851,11 +856,11 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="1"/>
-        <v>42671</v>
+        <v>43158</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -867,11 +872,11 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
-        <v>42672</v>
+        <v>43159</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -880,14 +885,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
-        <v>42673</v>
+        <v>43160</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -899,11 +904,11 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
-        <v>42674</v>
+        <v>43161</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
@@ -915,11 +920,11 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
-        <v>42675</v>
+        <v>43162</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -928,14 +933,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
-        <v>42676</v>
+        <v>43163</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -947,11 +952,11 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
-        <v>42677</v>
+        <v>43164</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -963,11 +968,11 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="1"/>
-        <v>42678</v>
+        <v>43165</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
@@ -979,11 +984,11 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
-        <v>42679</v>
+        <v>43166</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
@@ -992,14 +997,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
-        <v>42680</v>
+        <v>43167</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
@@ -1011,11 +1016,11 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
-        <v>42681</v>
+        <v>43168</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -1027,11 +1032,11 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
-        <v>42682</v>
+        <v>43169</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
@@ -1040,14 +1045,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
-        <v>42683</v>
+        <v>43170</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
@@ -1059,11 +1064,11 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
-        <v>42684</v>
+        <v>43171</v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
@@ -1075,11 +1080,11 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
-        <v>42685</v>
+        <v>43172</v>
       </c>
       <c r="C43" t="s">
         <v>0</v>
@@ -1091,11 +1096,11 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
-        <v>42686</v>
+        <v>43173</v>
       </c>
       <c r="C44" t="s">
         <v>0</v>
@@ -1104,14 +1109,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
-        <v>42687</v>
+        <v>43174</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
@@ -1123,11 +1128,11 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
-        <v>42688</v>
+        <v>43175</v>
       </c>
       <c r="C46" t="s">
         <v>0</v>
@@ -1139,11 +1144,11 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
-        <v>42689</v>
+        <v>43176</v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
@@ -1152,14 +1157,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
-        <v>42690</v>
+        <v>43177</v>
       </c>
       <c r="C48" t="s">
         <v>0</v>
@@ -1171,27 +1176,24 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="1"/>
-        <v>42691</v>
+        <v>43178</v>
       </c>
       <c r="C49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="1"/>
-        <v>42692</v>
+        <v>43179</v>
       </c>
       <c r="C50" t="s">
         <v>0</v>
@@ -1203,11 +1205,11 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
-        <v>42693</v>
+        <v>43180</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
@@ -1216,14 +1218,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
-        <v>42694</v>
+        <v>43181</v>
       </c>
       <c r="C52" t="s">
         <v>0</v>
@@ -1235,11 +1237,11 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
-        <v>42695</v>
+        <v>43182</v>
       </c>
       <c r="C53" t="s">
         <v>0</v>
@@ -1251,11 +1253,11 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
-        <v>42696</v>
+        <v>43183</v>
       </c>
       <c r="C54" t="s">
         <v>0</v>
@@ -1264,14 +1266,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
-        <v>42697</v>
+        <v>43184</v>
       </c>
       <c r="C55" t="s">
         <v>0</v>
@@ -1283,11 +1285,11 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
-        <v>42698</v>
+        <v>43185</v>
       </c>
       <c r="C56" t="s">
         <v>0</v>
@@ -1299,11 +1301,11 @@
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
-        <v>42699</v>
+        <v>43186</v>
       </c>
       <c r="C57" t="s">
         <v>0</v>
@@ -1315,11 +1317,11 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
-        <v>42700</v>
+        <v>43187</v>
       </c>
       <c r="C58" t="s">
         <v>0</v>
@@ -1328,46 +1330,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
-        <v>42701</v>
+        <v>43188</v>
       </c>
       <c r="C59" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
-        <v>42702</v>
+        <v>43189</v>
       </c>
       <c r="C60" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="1"/>
-        <v>42703</v>
+        <v>43190</v>
       </c>
       <c r="C61" t="s">
         <v>0</v>
@@ -1376,14 +1372,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
-        <v>42704</v>
+        <v>43191</v>
       </c>
       <c r="C62" t="s">
         <v>0</v>
@@ -1395,11 +1391,11 @@
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="1"/>
-        <v>42705</v>
+        <v>43192</v>
       </c>
       <c r="C63" t="s">
         <v>0</v>
@@ -1411,11 +1407,11 @@
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
-        <v>42706</v>
+        <v>43193</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
@@ -1427,11 +1423,11 @@
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
-        <v>42707</v>
+        <v>43194</v>
       </c>
       <c r="C65" t="s">
         <v>0</v>
@@ -1440,14 +1436,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
-        <v>42708</v>
+        <v>43195</v>
       </c>
       <c r="C66" t="s">
         <v>0</v>
@@ -1459,11 +1455,11 @@
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B67" s="1">
-        <f t="shared" ref="B67:B68" si="3">+B66+1</f>
-        <v>42709</v>
+        <f t="shared" si="1"/>
+        <v>43196</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
@@ -1475,27 +1471,27 @@
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B68" s="1">
+        <f t="shared" ref="B68:B69" si="3">+B67+1</f>
+        <v>43197</v>
+      </c>
+      <c r="C68" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B69" s="1">
         <f t="shared" si="3"/>
-        <v>42710</v>
-      </c>
-      <c r="C68" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <f t="shared" ref="A69:A86" si="4">+WEEKDAY(B69,2)</f>
-        <v>3</v>
-      </c>
-      <c r="B69" s="1">
-        <f t="shared" ref="B69:B86" si="5">+B68+1</f>
-        <v>42711</v>
+        <v>43198</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
@@ -1506,12 +1502,12 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="4"/>
-        <v>4</v>
+        <f t="shared" ref="A70:A87" si="4">+WEEKDAY(B70,2)</f>
+        <v>1</v>
       </c>
       <c r="B70" s="1">
-        <f t="shared" si="5"/>
-        <v>42712</v>
+        <f t="shared" ref="B70:B87" si="5">+B69+1</f>
+        <v>43199</v>
       </c>
       <c r="C70" t="s">
         <v>0</v>
@@ -1523,11 +1519,11 @@
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="5"/>
-        <v>42713</v>
+        <v>43200</v>
       </c>
       <c r="C71" t="s">
         <v>0</v>
@@ -1539,11 +1535,11 @@
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="5"/>
-        <v>42714</v>
+        <v>43201</v>
       </c>
       <c r="C72" t="s">
         <v>0</v>
@@ -1552,14 +1548,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="5"/>
-        <v>42715</v>
+        <v>43202</v>
       </c>
       <c r="C73" t="s">
         <v>0</v>
@@ -1571,11 +1567,11 @@
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="5"/>
-        <v>42716</v>
+        <v>43203</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
@@ -1587,11 +1583,11 @@
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="5"/>
-        <v>42717</v>
+        <v>43204</v>
       </c>
       <c r="C75" t="s">
         <v>0</v>
@@ -1600,14 +1596,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="5"/>
-        <v>42718</v>
+        <v>43205</v>
       </c>
       <c r="C76" t="s">
         <v>0</v>
@@ -1619,11 +1615,11 @@
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="5"/>
-        <v>42719</v>
+        <v>43206</v>
       </c>
       <c r="C77" t="s">
         <v>0</v>
@@ -1635,11 +1631,11 @@
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="5"/>
-        <v>42720</v>
+        <v>43207</v>
       </c>
       <c r="C78" t="s">
         <v>0</v>
@@ -1651,11 +1647,11 @@
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="5"/>
-        <v>42721</v>
+        <v>43208</v>
       </c>
       <c r="C79" t="s">
         <v>0</v>
@@ -1664,14 +1660,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="5"/>
-        <v>42722</v>
+        <v>43209</v>
       </c>
       <c r="C80" t="s">
         <v>0</v>
@@ -1680,14 +1676,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="5"/>
-        <v>42723</v>
+        <v>43210</v>
       </c>
       <c r="C81" t="s">
         <v>0</v>
@@ -1696,14 +1692,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="5"/>
-        <v>42724</v>
+        <v>43211</v>
       </c>
       <c r="C82" t="s">
         <v>0</v>
@@ -1712,14 +1708,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="5"/>
-        <v>42725</v>
+        <v>43212</v>
       </c>
       <c r="C83" t="s">
         <v>0</v>
@@ -1728,14 +1724,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="5"/>
-        <v>42726</v>
+        <v>43213</v>
       </c>
       <c r="C84" t="s">
         <v>0</v>
@@ -1744,14 +1740,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="5"/>
-        <v>42727</v>
+        <v>43214</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
@@ -1760,14 +1756,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="5"/>
-        <v>42728</v>
+        <v>43215</v>
       </c>
       <c r="C86" t="s">
         <v>0</v>
@@ -1775,181 +1771,169 @@
       <c r="D86" t="s">
         <v>2</v>
       </c>
-      <c r="E86" t="s">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <f t="shared" ref="A87:A106" si="6">+WEEKDAY(B87,2)</f>
+      <c r="B87" s="1">
+        <f t="shared" si="5"/>
+        <v>43216</v>
+      </c>
+      <c r="C87" t="s">
+        <v>0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" ref="A88:A107" si="6">+WEEKDAY(B88,2)</f>
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <f t="shared" ref="B88:B107" si="7">+B87+1</f>
+        <v>43217</v>
+      </c>
+      <c r="C88" t="s">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="B89" s="1">
+        <f t="shared" si="7"/>
+        <v>43218</v>
+      </c>
+      <c r="C89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B87" s="1">
-        <f t="shared" ref="B87:B106" si="7">+B86+1</f>
-        <v>42729</v>
-      </c>
-      <c r="C87" t="s">
-        <v>0</v>
-      </c>
-      <c r="D87" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="B90" s="1">
+        <f t="shared" si="7"/>
+        <v>43219</v>
+      </c>
+      <c r="C90" t="s">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B91" s="1">
         <f t="shared" si="7"/>
-        <v>42730</v>
-      </c>
-      <c r="C88" t="s">
-        <v>0</v>
-      </c>
-      <c r="D88" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
+        <v>43220</v>
+      </c>
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B92" s="1">
         <f t="shared" si="7"/>
-        <v>42731</v>
-      </c>
-      <c r="C89" t="s">
-        <v>0</v>
-      </c>
-      <c r="D89" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
+        <v>43221</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B93" s="1">
         <f t="shared" si="7"/>
-        <v>42732</v>
-      </c>
-      <c r="C90" t="s">
-        <v>0</v>
-      </c>
-      <c r="D90" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
+        <v>43222</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B94" s="1">
         <f t="shared" si="7"/>
-        <v>42733</v>
-      </c>
-      <c r="C91" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
+        <v>43223</v>
+      </c>
+      <c r="C94" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B95" s="1">
         <f t="shared" si="7"/>
-        <v>42734</v>
-      </c>
-      <c r="C92" t="s">
-        <v>0</v>
-      </c>
-      <c r="D92" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93">
+        <v>43224</v>
+      </c>
+      <c r="C95" t="s">
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B96" s="1">
         <f t="shared" si="7"/>
-        <v>42735</v>
-      </c>
-      <c r="C93" t="s">
-        <v>0</v>
-      </c>
-      <c r="D93" t="s">
-        <v>2</v>
-      </c>
-      <c r="E93" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94">
+        <v>43225</v>
+      </c>
+      <c r="C96" t="s">
+        <v>0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="B94" s="1">
-        <f t="shared" si="7"/>
-        <v>42736</v>
-      </c>
-      <c r="C94" t="s">
-        <v>0</v>
-      </c>
-      <c r="D94" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="B95" s="1">
-        <f t="shared" si="7"/>
-        <v>42737</v>
-      </c>
-      <c r="C95" t="s">
-        <v>0</v>
-      </c>
-      <c r="D95" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="B96" s="1">
-        <f t="shared" si="7"/>
-        <v>42738</v>
-      </c>
-      <c r="C96" t="s">
-        <v>0</v>
-      </c>
-      <c r="D96" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
       <c r="B97" s="1">
         <f t="shared" si="7"/>
-        <v>42739</v>
+        <v>43226</v>
       </c>
       <c r="C97" t="s">
         <v>0</v>
@@ -1961,11 +1945,11 @@
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B98" s="1">
         <f t="shared" si="7"/>
-        <v>42740</v>
+        <v>43227</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
@@ -1977,11 +1961,11 @@
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B99" s="1">
         <f t="shared" si="7"/>
-        <v>42741</v>
+        <v>43228</v>
       </c>
       <c r="C99" t="s">
         <v>0</v>
@@ -1993,11 +1977,11 @@
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B100" s="1">
         <f t="shared" si="7"/>
-        <v>42742</v>
+        <v>43229</v>
       </c>
       <c r="C100" t="s">
         <v>0</v>
@@ -2006,14 +1990,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B101" s="1">
         <f t="shared" si="7"/>
-        <v>42743</v>
+        <v>43230</v>
       </c>
       <c r="C101" t="s">
         <v>0</v>
@@ -2025,11 +2009,11 @@
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B102" s="1">
         <f t="shared" si="7"/>
-        <v>42744</v>
+        <v>43231</v>
       </c>
       <c r="C102" t="s">
         <v>0</v>
@@ -2041,11 +2025,11 @@
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B103" s="1">
         <f t="shared" si="7"/>
-        <v>42745</v>
+        <v>43232</v>
       </c>
       <c r="C103" t="s">
         <v>0</v>
@@ -2054,14 +2038,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B104" s="1">
         <f t="shared" si="7"/>
-        <v>42746</v>
+        <v>43233</v>
       </c>
       <c r="C104" t="s">
         <v>0</v>
@@ -2073,11 +2057,11 @@
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" si="7"/>
-        <v>42747</v>
+        <v>43234</v>
       </c>
       <c r="C105" t="s">
         <v>0</v>
@@ -2089,27 +2073,24 @@
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B106" s="1">
         <f t="shared" si="7"/>
-        <v>42748</v>
+        <v>43235</v>
       </c>
       <c r="C106" t="s">
-        <v>0</v>
-      </c>
-      <c r="D106" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f t="shared" ref="A107:A170" si="8">+WEEKDAY(B107,2)</f>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="B107" s="1">
-        <f t="shared" ref="B107:B170" si="9">+B106+1</f>
-        <v>42749</v>
+        <f t="shared" si="7"/>
+        <v>43236</v>
       </c>
       <c r="C107" t="s">
         <v>0</v>
@@ -2118,14 +2099,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f t="shared" si="8"/>
-        <v>7</v>
+        <f t="shared" ref="A108:A171" si="8">+WEEKDAY(B108,2)</f>
+        <v>4</v>
       </c>
       <c r="B108" s="1">
-        <f t="shared" si="9"/>
-        <v>42750</v>
+        <f t="shared" ref="B108:B171" si="9">+B107+1</f>
+        <v>43237</v>
       </c>
       <c r="C108" t="s">
         <v>0</v>
@@ -2137,11 +2118,11 @@
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B109" s="1">
         <f t="shared" si="9"/>
-        <v>42751</v>
+        <v>43238</v>
       </c>
       <c r="C109" t="s">
         <v>0</v>
@@ -2153,11 +2134,11 @@
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B110" s="1">
         <f t="shared" si="9"/>
-        <v>42752</v>
+        <v>43239</v>
       </c>
       <c r="C110" t="s">
         <v>0</v>
@@ -2166,14 +2147,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B111" s="1">
         <f t="shared" si="9"/>
-        <v>42753</v>
+        <v>43240</v>
       </c>
       <c r="C111" t="s">
         <v>0</v>
@@ -2185,11 +2166,11 @@
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B112" s="1">
         <f t="shared" si="9"/>
-        <v>42754</v>
+        <v>43241</v>
       </c>
       <c r="C112" t="s">
         <v>0</v>
@@ -2201,11 +2182,11 @@
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B113" s="1">
         <f t="shared" si="9"/>
-        <v>42755</v>
+        <v>43242</v>
       </c>
       <c r="C113" t="s">
         <v>0</v>
@@ -2217,11 +2198,11 @@
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B114" s="1">
         <f t="shared" si="9"/>
-        <v>42756</v>
+        <v>43243</v>
       </c>
       <c r="C114" t="s">
         <v>0</v>
@@ -2230,14 +2211,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B115" s="1">
         <f t="shared" si="9"/>
-        <v>42757</v>
+        <v>43244</v>
       </c>
       <c r="C115" t="s">
         <v>0</v>
@@ -2249,11 +2230,11 @@
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B116" s="1">
         <f t="shared" si="9"/>
-        <v>42758</v>
+        <v>43245</v>
       </c>
       <c r="C116" t="s">
         <v>0</v>
@@ -2265,11 +2246,11 @@
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B117" s="1">
         <f t="shared" si="9"/>
-        <v>42759</v>
+        <v>43246</v>
       </c>
       <c r="C117" t="s">
         <v>0</v>
@@ -2278,14 +2259,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B118" s="1">
         <f t="shared" si="9"/>
-        <v>42760</v>
+        <v>43247</v>
       </c>
       <c r="C118" t="s">
         <v>0</v>
@@ -2297,11 +2278,11 @@
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B119" s="1">
         <f t="shared" si="9"/>
-        <v>42761</v>
+        <v>43248</v>
       </c>
       <c r="C119" t="s">
         <v>0</v>
@@ -2313,11 +2294,11 @@
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B120" s="1">
         <f t="shared" si="9"/>
-        <v>42762</v>
+        <v>43249</v>
       </c>
       <c r="C120" t="s">
         <v>0</v>
@@ -2329,11 +2310,11 @@
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B121" s="1">
         <f t="shared" si="9"/>
-        <v>42763</v>
+        <v>43250</v>
       </c>
       <c r="C121" t="s">
         <v>0</v>
@@ -2342,14 +2323,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B122" s="1">
         <f t="shared" si="9"/>
-        <v>42764</v>
+        <v>43251</v>
       </c>
       <c r="C122" t="s">
         <v>0</v>
@@ -2361,11 +2342,11 @@
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B123" s="1">
         <f t="shared" si="9"/>
-        <v>42765</v>
+        <v>43252</v>
       </c>
       <c r="C123" t="s">
         <v>0</v>
@@ -2377,11 +2358,11 @@
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B124" s="1">
         <f t="shared" si="9"/>
-        <v>42766</v>
+        <v>43253</v>
       </c>
       <c r="C124" t="s">
         <v>0</v>
@@ -2390,14 +2371,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B125" s="1">
         <f t="shared" si="9"/>
-        <v>42767</v>
+        <v>43254</v>
       </c>
       <c r="C125" t="s">
         <v>0</v>
@@ -2409,11 +2390,11 @@
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B126" s="1">
         <f t="shared" si="9"/>
-        <v>42768</v>
+        <v>43255</v>
       </c>
       <c r="C126" t="s">
         <v>0</v>
@@ -2425,11 +2406,11 @@
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B127" s="1">
         <f t="shared" si="9"/>
-        <v>42769</v>
+        <v>43256</v>
       </c>
       <c r="C127" t="s">
         <v>0</v>
@@ -2441,11 +2422,11 @@
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B128" s="1">
         <f t="shared" si="9"/>
-        <v>42770</v>
+        <v>43257</v>
       </c>
       <c r="C128" t="s">
         <v>0</v>
@@ -2454,14 +2435,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B129" s="1">
         <f t="shared" si="9"/>
-        <v>42771</v>
+        <v>43258</v>
       </c>
       <c r="C129" t="s">
         <v>0</v>
@@ -2473,11 +2454,11 @@
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B130" s="1">
         <f t="shared" si="9"/>
-        <v>42772</v>
+        <v>43259</v>
       </c>
       <c r="C130" t="s">
         <v>0</v>
@@ -2489,11 +2470,11 @@
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B131" s="1">
         <f t="shared" si="9"/>
-        <v>42773</v>
+        <v>43260</v>
       </c>
       <c r="C131" t="s">
         <v>0</v>
@@ -2502,14 +2483,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B132" s="1">
         <f t="shared" si="9"/>
-        <v>42774</v>
+        <v>43261</v>
       </c>
       <c r="C132" t="s">
         <v>0</v>
@@ -2521,11 +2502,11 @@
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B133" s="1">
         <f t="shared" si="9"/>
-        <v>42775</v>
+        <v>43262</v>
       </c>
       <c r="C133" t="s">
         <v>0</v>
@@ -2537,11 +2518,11 @@
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B134" s="1">
         <f t="shared" si="9"/>
-        <v>42776</v>
+        <v>43263</v>
       </c>
       <c r="C134" t="s">
         <v>0</v>
@@ -2553,11 +2534,11 @@
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B135" s="1">
         <f t="shared" si="9"/>
-        <v>42777</v>
+        <v>43264</v>
       </c>
       <c r="C135" t="s">
         <v>0</v>
@@ -2566,14 +2547,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B136" s="1">
         <f t="shared" si="9"/>
-        <v>42778</v>
+        <v>43265</v>
       </c>
       <c r="C136" t="s">
         <v>0</v>
@@ -2585,11 +2566,11 @@
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B137" s="1">
         <f t="shared" si="9"/>
-        <v>42779</v>
+        <v>43266</v>
       </c>
       <c r="C137" t="s">
         <v>0</v>
@@ -2601,11 +2582,11 @@
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B138" s="1">
         <f t="shared" si="9"/>
-        <v>42780</v>
+        <v>43267</v>
       </c>
       <c r="C138" t="s">
         <v>0</v>
@@ -2614,14 +2595,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B139" s="1">
         <f t="shared" si="9"/>
-        <v>42781</v>
+        <v>43268</v>
       </c>
       <c r="C139" t="s">
         <v>0</v>
@@ -2633,11 +2614,11 @@
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B140" s="1">
         <f t="shared" si="9"/>
-        <v>42782</v>
+        <v>43269</v>
       </c>
       <c r="C140" t="s">
         <v>0</v>
@@ -2649,11 +2630,11 @@
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B141" s="1">
         <f t="shared" si="9"/>
-        <v>42783</v>
+        <v>43270</v>
       </c>
       <c r="C141" t="s">
         <v>0</v>
@@ -2665,11 +2646,11 @@
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B142" s="1">
         <f t="shared" si="9"/>
-        <v>42784</v>
+        <v>43271</v>
       </c>
       <c r="C142" t="s">
         <v>0</v>
@@ -2678,14 +2659,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B143" s="1">
         <f t="shared" si="9"/>
-        <v>42785</v>
+        <v>43272</v>
       </c>
       <c r="C143" t="s">
         <v>0</v>
@@ -2697,11 +2678,11 @@
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B144" s="1">
         <f t="shared" si="9"/>
-        <v>42786</v>
+        <v>43273</v>
       </c>
       <c r="C144" t="s">
         <v>0</v>
@@ -2713,11 +2694,11 @@
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B145" s="1">
         <f t="shared" si="9"/>
-        <v>42787</v>
+        <v>43274</v>
       </c>
       <c r="C145" t="s">
         <v>0</v>
@@ -2726,14 +2707,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B146" s="1">
         <f t="shared" si="9"/>
-        <v>42788</v>
+        <v>43275</v>
       </c>
       <c r="C146" t="s">
         <v>0</v>
@@ -2745,11 +2726,11 @@
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B147" s="1">
         <f t="shared" si="9"/>
-        <v>42789</v>
+        <v>43276</v>
       </c>
       <c r="C147" t="s">
         <v>0</v>
@@ -2761,11 +2742,11 @@
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B148" s="1">
         <f t="shared" si="9"/>
-        <v>42790</v>
+        <v>43277</v>
       </c>
       <c r="C148" t="s">
         <v>0</v>
@@ -2777,11 +2758,11 @@
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B149" s="1">
         <f t="shared" si="9"/>
-        <v>42791</v>
+        <v>43278</v>
       </c>
       <c r="C149" t="s">
         <v>0</v>
@@ -2790,14 +2771,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B150" s="1">
         <f t="shared" si="9"/>
-        <v>42792</v>
+        <v>43279</v>
       </c>
       <c r="C150" t="s">
         <v>0</v>
@@ -2809,11 +2790,11 @@
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B151" s="1">
         <f t="shared" si="9"/>
-        <v>42793</v>
+        <v>43280</v>
       </c>
       <c r="C151" t="s">
         <v>0</v>
@@ -2825,11 +2806,11 @@
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B152" s="1">
         <f t="shared" si="9"/>
-        <v>42794</v>
+        <v>43281</v>
       </c>
       <c r="C152" t="s">
         <v>0</v>
@@ -2838,14 +2819,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B153" s="1">
         <f t="shared" si="9"/>
-        <v>42795</v>
+        <v>43282</v>
       </c>
       <c r="C153" t="s">
         <v>0</v>
@@ -2857,11 +2838,11 @@
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B154" s="1">
         <f t="shared" si="9"/>
-        <v>42796</v>
+        <v>43283</v>
       </c>
       <c r="C154" t="s">
         <v>0</v>
@@ -2873,11 +2854,11 @@
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B155" s="1">
         <f t="shared" si="9"/>
-        <v>42797</v>
+        <v>43284</v>
       </c>
       <c r="C155" t="s">
         <v>0</v>
@@ -2889,11 +2870,11 @@
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B156" s="1">
         <f t="shared" si="9"/>
-        <v>42798</v>
+        <v>43285</v>
       </c>
       <c r="C156" t="s">
         <v>0</v>
@@ -2902,14 +2883,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B157" s="1">
         <f t="shared" si="9"/>
-        <v>42799</v>
+        <v>43286</v>
       </c>
       <c r="C157" t="s">
         <v>0</v>
@@ -2921,11 +2902,11 @@
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B158" s="1">
         <f t="shared" si="9"/>
-        <v>42800</v>
+        <v>43287</v>
       </c>
       <c r="C158" t="s">
         <v>0</v>
@@ -2937,11 +2918,11 @@
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B159" s="1">
         <f t="shared" si="9"/>
-        <v>42801</v>
+        <v>43288</v>
       </c>
       <c r="C159" t="s">
         <v>0</v>
@@ -2950,14 +2931,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B160" s="1">
         <f t="shared" si="9"/>
-        <v>42802</v>
+        <v>43289</v>
       </c>
       <c r="C160" t="s">
         <v>0</v>
@@ -2969,11 +2950,11 @@
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B161" s="1">
         <f t="shared" si="9"/>
-        <v>42803</v>
+        <v>43290</v>
       </c>
       <c r="C161" t="s">
         <v>0</v>
@@ -2985,11 +2966,11 @@
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B162" s="1">
         <f t="shared" si="9"/>
-        <v>42804</v>
+        <v>43291</v>
       </c>
       <c r="C162" t="s">
         <v>0</v>
@@ -3001,11 +2982,11 @@
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B163" s="1">
         <f t="shared" si="9"/>
-        <v>42805</v>
+        <v>43292</v>
       </c>
       <c r="C163" t="s">
         <v>0</v>
@@ -3014,14 +2995,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B164" s="1">
         <f t="shared" si="9"/>
-        <v>42806</v>
+        <v>43293</v>
       </c>
       <c r="C164" t="s">
         <v>0</v>
@@ -3033,11 +3014,11 @@
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B165" s="1">
         <f t="shared" si="9"/>
-        <v>42807</v>
+        <v>43294</v>
       </c>
       <c r="C165" t="s">
         <v>0</v>
@@ -3049,11 +3030,11 @@
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B166" s="1">
         <f t="shared" si="9"/>
-        <v>42808</v>
+        <v>43295</v>
       </c>
       <c r="C166" t="s">
         <v>0</v>
@@ -3062,14 +3043,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B167" s="1">
         <f t="shared" si="9"/>
-        <v>42809</v>
+        <v>43296</v>
       </c>
       <c r="C167" t="s">
         <v>0</v>
@@ -3081,11 +3062,11 @@
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B168" s="1">
         <f t="shared" si="9"/>
-        <v>42810</v>
+        <v>43297</v>
       </c>
       <c r="C168" t="s">
         <v>0</v>
@@ -3097,11 +3078,11 @@
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B169" s="1">
         <f t="shared" si="9"/>
-        <v>42811</v>
+        <v>43298</v>
       </c>
       <c r="C169" t="s">
         <v>0</v>
@@ -3113,11 +3094,11 @@
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B170" s="1">
         <f t="shared" si="9"/>
-        <v>42812</v>
+        <v>43299</v>
       </c>
       <c r="C170" t="s">
         <v>0</v>
@@ -3126,14 +3107,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
-        <f t="shared" ref="A171:A207" si="10">+WEEKDAY(B171,2)</f>
-        <v>7</v>
+        <f t="shared" si="8"/>
+        <v>4</v>
       </c>
       <c r="B171" s="1">
-        <f t="shared" ref="B171:B207" si="11">+B170+1</f>
-        <v>42813</v>
+        <f t="shared" si="9"/>
+        <v>43300</v>
       </c>
       <c r="C171" t="s">
         <v>0</v>
@@ -3144,12 +3125,12 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
-        <f t="shared" si="10"/>
-        <v>1</v>
+        <f t="shared" ref="A172:A208" si="10">+WEEKDAY(B172,2)</f>
+        <v>5</v>
       </c>
       <c r="B172" s="1">
-        <f t="shared" si="11"/>
-        <v>42814</v>
+        <f t="shared" ref="B172:B208" si="11">+B171+1</f>
+        <v>43301</v>
       </c>
       <c r="C172" t="s">
         <v>0</v>
@@ -3161,11 +3142,11 @@
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B173" s="1">
         <f t="shared" si="11"/>
-        <v>42815</v>
+        <v>43302</v>
       </c>
       <c r="C173" t="s">
         <v>0</v>
@@ -3174,14 +3155,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B174" s="1">
         <f t="shared" si="11"/>
-        <v>42816</v>
+        <v>43303</v>
       </c>
       <c r="C174" t="s">
         <v>0</v>
@@ -3193,11 +3174,11 @@
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B175" s="1">
         <f t="shared" si="11"/>
-        <v>42817</v>
+        <v>43304</v>
       </c>
       <c r="C175" t="s">
         <v>0</v>
@@ -3209,11 +3190,11 @@
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B176" s="1">
         <f t="shared" si="11"/>
-        <v>42818</v>
+        <v>43305</v>
       </c>
       <c r="C176" t="s">
         <v>0</v>
@@ -3225,11 +3206,11 @@
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B177" s="1">
         <f t="shared" si="11"/>
-        <v>42819</v>
+        <v>43306</v>
       </c>
       <c r="C177" t="s">
         <v>0</v>
@@ -3238,14 +3219,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B178" s="1">
         <f t="shared" si="11"/>
-        <v>42820</v>
+        <v>43307</v>
       </c>
       <c r="C178" t="s">
         <v>0</v>
@@ -3257,11 +3238,11 @@
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B179" s="1">
         <f t="shared" si="11"/>
-        <v>42821</v>
+        <v>43308</v>
       </c>
       <c r="C179" t="s">
         <v>0</v>
@@ -3273,11 +3254,11 @@
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B180" s="1">
         <f t="shared" si="11"/>
-        <v>42822</v>
+        <v>43309</v>
       </c>
       <c r="C180" t="s">
         <v>0</v>
@@ -3286,14 +3267,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B181" s="1">
         <f t="shared" si="11"/>
-        <v>42823</v>
+        <v>43310</v>
       </c>
       <c r="C181" t="s">
         <v>0</v>
@@ -3305,11 +3286,11 @@
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B182" s="1">
         <f t="shared" si="11"/>
-        <v>42824</v>
+        <v>43311</v>
       </c>
       <c r="C182" t="s">
         <v>0</v>
@@ -3321,11 +3302,11 @@
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B183" s="1">
         <f t="shared" si="11"/>
-        <v>42825</v>
+        <v>43312</v>
       </c>
       <c r="C183" t="s">
         <v>0</v>
@@ -3337,11 +3318,11 @@
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B184" s="1">
         <f t="shared" si="11"/>
-        <v>42826</v>
+        <v>43313</v>
       </c>
       <c r="C184" t="s">
         <v>0</v>
@@ -3350,14 +3331,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B185" s="1">
         <f t="shared" si="11"/>
-        <v>42827</v>
+        <v>43314</v>
       </c>
       <c r="C185" t="s">
         <v>0</v>
@@ -3369,11 +3350,11 @@
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B186" s="1">
         <f t="shared" si="11"/>
-        <v>42828</v>
+        <v>43315</v>
       </c>
       <c r="C186" t="s">
         <v>0</v>
@@ -3385,11 +3366,11 @@
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B187" s="1">
         <f t="shared" si="11"/>
-        <v>42829</v>
+        <v>43316</v>
       </c>
       <c r="C187" t="s">
         <v>0</v>
@@ -3398,14 +3379,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B188" s="1">
         <f t="shared" si="11"/>
-        <v>42830</v>
+        <v>43317</v>
       </c>
       <c r="C188" t="s">
         <v>0</v>
@@ -3417,11 +3398,11 @@
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B189" s="1">
         <f t="shared" si="11"/>
-        <v>42831</v>
+        <v>43318</v>
       </c>
       <c r="C189" t="s">
         <v>0</v>
@@ -3433,11 +3414,11 @@
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B190" s="1">
         <f t="shared" si="11"/>
-        <v>42832</v>
+        <v>43319</v>
       </c>
       <c r="C190" t="s">
         <v>0</v>
@@ -3449,11 +3430,11 @@
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B191" s="1">
         <f t="shared" si="11"/>
-        <v>42833</v>
+        <v>43320</v>
       </c>
       <c r="C191" t="s">
         <v>0</v>
@@ -3462,14 +3443,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B192" s="1">
         <f t="shared" si="11"/>
-        <v>42834</v>
+        <v>43321</v>
       </c>
       <c r="C192" t="s">
         <v>0</v>
@@ -3481,11 +3462,11 @@
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B193" s="1">
         <f t="shared" si="11"/>
-        <v>42835</v>
+        <v>43322</v>
       </c>
       <c r="C193" t="s">
         <v>0</v>
@@ -3497,11 +3478,11 @@
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B194" s="1">
         <f t="shared" si="11"/>
-        <v>42836</v>
+        <v>43323</v>
       </c>
       <c r="C194" t="s">
         <v>0</v>
@@ -3510,14 +3491,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B195" s="1">
         <f t="shared" si="11"/>
-        <v>42837</v>
+        <v>43324</v>
       </c>
       <c r="C195" t="s">
         <v>0</v>
@@ -3529,11 +3510,11 @@
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B196" s="1">
         <f t="shared" si="11"/>
-        <v>42838</v>
+        <v>43325</v>
       </c>
       <c r="C196" t="s">
         <v>0</v>
@@ -3545,11 +3526,11 @@
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B197" s="1">
         <f t="shared" si="11"/>
-        <v>42839</v>
+        <v>43326</v>
       </c>
       <c r="C197" t="s">
         <v>0</v>
@@ -3561,27 +3542,24 @@
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B198" s="1">
         <f t="shared" si="11"/>
-        <v>42840</v>
+        <v>43327</v>
       </c>
       <c r="C198" t="s">
-        <v>0</v>
-      </c>
-      <c r="D198" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B199" s="1">
         <f t="shared" si="11"/>
-        <v>42841</v>
+        <v>43328</v>
       </c>
       <c r="C199" t="s">
         <v>0</v>
@@ -3593,11 +3571,11 @@
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B200" s="1">
         <f t="shared" si="11"/>
-        <v>42842</v>
+        <v>43329</v>
       </c>
       <c r="C200" t="s">
         <v>0</v>
@@ -3609,11 +3587,11 @@
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B201" s="1">
         <f t="shared" si="11"/>
-        <v>42843</v>
+        <v>43330</v>
       </c>
       <c r="C201" t="s">
         <v>0</v>
@@ -3622,14 +3600,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B202" s="1">
         <f t="shared" si="11"/>
-        <v>42844</v>
+        <v>43331</v>
       </c>
       <c r="C202" t="s">
         <v>0</v>
@@ -3641,11 +3619,11 @@
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B203" s="1">
         <f t="shared" si="11"/>
-        <v>42845</v>
+        <v>43332</v>
       </c>
       <c r="C203" t="s">
         <v>0</v>
@@ -3657,11 +3635,11 @@
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B204" s="1">
         <f t="shared" si="11"/>
-        <v>42846</v>
+        <v>43333</v>
       </c>
       <c r="C204" t="s">
         <v>0</v>
@@ -3673,11 +3651,11 @@
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B205" s="1">
         <f t="shared" si="11"/>
-        <v>42847</v>
+        <v>43334</v>
       </c>
       <c r="C205" t="s">
         <v>0</v>
@@ -3686,14 +3664,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B206" s="1">
         <f t="shared" si="11"/>
-        <v>42848</v>
+        <v>43335</v>
       </c>
       <c r="C206" t="s">
         <v>0</v>
@@ -3705,11 +3683,11 @@
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B207" s="1">
         <f t="shared" si="11"/>
-        <v>42849</v>
+        <v>43336</v>
       </c>
       <c r="C207" t="s">
         <v>0</v>
@@ -3720,12 +3698,12 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
-        <f t="shared" ref="A208:A271" si="12">+WEEKDAY(B208,2)</f>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="B208" s="1">
-        <f t="shared" ref="B208:B271" si="13">+B207+1</f>
-        <v>42850</v>
+        <f t="shared" si="11"/>
+        <v>43337</v>
       </c>
       <c r="C208" t="s">
         <v>0</v>
@@ -3734,14 +3712,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <f t="shared" si="12"/>
-        <v>3</v>
+        <f t="shared" ref="A209:A272" si="12">+WEEKDAY(B209,2)</f>
+        <v>7</v>
       </c>
       <c r="B209" s="1">
-        <f t="shared" si="13"/>
-        <v>42851</v>
+        <f t="shared" ref="B209:B272" si="13">+B208+1</f>
+        <v>43338</v>
       </c>
       <c r="C209" t="s">
         <v>0</v>
@@ -3753,11 +3731,11 @@
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B210" s="1">
         <f t="shared" si="13"/>
-        <v>42852</v>
+        <v>43339</v>
       </c>
       <c r="C210" t="s">
         <v>0</v>
@@ -3769,11 +3747,11 @@
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B211" s="1">
         <f t="shared" si="13"/>
-        <v>42853</v>
+        <v>43340</v>
       </c>
       <c r="C211" t="s">
         <v>0</v>
@@ -3785,11 +3763,11 @@
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B212" s="1">
         <f t="shared" si="13"/>
-        <v>42854</v>
+        <v>43341</v>
       </c>
       <c r="C212" t="s">
         <v>0</v>
@@ -3798,14 +3776,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B213" s="1">
         <f t="shared" si="13"/>
-        <v>42855</v>
+        <v>43342</v>
       </c>
       <c r="C213" t="s">
         <v>0</v>
@@ -3817,11 +3795,11 @@
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B214" s="1">
         <f t="shared" si="13"/>
-        <v>42856</v>
+        <v>43343</v>
       </c>
       <c r="C214" t="s">
         <v>0</v>
@@ -3833,11 +3811,11 @@
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B215" s="1">
         <f t="shared" si="13"/>
-        <v>42857</v>
+        <v>43344</v>
       </c>
       <c r="C215" t="s">
         <v>0</v>
@@ -3846,14 +3824,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B216" s="1">
         <f t="shared" si="13"/>
-        <v>42858</v>
+        <v>43345</v>
       </c>
       <c r="C216" t="s">
         <v>0</v>
@@ -3865,11 +3843,11 @@
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B217" s="1">
         <f t="shared" si="13"/>
-        <v>42859</v>
+        <v>43346</v>
       </c>
       <c r="C217" t="s">
         <v>0</v>
@@ -3881,11 +3859,11 @@
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B218" s="1">
         <f t="shared" si="13"/>
-        <v>42860</v>
+        <v>43347</v>
       </c>
       <c r="C218" t="s">
         <v>0</v>
@@ -3897,11 +3875,11 @@
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B219" s="1">
         <f t="shared" si="13"/>
-        <v>42861</v>
+        <v>43348</v>
       </c>
       <c r="C219" t="s">
         <v>0</v>
@@ -3910,14 +3888,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B220" s="1">
         <f t="shared" si="13"/>
-        <v>42862</v>
+        <v>43349</v>
       </c>
       <c r="C220" t="s">
         <v>0</v>
@@ -3929,11 +3907,11 @@
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B221" s="1">
         <f t="shared" si="13"/>
-        <v>42863</v>
+        <v>43350</v>
       </c>
       <c r="C221" t="s">
         <v>0</v>
@@ -3945,11 +3923,11 @@
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B222" s="1">
         <f t="shared" si="13"/>
-        <v>42864</v>
+        <v>43351</v>
       </c>
       <c r="C222" t="s">
         <v>0</v>
@@ -3958,14 +3936,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B223" s="1">
         <f t="shared" si="13"/>
-        <v>42865</v>
+        <v>43352</v>
       </c>
       <c r="C223" t="s">
         <v>0</v>
@@ -3977,11 +3955,11 @@
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B224" s="1">
         <f t="shared" si="13"/>
-        <v>42866</v>
+        <v>43353</v>
       </c>
       <c r="C224" t="s">
         <v>0</v>
@@ -3993,11 +3971,11 @@
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B225" s="1">
         <f t="shared" si="13"/>
-        <v>42867</v>
+        <v>43354</v>
       </c>
       <c r="C225" t="s">
         <v>0</v>
@@ -4009,11 +3987,11 @@
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B226" s="1">
         <f t="shared" si="13"/>
-        <v>42868</v>
+        <v>43355</v>
       </c>
       <c r="C226" t="s">
         <v>0</v>
@@ -4022,14 +4000,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B227" s="1">
         <f t="shared" si="13"/>
-        <v>42869</v>
+        <v>43356</v>
       </c>
       <c r="C227" t="s">
         <v>0</v>
@@ -4041,11 +4019,11 @@
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B228" s="1">
         <f t="shared" si="13"/>
-        <v>42870</v>
+        <v>43357</v>
       </c>
       <c r="C228" t="s">
         <v>0</v>
@@ -4057,11 +4035,11 @@
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B229" s="1">
         <f t="shared" si="13"/>
-        <v>42871</v>
+        <v>43358</v>
       </c>
       <c r="C229" t="s">
         <v>0</v>
@@ -4070,14 +4048,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B230" s="1">
         <f t="shared" si="13"/>
-        <v>42872</v>
+        <v>43359</v>
       </c>
       <c r="C230" t="s">
         <v>0</v>
@@ -4089,11 +4067,11 @@
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B231" s="1">
         <f t="shared" si="13"/>
-        <v>42873</v>
+        <v>43360</v>
       </c>
       <c r="C231" t="s">
         <v>0</v>
@@ -4105,11 +4083,11 @@
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B232" s="1">
         <f t="shared" si="13"/>
-        <v>42874</v>
+        <v>43361</v>
       </c>
       <c r="C232" t="s">
         <v>0</v>
@@ -4121,11 +4099,11 @@
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B233" s="1">
         <f t="shared" si="13"/>
-        <v>42875</v>
+        <v>43362</v>
       </c>
       <c r="C233" t="s">
         <v>0</v>
@@ -4134,14 +4112,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B234" s="1">
         <f t="shared" si="13"/>
-        <v>42876</v>
+        <v>43363</v>
       </c>
       <c r="C234" t="s">
         <v>0</v>
@@ -4153,11 +4131,11 @@
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B235" s="1">
         <f t="shared" si="13"/>
-        <v>42877</v>
+        <v>43364</v>
       </c>
       <c r="C235" t="s">
         <v>0</v>
@@ -4169,11 +4147,11 @@
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B236" s="1">
         <f t="shared" si="13"/>
-        <v>42878</v>
+        <v>43365</v>
       </c>
       <c r="C236" t="s">
         <v>0</v>
@@ -4182,14 +4160,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B237" s="1">
         <f t="shared" si="13"/>
-        <v>42879</v>
+        <v>43366</v>
       </c>
       <c r="C237" t="s">
         <v>0</v>
@@ -4201,11 +4179,11 @@
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B238" s="1">
         <f t="shared" si="13"/>
-        <v>42880</v>
+        <v>43367</v>
       </c>
       <c r="C238" t="s">
         <v>0</v>
@@ -4217,11 +4195,11 @@
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B239" s="1">
         <f t="shared" si="13"/>
-        <v>42881</v>
+        <v>43368</v>
       </c>
       <c r="C239" t="s">
         <v>0</v>
@@ -4233,11 +4211,11 @@
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B240" s="1">
         <f t="shared" si="13"/>
-        <v>42882</v>
+        <v>43369</v>
       </c>
       <c r="C240" t="s">
         <v>0</v>
@@ -4246,14 +4224,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B241" s="1">
         <f t="shared" si="13"/>
-        <v>42883</v>
+        <v>43370</v>
       </c>
       <c r="C241" t="s">
         <v>0</v>
@@ -4265,11 +4243,11 @@
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B242" s="1">
         <f t="shared" si="13"/>
-        <v>42884</v>
+        <v>43371</v>
       </c>
       <c r="C242" t="s">
         <v>0</v>
@@ -4281,11 +4259,11 @@
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B243" s="1">
         <f t="shared" si="13"/>
-        <v>42885</v>
+        <v>43372</v>
       </c>
       <c r="C243" t="s">
         <v>0</v>
@@ -4294,14 +4272,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B244" s="1">
         <f t="shared" si="13"/>
-        <v>42886</v>
+        <v>43373</v>
       </c>
       <c r="C244" t="s">
         <v>0</v>
@@ -4313,11 +4291,11 @@
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B245" s="1">
         <f t="shared" si="13"/>
-        <v>42887</v>
+        <v>43374</v>
       </c>
       <c r="C245" t="s">
         <v>0</v>
@@ -4329,11 +4307,11 @@
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B246" s="1">
         <f t="shared" si="13"/>
-        <v>42888</v>
+        <v>43375</v>
       </c>
       <c r="C246" t="s">
         <v>0</v>
@@ -4345,11 +4323,11 @@
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B247" s="1">
         <f t="shared" si="13"/>
-        <v>42889</v>
+        <v>43376</v>
       </c>
       <c r="C247" t="s">
         <v>0</v>
@@ -4358,14 +4336,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B248" s="1">
         <f t="shared" si="13"/>
-        <v>42890</v>
+        <v>43377</v>
       </c>
       <c r="C248" t="s">
         <v>0</v>
@@ -4377,11 +4355,11 @@
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B249" s="1">
         <f t="shared" si="13"/>
-        <v>42891</v>
+        <v>43378</v>
       </c>
       <c r="C249" t="s">
         <v>0</v>
@@ -4393,11 +4371,11 @@
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B250" s="1">
         <f t="shared" si="13"/>
-        <v>42892</v>
+        <v>43379</v>
       </c>
       <c r="C250" t="s">
         <v>0</v>
@@ -4406,14 +4384,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B251" s="1">
         <f t="shared" si="13"/>
-        <v>42893</v>
+        <v>43380</v>
       </c>
       <c r="C251" t="s">
         <v>0</v>
@@ -4425,11 +4403,11 @@
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B252" s="1">
         <f t="shared" si="13"/>
-        <v>42894</v>
+        <v>43381</v>
       </c>
       <c r="C252" t="s">
         <v>0</v>
@@ -4441,11 +4419,11 @@
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B253" s="1">
         <f t="shared" si="13"/>
-        <v>42895</v>
+        <v>43382</v>
       </c>
       <c r="C253" t="s">
         <v>0</v>
@@ -4457,11 +4435,11 @@
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B254" s="1">
         <f t="shared" si="13"/>
-        <v>42896</v>
+        <v>43383</v>
       </c>
       <c r="C254" t="s">
         <v>0</v>
@@ -4470,14 +4448,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B255" s="1">
         <f t="shared" si="13"/>
-        <v>42897</v>
+        <v>43384</v>
       </c>
       <c r="C255" t="s">
         <v>0</v>
@@ -4489,27 +4467,24 @@
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B256" s="1">
         <f t="shared" si="13"/>
-        <v>42898</v>
+        <v>43385</v>
       </c>
       <c r="C256" t="s">
-        <v>0</v>
-      </c>
-      <c r="D256" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B257" s="1">
         <f t="shared" si="13"/>
-        <v>42899</v>
+        <v>43386</v>
       </c>
       <c r="C257" t="s">
         <v>0</v>
@@ -4518,14 +4493,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B258" s="1">
         <f t="shared" si="13"/>
-        <v>42900</v>
+        <v>43387</v>
       </c>
       <c r="C258" t="s">
         <v>0</v>
@@ -4537,11 +4512,11 @@
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B259" s="1">
         <f t="shared" si="13"/>
-        <v>42901</v>
+        <v>43388</v>
       </c>
       <c r="C259" t="s">
         <v>0</v>
@@ -4553,11 +4528,11 @@
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B260" s="1">
         <f t="shared" si="13"/>
-        <v>42902</v>
+        <v>43389</v>
       </c>
       <c r="C260" t="s">
         <v>0</v>
@@ -4569,11 +4544,11 @@
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B261" s="1">
         <f t="shared" si="13"/>
-        <v>42903</v>
+        <v>43390</v>
       </c>
       <c r="C261" t="s">
         <v>0</v>
@@ -4582,14 +4557,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B262" s="1">
         <f t="shared" si="13"/>
-        <v>42904</v>
+        <v>43391</v>
       </c>
       <c r="C262" t="s">
         <v>0</v>
@@ -4601,11 +4576,11 @@
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B263" s="1">
         <f t="shared" si="13"/>
-        <v>42905</v>
+        <v>43392</v>
       </c>
       <c r="C263" t="s">
         <v>0</v>
@@ -4617,11 +4592,11 @@
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B264" s="1">
         <f t="shared" si="13"/>
-        <v>42906</v>
+        <v>43393</v>
       </c>
       <c r="C264" t="s">
         <v>0</v>
@@ -4630,14 +4605,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B265" s="1">
         <f t="shared" si="13"/>
-        <v>42907</v>
+        <v>43394</v>
       </c>
       <c r="C265" t="s">
         <v>0</v>
@@ -4649,11 +4624,11 @@
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B266" s="1">
         <f t="shared" si="13"/>
-        <v>42908</v>
+        <v>43395</v>
       </c>
       <c r="C266" t="s">
         <v>0</v>
@@ -4665,11 +4640,11 @@
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B267" s="1">
         <f t="shared" si="13"/>
-        <v>42909</v>
+        <v>43396</v>
       </c>
       <c r="C267" t="s">
         <v>0</v>
@@ -4681,11 +4656,11 @@
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B268" s="1">
         <f t="shared" si="13"/>
-        <v>42910</v>
+        <v>43397</v>
       </c>
       <c r="C268" t="s">
         <v>0</v>
@@ -4694,14 +4669,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B269" s="1">
         <f t="shared" si="13"/>
-        <v>42911</v>
+        <v>43398</v>
       </c>
       <c r="C269" t="s">
         <v>0</v>
@@ -4713,11 +4688,11 @@
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B270" s="1">
         <f t="shared" si="13"/>
-        <v>42912</v>
+        <v>43399</v>
       </c>
       <c r="C270" t="s">
         <v>0</v>
@@ -4729,11 +4704,11 @@
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B271" s="1">
         <f t="shared" si="13"/>
-        <v>42913</v>
+        <v>43400</v>
       </c>
       <c r="C271" t="s">
         <v>0</v>
@@ -4742,14 +4717,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
-        <f t="shared" ref="A272:A335" si="14">+WEEKDAY(B272,2)</f>
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>7</v>
       </c>
       <c r="B272" s="1">
-        <f t="shared" ref="B272:B312" si="15">+B271+1</f>
-        <v>42914</v>
+        <f t="shared" si="13"/>
+        <v>43401</v>
       </c>
       <c r="C272" t="s">
         <v>0</v>
@@ -4760,12 +4735,12 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
-        <f t="shared" si="14"/>
-        <v>4</v>
+        <f t="shared" ref="A273:A336" si="14">+WEEKDAY(B273,2)</f>
+        <v>1</v>
       </c>
       <c r="B273" s="1">
-        <f t="shared" si="15"/>
-        <v>42915</v>
+        <f t="shared" ref="B273:B313" si="15">+B272+1</f>
+        <v>43402</v>
       </c>
       <c r="C273" t="s">
         <v>0</v>
@@ -4777,11 +4752,11 @@
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B274" s="1">
         <f t="shared" si="15"/>
-        <v>42916</v>
+        <v>43403</v>
       </c>
       <c r="C274" t="s">
         <v>0</v>
@@ -4793,11 +4768,11 @@
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B275" s="1">
         <f t="shared" si="15"/>
-        <v>42917</v>
+        <v>43404</v>
       </c>
       <c r="C275" t="s">
         <v>0</v>
@@ -4806,17 +4781,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B276" s="1">
         <f t="shared" si="15"/>
-        <v>42918</v>
+        <v>43405</v>
       </c>
       <c r="C276" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D276" t="s">
         <v>2</v>
@@ -4825,11 +4800,11 @@
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B277" s="1">
         <f t="shared" si="15"/>
-        <v>42919</v>
+        <v>43406</v>
       </c>
       <c r="C277" t="s">
         <v>0</v>
@@ -4841,11 +4816,11 @@
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B278" s="1">
         <f t="shared" si="15"/>
-        <v>42920</v>
+        <v>43407</v>
       </c>
       <c r="C278" t="s">
         <v>0</v>
@@ -4854,14 +4829,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B279" s="1">
         <f t="shared" si="15"/>
-        <v>42921</v>
+        <v>43408</v>
       </c>
       <c r="C279" t="s">
         <v>0</v>
@@ -4873,11 +4848,11 @@
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B280" s="1">
         <f t="shared" si="15"/>
-        <v>42922</v>
+        <v>43409</v>
       </c>
       <c r="C280" t="s">
         <v>0</v>
@@ -4889,11 +4864,11 @@
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B281" s="1">
         <f t="shared" si="15"/>
-        <v>42923</v>
+        <v>43410</v>
       </c>
       <c r="C281" t="s">
         <v>0</v>
@@ -4905,11 +4880,11 @@
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B282" s="1">
         <f t="shared" si="15"/>
-        <v>42924</v>
+        <v>43411</v>
       </c>
       <c r="C282" t="s">
         <v>0</v>
@@ -4918,14 +4893,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B283" s="1">
         <f t="shared" si="15"/>
-        <v>42925</v>
+        <v>43412</v>
       </c>
       <c r="C283" t="s">
         <v>0</v>
@@ -4937,27 +4912,24 @@
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B284" s="1">
         <f t="shared" si="15"/>
-        <v>42926</v>
+        <v>43413</v>
       </c>
       <c r="C284" t="s">
-        <v>0</v>
-      </c>
-      <c r="D284" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B285" s="1">
         <f t="shared" si="15"/>
-        <v>42927</v>
+        <v>43414</v>
       </c>
       <c r="C285" t="s">
         <v>0</v>
@@ -4966,14 +4938,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B286" s="1">
         <f t="shared" si="15"/>
-        <v>42928</v>
+        <v>43415</v>
       </c>
       <c r="C286" t="s">
         <v>0</v>
@@ -4985,11 +4957,11 @@
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B287" s="1">
         <f t="shared" si="15"/>
-        <v>42929</v>
+        <v>43416</v>
       </c>
       <c r="C287" t="s">
         <v>0</v>
@@ -5001,11 +4973,11 @@
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B288" s="1">
         <f t="shared" si="15"/>
-        <v>42930</v>
+        <v>43417</v>
       </c>
       <c r="C288" t="s">
         <v>0</v>
@@ -5017,11 +4989,11 @@
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B289" s="1">
         <f t="shared" si="15"/>
-        <v>42931</v>
+        <v>43418</v>
       </c>
       <c r="C289" t="s">
         <v>0</v>
@@ -5030,14 +5002,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B290" s="1">
         <f t="shared" si="15"/>
-        <v>42932</v>
+        <v>43419</v>
       </c>
       <c r="C290" t="s">
         <v>0</v>
@@ -5049,11 +5021,11 @@
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B291" s="1">
         <f t="shared" si="15"/>
-        <v>42933</v>
+        <v>43420</v>
       </c>
       <c r="C291" t="s">
         <v>0</v>
@@ -5065,11 +5037,11 @@
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B292" s="1">
         <f t="shared" si="15"/>
-        <v>42934</v>
+        <v>43421</v>
       </c>
       <c r="C292" t="s">
         <v>0</v>
@@ -5078,14 +5050,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B293" s="1">
         <f t="shared" si="15"/>
-        <v>42935</v>
+        <v>43422</v>
       </c>
       <c r="C293" t="s">
         <v>0</v>
@@ -5097,11 +5069,11 @@
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B294" s="1">
         <f t="shared" si="15"/>
-        <v>42936</v>
+        <v>43423</v>
       </c>
       <c r="C294" t="s">
         <v>0</v>
@@ -5113,11 +5085,11 @@
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B295" s="1">
         <f t="shared" si="15"/>
-        <v>42937</v>
+        <v>43424</v>
       </c>
       <c r="C295" t="s">
         <v>0</v>
@@ -5129,11 +5101,11 @@
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B296" s="1">
         <f t="shared" si="15"/>
-        <v>42938</v>
+        <v>43425</v>
       </c>
       <c r="C296" t="s">
         <v>0</v>
@@ -5142,14 +5114,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B297" s="1">
         <f t="shared" si="15"/>
-        <v>42939</v>
+        <v>43426</v>
       </c>
       <c r="C297" t="s">
         <v>0</v>
@@ -5161,11 +5133,11 @@
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B298" s="1">
         <f t="shared" si="15"/>
-        <v>42940</v>
+        <v>43427</v>
       </c>
       <c r="C298" t="s">
         <v>0</v>
@@ -5177,11 +5149,11 @@
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B299" s="1">
         <f t="shared" si="15"/>
-        <v>42941</v>
+        <v>43428</v>
       </c>
       <c r="C299" t="s">
         <v>0</v>
@@ -5190,14 +5162,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B300" s="1">
         <f t="shared" si="15"/>
-        <v>42942</v>
+        <v>43429</v>
       </c>
       <c r="C300" t="s">
         <v>0</v>
@@ -5209,11 +5181,11 @@
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B301" s="1">
         <f t="shared" si="15"/>
-        <v>42943</v>
+        <v>43430</v>
       </c>
       <c r="C301" t="s">
         <v>0</v>
@@ -5225,11 +5197,11 @@
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B302" s="1">
         <f t="shared" si="15"/>
-        <v>42944</v>
+        <v>43431</v>
       </c>
       <c r="C302" t="s">
         <v>0</v>
@@ -5241,11 +5213,11 @@
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B303" s="1">
         <f t="shared" si="15"/>
-        <v>42945</v>
+        <v>43432</v>
       </c>
       <c r="C303" t="s">
         <v>0</v>
@@ -5254,14 +5226,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B304" s="1">
         <f t="shared" si="15"/>
-        <v>42946</v>
+        <v>43433</v>
       </c>
       <c r="C304" t="s">
         <v>0</v>
@@ -5273,11 +5245,11 @@
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B305" s="1">
         <f t="shared" si="15"/>
-        <v>42947</v>
+        <v>43434</v>
       </c>
       <c r="C305" t="s">
         <v>0</v>
@@ -5289,11 +5261,11 @@
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B306" s="1">
         <f t="shared" si="15"/>
-        <v>42948</v>
+        <v>43435</v>
       </c>
       <c r="C306" t="s">
         <v>0</v>
@@ -5302,14 +5274,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B307" s="1">
         <f t="shared" si="15"/>
-        <v>42949</v>
+        <v>43436</v>
       </c>
       <c r="C307" t="s">
         <v>0</v>
@@ -5321,11 +5293,11 @@
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B308" s="1">
         <f t="shared" si="15"/>
-        <v>42950</v>
+        <v>43437</v>
       </c>
       <c r="C308" t="s">
         <v>0</v>
@@ -5337,11 +5309,11 @@
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B309" s="1">
         <f t="shared" si="15"/>
-        <v>42951</v>
+        <v>43438</v>
       </c>
       <c r="C309" t="s">
         <v>0</v>
@@ -5353,11 +5325,11 @@
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B310" s="1">
         <f t="shared" si="15"/>
-        <v>42952</v>
+        <v>43439</v>
       </c>
       <c r="C310" t="s">
         <v>0</v>
@@ -5366,30 +5338,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B311" s="1">
         <f t="shared" si="15"/>
-        <v>42953</v>
+        <v>43440</v>
       </c>
       <c r="C311" t="s">
-        <v>0</v>
-      </c>
-      <c r="D311" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B312" s="1">
         <f t="shared" si="15"/>
-        <v>42954</v>
+        <v>43441</v>
       </c>
       <c r="C312" t="s">
         <v>0</v>
@@ -5401,27 +5370,24 @@
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B313" s="1">
-        <f>+B312+1</f>
-        <v>42955</v>
+        <f t="shared" si="15"/>
+        <v>43442</v>
       </c>
       <c r="C313" t="s">
-        <v>0</v>
-      </c>
-      <c r="D313" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B314" s="1">
-        <f t="shared" ref="B314:B377" si="16">+B313+1</f>
-        <v>42956</v>
+        <f>+B313+1</f>
+        <v>43443</v>
       </c>
       <c r="C314" t="s">
         <v>0</v>
@@ -5433,11 +5399,11 @@
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B315" s="1">
-        <f t="shared" si="16"/>
-        <v>42957</v>
+        <f t="shared" ref="B315:B368" si="16">+B314+1</f>
+        <v>43444</v>
       </c>
       <c r="C315" t="s">
         <v>0</v>
@@ -5449,11 +5415,11 @@
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B316" s="1">
         <f t="shared" si="16"/>
-        <v>42958</v>
+        <v>43445</v>
       </c>
       <c r="C316" t="s">
         <v>0</v>
@@ -5465,11 +5431,11 @@
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B317" s="1">
         <f t="shared" si="16"/>
-        <v>42959</v>
+        <v>43446</v>
       </c>
       <c r="C317" t="s">
         <v>0</v>
@@ -5478,14 +5444,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B318" s="1">
         <f t="shared" si="16"/>
-        <v>42960</v>
+        <v>43447</v>
       </c>
       <c r="C318" t="s">
         <v>0</v>
@@ -5497,11 +5463,11 @@
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B319" s="1">
         <f t="shared" si="16"/>
-        <v>42961</v>
+        <v>43448</v>
       </c>
       <c r="C319" t="s">
         <v>0</v>
@@ -5513,11 +5479,11 @@
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B320" s="1">
         <f t="shared" si="16"/>
-        <v>42962</v>
+        <v>43449</v>
       </c>
       <c r="C320" t="s">
         <v>0</v>
@@ -5526,14 +5492,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B321" s="1">
         <f t="shared" si="16"/>
-        <v>42963</v>
+        <v>43450</v>
       </c>
       <c r="C321" t="s">
         <v>0</v>
@@ -5542,14 +5508,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B322" s="1">
         <f t="shared" si="16"/>
-        <v>42964</v>
+        <v>43451</v>
       </c>
       <c r="C322" t="s">
         <v>0</v>
@@ -5558,14 +5524,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B323" s="1">
         <f t="shared" si="16"/>
-        <v>42965</v>
+        <v>43452</v>
       </c>
       <c r="C323" t="s">
         <v>0</v>
@@ -5574,14 +5540,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B324" s="1">
         <f t="shared" si="16"/>
-        <v>42966</v>
+        <v>43453</v>
       </c>
       <c r="C324" t="s">
         <v>0</v>
@@ -5590,14 +5556,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B325" s="1">
         <f t="shared" si="16"/>
-        <v>42967</v>
+        <v>43454</v>
       </c>
       <c r="C325" t="s">
         <v>0</v>
@@ -5606,14 +5572,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B326" s="1">
         <f t="shared" si="16"/>
-        <v>42968</v>
+        <v>43455</v>
       </c>
       <c r="C326" t="s">
         <v>0</v>
@@ -5622,14 +5588,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B327" s="1">
         <f t="shared" si="16"/>
-        <v>42969</v>
+        <v>43456</v>
       </c>
       <c r="C327" t="s">
         <v>0</v>
@@ -5638,14 +5604,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B328" s="1">
         <f t="shared" si="16"/>
-        <v>42970</v>
+        <v>43457</v>
       </c>
       <c r="C328" t="s">
         <v>0</v>
@@ -5654,14 +5620,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B329" s="1">
         <f t="shared" si="16"/>
-        <v>42971</v>
+        <v>43458</v>
       </c>
       <c r="C329" t="s">
         <v>0</v>
@@ -5669,15 +5635,18 @@
       <c r="D329" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E329" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B330" s="1">
         <f t="shared" si="16"/>
-        <v>42972</v>
+        <v>43459</v>
       </c>
       <c r="C330" t="s">
         <v>0</v>
@@ -5685,15 +5654,18 @@
       <c r="D330" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E330" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B331" s="1">
         <f t="shared" si="16"/>
-        <v>42973</v>
+        <v>43460</v>
       </c>
       <c r="C331" t="s">
         <v>0</v>
@@ -5702,14 +5674,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B332" s="1">
         <f t="shared" si="16"/>
-        <v>42974</v>
+        <v>43461</v>
       </c>
       <c r="C332" t="s">
         <v>0</v>
@@ -5718,14 +5690,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B333" s="1">
         <f t="shared" si="16"/>
-        <v>42975</v>
+        <v>43462</v>
       </c>
       <c r="C333" t="s">
         <v>0</v>
@@ -5734,14 +5706,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B334" s="1">
         <f t="shared" si="16"/>
-        <v>42976</v>
+        <v>43463</v>
       </c>
       <c r="C334" t="s">
         <v>0</v>
@@ -5750,14 +5722,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B335" s="1">
         <f t="shared" si="16"/>
-        <v>42977</v>
+        <v>43464</v>
       </c>
       <c r="C335" t="s">
         <v>0</v>
@@ -5766,14 +5738,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
-        <f t="shared" ref="A336:A399" si="17">+WEEKDAY(B336,2)</f>
-        <v>4</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="B336" s="1">
         <f t="shared" si="16"/>
-        <v>42978</v>
+        <v>43465</v>
       </c>
       <c r="C336" t="s">
         <v>0</v>
@@ -5781,271 +5753,277 @@
       <c r="D336" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E336" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
+        <f t="shared" ref="A337:A368" si="17">+WEEKDAY(B337,2)</f>
+        <v>2</v>
+      </c>
+      <c r="B337" s="1">
+        <f t="shared" si="16"/>
+        <v>43466</v>
+      </c>
+      <c r="C337" t="s">
+        <v>0</v>
+      </c>
+      <c r="D337" t="s">
+        <v>2</v>
+      </c>
+      <c r="E337" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="B338" s="1">
+        <f t="shared" si="16"/>
+        <v>43467</v>
+      </c>
+      <c r="C338" t="s">
+        <v>0</v>
+      </c>
+      <c r="D338" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="B339" s="1">
+        <f t="shared" si="16"/>
+        <v>43468</v>
+      </c>
+      <c r="C339" t="s">
+        <v>0</v>
+      </c>
+      <c r="D339" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340">
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
-      <c r="B337" s="1">
+      <c r="B340" s="1">
         <f t="shared" si="16"/>
-        <v>42979</v>
-      </c>
-      <c r="C337" t="s">
-        <v>0</v>
-      </c>
-      <c r="D337" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338">
+        <v>43469</v>
+      </c>
+      <c r="C340" t="s">
+        <v>0</v>
+      </c>
+      <c r="D340" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341">
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="B338" s="1">
+      <c r="B341" s="1">
         <f t="shared" si="16"/>
-        <v>42980</v>
-      </c>
-      <c r="C338" t="s">
-        <v>0</v>
-      </c>
-      <c r="D338" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A339">
+        <v>43470</v>
+      </c>
+      <c r="C341" t="s">
+        <v>0</v>
+      </c>
+      <c r="D341" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A342">
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
-      <c r="B339" s="1">
+      <c r="B342" s="1">
         <f t="shared" si="16"/>
-        <v>42981</v>
-      </c>
-      <c r="C339" t="s">
-        <v>0</v>
-      </c>
-      <c r="D339" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A340">
+        <v>43471</v>
+      </c>
+      <c r="C342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D342" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="B340" s="1">
+      <c r="B343" s="1">
         <f t="shared" si="16"/>
-        <v>42982</v>
-      </c>
-      <c r="C340" t="s">
-        <v>0</v>
-      </c>
-      <c r="D340" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341">
+        <v>43472</v>
+      </c>
+      <c r="C343" t="s">
+        <v>0</v>
+      </c>
+      <c r="D343" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="B341" s="1">
+      <c r="B344" s="1">
         <f t="shared" si="16"/>
-        <v>42983</v>
-      </c>
-      <c r="C341" t="s">
-        <v>0</v>
-      </c>
-      <c r="D341" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342">
+        <v>43473</v>
+      </c>
+      <c r="C344" t="s">
+        <v>0</v>
+      </c>
+      <c r="D344" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="B342" s="1">
+      <c r="B345" s="1">
         <f t="shared" si="16"/>
-        <v>42984</v>
-      </c>
-      <c r="C342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D342" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A343">
+        <v>43474</v>
+      </c>
+      <c r="C345" t="s">
+        <v>0</v>
+      </c>
+      <c r="D345" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346">
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="B343" s="1">
+      <c r="B346" s="1">
         <f t="shared" si="16"/>
-        <v>42985</v>
-      </c>
-      <c r="C343" t="s">
-        <v>0</v>
-      </c>
-      <c r="D343" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A344">
+        <v>43475</v>
+      </c>
+      <c r="C346" t="s">
+        <v>0</v>
+      </c>
+      <c r="D346" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347">
         <f t="shared" si="17"/>
         <v>5</v>
       </c>
-      <c r="B344" s="1">
+      <c r="B347" s="1">
         <f t="shared" si="16"/>
-        <v>42986</v>
-      </c>
-      <c r="C344" t="s">
-        <v>0</v>
-      </c>
-      <c r="D344" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345">
+        <v>43476</v>
+      </c>
+      <c r="C347" t="s">
+        <v>0</v>
+      </c>
+      <c r="D347" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348">
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="B345" s="1">
+      <c r="B348" s="1">
         <f t="shared" si="16"/>
-        <v>42987</v>
-      </c>
-      <c r="C345" t="s">
-        <v>0</v>
-      </c>
-      <c r="D345" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A346">
+        <v>43477</v>
+      </c>
+      <c r="C348" t="s">
+        <v>0</v>
+      </c>
+      <c r="D348" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A349">
         <f t="shared" si="17"/>
         <v>7</v>
       </c>
-      <c r="B346" s="1">
+      <c r="B349" s="1">
         <f t="shared" si="16"/>
-        <v>42988</v>
-      </c>
-      <c r="C346" t="s">
-        <v>0</v>
-      </c>
-      <c r="D346" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347">
+        <v>43478</v>
+      </c>
+      <c r="C349" t="s">
+        <v>0</v>
+      </c>
+      <c r="D349" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="B347" s="1">
+      <c r="B350" s="1">
         <f t="shared" si="16"/>
-        <v>42989</v>
-      </c>
-      <c r="C347" t="s">
-        <v>0</v>
-      </c>
-      <c r="D347" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348">
+        <v>43479</v>
+      </c>
+      <c r="C350" t="s">
+        <v>0</v>
+      </c>
+      <c r="D350" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351">
         <f t="shared" si="17"/>
         <v>2</v>
       </c>
-      <c r="B348" s="1">
+      <c r="B351" s="1">
         <f t="shared" si="16"/>
-        <v>42990</v>
-      </c>
-      <c r="C348" t="s">
-        <v>0</v>
-      </c>
-      <c r="D348" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A349">
+        <v>43480</v>
+      </c>
+      <c r="C351" t="s">
+        <v>0</v>
+      </c>
+      <c r="D351" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352">
         <f t="shared" si="17"/>
         <v>3</v>
       </c>
-      <c r="B349" s="1">
+      <c r="B352" s="1">
         <f t="shared" si="16"/>
-        <v>42991</v>
-      </c>
-      <c r="C349" t="s">
-        <v>0</v>
-      </c>
-      <c r="D349" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A350">
+        <v>43481</v>
+      </c>
+      <c r="C352" t="s">
+        <v>0</v>
+      </c>
+      <c r="D352" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353">
         <f t="shared" si="17"/>
         <v>4</v>
       </c>
-      <c r="B350" s="1">
-        <f t="shared" si="16"/>
-        <v>42992</v>
-      </c>
-      <c r="C350" t="s">
-        <v>0</v>
-      </c>
-      <c r="D350" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A351">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="B351" s="1">
-        <f t="shared" si="16"/>
-        <v>42993</v>
-      </c>
-      <c r="C351" t="s">
-        <v>0</v>
-      </c>
-      <c r="D351" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A352">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="B352" s="1">
-        <f t="shared" si="16"/>
-        <v>42994</v>
-      </c>
-      <c r="C352" t="s">
-        <v>0</v>
-      </c>
-      <c r="D352" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A353">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
       <c r="B353" s="1">
         <f t="shared" si="16"/>
-        <v>42995</v>
+        <v>43482</v>
       </c>
       <c r="C353" t="s">
         <v>0</v>
@@ -6057,11 +6035,11 @@
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B354" s="1">
         <f t="shared" si="16"/>
-        <v>42996</v>
+        <v>43483</v>
       </c>
       <c r="C354" t="s">
         <v>0</v>
@@ -6073,11 +6051,11 @@
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B355" s="1">
         <f t="shared" si="16"/>
-        <v>42997</v>
+        <v>43484</v>
       </c>
       <c r="C355" t="s">
         <v>0</v>
@@ -6086,14 +6064,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B356" s="1">
         <f t="shared" si="16"/>
-        <v>42998</v>
+        <v>43485</v>
       </c>
       <c r="C356" t="s">
         <v>0</v>
@@ -6105,11 +6083,11 @@
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B357" s="1">
         <f t="shared" si="16"/>
-        <v>42999</v>
+        <v>43486</v>
       </c>
       <c r="C357" t="s">
         <v>0</v>
@@ -6121,11 +6099,11 @@
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B358" s="1">
         <f t="shared" si="16"/>
-        <v>43000</v>
+        <v>43487</v>
       </c>
       <c r="C358" t="s">
         <v>0</v>
@@ -6137,11 +6115,11 @@
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B359" s="1">
         <f t="shared" si="16"/>
-        <v>43001</v>
+        <v>43488</v>
       </c>
       <c r="C359" t="s">
         <v>0</v>
@@ -6150,14 +6128,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360">
         <f t="shared" si="17"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B360" s="1">
         <f t="shared" si="16"/>
-        <v>43002</v>
+        <v>43489</v>
       </c>
       <c r="C360" t="s">
         <v>0</v>
@@ -6169,11 +6147,11 @@
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B361" s="1">
         <f t="shared" si="16"/>
-        <v>43003</v>
+        <v>43490</v>
       </c>
       <c r="C361" t="s">
         <v>0</v>
@@ -6185,11 +6163,11 @@
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B362" s="1">
         <f t="shared" si="16"/>
-        <v>43004</v>
+        <v>43491</v>
       </c>
       <c r="C362" t="s">
         <v>0</v>
@@ -6198,14 +6176,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B363" s="1">
         <f t="shared" si="16"/>
-        <v>43005</v>
+        <v>43492</v>
       </c>
       <c r="C363" t="s">
         <v>0</v>
@@ -6217,11 +6195,11 @@
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
         <f t="shared" si="17"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B364" s="1">
         <f t="shared" si="16"/>
-        <v>43006</v>
+        <v>43493</v>
       </c>
       <c r="C364" t="s">
         <v>0</v>
@@ -6233,11 +6211,11 @@
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B365" s="1">
         <f t="shared" si="16"/>
-        <v>43007</v>
+        <v>43494</v>
       </c>
       <c r="C365" t="s">
         <v>0</v>
@@ -6249,11 +6227,11 @@
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366">
         <f t="shared" si="17"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B366" s="1">
         <f t="shared" si="16"/>
-        <v>43008</v>
+        <v>43495</v>
       </c>
       <c r="C366" t="s">
         <v>0</v>
@@ -6262,14 +6240,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367">
         <f t="shared" si="17"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B367" s="1">
         <f t="shared" si="16"/>
-        <v>43009</v>
+        <v>43496</v>
       </c>
       <c r="C367" t="s">
         <v>0</v>
@@ -6281,11 +6259,11 @@
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B368" s="1">
         <f t="shared" si="16"/>
-        <v>43010</v>
+        <v>43497</v>
       </c>
       <c r="C368" t="s">
         <v>0</v>
@@ -6294,2352 +6272,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A369">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="B369" s="1">
-        <f t="shared" si="16"/>
-        <v>43011</v>
-      </c>
-      <c r="C369" t="s">
-        <v>0</v>
-      </c>
-      <c r="D369" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="B370" s="1">
-        <f t="shared" si="16"/>
-        <v>43012</v>
-      </c>
-      <c r="C370" t="s">
-        <v>0</v>
-      </c>
-      <c r="D370" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="B371" s="1">
-        <f t="shared" si="16"/>
-        <v>43013</v>
-      </c>
-      <c r="C371" t="s">
-        <v>0</v>
-      </c>
-      <c r="D371" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="B372" s="1">
-        <f t="shared" si="16"/>
-        <v>43014</v>
-      </c>
-      <c r="C372" t="s">
-        <v>0</v>
-      </c>
-      <c r="D372" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="B373" s="1">
-        <f t="shared" si="16"/>
-        <v>43015</v>
-      </c>
-      <c r="C373" t="s">
-        <v>0</v>
-      </c>
-      <c r="D373" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A374">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="B374" s="1">
-        <f t="shared" si="16"/>
-        <v>43016</v>
-      </c>
-      <c r="C374" t="s">
-        <v>0</v>
-      </c>
-      <c r="D374" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="B375" s="1">
-        <f t="shared" si="16"/>
-        <v>43017</v>
-      </c>
-      <c r="C375" t="s">
-        <v>0</v>
-      </c>
-      <c r="D375" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A376">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="B376" s="1">
-        <f t="shared" si="16"/>
-        <v>43018</v>
-      </c>
-      <c r="C376" t="s">
-        <v>0</v>
-      </c>
-      <c r="D376" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A377">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="B377" s="1">
-        <f t="shared" si="16"/>
-        <v>43019</v>
-      </c>
-      <c r="C377" t="s">
-        <v>0</v>
-      </c>
-      <c r="D377" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A378">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="B378" s="1">
-        <f t="shared" ref="B378:B441" si="18">+B377+1</f>
-        <v>43020</v>
-      </c>
-      <c r="C378" t="s">
-        <v>0</v>
-      </c>
-      <c r="D378" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="B379" s="1">
-        <f t="shared" si="18"/>
-        <v>43021</v>
-      </c>
-      <c r="C379" t="s">
-        <v>0</v>
-      </c>
-      <c r="D379" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="B380" s="1">
-        <f t="shared" si="18"/>
-        <v>43022</v>
-      </c>
-      <c r="C380" t="s">
-        <v>0</v>
-      </c>
-      <c r="D380" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A381">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="B381" s="1">
-        <f t="shared" si="18"/>
-        <v>43023</v>
-      </c>
-      <c r="C381" t="s">
-        <v>0</v>
-      </c>
-      <c r="D381" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="B382" s="1">
-        <f t="shared" si="18"/>
-        <v>43024</v>
-      </c>
-      <c r="C382" t="s">
-        <v>0</v>
-      </c>
-      <c r="D382" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="B383" s="1">
-        <f t="shared" si="18"/>
-        <v>43025</v>
-      </c>
-      <c r="C383" t="s">
-        <v>0</v>
-      </c>
-      <c r="D383" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="B384" s="1">
-        <f t="shared" si="18"/>
-        <v>43026</v>
-      </c>
-      <c r="C384" t="s">
-        <v>0</v>
-      </c>
-      <c r="D384" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="B385" s="1">
-        <f t="shared" si="18"/>
-        <v>43027</v>
-      </c>
-      <c r="C385" t="s">
-        <v>0</v>
-      </c>
-      <c r="D385" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="B386" s="1">
-        <f t="shared" si="18"/>
-        <v>43028</v>
-      </c>
-      <c r="C386" t="s">
-        <v>0</v>
-      </c>
-      <c r="D386" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="B387" s="1">
-        <f t="shared" si="18"/>
-        <v>43029</v>
-      </c>
-      <c r="C387" t="s">
-        <v>0</v>
-      </c>
-      <c r="D387" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A388">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="B388" s="1">
-        <f t="shared" si="18"/>
-        <v>43030</v>
-      </c>
-      <c r="C388" t="s">
-        <v>0</v>
-      </c>
-      <c r="D388" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="B389" s="1">
-        <f t="shared" si="18"/>
-        <v>43031</v>
-      </c>
-      <c r="C389" t="s">
-        <v>0</v>
-      </c>
-      <c r="D389" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="B390" s="1">
-        <f t="shared" si="18"/>
-        <v>43032</v>
-      </c>
-      <c r="C390" t="s">
-        <v>0</v>
-      </c>
-      <c r="D390" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="B391" s="1">
-        <f t="shared" si="18"/>
-        <v>43033</v>
-      </c>
-      <c r="C391" t="s">
-        <v>0</v>
-      </c>
-      <c r="D391" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="B392" s="1">
-        <f t="shared" si="18"/>
-        <v>43034</v>
-      </c>
-      <c r="C392" t="s">
-        <v>0</v>
-      </c>
-      <c r="D392" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="B393" s="1">
-        <f t="shared" si="18"/>
-        <v>43035</v>
-      </c>
-      <c r="C393" t="s">
-        <v>0</v>
-      </c>
-      <c r="D393" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="B394" s="1">
-        <f t="shared" si="18"/>
-        <v>43036</v>
-      </c>
-      <c r="C394" t="s">
-        <v>0</v>
-      </c>
-      <c r="D394" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A395">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="B395" s="1">
-        <f t="shared" si="18"/>
-        <v>43037</v>
-      </c>
-      <c r="C395" t="s">
-        <v>0</v>
-      </c>
-      <c r="D395" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A396">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="B396" s="1">
-        <f t="shared" si="18"/>
-        <v>43038</v>
-      </c>
-      <c r="C396" t="s">
-        <v>0</v>
-      </c>
-      <c r="D396" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A397">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="B397" s="1">
-        <f t="shared" si="18"/>
-        <v>43039</v>
-      </c>
-      <c r="C397" t="s">
-        <v>0</v>
-      </c>
-      <c r="D397" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A398">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="B398" s="1">
-        <f t="shared" si="18"/>
-        <v>43040</v>
-      </c>
-      <c r="C398" t="s">
-        <v>0</v>
-      </c>
-      <c r="D398" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A399">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="B399" s="1">
-        <f t="shared" si="18"/>
-        <v>43041</v>
-      </c>
-      <c r="C399" t="s">
-        <v>0</v>
-      </c>
-      <c r="D399" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A400">
-        <f t="shared" ref="A400:A463" si="19">+WEEKDAY(B400,2)</f>
-        <v>5</v>
-      </c>
-      <c r="B400" s="1">
-        <f t="shared" si="18"/>
-        <v>43042</v>
-      </c>
-      <c r="C400" t="s">
-        <v>0</v>
-      </c>
-      <c r="D400" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A401">
-        <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="B401" s="1">
-        <f t="shared" si="18"/>
-        <v>43043</v>
-      </c>
-      <c r="C401" t="s">
-        <v>0</v>
-      </c>
-      <c r="D401" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A402">
-        <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="B402" s="1">
-        <f t="shared" si="18"/>
-        <v>43044</v>
-      </c>
-      <c r="C402" t="s">
-        <v>0</v>
-      </c>
-      <c r="D402" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A403">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="B403" s="1">
-        <f t="shared" si="18"/>
-        <v>43045</v>
-      </c>
-      <c r="C403" t="s">
-        <v>0</v>
-      </c>
-      <c r="D403" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A404">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="B404" s="1">
-        <f t="shared" si="18"/>
-        <v>43046</v>
-      </c>
-      <c r="C404" t="s">
-        <v>0</v>
-      </c>
-      <c r="D404" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A405">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="B405" s="1">
-        <f t="shared" si="18"/>
-        <v>43047</v>
-      </c>
-      <c r="C405" t="s">
-        <v>0</v>
-      </c>
-      <c r="D405" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A406">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="B406" s="1">
-        <f t="shared" si="18"/>
-        <v>43048</v>
-      </c>
-      <c r="C406" t="s">
-        <v>0</v>
-      </c>
-      <c r="D406" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A407">
-        <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="B407" s="1">
-        <f t="shared" si="18"/>
-        <v>43049</v>
-      </c>
-      <c r="C407" t="s">
-        <v>0</v>
-      </c>
-      <c r="D407" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A408">
-        <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="B408" s="1">
-        <f t="shared" si="18"/>
-        <v>43050</v>
-      </c>
-      <c r="C408" t="s">
-        <v>0</v>
-      </c>
-      <c r="D408" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A409">
-        <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="B409" s="1">
-        <f t="shared" si="18"/>
-        <v>43051</v>
-      </c>
-      <c r="C409" t="s">
-        <v>0</v>
-      </c>
-      <c r="D409" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A410">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="B410" s="1">
-        <f t="shared" si="18"/>
-        <v>43052</v>
-      </c>
-      <c r="C410" t="s">
-        <v>0</v>
-      </c>
-      <c r="D410" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A411">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="B411" s="1">
-        <f t="shared" si="18"/>
-        <v>43053</v>
-      </c>
-      <c r="C411" t="s">
-        <v>0</v>
-      </c>
-      <c r="D411" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A412">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="B412" s="1">
-        <f t="shared" si="18"/>
-        <v>43054</v>
-      </c>
-      <c r="C412" t="s">
-        <v>0</v>
-      </c>
-      <c r="D412" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A413">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="B413" s="1">
-        <f t="shared" si="18"/>
-        <v>43055</v>
-      </c>
-      <c r="C413" t="s">
-        <v>0</v>
-      </c>
-      <c r="D413" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A414">
-        <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="B414" s="1">
-        <f t="shared" si="18"/>
-        <v>43056</v>
-      </c>
-      <c r="C414" t="s">
-        <v>0</v>
-      </c>
-      <c r="D414" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A415">
-        <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="B415" s="1">
-        <f t="shared" si="18"/>
-        <v>43057</v>
-      </c>
-      <c r="C415" t="s">
-        <v>0</v>
-      </c>
-      <c r="D415" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A416">
-        <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="B416" s="1">
-        <f t="shared" si="18"/>
-        <v>43058</v>
-      </c>
-      <c r="C416" t="s">
-        <v>0</v>
-      </c>
-      <c r="D416" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A417">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="B417" s="1">
-        <f t="shared" si="18"/>
-        <v>43059</v>
-      </c>
-      <c r="C417" t="s">
-        <v>0</v>
-      </c>
-      <c r="D417" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="B418" s="1">
-        <f t="shared" si="18"/>
-        <v>43060</v>
-      </c>
-      <c r="C418" t="s">
-        <v>0</v>
-      </c>
-      <c r="D418" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="B419" s="1">
-        <f t="shared" si="18"/>
-        <v>43061</v>
-      </c>
-      <c r="C419" t="s">
-        <v>0</v>
-      </c>
-      <c r="D419" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="B420" s="1">
-        <f t="shared" si="18"/>
-        <v>43062</v>
-      </c>
-      <c r="C420" t="s">
-        <v>0</v>
-      </c>
-      <c r="D420" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A421">
-        <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="B421" s="1">
-        <f t="shared" si="18"/>
-        <v>43063</v>
-      </c>
-      <c r="C421" t="s">
-        <v>0</v>
-      </c>
-      <c r="D421" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422">
-        <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="B422" s="1">
-        <f t="shared" si="18"/>
-        <v>43064</v>
-      </c>
-      <c r="C422" t="s">
-        <v>0</v>
-      </c>
-      <c r="D422" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A423">
-        <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="B423" s="1">
-        <f t="shared" si="18"/>
-        <v>43065</v>
-      </c>
-      <c r="C423" t="s">
-        <v>0</v>
-      </c>
-      <c r="D423" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A424">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="B424" s="1">
-        <f t="shared" si="18"/>
-        <v>43066</v>
-      </c>
-      <c r="C424" t="s">
-        <v>0</v>
-      </c>
-      <c r="D424" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A425">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="B425" s="1">
-        <f t="shared" si="18"/>
-        <v>43067</v>
-      </c>
-      <c r="C425" t="s">
-        <v>0</v>
-      </c>
-      <c r="D425" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A426">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="B426" s="1">
-        <f t="shared" si="18"/>
-        <v>43068</v>
-      </c>
-      <c r="C426" t="s">
-        <v>0</v>
-      </c>
-      <c r="D426" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A427">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="B427" s="1">
-        <f t="shared" si="18"/>
-        <v>43069</v>
-      </c>
-      <c r="C427" t="s">
-        <v>0</v>
-      </c>
-      <c r="D427" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A428">
-        <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="B428" s="1">
-        <f t="shared" si="18"/>
-        <v>43070</v>
-      </c>
-      <c r="C428" t="s">
-        <v>0</v>
-      </c>
-      <c r="D428" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429">
-        <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="B429" s="1">
-        <f t="shared" si="18"/>
-        <v>43071</v>
-      </c>
-      <c r="C429" t="s">
-        <v>0</v>
-      </c>
-      <c r="D429" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A430">
-        <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="B430" s="1">
-        <f t="shared" si="18"/>
-        <v>43072</v>
-      </c>
-      <c r="C430" t="s">
-        <v>0</v>
-      </c>
-      <c r="D430" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="B431" s="1">
-        <f t="shared" si="18"/>
-        <v>43073</v>
-      </c>
-      <c r="C431" t="s">
-        <v>0</v>
-      </c>
-      <c r="D431" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="B432" s="1">
-        <f t="shared" si="18"/>
-        <v>43074</v>
-      </c>
-      <c r="C432" t="s">
-        <v>0</v>
-      </c>
-      <c r="D432" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A433">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="B433" s="1">
-        <f t="shared" si="18"/>
-        <v>43075</v>
-      </c>
-      <c r="C433" t="s">
-        <v>0</v>
-      </c>
-      <c r="D433" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A434">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="B434" s="1">
-        <f t="shared" si="18"/>
-        <v>43076</v>
-      </c>
-      <c r="C434" t="s">
-        <v>0</v>
-      </c>
-      <c r="D434" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A435">
-        <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="B435" s="1">
-        <f t="shared" si="18"/>
-        <v>43077</v>
-      </c>
-      <c r="C435" t="s">
-        <v>0</v>
-      </c>
-      <c r="D435" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A436">
-        <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="B436" s="1">
-        <f t="shared" si="18"/>
-        <v>43078</v>
-      </c>
-      <c r="C436" t="s">
-        <v>0</v>
-      </c>
-      <c r="D436" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A437">
-        <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="B437" s="1">
-        <f t="shared" si="18"/>
-        <v>43079</v>
-      </c>
-      <c r="C437" t="s">
-        <v>0</v>
-      </c>
-      <c r="D437" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A438">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="B438" s="1">
-        <f t="shared" si="18"/>
-        <v>43080</v>
-      </c>
-      <c r="C438" t="s">
-        <v>0</v>
-      </c>
-      <c r="D438" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A439">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="B439" s="1">
-        <f t="shared" si="18"/>
-        <v>43081</v>
-      </c>
-      <c r="C439" t="s">
-        <v>0</v>
-      </c>
-      <c r="D439" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A440">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="B440" s="1">
-        <f t="shared" si="18"/>
-        <v>43082</v>
-      </c>
-      <c r="C440" t="s">
-        <v>0</v>
-      </c>
-      <c r="D440" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A441">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="B441" s="1">
-        <f t="shared" si="18"/>
-        <v>43083</v>
-      </c>
-      <c r="C441" t="s">
-        <v>0</v>
-      </c>
-      <c r="D441" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A442">
-        <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="B442" s="1">
-        <f t="shared" ref="B442:B488" si="20">+B441+1</f>
-        <v>43084</v>
-      </c>
-      <c r="C442" t="s">
-        <v>0</v>
-      </c>
-      <c r="D442" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A443">
-        <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="B443" s="1">
-        <f t="shared" si="20"/>
-        <v>43085</v>
-      </c>
-      <c r="C443" t="s">
-        <v>0</v>
-      </c>
-      <c r="D443" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A444">
-        <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="B444" s="1">
-        <f t="shared" si="20"/>
-        <v>43086</v>
-      </c>
-      <c r="C444" t="s">
-        <v>0</v>
-      </c>
-      <c r="D444" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A445">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="B445" s="1">
-        <f t="shared" si="20"/>
-        <v>43087</v>
-      </c>
-      <c r="C445" t="s">
-        <v>0</v>
-      </c>
-      <c r="D445" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A446">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="B446" s="1">
-        <f t="shared" si="20"/>
-        <v>43088</v>
-      </c>
-      <c r="C446" t="s">
-        <v>0</v>
-      </c>
-      <c r="D446" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="B447" s="1">
-        <f t="shared" si="20"/>
-        <v>43089</v>
-      </c>
-      <c r="C447" t="s">
-        <v>0</v>
-      </c>
-      <c r="D447" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A448">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="B448" s="1">
-        <f t="shared" si="20"/>
-        <v>43090</v>
-      </c>
-      <c r="C448" t="s">
-        <v>0</v>
-      </c>
-      <c r="D448" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449">
-        <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="B449" s="1">
-        <f t="shared" si="20"/>
-        <v>43091</v>
-      </c>
-      <c r="C449" t="s">
-        <v>0</v>
-      </c>
-      <c r="D449" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A450">
-        <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="B450" s="1">
-        <f t="shared" si="20"/>
-        <v>43092</v>
-      </c>
-      <c r="C450" t="s">
-        <v>0</v>
-      </c>
-      <c r="D450" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A451">
-        <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="B451" s="1">
-        <f t="shared" si="20"/>
-        <v>43093</v>
-      </c>
-      <c r="C451" t="s">
-        <v>0</v>
-      </c>
-      <c r="D451" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A452">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="B452" s="1">
-        <f t="shared" si="20"/>
-        <v>43094</v>
-      </c>
-      <c r="C452" t="s">
-        <v>0</v>
-      </c>
-      <c r="D452" t="s">
-        <v>2</v>
-      </c>
-      <c r="E452" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A453">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="B453" s="1">
-        <f t="shared" si="20"/>
-        <v>43095</v>
-      </c>
-      <c r="C453" t="s">
-        <v>0</v>
-      </c>
-      <c r="D453" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A454">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="B454" s="1">
-        <f t="shared" si="20"/>
-        <v>43096</v>
-      </c>
-      <c r="C454" t="s">
-        <v>0</v>
-      </c>
-      <c r="D454" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A455">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="B455" s="1">
-        <f t="shared" si="20"/>
-        <v>43097</v>
-      </c>
-      <c r="C455" t="s">
-        <v>0</v>
-      </c>
-      <c r="D455" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A456">
-        <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="B456" s="1">
-        <f t="shared" si="20"/>
-        <v>43098</v>
-      </c>
-      <c r="C456" t="s">
-        <v>0</v>
-      </c>
-      <c r="D456" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A457">
-        <f t="shared" si="19"/>
-        <v>6</v>
-      </c>
-      <c r="B457" s="1">
-        <f t="shared" si="20"/>
-        <v>43099</v>
-      </c>
-      <c r="C457" t="s">
-        <v>0</v>
-      </c>
-      <c r="D457" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A458">
-        <f t="shared" si="19"/>
-        <v>7</v>
-      </c>
-      <c r="B458" s="1">
-        <f t="shared" si="20"/>
-        <v>43100</v>
-      </c>
-      <c r="C458" t="s">
-        <v>0</v>
-      </c>
-      <c r="D458" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A459">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-      <c r="B459" s="1">
-        <f t="shared" si="20"/>
-        <v>43101</v>
-      </c>
-      <c r="C459" t="s">
-        <v>0</v>
-      </c>
-      <c r="D459" t="s">
-        <v>2</v>
-      </c>
-      <c r="E459" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A460">
-        <f t="shared" si="19"/>
-        <v>2</v>
-      </c>
-      <c r="B460" s="1">
-        <f t="shared" si="20"/>
-        <v>43102</v>
-      </c>
-      <c r="C460" t="s">
-        <v>0</v>
-      </c>
-      <c r="D460" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A461">
-        <f t="shared" si="19"/>
-        <v>3</v>
-      </c>
-      <c r="B461" s="1">
-        <f t="shared" si="20"/>
-        <v>43103</v>
-      </c>
-      <c r="C461" t="s">
-        <v>0</v>
-      </c>
-      <c r="D461" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A462">
-        <f t="shared" si="19"/>
-        <v>4</v>
-      </c>
-      <c r="B462" s="1">
-        <f t="shared" si="20"/>
-        <v>43104</v>
-      </c>
-      <c r="C462" t="s">
-        <v>0</v>
-      </c>
-      <c r="D462" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A463">
-        <f t="shared" si="19"/>
-        <v>5</v>
-      </c>
-      <c r="B463" s="1">
-        <f t="shared" si="20"/>
-        <v>43105</v>
-      </c>
-      <c r="C463" t="s">
-        <v>0</v>
-      </c>
-      <c r="D463" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A464">
-        <f t="shared" ref="A464:A488" si="21">+WEEKDAY(B464,2)</f>
-        <v>6</v>
-      </c>
-      <c r="B464" s="1">
-        <f t="shared" si="20"/>
-        <v>43106</v>
-      </c>
-      <c r="C464" t="s">
-        <v>0</v>
-      </c>
-      <c r="D464" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A465">
-        <f t="shared" si="21"/>
-        <v>7</v>
-      </c>
-      <c r="B465" s="1">
-        <f t="shared" si="20"/>
-        <v>43107</v>
-      </c>
-      <c r="C465" t="s">
-        <v>0</v>
-      </c>
-      <c r="D465" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A466">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="B466" s="1">
-        <f t="shared" si="20"/>
-        <v>43108</v>
-      </c>
-      <c r="C466" t="s">
-        <v>0</v>
-      </c>
-      <c r="D466" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A467">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="B467" s="1">
-        <f t="shared" si="20"/>
-        <v>43109</v>
-      </c>
-      <c r="C467" t="s">
-        <v>0</v>
-      </c>
-      <c r="D467" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A468">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="B468" s="1">
-        <f t="shared" si="20"/>
-        <v>43110</v>
-      </c>
-      <c r="C468" t="s">
-        <v>0</v>
-      </c>
-      <c r="D468" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A469">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="B469" s="1">
-        <f t="shared" si="20"/>
-        <v>43111</v>
-      </c>
-      <c r="C469" t="s">
-        <v>0</v>
-      </c>
-      <c r="D469" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A470">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="B470" s="1">
-        <f t="shared" si="20"/>
-        <v>43112</v>
-      </c>
-      <c r="C470" t="s">
-        <v>0</v>
-      </c>
-      <c r="D470" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A471">
-        <f t="shared" si="21"/>
-        <v>6</v>
-      </c>
-      <c r="B471" s="1">
-        <f t="shared" si="20"/>
-        <v>43113</v>
-      </c>
-      <c r="C471" t="s">
-        <v>0</v>
-      </c>
-      <c r="D471" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A472">
-        <f t="shared" si="21"/>
-        <v>7</v>
-      </c>
-      <c r="B472" s="1">
-        <f t="shared" si="20"/>
-        <v>43114</v>
-      </c>
-      <c r="C472" t="s">
-        <v>0</v>
-      </c>
-      <c r="D472" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A473">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="B473" s="1">
-        <f t="shared" si="20"/>
-        <v>43115</v>
-      </c>
-      <c r="C473" t="s">
-        <v>0</v>
-      </c>
-      <c r="D473" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A474">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="B474" s="1">
-        <f t="shared" si="20"/>
-        <v>43116</v>
-      </c>
-      <c r="C474" t="s">
-        <v>0</v>
-      </c>
-      <c r="D474" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A475">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="B475" s="1">
-        <f t="shared" si="20"/>
-        <v>43117</v>
-      </c>
-      <c r="C475" t="s">
-        <v>0</v>
-      </c>
-      <c r="D475" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A476">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="B476" s="1">
-        <f t="shared" si="20"/>
-        <v>43118</v>
-      </c>
-      <c r="C476" t="s">
-        <v>0</v>
-      </c>
-      <c r="D476" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A477">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="B477" s="1">
-        <f t="shared" si="20"/>
-        <v>43119</v>
-      </c>
-      <c r="C477" t="s">
-        <v>0</v>
-      </c>
-      <c r="D477" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A478">
-        <f t="shared" si="21"/>
-        <v>6</v>
-      </c>
-      <c r="B478" s="1">
-        <f t="shared" si="20"/>
-        <v>43120</v>
-      </c>
-      <c r="C478" t="s">
-        <v>0</v>
-      </c>
-      <c r="D478" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A479">
-        <f t="shared" si="21"/>
-        <v>7</v>
-      </c>
-      <c r="B479" s="1">
-        <f t="shared" si="20"/>
-        <v>43121</v>
-      </c>
-      <c r="C479" t="s">
-        <v>0</v>
-      </c>
-      <c r="D479" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A480">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="B480" s="1">
-        <f t="shared" si="20"/>
-        <v>43122</v>
-      </c>
-      <c r="C480" t="s">
-        <v>0</v>
-      </c>
-      <c r="D480" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A481">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="B481" s="1">
-        <f t="shared" si="20"/>
-        <v>43123</v>
-      </c>
-      <c r="C481" t="s">
-        <v>0</v>
-      </c>
-      <c r="D481" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A482">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="B482" s="1">
-        <f t="shared" si="20"/>
-        <v>43124</v>
-      </c>
-      <c r="C482" t="s">
-        <v>0</v>
-      </c>
-      <c r="D482" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A483">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="B483" s="1">
-        <f t="shared" si="20"/>
-        <v>43125</v>
-      </c>
-      <c r="C483" t="s">
-        <v>0</v>
-      </c>
-      <c r="D483" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A484">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="B484" s="1">
-        <f t="shared" si="20"/>
-        <v>43126</v>
-      </c>
-      <c r="C484" t="s">
-        <v>0</v>
-      </c>
-      <c r="D484" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A485">
-        <f t="shared" si="21"/>
-        <v>6</v>
-      </c>
-      <c r="B485" s="1">
-        <f t="shared" si="20"/>
-        <v>43127</v>
-      </c>
-      <c r="C485" t="s">
-        <v>0</v>
-      </c>
-      <c r="D485" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A486">
-        <f t="shared" si="21"/>
-        <v>7</v>
-      </c>
-      <c r="B486" s="1">
-        <f t="shared" si="20"/>
-        <v>43128</v>
-      </c>
-      <c r="C486" t="s">
-        <v>0</v>
-      </c>
-      <c r="D486" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A487">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="B487" s="1">
-        <f t="shared" si="20"/>
-        <v>43129</v>
-      </c>
-      <c r="C487" t="s">
-        <v>0</v>
-      </c>
-      <c r="D487" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A488">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="B488" s="1">
-        <f t="shared" si="20"/>
-        <v>43130</v>
-      </c>
-      <c r="C488" t="s">
-        <v>0</v>
-      </c>
-      <c r="D488" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A489">
-        <f t="shared" ref="A489" si="22">+WEEKDAY(B489,2)</f>
-        <v>3</v>
-      </c>
-      <c r="B489" s="1">
-        <f t="shared" ref="B489" si="23">+B488+1</f>
-        <v>43131</v>
-      </c>
-      <c r="C489" t="s">
-        <v>0</v>
-      </c>
-      <c r="D489" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B490" s="1"/>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B491" s="1"/>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B492" s="1"/>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B493" s="1"/>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B494" s="1"/>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B495" s="1"/>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B496" s="1"/>
-    </row>
-    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B497" s="1"/>
-    </row>
-    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B498" s="1"/>
-    </row>
-    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B499" s="1"/>
-    </row>
-    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B500" s="1"/>
-    </row>
-    <row r="501" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B501" s="1"/>
-    </row>
-    <row r="502" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B502" s="1"/>
-    </row>
-    <row r="503" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B503" s="1"/>
-    </row>
-    <row r="504" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B504" s="1"/>
-    </row>
-    <row r="505" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B505" s="1"/>
-    </row>
-    <row r="506" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B506" s="1"/>
-    </row>
-    <row r="507" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B507" s="1"/>
-    </row>
-    <row r="508" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B508" s="1"/>
-    </row>
-    <row r="509" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B509" s="1"/>
-    </row>
-    <row r="510" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B510" s="1"/>
-    </row>
-    <row r="511" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B511" s="1"/>
-    </row>
-    <row r="512" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B512" s="1"/>
-    </row>
-    <row r="513" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B513" s="1"/>
-    </row>
-    <row r="514" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B514" s="1"/>
-    </row>
-    <row r="515" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B515" s="1"/>
-    </row>
-    <row r="516" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B516" s="1"/>
-    </row>
-    <row r="517" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B517" s="1"/>
-    </row>
-    <row r="518" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B518" s="1"/>
-    </row>
-    <row r="519" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B519" s="1"/>
-    </row>
-    <row r="520" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B520" s="1"/>
-    </row>
-    <row r="521" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B521" s="1"/>
-    </row>
-    <row r="522" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B522" s="1"/>
-    </row>
-    <row r="523" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B523" s="1"/>
-    </row>
-    <row r="524" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B524" s="1"/>
-    </row>
-    <row r="525" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B525" s="1"/>
-    </row>
-    <row r="526" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B526" s="1"/>
-    </row>
-    <row r="527" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B527" s="1"/>
-    </row>
-    <row r="528" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B528" s="1"/>
-    </row>
-    <row r="529" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B529" s="1"/>
-    </row>
-    <row r="530" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B530" s="1"/>
-    </row>
-    <row r="531" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B531" s="1"/>
-    </row>
-    <row r="532" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B532" s="1"/>
-    </row>
-    <row r="533" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B533" s="1"/>
-    </row>
-    <row r="534" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B534" s="1"/>
-    </row>
-    <row r="535" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B535" s="1"/>
-    </row>
-    <row r="536" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B536" s="1"/>
-    </row>
-    <row r="537" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B537" s="1"/>
-    </row>
-    <row r="538" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B538" s="1"/>
-    </row>
-    <row r="539" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B539" s="1"/>
-    </row>
-    <row r="540" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B540" s="1"/>
-    </row>
-    <row r="541" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B541" s="1"/>
-    </row>
-    <row r="542" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B542" s="1"/>
-    </row>
-    <row r="543" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B543" s="1"/>
-    </row>
-    <row r="544" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B544" s="1"/>
-    </row>
-    <row r="545" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B545" s="1"/>
-    </row>
-    <row r="546" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B546" s="1"/>
-    </row>
-    <row r="547" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B547" s="1"/>
-    </row>
-    <row r="548" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B548" s="1"/>
-    </row>
-    <row r="549" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B549" s="1"/>
-    </row>
-    <row r="550" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B550" s="1"/>
-    </row>
-    <row r="551" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B551" s="1"/>
-    </row>
-    <row r="552" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B552" s="1"/>
-    </row>
-    <row r="553" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B553" s="1"/>
-    </row>
-    <row r="554" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B554" s="1"/>
-    </row>
-    <row r="555" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B555" s="1"/>
-    </row>
-    <row r="556" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B556" s="1"/>
-    </row>
-    <row r="557" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B557" s="1"/>
-    </row>
-    <row r="558" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B558" s="1"/>
-    </row>
-    <row r="559" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B559" s="1"/>
-    </row>
-    <row r="560" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B560" s="1"/>
-    </row>
-    <row r="561" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B561" s="1"/>
-    </row>
-    <row r="562" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B562" s="1"/>
-    </row>
-    <row r="563" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B563" s="1"/>
-    </row>
-    <row r="564" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B564" s="1"/>
-    </row>
-    <row r="565" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B565" s="1"/>
-    </row>
-    <row r="566" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B566" s="1"/>
-    </row>
-    <row r="567" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B567" s="1"/>
-    </row>
-    <row r="568" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B568" s="1"/>
-    </row>
-    <row r="569" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B569" s="1"/>
-    </row>
-    <row r="570" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B570" s="1"/>
-    </row>
-    <row r="571" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B571" s="1"/>
-    </row>
-    <row r="572" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B572" s="1"/>
-    </row>
-    <row r="573" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B573" s="1"/>
-    </row>
-    <row r="574" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B574" s="1"/>
-    </row>
-    <row r="575" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B575" s="1"/>
-    </row>
-    <row r="576" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B576" s="1"/>
-    </row>
-    <row r="577" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B577" s="1"/>
-    </row>
-    <row r="578" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B578" s="1"/>
-    </row>
-    <row r="579" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B579" s="1"/>
-    </row>
-    <row r="580" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B580" s="1"/>
-    </row>
-    <row r="581" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B581" s="1"/>
-    </row>
-    <row r="582" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B582" s="1"/>
-    </row>
-    <row r="583" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B583" s="1"/>
-    </row>
-    <row r="584" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B584" s="1"/>
-    </row>
-    <row r="585" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B585" s="1"/>
-    </row>
-    <row r="586" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B586" s="1"/>
-    </row>
-    <row r="587" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B587" s="1"/>
-    </row>
-    <row r="588" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B588" s="1"/>
-    </row>
-    <row r="589" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B589" s="1"/>
-    </row>
-    <row r="590" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B590" s="1"/>
-    </row>
-    <row r="591" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B591" s="1"/>
-    </row>
-    <row r="592" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B592" s="1"/>
-    </row>
-    <row r="593" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B593" s="1"/>
-    </row>
-    <row r="594" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B594" s="1"/>
-    </row>
-    <row r="595" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B595" s="1"/>
-    </row>
-    <row r="596" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B596" s="1"/>
-    </row>
-    <row r="597" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B597" s="1"/>
-    </row>
-    <row r="598" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B598" s="1"/>
-    </row>
-    <row r="599" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B599" s="1"/>
-    </row>
-    <row r="600" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B600" s="1"/>
-    </row>
-    <row r="601" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B601" s="1"/>
-    </row>
-    <row r="602" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B602" s="1"/>
-    </row>
-    <row r="603" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B603" s="1"/>
-    </row>
-    <row r="604" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B604" s="1"/>
-    </row>
-    <row r="605" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B605" s="1"/>
-    </row>
-    <row r="606" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B606" s="1"/>
-    </row>
-    <row r="607" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B607" s="1"/>
-    </row>
-    <row r="608" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B608" s="1"/>
-    </row>
-    <row r="609" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B609" s="1"/>
-    </row>
-    <row r="610" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B610" s="1"/>
-    </row>
-    <row r="611" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B611" s="1"/>
-    </row>
-    <row r="612" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B612" s="1"/>
-    </row>
-    <row r="613" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B613" s="1"/>
-    </row>
-    <row r="614" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B614" s="1"/>
-    </row>
-    <row r="615" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B615" s="1"/>
-    </row>
-    <row r="616" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B616" s="1"/>
-    </row>
-    <row r="617" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B617" s="1"/>
-    </row>
-    <row r="618" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B618" s="1"/>
-    </row>
-    <row r="619" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B619" s="1"/>
-    </row>
-    <row r="620" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B620" s="1"/>
-    </row>
-    <row r="621" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B621" s="1"/>
-    </row>
-    <row r="622" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B622" s="1"/>
-    </row>
-    <row r="623" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B623" s="1"/>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B369" s="1"/>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B370" s="1"/>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B371" s="1"/>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B372" s="1"/>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B373" s="1"/>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B374" s="1"/>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B375" s="1"/>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B376" s="1"/>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B377" s="1"/>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B378" s="1"/>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B379" s="1"/>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B380" s="1"/>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B381" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E489">
+  <autoFilter ref="A2:E368" xr:uid="{614E4074-D85C-4624-8AAF-5837485E4D93}">
     <filterColumn colId="0">
       <filters>
         <filter val="1"/>
@@ -8654,6 +6327,9 @@
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/storage/app/eventbatch.xlsx
+++ b/storage/app/eventbatch.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\CookingPoint\laravel\dev\storage\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desarrollo\home\Eduardo\laravel\cooking-point\storage\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A780972F-D13B-4407-A192-DC82E5061064}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +18,22 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">eventbatch!$A$2:$E$368</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="6">
   <si>
     <t>PAELLA</t>
   </si>
@@ -44,7 +50,7 @@
     <t>x</t>
   </si>
   <si>
-    <t>filtrar domingo y festivos!</t>
+    <t>filtrar domingo (7) y festivos!</t>
   </si>
 </sst>
 </file>
@@ -89,10 +95,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -412,16 +421,17 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D368"/>
+    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="G323" sqref="G323"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -430,21 +440,21 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <f t="shared" ref="A3:A24" si="0">+WEEKDAY(B3,2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>43132</v>
+        <v>43498</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -453,14 +463,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <f>+B3+1</f>
-        <v>43133</v>
+        <v>43499</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -469,14 +479,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" ref="B5:B67" si="1">+B4+1</f>
-        <v>43134</v>
+        <v>43500</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -485,14 +495,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
-        <v>43135</v>
+        <v>43501</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -501,14 +511,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
-        <v>43136</v>
+        <v>43502</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -517,14 +527,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
-        <v>43137</v>
+        <v>43503</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -533,14 +543,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
-        <v>43138</v>
+        <v>43504</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -549,14 +559,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
-        <v>43139</v>
+        <v>43505</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -565,14 +575,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
-        <v>43140</v>
+        <v>43506</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -581,14 +591,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
-        <v>43141</v>
+        <v>43507</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -597,14 +607,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
-        <v>43142</v>
+        <v>43508</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -613,14 +623,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
-        <v>43143</v>
+        <v>43509</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -629,14 +639,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
-        <v>43144</v>
+        <v>43510</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
@@ -645,14 +655,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
-        <v>43145</v>
+        <v>43511</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -661,14 +671,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
-        <v>43146</v>
+        <v>43512</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -677,14 +687,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
-        <v>43147</v>
+        <v>43513</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -693,14 +703,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
-        <v>43148</v>
+        <v>43514</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -709,14 +719,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
-        <v>43149</v>
+        <v>43515</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -725,14 +735,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
-        <v>43150</v>
+        <v>43516</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -741,14 +751,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
-        <v>43151</v>
+        <v>43517</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -757,14 +767,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
-        <v>43152</v>
+        <v>43518</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -773,14 +783,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
-        <v>43153</v>
+        <v>43519</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -789,14 +799,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" ref="A25:A69" si="2">+WEEKDAY(B25,2)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
-        <v>43154</v>
+        <v>43520</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
@@ -805,14 +815,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
-        <v>43155</v>
+        <v>43521</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -821,14 +831,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
-        <v>43156</v>
+        <v>43522</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
@@ -837,14 +847,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
-        <v>43157</v>
+        <v>43523</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
@@ -853,14 +863,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="1"/>
-        <v>43158</v>
+        <v>43524</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -869,14 +879,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
-        <v>43159</v>
+        <v>43525</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -885,14 +895,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
-        <v>43160</v>
+        <v>43526</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -901,14 +911,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
-        <v>43161</v>
+        <v>43527</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
@@ -917,14 +927,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
-        <v>43162</v>
+        <v>43528</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -933,14 +943,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
-        <v>43163</v>
+        <v>43529</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -949,14 +959,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
-        <v>43164</v>
+        <v>43530</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -965,14 +975,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="1"/>
-        <v>43165</v>
+        <v>43531</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
@@ -981,14 +991,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
-        <v>43166</v>
+        <v>43532</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
@@ -997,14 +1007,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
-        <v>43167</v>
+        <v>43533</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
@@ -1013,14 +1023,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
-        <v>43168</v>
+        <v>43534</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -1029,14 +1039,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
-        <v>43169</v>
+        <v>43535</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
@@ -1045,14 +1055,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
-        <v>43170</v>
+        <v>43536</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
@@ -1061,14 +1071,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
-        <v>43171</v>
+        <v>43537</v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
@@ -1077,14 +1087,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
-        <v>43172</v>
+        <v>43538</v>
       </c>
       <c r="C43" t="s">
         <v>0</v>
@@ -1093,14 +1103,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
-        <v>43173</v>
+        <v>43539</v>
       </c>
       <c r="C44" t="s">
         <v>0</v>
@@ -1109,14 +1119,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
-        <v>43174</v>
+        <v>43540</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
@@ -1125,14 +1135,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
-        <v>43175</v>
+        <v>43541</v>
       </c>
       <c r="C46" t="s">
         <v>0</v>
@@ -1141,14 +1151,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
-        <v>43176</v>
+        <v>43542</v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
@@ -1157,14 +1167,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
-        <v>43177</v>
+        <v>43543</v>
       </c>
       <c r="C48" t="s">
         <v>0</v>
@@ -1173,27 +1183,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="1"/>
-        <v>43178</v>
+        <v>43544</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="1"/>
-        <v>43179</v>
+        <v>43545</v>
       </c>
       <c r="C50" t="s">
         <v>0</v>
@@ -1202,14 +1215,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
-        <v>43180</v>
+        <v>43546</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
@@ -1218,14 +1231,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
-        <v>43181</v>
+        <v>43547</v>
       </c>
       <c r="C52" t="s">
         <v>0</v>
@@ -1234,14 +1247,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
-        <v>43182</v>
+        <v>43548</v>
       </c>
       <c r="C53" t="s">
         <v>0</v>
@@ -1250,14 +1263,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
-        <v>43183</v>
+        <v>43549</v>
       </c>
       <c r="C54" t="s">
         <v>0</v>
@@ -1266,14 +1279,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
-        <v>43184</v>
+        <v>43550</v>
       </c>
       <c r="C55" t="s">
         <v>0</v>
@@ -1282,14 +1295,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
-        <v>43185</v>
+        <v>43551</v>
       </c>
       <c r="C56" t="s">
         <v>0</v>
@@ -1298,14 +1311,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
-        <v>43186</v>
+        <v>43552</v>
       </c>
       <c r="C57" t="s">
         <v>0</v>
@@ -1314,14 +1327,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
-        <v>43187</v>
+        <v>43553</v>
       </c>
       <c r="C58" t="s">
         <v>0</v>
@@ -1330,40 +1343,46 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
-        <v>43188</v>
+        <v>43554</v>
       </c>
       <c r="C59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
-        <v>43189</v>
+        <v>43555</v>
       </c>
       <c r="C60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="1"/>
-        <v>43190</v>
+        <v>43556</v>
       </c>
       <c r="C61" t="s">
         <v>0</v>
@@ -1372,14 +1391,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
-        <v>43191</v>
+        <v>43557</v>
       </c>
       <c r="C62" t="s">
         <v>0</v>
@@ -1388,14 +1407,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="1"/>
-        <v>43192</v>
+        <v>43558</v>
       </c>
       <c r="C63" t="s">
         <v>0</v>
@@ -1404,14 +1423,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
-        <v>43193</v>
+        <v>43559</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
@@ -1420,14 +1439,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
-        <v>43194</v>
+        <v>43560</v>
       </c>
       <c r="C65" t="s">
         <v>0</v>
@@ -1436,14 +1455,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
-        <v>43195</v>
+        <v>43561</v>
       </c>
       <c r="C66" t="s">
         <v>0</v>
@@ -1452,14 +1471,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
-        <v>43196</v>
+        <v>43562</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
@@ -1468,14 +1487,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" ref="B68:B69" si="3">+B67+1</f>
-        <v>43197</v>
+        <v>43563</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
@@ -1484,14 +1503,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="3"/>
-        <v>43198</v>
+        <v>43564</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
@@ -1500,14 +1519,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <f t="shared" ref="A70:A87" si="4">+WEEKDAY(B70,2)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" ref="B70:B87" si="5">+B69+1</f>
-        <v>43199</v>
+        <v>43565</v>
       </c>
       <c r="C70" t="s">
         <v>0</v>
@@ -1516,14 +1535,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="5"/>
-        <v>43200</v>
+        <v>43566</v>
       </c>
       <c r="C71" t="s">
         <v>0</v>
@@ -1532,14 +1551,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="5"/>
-        <v>43201</v>
+        <v>43567</v>
       </c>
       <c r="C72" t="s">
         <v>0</v>
@@ -1548,14 +1567,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="5"/>
-        <v>43202</v>
+        <v>43568</v>
       </c>
       <c r="C73" t="s">
         <v>0</v>
@@ -1564,14 +1583,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="5"/>
-        <v>43203</v>
+        <v>43569</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
@@ -1580,14 +1599,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="5"/>
-        <v>43204</v>
+        <v>43570</v>
       </c>
       <c r="C75" t="s">
         <v>0</v>
@@ -1596,14 +1615,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="5"/>
-        <v>43205</v>
+        <v>43571</v>
       </c>
       <c r="C76" t="s">
         <v>0</v>
@@ -1612,14 +1631,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="5"/>
-        <v>43206</v>
+        <v>43572</v>
       </c>
       <c r="C77" t="s">
         <v>0</v>
@@ -1628,46 +1647,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="5"/>
-        <v>43207</v>
+        <v>43573</v>
       </c>
       <c r="C78" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="5"/>
-        <v>43208</v>
+        <v>43574</v>
       </c>
       <c r="C79" t="s">
-        <v>0</v>
-      </c>
-      <c r="D79" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="5"/>
-        <v>43209</v>
+        <v>43575</v>
       </c>
       <c r="C80" t="s">
         <v>0</v>
@@ -1676,14 +1689,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="5"/>
-        <v>43210</v>
+        <v>43576</v>
       </c>
       <c r="C81" t="s">
         <v>0</v>
@@ -1692,14 +1705,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="5"/>
-        <v>43211</v>
+        <v>43577</v>
       </c>
       <c r="C82" t="s">
         <v>0</v>
@@ -1708,14 +1721,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="5"/>
-        <v>43212</v>
+        <v>43578</v>
       </c>
       <c r="C83" t="s">
         <v>0</v>
@@ -1724,14 +1737,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="5"/>
-        <v>43213</v>
+        <v>43579</v>
       </c>
       <c r="C84" t="s">
         <v>0</v>
@@ -1740,14 +1753,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="5"/>
-        <v>43214</v>
+        <v>43580</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
@@ -1756,14 +1769,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="5"/>
-        <v>43215</v>
+        <v>43581</v>
       </c>
       <c r="C86" t="s">
         <v>0</v>
@@ -1772,14 +1785,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="5"/>
-        <v>43216</v>
+        <v>43582</v>
       </c>
       <c r="C87" t="s">
         <v>0</v>
@@ -1788,14 +1801,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88">
         <f t="shared" ref="A88:A107" si="6">+WEEKDAY(B88,2)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" ref="B88:B107" si="7">+B87+1</f>
-        <v>43217</v>
+        <v>43583</v>
       </c>
       <c r="C88" t="s">
         <v>0</v>
@@ -1804,14 +1817,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="7"/>
-        <v>43218</v>
+        <v>43584</v>
       </c>
       <c r="C89" t="s">
         <v>0</v>
@@ -1820,14 +1833,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B90" s="1">
         <f t="shared" si="7"/>
-        <v>43219</v>
+        <v>43585</v>
       </c>
       <c r="C90" t="s">
         <v>0</v>
@@ -1836,56 +1849,56 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B91" s="1">
         <f t="shared" si="7"/>
-        <v>43220</v>
+        <v>43586</v>
       </c>
       <c r="C91" t="s">
-        <v>0</v>
-      </c>
-      <c r="D91" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B92" s="1">
         <f t="shared" si="7"/>
-        <v>43221</v>
+        <v>43587</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B93" s="1">
         <f t="shared" si="7"/>
-        <v>43222</v>
+        <v>43588</v>
       </c>
       <c r="C93" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B94" s="1">
         <f t="shared" si="7"/>
-        <v>43223</v>
+        <v>43589</v>
       </c>
       <c r="C94" t="s">
         <v>0</v>
@@ -1894,14 +1907,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B95" s="1">
         <f t="shared" si="7"/>
-        <v>43224</v>
+        <v>43590</v>
       </c>
       <c r="C95" t="s">
         <v>0</v>
@@ -1910,14 +1923,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B96" s="1">
         <f t="shared" si="7"/>
-        <v>43225</v>
+        <v>43591</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
@@ -1926,14 +1939,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B97" s="1">
         <f t="shared" si="7"/>
-        <v>43226</v>
+        <v>43592</v>
       </c>
       <c r="C97" t="s">
         <v>0</v>
@@ -1942,14 +1955,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B98" s="1">
         <f t="shared" si="7"/>
-        <v>43227</v>
+        <v>43593</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
@@ -1958,14 +1971,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B99" s="1">
         <f t="shared" si="7"/>
-        <v>43228</v>
+        <v>43594</v>
       </c>
       <c r="C99" t="s">
         <v>0</v>
@@ -1974,14 +1987,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B100" s="1">
         <f t="shared" si="7"/>
-        <v>43229</v>
+        <v>43595</v>
       </c>
       <c r="C100" t="s">
         <v>0</v>
@@ -1990,14 +2003,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B101" s="1">
         <f t="shared" si="7"/>
-        <v>43230</v>
+        <v>43596</v>
       </c>
       <c r="C101" t="s">
         <v>0</v>
@@ -2006,14 +2019,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B102" s="1">
         <f t="shared" si="7"/>
-        <v>43231</v>
+        <v>43597</v>
       </c>
       <c r="C102" t="s">
         <v>0</v>
@@ -2022,14 +2035,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B103" s="1">
         <f t="shared" si="7"/>
-        <v>43232</v>
+        <v>43598</v>
       </c>
       <c r="C103" t="s">
         <v>0</v>
@@ -2038,14 +2051,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B104" s="1">
         <f t="shared" si="7"/>
-        <v>43233</v>
+        <v>43599</v>
       </c>
       <c r="C104" t="s">
         <v>0</v>
@@ -2054,43 +2067,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" si="7"/>
-        <v>43234</v>
+        <v>43600</v>
       </c>
       <c r="C105" t="s">
-        <v>0</v>
-      </c>
-      <c r="D105" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B106" s="1">
         <f t="shared" si="7"/>
-        <v>43235</v>
+        <v>43601</v>
       </c>
       <c r="C106" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B107" s="1">
         <f t="shared" si="7"/>
-        <v>43236</v>
+        <v>43602</v>
       </c>
       <c r="C107" t="s">
         <v>0</v>
@@ -2099,14 +2112,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <f t="shared" ref="A108:A171" si="8">+WEEKDAY(B108,2)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B108" s="1">
         <f t="shared" ref="B108:B171" si="9">+B107+1</f>
-        <v>43237</v>
+        <v>43603</v>
       </c>
       <c r="C108" t="s">
         <v>0</v>
@@ -2115,1006 +2128,1006 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109">
         <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="B109" s="1">
+        <f t="shared" si="9"/>
+        <v>43604</v>
+      </c>
+      <c r="C109" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="B110" s="1">
+        <f t="shared" si="9"/>
+        <v>43605</v>
+      </c>
+      <c r="C110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B111" s="1">
+        <f t="shared" si="9"/>
+        <v>43606</v>
+      </c>
+      <c r="C111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="B112" s="1">
+        <f t="shared" si="9"/>
+        <v>43607</v>
+      </c>
+      <c r="C112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="B113" s="1">
+        <f t="shared" si="9"/>
+        <v>43608</v>
+      </c>
+      <c r="C113" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="B109" s="1">
-        <f t="shared" si="9"/>
-        <v>43238</v>
-      </c>
-      <c r="C109" t="s">
-        <v>0</v>
-      </c>
-      <c r="D109" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="B114" s="1">
+        <f t="shared" si="9"/>
+        <v>43609</v>
+      </c>
+      <c r="C114" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="B110" s="1">
-        <f t="shared" si="9"/>
-        <v>43239</v>
-      </c>
-      <c r="C110" t="s">
-        <v>0</v>
-      </c>
-      <c r="D110" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="B115" s="1">
+        <f t="shared" si="9"/>
+        <v>43610</v>
+      </c>
+      <c r="C115" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A116">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="B111" s="1">
-        <f t="shared" si="9"/>
-        <v>43240</v>
-      </c>
-      <c r="C111" t="s">
-        <v>0</v>
-      </c>
-      <c r="D111" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="B116" s="1">
+        <f t="shared" si="9"/>
+        <v>43611</v>
+      </c>
+      <c r="C116" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="B112" s="1">
-        <f t="shared" si="9"/>
-        <v>43241</v>
-      </c>
-      <c r="C112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D112" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="B113" s="1">
-        <f t="shared" si="9"/>
-        <v>43242</v>
-      </c>
-      <c r="C113" t="s">
-        <v>0</v>
-      </c>
-      <c r="D113" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="B117" s="1">
+        <f t="shared" si="9"/>
+        <v>43612</v>
+      </c>
+      <c r="C117" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B118" s="1">
+        <f t="shared" si="9"/>
+        <v>43613</v>
+      </c>
+      <c r="C118" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="B114" s="1">
-        <f t="shared" si="9"/>
-        <v>43243</v>
-      </c>
-      <c r="C114" t="s">
-        <v>0</v>
-      </c>
-      <c r="D114" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="B119" s="1">
+        <f t="shared" si="9"/>
+        <v>43614</v>
+      </c>
+      <c r="C119" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="B115" s="1">
-        <f t="shared" si="9"/>
-        <v>43244</v>
-      </c>
-      <c r="C115" t="s">
-        <v>0</v>
-      </c>
-      <c r="D115" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="B120" s="1">
+        <f t="shared" si="9"/>
+        <v>43615</v>
+      </c>
+      <c r="C120" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="B116" s="1">
-        <f t="shared" si="9"/>
-        <v>43245</v>
-      </c>
-      <c r="C116" t="s">
-        <v>0</v>
-      </c>
-      <c r="D116" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="B121" s="1">
+        <f t="shared" si="9"/>
+        <v>43616</v>
+      </c>
+      <c r="C121" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="B117" s="1">
-        <f t="shared" si="9"/>
-        <v>43246</v>
-      </c>
-      <c r="C117" t="s">
-        <v>0</v>
-      </c>
-      <c r="D117" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="B122" s="1">
+        <f t="shared" si="9"/>
+        <v>43617</v>
+      </c>
+      <c r="C122" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A123">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="B118" s="1">
-        <f t="shared" si="9"/>
-        <v>43247</v>
-      </c>
-      <c r="C118" t="s">
-        <v>0</v>
-      </c>
-      <c r="D118" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="B123" s="1">
+        <f t="shared" si="9"/>
+        <v>43618</v>
+      </c>
+      <c r="C123" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="B119" s="1">
-        <f t="shared" si="9"/>
-        <v>43248</v>
-      </c>
-      <c r="C119" t="s">
-        <v>0</v>
-      </c>
-      <c r="D119" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="B120" s="1">
-        <f t="shared" si="9"/>
-        <v>43249</v>
-      </c>
-      <c r="C120" t="s">
-        <v>0</v>
-      </c>
-      <c r="D120" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="B124" s="1">
+        <f t="shared" si="9"/>
+        <v>43619</v>
+      </c>
+      <c r="C124" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B125" s="1">
+        <f t="shared" si="9"/>
+        <v>43620</v>
+      </c>
+      <c r="C125" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="B121" s="1">
-        <f t="shared" si="9"/>
-        <v>43250</v>
-      </c>
-      <c r="C121" t="s">
-        <v>0</v>
-      </c>
-      <c r="D121" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="B126" s="1">
+        <f t="shared" si="9"/>
+        <v>43621</v>
+      </c>
+      <c r="C126" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="B122" s="1">
-        <f t="shared" si="9"/>
-        <v>43251</v>
-      </c>
-      <c r="C122" t="s">
-        <v>0</v>
-      </c>
-      <c r="D122" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="B127" s="1">
+        <f t="shared" si="9"/>
+        <v>43622</v>
+      </c>
+      <c r="C127" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="B123" s="1">
-        <f t="shared" si="9"/>
-        <v>43252</v>
-      </c>
-      <c r="C123" t="s">
-        <v>0</v>
-      </c>
-      <c r="D123" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="B128" s="1">
+        <f t="shared" si="9"/>
+        <v>43623</v>
+      </c>
+      <c r="C128" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="B124" s="1">
-        <f t="shared" si="9"/>
-        <v>43253</v>
-      </c>
-      <c r="C124" t="s">
-        <v>0</v>
-      </c>
-      <c r="D124" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="B129" s="1">
+        <f t="shared" si="9"/>
+        <v>43624</v>
+      </c>
+      <c r="C129" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A130">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="B125" s="1">
-        <f t="shared" si="9"/>
-        <v>43254</v>
-      </c>
-      <c r="C125" t="s">
-        <v>0</v>
-      </c>
-      <c r="D125" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="B130" s="1">
+        <f t="shared" si="9"/>
+        <v>43625</v>
+      </c>
+      <c r="C130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="B126" s="1">
-        <f t="shared" si="9"/>
-        <v>43255</v>
-      </c>
-      <c r="C126" t="s">
-        <v>0</v>
-      </c>
-      <c r="D126" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="B127" s="1">
-        <f t="shared" si="9"/>
-        <v>43256</v>
-      </c>
-      <c r="C127" t="s">
-        <v>0</v>
-      </c>
-      <c r="D127" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="B131" s="1">
+        <f t="shared" si="9"/>
+        <v>43626</v>
+      </c>
+      <c r="C131" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B132" s="1">
+        <f t="shared" si="9"/>
+        <v>43627</v>
+      </c>
+      <c r="C132" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="B128" s="1">
-        <f t="shared" si="9"/>
-        <v>43257</v>
-      </c>
-      <c r="C128" t="s">
-        <v>0</v>
-      </c>
-      <c r="D128" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="B133" s="1">
+        <f t="shared" si="9"/>
+        <v>43628</v>
+      </c>
+      <c r="C133" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="B129" s="1">
-        <f t="shared" si="9"/>
-        <v>43258</v>
-      </c>
-      <c r="C129" t="s">
-        <v>0</v>
-      </c>
-      <c r="D129" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="B134" s="1">
+        <f t="shared" si="9"/>
+        <v>43629</v>
+      </c>
+      <c r="C134" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="B130" s="1">
-        <f t="shared" si="9"/>
-        <v>43259</v>
-      </c>
-      <c r="C130" t="s">
-        <v>0</v>
-      </c>
-      <c r="D130" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="B135" s="1">
+        <f t="shared" si="9"/>
+        <v>43630</v>
+      </c>
+      <c r="C135" t="s">
+        <v>0</v>
+      </c>
+      <c r="D135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="B131" s="1">
-        <f t="shared" si="9"/>
-        <v>43260</v>
-      </c>
-      <c r="C131" t="s">
-        <v>0</v>
-      </c>
-      <c r="D131" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="B136" s="1">
+        <f t="shared" si="9"/>
+        <v>43631</v>
+      </c>
+      <c r="C136" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A137">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="B132" s="1">
-        <f t="shared" si="9"/>
-        <v>43261</v>
-      </c>
-      <c r="C132" t="s">
-        <v>0</v>
-      </c>
-      <c r="D132" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="B137" s="1">
+        <f t="shared" si="9"/>
+        <v>43632</v>
+      </c>
+      <c r="C137" t="s">
+        <v>0</v>
+      </c>
+      <c r="D137" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="B133" s="1">
-        <f t="shared" si="9"/>
-        <v>43262</v>
-      </c>
-      <c r="C133" t="s">
-        <v>0</v>
-      </c>
-      <c r="D133" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="B134" s="1">
-        <f t="shared" si="9"/>
-        <v>43263</v>
-      </c>
-      <c r="C134" t="s">
-        <v>0</v>
-      </c>
-      <c r="D134" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="B138" s="1">
+        <f t="shared" si="9"/>
+        <v>43633</v>
+      </c>
+      <c r="C138" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B139" s="1">
+        <f t="shared" si="9"/>
+        <v>43634</v>
+      </c>
+      <c r="C139" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="B135" s="1">
-        <f t="shared" si="9"/>
-        <v>43264</v>
-      </c>
-      <c r="C135" t="s">
-        <v>0</v>
-      </c>
-      <c r="D135" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="B140" s="1">
+        <f t="shared" si="9"/>
+        <v>43635</v>
+      </c>
+      <c r="C140" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="B136" s="1">
-        <f t="shared" si="9"/>
-        <v>43265</v>
-      </c>
-      <c r="C136" t="s">
-        <v>0</v>
-      </c>
-      <c r="D136" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="B141" s="1">
+        <f t="shared" si="9"/>
+        <v>43636</v>
+      </c>
+      <c r="C141" t="s">
+        <v>0</v>
+      </c>
+      <c r="D141" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="B137" s="1">
-        <f t="shared" si="9"/>
-        <v>43266</v>
-      </c>
-      <c r="C137" t="s">
-        <v>0</v>
-      </c>
-      <c r="D137" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="B142" s="1">
+        <f t="shared" si="9"/>
+        <v>43637</v>
+      </c>
+      <c r="C142" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="B138" s="1">
-        <f t="shared" si="9"/>
-        <v>43267</v>
-      </c>
-      <c r="C138" t="s">
-        <v>0</v>
-      </c>
-      <c r="D138" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="B143" s="1">
+        <f t="shared" si="9"/>
+        <v>43638</v>
+      </c>
+      <c r="C143" t="s">
+        <v>0</v>
+      </c>
+      <c r="D143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A144">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="B139" s="1">
-        <f t="shared" si="9"/>
-        <v>43268</v>
-      </c>
-      <c r="C139" t="s">
-        <v>0</v>
-      </c>
-      <c r="D139" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="B144" s="1">
+        <f t="shared" si="9"/>
+        <v>43639</v>
+      </c>
+      <c r="C144" t="s">
+        <v>0</v>
+      </c>
+      <c r="D144" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="B140" s="1">
-        <f t="shared" si="9"/>
-        <v>43269</v>
-      </c>
-      <c r="C140" t="s">
-        <v>0</v>
-      </c>
-      <c r="D140" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="B141" s="1">
-        <f t="shared" si="9"/>
-        <v>43270</v>
-      </c>
-      <c r="C141" t="s">
-        <v>0</v>
-      </c>
-      <c r="D141" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="B145" s="1">
+        <f t="shared" si="9"/>
+        <v>43640</v>
+      </c>
+      <c r="C145" t="s">
+        <v>0</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B146" s="1">
+        <f t="shared" si="9"/>
+        <v>43641</v>
+      </c>
+      <c r="C146" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="B142" s="1">
-        <f t="shared" si="9"/>
-        <v>43271</v>
-      </c>
-      <c r="C142" t="s">
-        <v>0</v>
-      </c>
-      <c r="D142" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="B147" s="1">
+        <f t="shared" si="9"/>
+        <v>43642</v>
+      </c>
+      <c r="C147" t="s">
+        <v>0</v>
+      </c>
+      <c r="D147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="B143" s="1">
-        <f t="shared" si="9"/>
-        <v>43272</v>
-      </c>
-      <c r="C143" t="s">
-        <v>0</v>
-      </c>
-      <c r="D143" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="B148" s="1">
+        <f t="shared" si="9"/>
+        <v>43643</v>
+      </c>
+      <c r="C148" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="B144" s="1">
-        <f t="shared" si="9"/>
-        <v>43273</v>
-      </c>
-      <c r="C144" t="s">
-        <v>0</v>
-      </c>
-      <c r="D144" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="B149" s="1">
+        <f t="shared" si="9"/>
+        <v>43644</v>
+      </c>
+      <c r="C149" t="s">
+        <v>0</v>
+      </c>
+      <c r="D149" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="B145" s="1">
-        <f t="shared" si="9"/>
-        <v>43274</v>
-      </c>
-      <c r="C145" t="s">
-        <v>0</v>
-      </c>
-      <c r="D145" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="B150" s="1">
+        <f t="shared" si="9"/>
+        <v>43645</v>
+      </c>
+      <c r="C150" t="s">
+        <v>0</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A151">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="B146" s="1">
-        <f t="shared" si="9"/>
-        <v>43275</v>
-      </c>
-      <c r="C146" t="s">
-        <v>0</v>
-      </c>
-      <c r="D146" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="B151" s="1">
+        <f t="shared" si="9"/>
+        <v>43646</v>
+      </c>
+      <c r="C151" t="s">
+        <v>0</v>
+      </c>
+      <c r="D151" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="B147" s="1">
-        <f t="shared" si="9"/>
-        <v>43276</v>
-      </c>
-      <c r="C147" t="s">
-        <v>0</v>
-      </c>
-      <c r="D147" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="B148" s="1">
-        <f t="shared" si="9"/>
-        <v>43277</v>
-      </c>
-      <c r="C148" t="s">
-        <v>0</v>
-      </c>
-      <c r="D148" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="B152" s="1">
+        <f t="shared" si="9"/>
+        <v>43647</v>
+      </c>
+      <c r="C152" t="s">
+        <v>0</v>
+      </c>
+      <c r="D152" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B153" s="1">
+        <f t="shared" si="9"/>
+        <v>43648</v>
+      </c>
+      <c r="C153" t="s">
+        <v>0</v>
+      </c>
+      <c r="D153" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="B149" s="1">
-        <f t="shared" si="9"/>
-        <v>43278</v>
-      </c>
-      <c r="C149" t="s">
-        <v>0</v>
-      </c>
-      <c r="D149" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="B154" s="1">
+        <f t="shared" si="9"/>
+        <v>43649</v>
+      </c>
+      <c r="C154" t="s">
+        <v>0</v>
+      </c>
+      <c r="D154" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="B150" s="1">
-        <f t="shared" si="9"/>
-        <v>43279</v>
-      </c>
-      <c r="C150" t="s">
-        <v>0</v>
-      </c>
-      <c r="D150" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="B155" s="1">
+        <f t="shared" si="9"/>
+        <v>43650</v>
+      </c>
+      <c r="C155" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="B151" s="1">
-        <f t="shared" si="9"/>
-        <v>43280</v>
-      </c>
-      <c r="C151" t="s">
-        <v>0</v>
-      </c>
-      <c r="D151" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="B156" s="1">
+        <f t="shared" si="9"/>
+        <v>43651</v>
+      </c>
+      <c r="C156" t="s">
+        <v>0</v>
+      </c>
+      <c r="D156" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="B152" s="1">
-        <f t="shared" si="9"/>
-        <v>43281</v>
-      </c>
-      <c r="C152" t="s">
-        <v>0</v>
-      </c>
-      <c r="D152" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="B157" s="1">
+        <f t="shared" si="9"/>
+        <v>43652</v>
+      </c>
+      <c r="C157" t="s">
+        <v>0</v>
+      </c>
+      <c r="D157" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A158">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="B153" s="1">
-        <f t="shared" si="9"/>
-        <v>43282</v>
-      </c>
-      <c r="C153" t="s">
-        <v>0</v>
-      </c>
-      <c r="D153" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="B158" s="1">
+        <f t="shared" si="9"/>
+        <v>43653</v>
+      </c>
+      <c r="C158" t="s">
+        <v>0</v>
+      </c>
+      <c r="D158" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="B154" s="1">
-        <f t="shared" si="9"/>
-        <v>43283</v>
-      </c>
-      <c r="C154" t="s">
-        <v>0</v>
-      </c>
-      <c r="D154" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="B155" s="1">
-        <f t="shared" si="9"/>
-        <v>43284</v>
-      </c>
-      <c r="C155" t="s">
-        <v>0</v>
-      </c>
-      <c r="D155" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="B159" s="1">
+        <f t="shared" si="9"/>
+        <v>43654</v>
+      </c>
+      <c r="C159" t="s">
+        <v>0</v>
+      </c>
+      <c r="D159" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B160" s="1">
+        <f t="shared" si="9"/>
+        <v>43655</v>
+      </c>
+      <c r="C160" t="s">
+        <v>0</v>
+      </c>
+      <c r="D160" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="B156" s="1">
-        <f t="shared" si="9"/>
-        <v>43285</v>
-      </c>
-      <c r="C156" t="s">
-        <v>0</v>
-      </c>
-      <c r="D156" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="B161" s="1">
+        <f t="shared" si="9"/>
+        <v>43656</v>
+      </c>
+      <c r="C161" t="s">
+        <v>0</v>
+      </c>
+      <c r="D161" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="B157" s="1">
-        <f t="shared" si="9"/>
-        <v>43286</v>
-      </c>
-      <c r="C157" t="s">
-        <v>0</v>
-      </c>
-      <c r="D157" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="B162" s="1">
+        <f t="shared" si="9"/>
+        <v>43657</v>
+      </c>
+      <c r="C162" t="s">
+        <v>0</v>
+      </c>
+      <c r="D162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="B158" s="1">
-        <f t="shared" si="9"/>
-        <v>43287</v>
-      </c>
-      <c r="C158" t="s">
-        <v>0</v>
-      </c>
-      <c r="D158" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="B163" s="1">
+        <f t="shared" si="9"/>
+        <v>43658</v>
+      </c>
+      <c r="C163" t="s">
+        <v>0</v>
+      </c>
+      <c r="D163" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="B159" s="1">
-        <f t="shared" si="9"/>
-        <v>43288</v>
-      </c>
-      <c r="C159" t="s">
-        <v>0</v>
-      </c>
-      <c r="D159" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="B164" s="1">
+        <f t="shared" si="9"/>
+        <v>43659</v>
+      </c>
+      <c r="C164" t="s">
+        <v>0</v>
+      </c>
+      <c r="D164" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A165">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="B160" s="1">
-        <f t="shared" si="9"/>
-        <v>43289</v>
-      </c>
-      <c r="C160" t="s">
-        <v>0</v>
-      </c>
-      <c r="D160" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="B165" s="1">
+        <f t="shared" si="9"/>
+        <v>43660</v>
+      </c>
+      <c r="C165" t="s">
+        <v>0</v>
+      </c>
+      <c r="D165" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="B161" s="1">
-        <f t="shared" si="9"/>
-        <v>43290</v>
-      </c>
-      <c r="C161" t="s">
-        <v>0</v>
-      </c>
-      <c r="D161" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="B162" s="1">
-        <f t="shared" si="9"/>
-        <v>43291</v>
-      </c>
-      <c r="C162" t="s">
-        <v>0</v>
-      </c>
-      <c r="D162" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="B166" s="1">
+        <f t="shared" si="9"/>
+        <v>43661</v>
+      </c>
+      <c r="C166" t="s">
+        <v>0</v>
+      </c>
+      <c r="D166" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="B167" s="1">
+        <f t="shared" si="9"/>
+        <v>43662</v>
+      </c>
+      <c r="C167" t="s">
+        <v>0</v>
+      </c>
+      <c r="D167" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="B163" s="1">
-        <f t="shared" si="9"/>
-        <v>43292</v>
-      </c>
-      <c r="C163" t="s">
-        <v>0</v>
-      </c>
-      <c r="D163" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="B168" s="1">
+        <f t="shared" si="9"/>
+        <v>43663</v>
+      </c>
+      <c r="C168" t="s">
+        <v>0</v>
+      </c>
+      <c r="D168" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="B164" s="1">
-        <f t="shared" si="9"/>
-        <v>43293</v>
-      </c>
-      <c r="C164" t="s">
-        <v>0</v>
-      </c>
-      <c r="D164" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="B169" s="1">
+        <f t="shared" si="9"/>
+        <v>43664</v>
+      </c>
+      <c r="C169" t="s">
+        <v>0</v>
+      </c>
+      <c r="D169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="B165" s="1">
-        <f t="shared" si="9"/>
-        <v>43294</v>
-      </c>
-      <c r="C165" t="s">
-        <v>0</v>
-      </c>
-      <c r="D165" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="B170" s="1">
+        <f t="shared" si="9"/>
+        <v>43665</v>
+      </c>
+      <c r="C170" t="s">
+        <v>0</v>
+      </c>
+      <c r="D170" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="B166" s="1">
-        <f t="shared" si="9"/>
-        <v>43295</v>
-      </c>
-      <c r="C166" t="s">
-        <v>0</v>
-      </c>
-      <c r="D166" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="B167" s="1">
-        <f t="shared" si="9"/>
-        <v>43296</v>
-      </c>
-      <c r="C167" t="s">
-        <v>0</v>
-      </c>
-      <c r="D167" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="B168" s="1">
-        <f t="shared" si="9"/>
-        <v>43297</v>
-      </c>
-      <c r="C168" t="s">
-        <v>0</v>
-      </c>
-      <c r="D168" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="B169" s="1">
-        <f t="shared" si="9"/>
-        <v>43298</v>
-      </c>
-      <c r="C169" t="s">
-        <v>0</v>
-      </c>
-      <c r="D169" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="B170" s="1">
-        <f t="shared" si="9"/>
-        <v>43299</v>
-      </c>
-      <c r="C170" t="s">
-        <v>0</v>
-      </c>
-      <c r="D170" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
       <c r="B171" s="1">
         <f t="shared" si="9"/>
-        <v>43300</v>
+        <v>43666</v>
       </c>
       <c r="C171" t="s">
         <v>0</v>
@@ -3123,14 +3136,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172">
         <f t="shared" ref="A172:A208" si="10">+WEEKDAY(B172,2)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B172" s="1">
         <f t="shared" ref="B172:B208" si="11">+B171+1</f>
-        <v>43301</v>
+        <v>43667</v>
       </c>
       <c r="C172" t="s">
         <v>0</v>
@@ -3139,14 +3152,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B173" s="1">
         <f t="shared" si="11"/>
-        <v>43302</v>
+        <v>43668</v>
       </c>
       <c r="C173" t="s">
         <v>0</v>
@@ -3155,14 +3168,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B174" s="1">
         <f t="shared" si="11"/>
-        <v>43303</v>
+        <v>43669</v>
       </c>
       <c r="C174" t="s">
         <v>0</v>
@@ -3171,14 +3184,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B175" s="1">
         <f t="shared" si="11"/>
-        <v>43304</v>
+        <v>43670</v>
       </c>
       <c r="C175" t="s">
         <v>0</v>
@@ -3187,14 +3200,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B176" s="1">
         <f t="shared" si="11"/>
-        <v>43305</v>
+        <v>43671</v>
       </c>
       <c r="C176" t="s">
         <v>0</v>
@@ -3203,14 +3216,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B177" s="1">
         <f t="shared" si="11"/>
-        <v>43306</v>
+        <v>43672</v>
       </c>
       <c r="C177" t="s">
         <v>0</v>
@@ -3219,14 +3232,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B178" s="1">
         <f t="shared" si="11"/>
-        <v>43307</v>
+        <v>43673</v>
       </c>
       <c r="C178" t="s">
         <v>0</v>
@@ -3235,14 +3248,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B179" s="1">
         <f t="shared" si="11"/>
-        <v>43308</v>
+        <v>43674</v>
       </c>
       <c r="C179" t="s">
         <v>0</v>
@@ -3251,14 +3264,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B180" s="1">
         <f t="shared" si="11"/>
-        <v>43309</v>
+        <v>43675</v>
       </c>
       <c r="C180" t="s">
         <v>0</v>
@@ -3267,14 +3280,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B181" s="1">
         <f t="shared" si="11"/>
-        <v>43310</v>
+        <v>43676</v>
       </c>
       <c r="C181" t="s">
         <v>0</v>
@@ -3283,14 +3296,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B182" s="1">
         <f t="shared" si="11"/>
-        <v>43311</v>
+        <v>43677</v>
       </c>
       <c r="C182" t="s">
         <v>0</v>
@@ -3299,14 +3312,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B183" s="1">
         <f t="shared" si="11"/>
-        <v>43312</v>
+        <v>43678</v>
       </c>
       <c r="C183" t="s">
         <v>0</v>
@@ -3315,14 +3328,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B184" s="1">
         <f t="shared" si="11"/>
-        <v>43313</v>
+        <v>43679</v>
       </c>
       <c r="C184" t="s">
         <v>0</v>
@@ -3331,14 +3344,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B185" s="1">
         <f t="shared" si="11"/>
-        <v>43314</v>
+        <v>43680</v>
       </c>
       <c r="C185" t="s">
         <v>0</v>
@@ -3347,14 +3360,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B186" s="1">
         <f t="shared" si="11"/>
-        <v>43315</v>
+        <v>43681</v>
       </c>
       <c r="C186" t="s">
         <v>0</v>
@@ -3363,14 +3376,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B187" s="1">
         <f t="shared" si="11"/>
-        <v>43316</v>
+        <v>43682</v>
       </c>
       <c r="C187" t="s">
         <v>0</v>
@@ -3379,14 +3392,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B188" s="1">
         <f t="shared" si="11"/>
-        <v>43317</v>
+        <v>43683</v>
       </c>
       <c r="C188" t="s">
         <v>0</v>
@@ -3395,14 +3408,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B189" s="1">
         <f t="shared" si="11"/>
-        <v>43318</v>
+        <v>43684</v>
       </c>
       <c r="C189" t="s">
         <v>0</v>
@@ -3411,14 +3424,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B190" s="1">
         <f t="shared" si="11"/>
-        <v>43319</v>
+        <v>43685</v>
       </c>
       <c r="C190" t="s">
         <v>0</v>
@@ -3427,14 +3440,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B191" s="1">
         <f t="shared" si="11"/>
-        <v>43320</v>
+        <v>43686</v>
       </c>
       <c r="C191" t="s">
         <v>0</v>
@@ -3443,14 +3456,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B192" s="1">
         <f t="shared" si="11"/>
-        <v>43321</v>
+        <v>43687</v>
       </c>
       <c r="C192" t="s">
         <v>0</v>
@@ -3459,14 +3472,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B193" s="1">
         <f t="shared" si="11"/>
-        <v>43322</v>
+        <v>43688</v>
       </c>
       <c r="C193" t="s">
         <v>0</v>
@@ -3475,14 +3488,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B194" s="1">
         <f t="shared" si="11"/>
-        <v>43323</v>
+        <v>43689</v>
       </c>
       <c r="C194" t="s">
         <v>0</v>
@@ -3491,14 +3504,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B195" s="1">
         <f t="shared" si="11"/>
-        <v>43324</v>
+        <v>43690</v>
       </c>
       <c r="C195" t="s">
         <v>0</v>
@@ -3507,14 +3520,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B196" s="1">
         <f t="shared" si="11"/>
-        <v>43325</v>
+        <v>43691</v>
       </c>
       <c r="C196" t="s">
         <v>0</v>
@@ -3523,43 +3536,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B197" s="1">
         <f t="shared" si="11"/>
-        <v>43326</v>
+        <v>43692</v>
       </c>
       <c r="C197" t="s">
-        <v>0</v>
-      </c>
-      <c r="D197" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B198" s="1">
         <f t="shared" si="11"/>
-        <v>43327</v>
+        <v>43693</v>
       </c>
       <c r="C198" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D198" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B199" s="1">
         <f t="shared" si="11"/>
-        <v>43328</v>
+        <v>43694</v>
       </c>
       <c r="C199" t="s">
         <v>0</v>
@@ -3568,14 +3581,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B200" s="1">
         <f t="shared" si="11"/>
-        <v>43329</v>
+        <v>43695</v>
       </c>
       <c r="C200" t="s">
         <v>0</v>
@@ -3584,14 +3597,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B201" s="1">
         <f t="shared" si="11"/>
-        <v>43330</v>
+        <v>43696</v>
       </c>
       <c r="C201" t="s">
         <v>0</v>
@@ -3600,14 +3613,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B202" s="1">
         <f t="shared" si="11"/>
-        <v>43331</v>
+        <v>43697</v>
       </c>
       <c r="C202" t="s">
         <v>0</v>
@@ -3616,14 +3629,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B203" s="1">
         <f t="shared" si="11"/>
-        <v>43332</v>
+        <v>43698</v>
       </c>
       <c r="C203" t="s">
         <v>0</v>
@@ -3632,14 +3645,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B204" s="1">
         <f t="shared" si="11"/>
-        <v>43333</v>
+        <v>43699</v>
       </c>
       <c r="C204" t="s">
         <v>0</v>
@@ -3648,14 +3661,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B205" s="1">
         <f t="shared" si="11"/>
-        <v>43334</v>
+        <v>43700</v>
       </c>
       <c r="C205" t="s">
         <v>0</v>
@@ -3664,14 +3677,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B206" s="1">
         <f t="shared" si="11"/>
-        <v>43335</v>
+        <v>43701</v>
       </c>
       <c r="C206" t="s">
         <v>0</v>
@@ -3680,14 +3693,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B207" s="1">
         <f t="shared" si="11"/>
-        <v>43336</v>
+        <v>43702</v>
       </c>
       <c r="C207" t="s">
         <v>0</v>
@@ -3696,14 +3709,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B208" s="1">
         <f t="shared" si="11"/>
-        <v>43337</v>
+        <v>43703</v>
       </c>
       <c r="C208" t="s">
         <v>0</v>
@@ -3712,14 +3725,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209">
         <f t="shared" ref="A209:A272" si="12">+WEEKDAY(B209,2)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B209" s="1">
         <f t="shared" ref="B209:B272" si="13">+B208+1</f>
-        <v>43338</v>
+        <v>43704</v>
       </c>
       <c r="C209" t="s">
         <v>0</v>
@@ -3728,987 +3741,987 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210">
         <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="B210" s="1">
+        <f t="shared" si="13"/>
+        <v>43705</v>
+      </c>
+      <c r="C210" t="s">
+        <v>0</v>
+      </c>
+      <c r="D210" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="B211" s="1">
+        <f t="shared" si="13"/>
+        <v>43706</v>
+      </c>
+      <c r="C211" t="s">
+        <v>0</v>
+      </c>
+      <c r="D211" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="B212" s="1">
+        <f t="shared" si="13"/>
+        <v>43707</v>
+      </c>
+      <c r="C212" t="s">
+        <v>0</v>
+      </c>
+      <c r="D212" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="B213" s="1">
+        <f t="shared" si="13"/>
+        <v>43708</v>
+      </c>
+      <c r="C213" t="s">
+        <v>0</v>
+      </c>
+      <c r="D213" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="B214" s="1">
+        <f t="shared" si="13"/>
+        <v>43709</v>
+      </c>
+      <c r="C214" t="s">
+        <v>0</v>
+      </c>
+      <c r="D214" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="B210" s="1">
-        <f t="shared" si="13"/>
-        <v>43339</v>
-      </c>
-      <c r="C210" t="s">
-        <v>0</v>
-      </c>
-      <c r="D210" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="B211" s="1">
-        <f t="shared" si="13"/>
-        <v>43340</v>
-      </c>
-      <c r="C211" t="s">
-        <v>0</v>
-      </c>
-      <c r="D211" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212">
+      <c r="B215" s="1">
+        <f t="shared" si="13"/>
+        <v>43710</v>
+      </c>
+      <c r="C215" t="s">
+        <v>0</v>
+      </c>
+      <c r="D215" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="B216" s="1">
+        <f t="shared" si="13"/>
+        <v>43711</v>
+      </c>
+      <c r="C216" t="s">
+        <v>0</v>
+      </c>
+      <c r="D216" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="B212" s="1">
-        <f t="shared" si="13"/>
-        <v>43341</v>
-      </c>
-      <c r="C212" t="s">
-        <v>0</v>
-      </c>
-      <c r="D212" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213">
+      <c r="B217" s="1">
+        <f t="shared" si="13"/>
+        <v>43712</v>
+      </c>
+      <c r="C217" t="s">
+        <v>0</v>
+      </c>
+      <c r="D217" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="B213" s="1">
-        <f t="shared" si="13"/>
-        <v>43342</v>
-      </c>
-      <c r="C213" t="s">
-        <v>0</v>
-      </c>
-      <c r="D213" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214">
+      <c r="B218" s="1">
+        <f t="shared" si="13"/>
+        <v>43713</v>
+      </c>
+      <c r="C218" t="s">
+        <v>0</v>
+      </c>
+      <c r="D218" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="B214" s="1">
-        <f t="shared" si="13"/>
-        <v>43343</v>
-      </c>
-      <c r="C214" t="s">
-        <v>0</v>
-      </c>
-      <c r="D214" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215">
+      <c r="B219" s="1">
+        <f t="shared" si="13"/>
+        <v>43714</v>
+      </c>
+      <c r="C219" t="s">
+        <v>0</v>
+      </c>
+      <c r="D219" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="B215" s="1">
-        <f t="shared" si="13"/>
-        <v>43344</v>
-      </c>
-      <c r="C215" t="s">
-        <v>0</v>
-      </c>
-      <c r="D215" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="B220" s="1">
+        <f t="shared" si="13"/>
+        <v>43715</v>
+      </c>
+      <c r="C220" t="s">
+        <v>0</v>
+      </c>
+      <c r="D220" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A221">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="B216" s="1">
-        <f t="shared" si="13"/>
-        <v>43345</v>
-      </c>
-      <c r="C216" t="s">
-        <v>0</v>
-      </c>
-      <c r="D216" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217">
+      <c r="B221" s="1">
+        <f t="shared" si="13"/>
+        <v>43716</v>
+      </c>
+      <c r="C221" t="s">
+        <v>0</v>
+      </c>
+      <c r="D221" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="B217" s="1">
-        <f t="shared" si="13"/>
-        <v>43346</v>
-      </c>
-      <c r="C217" t="s">
-        <v>0</v>
-      </c>
-      <c r="D217" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="B218" s="1">
-        <f t="shared" si="13"/>
-        <v>43347</v>
-      </c>
-      <c r="C218" t="s">
-        <v>0</v>
-      </c>
-      <c r="D218" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="B222" s="1">
+        <f t="shared" si="13"/>
+        <v>43717</v>
+      </c>
+      <c r="C222" t="s">
+        <v>0</v>
+      </c>
+      <c r="D222" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="B223" s="1">
+        <f t="shared" si="13"/>
+        <v>43718</v>
+      </c>
+      <c r="C223" t="s">
+        <v>0</v>
+      </c>
+      <c r="D223" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="B219" s="1">
-        <f t="shared" si="13"/>
-        <v>43348</v>
-      </c>
-      <c r="C219" t="s">
-        <v>0</v>
-      </c>
-      <c r="D219" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="B224" s="1">
+        <f t="shared" si="13"/>
+        <v>43719</v>
+      </c>
+      <c r="C224" t="s">
+        <v>0</v>
+      </c>
+      <c r="D224" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A225">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="B220" s="1">
-        <f t="shared" si="13"/>
-        <v>43349</v>
-      </c>
-      <c r="C220" t="s">
-        <v>0</v>
-      </c>
-      <c r="D220" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221">
+      <c r="B225" s="1">
+        <f t="shared" si="13"/>
+        <v>43720</v>
+      </c>
+      <c r="C225" t="s">
+        <v>0</v>
+      </c>
+      <c r="D225" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A226">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="B221" s="1">
-        <f t="shared" si="13"/>
-        <v>43350</v>
-      </c>
-      <c r="C221" t="s">
-        <v>0</v>
-      </c>
-      <c r="D221" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222">
+      <c r="B226" s="1">
+        <f t="shared" si="13"/>
+        <v>43721</v>
+      </c>
+      <c r="C226" t="s">
+        <v>0</v>
+      </c>
+      <c r="D226" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A227">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="B222" s="1">
-        <f t="shared" si="13"/>
-        <v>43351</v>
-      </c>
-      <c r="C222" t="s">
-        <v>0</v>
-      </c>
-      <c r="D222" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A223">
+      <c r="B227" s="1">
+        <f t="shared" si="13"/>
+        <v>43722</v>
+      </c>
+      <c r="C227" t="s">
+        <v>0</v>
+      </c>
+      <c r="D227" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A228">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="B223" s="1">
-        <f t="shared" si="13"/>
-        <v>43352</v>
-      </c>
-      <c r="C223" t="s">
-        <v>0</v>
-      </c>
-      <c r="D223" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224">
+      <c r="B228" s="1">
+        <f t="shared" si="13"/>
+        <v>43723</v>
+      </c>
+      <c r="C228" t="s">
+        <v>0</v>
+      </c>
+      <c r="D228" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A229">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="B224" s="1">
-        <f t="shared" si="13"/>
-        <v>43353</v>
-      </c>
-      <c r="C224" t="s">
-        <v>0</v>
-      </c>
-      <c r="D224" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="B225" s="1">
-        <f t="shared" si="13"/>
-        <v>43354</v>
-      </c>
-      <c r="C225" t="s">
-        <v>0</v>
-      </c>
-      <c r="D225" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226">
+      <c r="B229" s="1">
+        <f t="shared" si="13"/>
+        <v>43724</v>
+      </c>
+      <c r="C229" t="s">
+        <v>0</v>
+      </c>
+      <c r="D229" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="B230" s="1">
+        <f t="shared" si="13"/>
+        <v>43725</v>
+      </c>
+      <c r="C230" t="s">
+        <v>0</v>
+      </c>
+      <c r="D230" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A231">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="B226" s="1">
-        <f t="shared" si="13"/>
-        <v>43355</v>
-      </c>
-      <c r="C226" t="s">
-        <v>0</v>
-      </c>
-      <c r="D226" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227">
+      <c r="B231" s="1">
+        <f t="shared" si="13"/>
+        <v>43726</v>
+      </c>
+      <c r="C231" t="s">
+        <v>0</v>
+      </c>
+      <c r="D231" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A232">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="B227" s="1">
-        <f t="shared" si="13"/>
-        <v>43356</v>
-      </c>
-      <c r="C227" t="s">
-        <v>0</v>
-      </c>
-      <c r="D227" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228">
+      <c r="B232" s="1">
+        <f t="shared" si="13"/>
+        <v>43727</v>
+      </c>
+      <c r="C232" t="s">
+        <v>0</v>
+      </c>
+      <c r="D232" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A233">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="B228" s="1">
-        <f t="shared" si="13"/>
-        <v>43357</v>
-      </c>
-      <c r="C228" t="s">
-        <v>0</v>
-      </c>
-      <c r="D228" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229">
+      <c r="B233" s="1">
+        <f t="shared" si="13"/>
+        <v>43728</v>
+      </c>
+      <c r="C233" t="s">
+        <v>0</v>
+      </c>
+      <c r="D233" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A234">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="B229" s="1">
-        <f t="shared" si="13"/>
-        <v>43358</v>
-      </c>
-      <c r="C229" t="s">
-        <v>0</v>
-      </c>
-      <c r="D229" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A230">
+      <c r="B234" s="1">
+        <f t="shared" si="13"/>
+        <v>43729</v>
+      </c>
+      <c r="C234" t="s">
+        <v>0</v>
+      </c>
+      <c r="D234" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A235">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="B230" s="1">
-        <f t="shared" si="13"/>
-        <v>43359</v>
-      </c>
-      <c r="C230" t="s">
-        <v>0</v>
-      </c>
-      <c r="D230" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="B235" s="1">
+        <f t="shared" si="13"/>
+        <v>43730</v>
+      </c>
+      <c r="C235" t="s">
+        <v>0</v>
+      </c>
+      <c r="D235" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A236">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="B231" s="1">
-        <f t="shared" si="13"/>
-        <v>43360</v>
-      </c>
-      <c r="C231" t="s">
-        <v>0</v>
-      </c>
-      <c r="D231" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="B232" s="1">
-        <f t="shared" si="13"/>
-        <v>43361</v>
-      </c>
-      <c r="C232" t="s">
-        <v>0</v>
-      </c>
-      <c r="D232" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233">
+      <c r="B236" s="1">
+        <f t="shared" si="13"/>
+        <v>43731</v>
+      </c>
+      <c r="C236" t="s">
+        <v>0</v>
+      </c>
+      <c r="D236" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="B237" s="1">
+        <f t="shared" si="13"/>
+        <v>43732</v>
+      </c>
+      <c r="C237" t="s">
+        <v>0</v>
+      </c>
+      <c r="D237" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A238">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="B233" s="1">
-        <f t="shared" si="13"/>
-        <v>43362</v>
-      </c>
-      <c r="C233" t="s">
-        <v>0</v>
-      </c>
-      <c r="D233" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234">
+      <c r="B238" s="1">
+        <f t="shared" si="13"/>
+        <v>43733</v>
+      </c>
+      <c r="C238" t="s">
+        <v>0</v>
+      </c>
+      <c r="D238" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A239">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="B234" s="1">
-        <f t="shared" si="13"/>
-        <v>43363</v>
-      </c>
-      <c r="C234" t="s">
-        <v>0</v>
-      </c>
-      <c r="D234" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="B239" s="1">
+        <f t="shared" si="13"/>
+        <v>43734</v>
+      </c>
+      <c r="C239" t="s">
+        <v>0</v>
+      </c>
+      <c r="D239" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A240">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="B235" s="1">
-        <f t="shared" si="13"/>
-        <v>43364</v>
-      </c>
-      <c r="C235" t="s">
-        <v>0</v>
-      </c>
-      <c r="D235" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236">
+      <c r="B240" s="1">
+        <f t="shared" si="13"/>
+        <v>43735</v>
+      </c>
+      <c r="C240" t="s">
+        <v>0</v>
+      </c>
+      <c r="D240" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A241">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="B236" s="1">
-        <f t="shared" si="13"/>
-        <v>43365</v>
-      </c>
-      <c r="C236" t="s">
-        <v>0</v>
-      </c>
-      <c r="D236" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A237">
+      <c r="B241" s="1">
+        <f t="shared" si="13"/>
+        <v>43736</v>
+      </c>
+      <c r="C241" t="s">
+        <v>0</v>
+      </c>
+      <c r="D241" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A242">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="B237" s="1">
-        <f t="shared" si="13"/>
-        <v>43366</v>
-      </c>
-      <c r="C237" t="s">
-        <v>0</v>
-      </c>
-      <c r="D237" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238">
+      <c r="B242" s="1">
+        <f t="shared" si="13"/>
+        <v>43737</v>
+      </c>
+      <c r="C242" t="s">
+        <v>0</v>
+      </c>
+      <c r="D242" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A243">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="B238" s="1">
-        <f t="shared" si="13"/>
-        <v>43367</v>
-      </c>
-      <c r="C238" t="s">
-        <v>0</v>
-      </c>
-      <c r="D238" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="B239" s="1">
-        <f t="shared" si="13"/>
-        <v>43368</v>
-      </c>
-      <c r="C239" t="s">
-        <v>0</v>
-      </c>
-      <c r="D239" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="B243" s="1">
+        <f t="shared" si="13"/>
+        <v>43738</v>
+      </c>
+      <c r="C243" t="s">
+        <v>0</v>
+      </c>
+      <c r="D243" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A244">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="B244" s="1">
+        <f t="shared" si="13"/>
+        <v>43739</v>
+      </c>
+      <c r="C244" t="s">
+        <v>0</v>
+      </c>
+      <c r="D244" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A245">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="B240" s="1">
-        <f t="shared" si="13"/>
-        <v>43369</v>
-      </c>
-      <c r="C240" t="s">
-        <v>0</v>
-      </c>
-      <c r="D240" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241">
+      <c r="B245" s="1">
+        <f t="shared" si="13"/>
+        <v>43740</v>
+      </c>
+      <c r="C245" t="s">
+        <v>0</v>
+      </c>
+      <c r="D245" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A246">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="B241" s="1">
-        <f t="shared" si="13"/>
-        <v>43370</v>
-      </c>
-      <c r="C241" t="s">
-        <v>0</v>
-      </c>
-      <c r="D241" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242">
+      <c r="B246" s="1">
+        <f t="shared" si="13"/>
+        <v>43741</v>
+      </c>
+      <c r="C246" t="s">
+        <v>0</v>
+      </c>
+      <c r="D246" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A247">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="B242" s="1">
-        <f t="shared" si="13"/>
-        <v>43371</v>
-      </c>
-      <c r="C242" t="s">
-        <v>0</v>
-      </c>
-      <c r="D242" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243">
+      <c r="B247" s="1">
+        <f t="shared" si="13"/>
+        <v>43742</v>
+      </c>
+      <c r="C247" t="s">
+        <v>0</v>
+      </c>
+      <c r="D247" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A248">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="B243" s="1">
-        <f t="shared" si="13"/>
-        <v>43372</v>
-      </c>
-      <c r="C243" t="s">
-        <v>0</v>
-      </c>
-      <c r="D243" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A244">
+      <c r="B248" s="1">
+        <f t="shared" si="13"/>
+        <v>43743</v>
+      </c>
+      <c r="C248" t="s">
+        <v>0</v>
+      </c>
+      <c r="D248" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A249">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="B244" s="1">
-        <f t="shared" si="13"/>
-        <v>43373</v>
-      </c>
-      <c r="C244" t="s">
-        <v>0</v>
-      </c>
-      <c r="D244" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245">
+      <c r="B249" s="1">
+        <f t="shared" si="13"/>
+        <v>43744</v>
+      </c>
+      <c r="C249" t="s">
+        <v>0</v>
+      </c>
+      <c r="D249" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A250">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="B245" s="1">
-        <f t="shared" si="13"/>
-        <v>43374</v>
-      </c>
-      <c r="C245" t="s">
-        <v>0</v>
-      </c>
-      <c r="D245" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="B246" s="1">
-        <f t="shared" si="13"/>
-        <v>43375</v>
-      </c>
-      <c r="C246" t="s">
-        <v>0</v>
-      </c>
-      <c r="D246" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247">
+      <c r="B250" s="1">
+        <f t="shared" si="13"/>
+        <v>43745</v>
+      </c>
+      <c r="C250" t="s">
+        <v>0</v>
+      </c>
+      <c r="D250" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A251">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="B251" s="1">
+        <f t="shared" si="13"/>
+        <v>43746</v>
+      </c>
+      <c r="C251" t="s">
+        <v>0</v>
+      </c>
+      <c r="D251" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A252">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="B247" s="1">
-        <f t="shared" si="13"/>
-        <v>43376</v>
-      </c>
-      <c r="C247" t="s">
-        <v>0</v>
-      </c>
-      <c r="D247" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248">
+      <c r="B252" s="1">
+        <f t="shared" si="13"/>
+        <v>43747</v>
+      </c>
+      <c r="C252" t="s">
+        <v>0</v>
+      </c>
+      <c r="D252" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A253">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="B248" s="1">
-        <f t="shared" si="13"/>
-        <v>43377</v>
-      </c>
-      <c r="C248" t="s">
-        <v>0</v>
-      </c>
-      <c r="D248" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="B253" s="1">
+        <f t="shared" si="13"/>
+        <v>43748</v>
+      </c>
+      <c r="C253" t="s">
+        <v>0</v>
+      </c>
+      <c r="D253" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A254">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="B249" s="1">
-        <f t="shared" si="13"/>
-        <v>43378</v>
-      </c>
-      <c r="C249" t="s">
-        <v>0</v>
-      </c>
-      <c r="D249" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250">
+      <c r="B254" s="1">
+        <f t="shared" si="13"/>
+        <v>43749</v>
+      </c>
+      <c r="C254" t="s">
+        <v>0</v>
+      </c>
+      <c r="D254" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A255">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="B250" s="1">
-        <f t="shared" si="13"/>
-        <v>43379</v>
-      </c>
-      <c r="C250" t="s">
-        <v>0</v>
-      </c>
-      <c r="D250" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A251">
+      <c r="B255" s="1">
+        <f t="shared" si="13"/>
+        <v>43750</v>
+      </c>
+      <c r="C255" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A256">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="B251" s="1">
-        <f t="shared" si="13"/>
-        <v>43380</v>
-      </c>
-      <c r="C251" t="s">
-        <v>0</v>
-      </c>
-      <c r="D251" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252">
+      <c r="B256" s="1">
+        <f t="shared" si="13"/>
+        <v>43751</v>
+      </c>
+      <c r="C256" t="s">
+        <v>0</v>
+      </c>
+      <c r="D256" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A257">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="B252" s="1">
-        <f t="shared" si="13"/>
-        <v>43381</v>
-      </c>
-      <c r="C252" t="s">
-        <v>0</v>
-      </c>
-      <c r="D252" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="B253" s="1">
-        <f t="shared" si="13"/>
-        <v>43382</v>
-      </c>
-      <c r="C253" t="s">
-        <v>0</v>
-      </c>
-      <c r="D253" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254">
+      <c r="B257" s="1">
+        <f t="shared" si="13"/>
+        <v>43752</v>
+      </c>
+      <c r="C257" t="s">
+        <v>0</v>
+      </c>
+      <c r="D257" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A258">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="B258" s="1">
+        <f t="shared" si="13"/>
+        <v>43753</v>
+      </c>
+      <c r="C258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D258" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A259">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="B254" s="1">
-        <f t="shared" si="13"/>
-        <v>43383</v>
-      </c>
-      <c r="C254" t="s">
-        <v>0</v>
-      </c>
-      <c r="D254" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255">
+      <c r="B259" s="1">
+        <f t="shared" si="13"/>
+        <v>43754</v>
+      </c>
+      <c r="C259" t="s">
+        <v>0</v>
+      </c>
+      <c r="D259" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A260">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="B255" s="1">
-        <f t="shared" si="13"/>
-        <v>43384</v>
-      </c>
-      <c r="C255" t="s">
-        <v>0</v>
-      </c>
-      <c r="D255" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256">
+      <c r="B260" s="1">
+        <f t="shared" si="13"/>
+        <v>43755</v>
+      </c>
+      <c r="C260" t="s">
+        <v>0</v>
+      </c>
+      <c r="D260" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A261">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="B256" s="1">
-        <f t="shared" si="13"/>
-        <v>43385</v>
-      </c>
-      <c r="C256" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257">
+      <c r="B261" s="1">
+        <f t="shared" si="13"/>
+        <v>43756</v>
+      </c>
+      <c r="C261" t="s">
+        <v>0</v>
+      </c>
+      <c r="D261" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A262">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="B257" s="1">
-        <f t="shared" si="13"/>
-        <v>43386</v>
-      </c>
-      <c r="C257" t="s">
-        <v>0</v>
-      </c>
-      <c r="D257" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A258">
+      <c r="B262" s="1">
+        <f t="shared" si="13"/>
+        <v>43757</v>
+      </c>
+      <c r="C262" t="s">
+        <v>0</v>
+      </c>
+      <c r="D262" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A263">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="B258" s="1">
-        <f t="shared" si="13"/>
-        <v>43387</v>
-      </c>
-      <c r="C258" t="s">
-        <v>0</v>
-      </c>
-      <c r="D258" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259">
+      <c r="B263" s="1">
+        <f t="shared" si="13"/>
+        <v>43758</v>
+      </c>
+      <c r="C263" t="s">
+        <v>0</v>
+      </c>
+      <c r="D263" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A264">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="B259" s="1">
-        <f t="shared" si="13"/>
-        <v>43388</v>
-      </c>
-      <c r="C259" t="s">
-        <v>0</v>
-      </c>
-      <c r="D259" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="B260" s="1">
-        <f t="shared" si="13"/>
-        <v>43389</v>
-      </c>
-      <c r="C260" t="s">
-        <v>0</v>
-      </c>
-      <c r="D260" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261">
+      <c r="B264" s="1">
+        <f t="shared" si="13"/>
+        <v>43759</v>
+      </c>
+      <c r="C264" t="s">
+        <v>0</v>
+      </c>
+      <c r="D264" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A265">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="B265" s="1">
+        <f t="shared" si="13"/>
+        <v>43760</v>
+      </c>
+      <c r="C265" t="s">
+        <v>0</v>
+      </c>
+      <c r="D265" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A266">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="B261" s="1">
-        <f t="shared" si="13"/>
-        <v>43390</v>
-      </c>
-      <c r="C261" t="s">
-        <v>0</v>
-      </c>
-      <c r="D261" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262">
+      <c r="B266" s="1">
+        <f t="shared" si="13"/>
+        <v>43761</v>
+      </c>
+      <c r="C266" t="s">
+        <v>0</v>
+      </c>
+      <c r="D266" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A267">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="B262" s="1">
-        <f t="shared" si="13"/>
-        <v>43391</v>
-      </c>
-      <c r="C262" t="s">
-        <v>0</v>
-      </c>
-      <c r="D262" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263">
+      <c r="B267" s="1">
+        <f t="shared" si="13"/>
+        <v>43762</v>
+      </c>
+      <c r="C267" t="s">
+        <v>0</v>
+      </c>
+      <c r="D267" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A268">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="B263" s="1">
-        <f t="shared" si="13"/>
-        <v>43392</v>
-      </c>
-      <c r="C263" t="s">
-        <v>0</v>
-      </c>
-      <c r="D263" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264">
+      <c r="B268" s="1">
+        <f t="shared" si="13"/>
+        <v>43763</v>
+      </c>
+      <c r="C268" t="s">
+        <v>0</v>
+      </c>
+      <c r="D268" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A269">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="B264" s="1">
-        <f t="shared" si="13"/>
-        <v>43393</v>
-      </c>
-      <c r="C264" t="s">
-        <v>0</v>
-      </c>
-      <c r="D264" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A265">
+      <c r="B269" s="1">
+        <f t="shared" si="13"/>
+        <v>43764</v>
+      </c>
+      <c r="C269" t="s">
+        <v>0</v>
+      </c>
+      <c r="D269" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A270">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="B265" s="1">
-        <f t="shared" si="13"/>
-        <v>43394</v>
-      </c>
-      <c r="C265" t="s">
-        <v>0</v>
-      </c>
-      <c r="D265" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266">
+      <c r="B270" s="1">
+        <f t="shared" si="13"/>
+        <v>43765</v>
+      </c>
+      <c r="C270" t="s">
+        <v>0</v>
+      </c>
+      <c r="D270" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A271">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="B266" s="1">
-        <f t="shared" si="13"/>
-        <v>43395</v>
-      </c>
-      <c r="C266" t="s">
-        <v>0</v>
-      </c>
-      <c r="D266" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="B267" s="1">
-        <f t="shared" si="13"/>
-        <v>43396</v>
-      </c>
-      <c r="C267" t="s">
-        <v>0</v>
-      </c>
-      <c r="D267" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="B268" s="1">
-        <f t="shared" si="13"/>
-        <v>43397</v>
-      </c>
-      <c r="C268" t="s">
-        <v>0</v>
-      </c>
-      <c r="D268" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="B269" s="1">
-        <f t="shared" si="13"/>
-        <v>43398</v>
-      </c>
-      <c r="C269" t="s">
-        <v>0</v>
-      </c>
-      <c r="D269" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="B270" s="1">
-        <f t="shared" si="13"/>
-        <v>43399</v>
-      </c>
-      <c r="C270" t="s">
-        <v>0</v>
-      </c>
-      <c r="D270" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
       <c r="B271" s="1">
         <f t="shared" si="13"/>
-        <v>43400</v>
+        <v>43766</v>
       </c>
       <c r="C271" t="s">
         <v>0</v>
@@ -4717,14 +4730,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B272" s="1">
         <f t="shared" si="13"/>
-        <v>43401</v>
+        <v>43767</v>
       </c>
       <c r="C272" t="s">
         <v>0</v>
@@ -4733,14 +4746,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273">
         <f t="shared" ref="A273:A336" si="14">+WEEKDAY(B273,2)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B273" s="1">
         <f t="shared" ref="B273:B313" si="15">+B272+1</f>
-        <v>43402</v>
+        <v>43768</v>
       </c>
       <c r="C273" t="s">
         <v>0</v>
@@ -4749,14 +4762,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B274" s="1">
         <f t="shared" si="15"/>
-        <v>43403</v>
+        <v>43769</v>
       </c>
       <c r="C274" t="s">
         <v>0</v>
@@ -4765,46 +4778,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B275" s="1">
         <f t="shared" si="15"/>
-        <v>43404</v>
+        <v>43770</v>
       </c>
       <c r="C275" t="s">
-        <v>0</v>
-      </c>
-      <c r="D275" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B276" s="1">
         <f t="shared" si="15"/>
-        <v>43405</v>
+        <v>43771</v>
       </c>
       <c r="C276" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D276" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B277" s="1">
         <f t="shared" si="15"/>
-        <v>43406</v>
+        <v>43772</v>
       </c>
       <c r="C277" t="s">
         <v>0</v>
@@ -4813,14 +4823,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B278" s="1">
         <f t="shared" si="15"/>
-        <v>43407</v>
+        <v>43773</v>
       </c>
       <c r="C278" t="s">
         <v>0</v>
@@ -4829,14 +4839,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B279" s="1">
         <f t="shared" si="15"/>
-        <v>43408</v>
+        <v>43774</v>
       </c>
       <c r="C279" t="s">
         <v>0</v>
@@ -4845,14 +4855,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B280" s="1">
         <f t="shared" si="15"/>
-        <v>43409</v>
+        <v>43775</v>
       </c>
       <c r="C280" t="s">
         <v>0</v>
@@ -4861,14 +4871,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B281" s="1">
         <f t="shared" si="15"/>
-        <v>43410</v>
+        <v>43776</v>
       </c>
       <c r="C281" t="s">
         <v>0</v>
@@ -4877,14 +4887,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B282" s="1">
         <f t="shared" si="15"/>
-        <v>43411</v>
+        <v>43777</v>
       </c>
       <c r="C282" t="s">
         <v>0</v>
@@ -4893,43 +4903,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B283" s="1">
         <f t="shared" si="15"/>
-        <v>43412</v>
+        <v>43778</v>
       </c>
       <c r="C283" t="s">
-        <v>0</v>
-      </c>
-      <c r="D283" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B284" s="1">
         <f t="shared" si="15"/>
-        <v>43413</v>
+        <v>43779</v>
       </c>
       <c r="C284" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D284" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B285" s="1">
         <f t="shared" si="15"/>
-        <v>43414</v>
+        <v>43780</v>
       </c>
       <c r="C285" t="s">
         <v>0</v>
@@ -4938,14 +4948,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B286" s="1">
         <f t="shared" si="15"/>
-        <v>43415</v>
+        <v>43781</v>
       </c>
       <c r="C286" t="s">
         <v>0</v>
@@ -4954,14 +4964,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B287" s="1">
         <f t="shared" si="15"/>
-        <v>43416</v>
+        <v>43782</v>
       </c>
       <c r="C287" t="s">
         <v>0</v>
@@ -4970,14 +4980,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B288" s="1">
         <f t="shared" si="15"/>
-        <v>43417</v>
+        <v>43783</v>
       </c>
       <c r="C288" t="s">
         <v>0</v>
@@ -4986,14 +4996,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B289" s="1">
         <f t="shared" si="15"/>
-        <v>43418</v>
+        <v>43784</v>
       </c>
       <c r="C289" t="s">
         <v>0</v>
@@ -5002,14 +5012,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B290" s="1">
         <f t="shared" si="15"/>
-        <v>43419</v>
+        <v>43785</v>
       </c>
       <c r="C290" t="s">
         <v>0</v>
@@ -5018,14 +5028,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B291" s="1">
         <f t="shared" si="15"/>
-        <v>43420</v>
+        <v>43786</v>
       </c>
       <c r="C291" t="s">
         <v>0</v>
@@ -5034,14 +5044,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B292" s="1">
         <f t="shared" si="15"/>
-        <v>43421</v>
+        <v>43787</v>
       </c>
       <c r="C292" t="s">
         <v>0</v>
@@ -5050,14 +5060,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B293" s="1">
         <f t="shared" si="15"/>
-        <v>43422</v>
+        <v>43788</v>
       </c>
       <c r="C293" t="s">
         <v>0</v>
@@ -5066,14 +5076,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B294" s="1">
         <f t="shared" si="15"/>
-        <v>43423</v>
+        <v>43789</v>
       </c>
       <c r="C294" t="s">
         <v>0</v>
@@ -5082,14 +5092,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B295" s="1">
         <f t="shared" si="15"/>
-        <v>43424</v>
+        <v>43790</v>
       </c>
       <c r="C295" t="s">
         <v>0</v>
@@ -5098,14 +5108,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B296" s="1">
         <f t="shared" si="15"/>
-        <v>43425</v>
+        <v>43791</v>
       </c>
       <c r="C296" t="s">
         <v>0</v>
@@ -5114,14 +5124,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B297" s="1">
         <f t="shared" si="15"/>
-        <v>43426</v>
+        <v>43792</v>
       </c>
       <c r="C297" t="s">
         <v>0</v>
@@ -5130,14 +5140,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B298" s="1">
         <f t="shared" si="15"/>
-        <v>43427</v>
+        <v>43793</v>
       </c>
       <c r="C298" t="s">
         <v>0</v>
@@ -5146,14 +5156,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B299" s="1">
         <f t="shared" si="15"/>
-        <v>43428</v>
+        <v>43794</v>
       </c>
       <c r="C299" t="s">
         <v>0</v>
@@ -5162,14 +5172,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B300" s="1">
         <f t="shared" si="15"/>
-        <v>43429</v>
+        <v>43795</v>
       </c>
       <c r="C300" t="s">
         <v>0</v>
@@ -5178,14 +5188,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B301" s="1">
         <f t="shared" si="15"/>
-        <v>43430</v>
+        <v>43796</v>
       </c>
       <c r="C301" t="s">
         <v>0</v>
@@ -5194,14 +5204,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B302" s="1">
         <f t="shared" si="15"/>
-        <v>43431</v>
+        <v>43797</v>
       </c>
       <c r="C302" t="s">
         <v>0</v>
@@ -5210,14 +5220,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B303" s="1">
         <f t="shared" si="15"/>
-        <v>43432</v>
+        <v>43798</v>
       </c>
       <c r="C303" t="s">
         <v>0</v>
@@ -5226,14 +5236,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B304" s="1">
         <f t="shared" si="15"/>
-        <v>43433</v>
+        <v>43799</v>
       </c>
       <c r="C304" t="s">
         <v>0</v>
@@ -5242,14 +5252,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B305" s="1">
         <f t="shared" si="15"/>
-        <v>43434</v>
+        <v>43800</v>
       </c>
       <c r="C305" t="s">
         <v>0</v>
@@ -5258,14 +5268,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B306" s="1">
         <f t="shared" si="15"/>
-        <v>43435</v>
+        <v>43801</v>
       </c>
       <c r="C306" t="s">
         <v>0</v>
@@ -5274,14 +5284,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B307" s="1">
         <f t="shared" si="15"/>
-        <v>43436</v>
+        <v>43802</v>
       </c>
       <c r="C307" t="s">
         <v>0</v>
@@ -5290,14 +5300,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B308" s="1">
         <f t="shared" si="15"/>
-        <v>43437</v>
+        <v>43803</v>
       </c>
       <c r="C308" t="s">
         <v>0</v>
@@ -5306,14 +5316,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B309" s="1">
         <f t="shared" si="15"/>
-        <v>43438</v>
+        <v>43804</v>
       </c>
       <c r="C309" t="s">
         <v>0</v>
@@ -5322,43 +5332,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B310" s="1">
         <f t="shared" si="15"/>
-        <v>43439</v>
+        <v>43805</v>
       </c>
       <c r="C310" t="s">
-        <v>0</v>
-      </c>
-      <c r="D310" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B311" s="1">
         <f t="shared" si="15"/>
-        <v>43440</v>
+        <v>43806</v>
       </c>
       <c r="C311" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D311" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B312" s="1">
         <f t="shared" si="15"/>
-        <v>43441</v>
+        <v>43807</v>
       </c>
       <c r="C312" t="s">
         <v>0</v>
@@ -5367,27 +5377,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B313" s="1">
         <f t="shared" si="15"/>
-        <v>43442</v>
+        <v>43808</v>
       </c>
       <c r="C313" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="D313" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B314" s="1">
         <f>+B313+1</f>
-        <v>43443</v>
+        <v>43809</v>
       </c>
       <c r="C314" t="s">
         <v>0</v>
@@ -5396,14 +5409,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B315" s="1">
         <f t="shared" ref="B315:B368" si="16">+B314+1</f>
-        <v>43444</v>
+        <v>43810</v>
       </c>
       <c r="C315" t="s">
         <v>0</v>
@@ -5412,14 +5425,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B316" s="1">
         <f t="shared" si="16"/>
-        <v>43445</v>
+        <v>43811</v>
       </c>
       <c r="C316" t="s">
         <v>0</v>
@@ -5428,14 +5441,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B317" s="1">
         <f t="shared" si="16"/>
-        <v>43446</v>
+        <v>43812</v>
       </c>
       <c r="C317" t="s">
         <v>0</v>
@@ -5444,14 +5457,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B318" s="1">
         <f t="shared" si="16"/>
-        <v>43447</v>
+        <v>43813</v>
       </c>
       <c r="C318" t="s">
         <v>0</v>
@@ -5460,14 +5473,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B319" s="1">
         <f t="shared" si="16"/>
-        <v>43448</v>
+        <v>43814</v>
       </c>
       <c r="C319" t="s">
         <v>0</v>
@@ -5476,14 +5489,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B320" s="1">
         <f t="shared" si="16"/>
-        <v>43449</v>
+        <v>43815</v>
       </c>
       <c r="C320" t="s">
         <v>0</v>
@@ -5492,14 +5505,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B321" s="1">
         <f t="shared" si="16"/>
-        <v>43450</v>
+        <v>43816</v>
       </c>
       <c r="C321" t="s">
         <v>0</v>
@@ -5508,14 +5521,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B322" s="1">
         <f t="shared" si="16"/>
-        <v>43451</v>
+        <v>43817</v>
       </c>
       <c r="C322" t="s">
         <v>0</v>
@@ -5524,14 +5537,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B323" s="1">
         <f t="shared" si="16"/>
-        <v>43452</v>
+        <v>43818</v>
       </c>
       <c r="C323" t="s">
         <v>0</v>
@@ -5540,14 +5553,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B324" s="1">
         <f t="shared" si="16"/>
-        <v>43453</v>
+        <v>43819</v>
       </c>
       <c r="C324" t="s">
         <v>0</v>
@@ -5556,14 +5569,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B325" s="1">
         <f t="shared" si="16"/>
-        <v>43454</v>
+        <v>43820</v>
       </c>
       <c r="C325" t="s">
         <v>0</v>
@@ -5572,14 +5585,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B326" s="1">
         <f t="shared" si="16"/>
-        <v>43455</v>
+        <v>43821</v>
       </c>
       <c r="C326" t="s">
         <v>0</v>
@@ -5588,14 +5601,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B327" s="1">
         <f t="shared" si="16"/>
-        <v>43456</v>
+        <v>43822</v>
       </c>
       <c r="C327" t="s">
         <v>0</v>
@@ -5604,14 +5617,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B328" s="1">
         <f t="shared" si="16"/>
-        <v>43457</v>
+        <v>43823</v>
       </c>
       <c r="C328" t="s">
         <v>0</v>
@@ -5619,15 +5632,18 @@
       <c r="D328" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E328" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B329" s="1">
         <f t="shared" si="16"/>
-        <v>43458</v>
+        <v>43824</v>
       </c>
       <c r="C329" t="s">
         <v>0</v>
@@ -5635,18 +5651,18 @@
       <c r="D329" t="s">
         <v>2</v>
       </c>
-      <c r="E329" t="s">
+      <c r="E329" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B330" s="1">
         <f t="shared" si="16"/>
-        <v>43459</v>
+        <v>43825</v>
       </c>
       <c r="C330" t="s">
         <v>0</v>
@@ -5654,18 +5670,15 @@
       <c r="D330" t="s">
         <v>2</v>
       </c>
-      <c r="E330" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B331" s="1">
         <f t="shared" si="16"/>
-        <v>43460</v>
+        <v>43826</v>
       </c>
       <c r="C331" t="s">
         <v>0</v>
@@ -5674,14 +5687,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B332" s="1">
         <f t="shared" si="16"/>
-        <v>43461</v>
+        <v>43827</v>
       </c>
       <c r="C332" t="s">
         <v>0</v>
@@ -5690,14 +5703,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B333" s="1">
         <f t="shared" si="16"/>
-        <v>43462</v>
+        <v>43828</v>
       </c>
       <c r="C333" t="s">
         <v>0</v>
@@ -5706,14 +5719,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B334" s="1">
         <f t="shared" si="16"/>
-        <v>43463</v>
+        <v>43829</v>
       </c>
       <c r="C334" t="s">
         <v>0</v>
@@ -5722,14 +5735,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B335" s="1">
         <f t="shared" si="16"/>
-        <v>43464</v>
+        <v>43830</v>
       </c>
       <c r="C335" t="s">
         <v>0</v>
@@ -5737,584 +5750,152 @@
       <c r="D335" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A336">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="B336" s="1">
-        <f t="shared" si="16"/>
-        <v>43465</v>
-      </c>
-      <c r="C336" t="s">
-        <v>0</v>
-      </c>
-      <c r="D336" t="s">
-        <v>2</v>
-      </c>
-      <c r="E336" t="s">
+      <c r="E335" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A337">
-        <f t="shared" ref="A337:A368" si="17">+WEEKDAY(B337,2)</f>
-        <v>2</v>
-      </c>
-      <c r="B337" s="1">
-        <f t="shared" si="16"/>
-        <v>43466</v>
-      </c>
-      <c r="C337" t="s">
-        <v>0</v>
-      </c>
-      <c r="D337" t="s">
-        <v>2</v>
-      </c>
-      <c r="E337" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="B338" s="1">
-        <f t="shared" si="16"/>
-        <v>43467</v>
-      </c>
-      <c r="C338" t="s">
-        <v>0</v>
-      </c>
-      <c r="D338" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="B339" s="1">
-        <f t="shared" si="16"/>
-        <v>43468</v>
-      </c>
-      <c r="C339" t="s">
-        <v>0</v>
-      </c>
-      <c r="D339" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="B340" s="1">
-        <f t="shared" si="16"/>
-        <v>43469</v>
-      </c>
-      <c r="C340" t="s">
-        <v>0</v>
-      </c>
-      <c r="D340" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="B341" s="1">
-        <f t="shared" si="16"/>
-        <v>43470</v>
-      </c>
-      <c r="C341" t="s">
-        <v>0</v>
-      </c>
-      <c r="D341" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A342">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="B342" s="1">
-        <f t="shared" si="16"/>
-        <v>43471</v>
-      </c>
-      <c r="C342" t="s">
-        <v>0</v>
-      </c>
-      <c r="D342" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="B343" s="1">
-        <f t="shared" si="16"/>
-        <v>43472</v>
-      </c>
-      <c r="C343" t="s">
-        <v>0</v>
-      </c>
-      <c r="D343" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="B344" s="1">
-        <f t="shared" si="16"/>
-        <v>43473</v>
-      </c>
-      <c r="C344" t="s">
-        <v>0</v>
-      </c>
-      <c r="D344" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="B345" s="1">
-        <f t="shared" si="16"/>
-        <v>43474</v>
-      </c>
-      <c r="C345" t="s">
-        <v>0</v>
-      </c>
-      <c r="D345" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="B346" s="1">
-        <f t="shared" si="16"/>
-        <v>43475</v>
-      </c>
-      <c r="C346" t="s">
-        <v>0</v>
-      </c>
-      <c r="D346" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="B347" s="1">
-        <f t="shared" si="16"/>
-        <v>43476</v>
-      </c>
-      <c r="C347" t="s">
-        <v>0</v>
-      </c>
-      <c r="D347" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="B348" s="1">
-        <f t="shared" si="16"/>
-        <v>43477</v>
-      </c>
-      <c r="C348" t="s">
-        <v>0</v>
-      </c>
-      <c r="D348" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A349">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="B349" s="1">
-        <f t="shared" si="16"/>
-        <v>43478</v>
-      </c>
-      <c r="C349" t="s">
-        <v>0</v>
-      </c>
-      <c r="D349" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="B350" s="1">
-        <f t="shared" si="16"/>
-        <v>43479</v>
-      </c>
-      <c r="C350" t="s">
-        <v>0</v>
-      </c>
-      <c r="D350" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="B351" s="1">
-        <f t="shared" si="16"/>
-        <v>43480</v>
-      </c>
-      <c r="C351" t="s">
-        <v>0</v>
-      </c>
-      <c r="D351" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="B352" s="1">
-        <f t="shared" si="16"/>
-        <v>43481</v>
-      </c>
-      <c r="C352" t="s">
-        <v>0</v>
-      </c>
-      <c r="D352" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A353">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="B353" s="1">
-        <f t="shared" si="16"/>
-        <v>43482</v>
-      </c>
-      <c r="C353" t="s">
-        <v>0</v>
-      </c>
-      <c r="D353" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A354">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="B354" s="1">
-        <f t="shared" si="16"/>
-        <v>43483</v>
-      </c>
-      <c r="C354" t="s">
-        <v>0</v>
-      </c>
-      <c r="D354" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A355">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="B355" s="1">
-        <f t="shared" si="16"/>
-        <v>43484</v>
-      </c>
-      <c r="C355" t="s">
-        <v>0</v>
-      </c>
-      <c r="D355" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A356">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="B356" s="1">
-        <f t="shared" si="16"/>
-        <v>43485</v>
-      </c>
-      <c r="C356" t="s">
-        <v>0</v>
-      </c>
-      <c r="D356" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A357">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="B357" s="1">
-        <f t="shared" si="16"/>
-        <v>43486</v>
-      </c>
-      <c r="C357" t="s">
-        <v>0</v>
-      </c>
-      <c r="D357" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A358">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="B358" s="1">
-        <f t="shared" si="16"/>
-        <v>43487</v>
-      </c>
-      <c r="C358" t="s">
-        <v>0</v>
-      </c>
-      <c r="D358" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A359">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="B359" s="1">
-        <f t="shared" si="16"/>
-        <v>43488</v>
-      </c>
-      <c r="C359" t="s">
-        <v>0</v>
-      </c>
-      <c r="D359" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A360">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="B360" s="1">
-        <f t="shared" si="16"/>
-        <v>43489</v>
-      </c>
-      <c r="C360" t="s">
-        <v>0</v>
-      </c>
-      <c r="D360" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="B361" s="1">
-        <f t="shared" si="16"/>
-        <v>43490</v>
-      </c>
-      <c r="C361" t="s">
-        <v>0</v>
-      </c>
-      <c r="D361" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362">
-        <f t="shared" si="17"/>
-        <v>6</v>
-      </c>
-      <c r="B362" s="1">
-        <f t="shared" si="16"/>
-        <v>43491</v>
-      </c>
-      <c r="C362" t="s">
-        <v>0</v>
-      </c>
-      <c r="D362" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A363">
-        <f t="shared" si="17"/>
-        <v>7</v>
-      </c>
-      <c r="B363" s="1">
-        <f t="shared" si="16"/>
-        <v>43492</v>
-      </c>
-      <c r="C363" t="s">
-        <v>0</v>
-      </c>
-      <c r="D363" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="B364" s="1">
-        <f t="shared" si="16"/>
-        <v>43493</v>
-      </c>
-      <c r="C364" t="s">
-        <v>0</v>
-      </c>
-      <c r="D364" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="B365" s="1">
-        <f t="shared" si="16"/>
-        <v>43494</v>
-      </c>
-      <c r="C365" t="s">
-        <v>0</v>
-      </c>
-      <c r="D365" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366">
-        <f t="shared" si="17"/>
-        <v>3</v>
-      </c>
-      <c r="B366" s="1">
-        <f t="shared" si="16"/>
-        <v>43495</v>
-      </c>
-      <c r="C366" t="s">
-        <v>0</v>
-      </c>
-      <c r="D366" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A367">
-        <f t="shared" si="17"/>
-        <v>4</v>
-      </c>
-      <c r="B367" s="1">
-        <f t="shared" si="16"/>
-        <v>43496</v>
-      </c>
-      <c r="C367" t="s">
-        <v>0</v>
-      </c>
-      <c r="D367" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368">
-        <f t="shared" si="17"/>
-        <v>5</v>
-      </c>
-      <c r="B368" s="1">
-        <f t="shared" si="16"/>
-        <v>43497</v>
-      </c>
-      <c r="C368" t="s">
-        <v>0</v>
-      </c>
-      <c r="D368" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B336" s="1"/>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B337" s="1"/>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B338" s="1"/>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B339" s="1"/>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B340" s="1"/>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B341" s="1"/>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B342" s="1"/>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B343" s="1"/>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B344" s="1"/>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B345" s="1"/>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B346" s="1"/>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B347" s="1"/>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B348" s="1"/>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B349" s="1"/>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B350" s="1"/>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B351" s="1"/>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B352" s="1"/>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B353" s="1"/>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B354" s="1"/>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B355" s="1"/>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B356" s="1"/>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B357" s="1"/>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B358" s="1"/>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B359" s="1"/>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B360" s="1"/>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B361" s="1"/>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B362" s="1"/>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B363" s="1"/>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B364" s="1"/>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B365" s="1"/>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B366" s="1"/>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B367" s="1"/>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B368" s="1"/>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B369" s="1"/>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B370" s="1"/>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B371" s="1"/>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B372" s="1"/>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B373" s="1"/>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B374" s="1"/>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B375" s="1"/>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B376" s="1"/>
     </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B377" s="1"/>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B378" s="1"/>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B379" s="1"/>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B380" s="1"/>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B381" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:E368" xr:uid="{614E4074-D85C-4624-8AAF-5837485E4D93}">
     <filterColumn colId="0">
-      <filters>
+      <filters blank="1">
         <filter val="1"/>
         <filter val="2"/>
         <filter val="3"/>

--- a/storage/app/eventbatch.xlsx
+++ b/storage/app/eventbatch.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desarrollo\home\Eduardo\laravel\cooking-point\storage\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A780972F-D13B-4407-A192-DC82E5061064}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AE79D9-6668-4EA9-B19D-8651F5FE542F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eventbatch" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">eventbatch!$A$2:$E$368</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">eventbatch!$A$2:$D$366</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="7">
   <si>
     <t>PAELLA</t>
   </si>
@@ -44,13 +45,16 @@
     <t>TAPAS</t>
   </si>
   <si>
-    <t>FESTIVO</t>
+    <t>filtrar domingo (7)</t>
   </si>
   <si>
-    <t>x</t>
+    <t>fecha</t>
   </si>
   <si>
-    <t>filtrar domingo (7) y festivos!</t>
+    <t>clase1</t>
+  </si>
+  <si>
+    <t>clase2</t>
   </si>
 </sst>
 </file>
@@ -95,13 +99,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -418,43 +419,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:E381"/>
+  <dimension ref="A1:D381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
-      <selection activeCell="G323" sqref="G323"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <f t="shared" ref="A3:A24" si="0">+WEEKDAY(B3,2)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>43498</v>
+        <v>43832</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -463,14 +467,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <f>+B3+1</f>
-        <v>43499</v>
+        <v>43833</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -479,14 +483,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" ref="B5:B67" si="1">+B4+1</f>
-        <v>43500</v>
+        <v>43834</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -495,14 +499,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
-        <v>43501</v>
+        <v>43835</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -511,30 +515,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
-        <v>43502</v>
+        <v>43836</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
-        <v>43503</v>
+        <v>43837</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -543,14 +544,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
-        <v>43504</v>
+        <v>43838</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -559,14 +560,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
-        <v>43505</v>
+        <v>43839</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -575,14 +576,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
-        <v>43506</v>
+        <v>43840</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -591,14 +592,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
-        <v>43507</v>
+        <v>43841</v>
       </c>
       <c r="C12" t="s">
         <v>0</v>
@@ -607,14 +608,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
-        <v>43508</v>
+        <v>43842</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
@@ -623,14 +624,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
-        <v>43509</v>
+        <v>43843</v>
       </c>
       <c r="C14" t="s">
         <v>0</v>
@@ -639,14 +640,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
-        <v>43510</v>
+        <v>43844</v>
       </c>
       <c r="C15" t="s">
         <v>0</v>
@@ -655,14 +656,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
-        <v>43511</v>
+        <v>43845</v>
       </c>
       <c r="C16" t="s">
         <v>0</v>
@@ -674,11 +675,11 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
-        <v>43512</v>
+        <v>43846</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -687,14 +688,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
-        <v>43513</v>
+        <v>43847</v>
       </c>
       <c r="C18" t="s">
         <v>0</v>
@@ -706,11 +707,11 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
-        <v>43514</v>
+        <v>43848</v>
       </c>
       <c r="C19" t="s">
         <v>0</v>
@@ -722,11 +723,11 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
-        <v>43515</v>
+        <v>43849</v>
       </c>
       <c r="C20" t="s">
         <v>0</v>
@@ -738,11 +739,11 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
-        <v>43516</v>
+        <v>43850</v>
       </c>
       <c r="C21" t="s">
         <v>0</v>
@@ -754,11 +755,11 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
-        <v>43517</v>
+        <v>43851</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -770,11 +771,11 @@
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
-        <v>43518</v>
+        <v>43852</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -786,11 +787,11 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
-        <v>43519</v>
+        <v>43853</v>
       </c>
       <c r="C24" t="s">
         <v>0</v>
@@ -799,14 +800,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" ref="A25:A69" si="2">+WEEKDAY(B25,2)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
-        <v>43520</v>
+        <v>43854</v>
       </c>
       <c r="C25" t="s">
         <v>0</v>
@@ -818,11 +819,11 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
-        <v>43521</v>
+        <v>43855</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -834,11 +835,11 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
-        <v>43522</v>
+        <v>43856</v>
       </c>
       <c r="C27" t="s">
         <v>0</v>
@@ -850,11 +851,11 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
-        <v>43523</v>
+        <v>43857</v>
       </c>
       <c r="C28" t="s">
         <v>0</v>
@@ -866,11 +867,11 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="1"/>
-        <v>43524</v>
+        <v>43858</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -882,11 +883,11 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
-        <v>43525</v>
+        <v>43859</v>
       </c>
       <c r="C30" t="s">
         <v>0</v>
@@ -898,11 +899,11 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
-        <v>43526</v>
+        <v>43860</v>
       </c>
       <c r="C31" t="s">
         <v>0</v>
@@ -911,14 +912,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
-        <v>43527</v>
+        <v>43861</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
@@ -930,11 +931,11 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
-        <v>43528</v>
+        <v>43862</v>
       </c>
       <c r="C33" t="s">
         <v>0</v>
@@ -946,11 +947,11 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
-        <v>43529</v>
+        <v>43863</v>
       </c>
       <c r="C34" t="s">
         <v>0</v>
@@ -962,11 +963,11 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
-        <v>43530</v>
+        <v>43864</v>
       </c>
       <c r="C35" t="s">
         <v>0</v>
@@ -978,11 +979,11 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="1"/>
-        <v>43531</v>
+        <v>43865</v>
       </c>
       <c r="C36" t="s">
         <v>0</v>
@@ -994,11 +995,11 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
-        <v>43532</v>
+        <v>43866</v>
       </c>
       <c r="C37" t="s">
         <v>0</v>
@@ -1010,11 +1011,11 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
-        <v>43533</v>
+        <v>43867</v>
       </c>
       <c r="C38" t="s">
         <v>0</v>
@@ -1023,14 +1024,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
-        <v>43534</v>
+        <v>43868</v>
       </c>
       <c r="C39" t="s">
         <v>0</v>
@@ -1042,11 +1043,11 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
-        <v>43535</v>
+        <v>43869</v>
       </c>
       <c r="C40" t="s">
         <v>0</v>
@@ -1058,11 +1059,11 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
-        <v>43536</v>
+        <v>43870</v>
       </c>
       <c r="C41" t="s">
         <v>0</v>
@@ -1074,11 +1075,11 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
-        <v>43537</v>
+        <v>43871</v>
       </c>
       <c r="C42" t="s">
         <v>0</v>
@@ -1090,11 +1091,11 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
-        <v>43538</v>
+        <v>43872</v>
       </c>
       <c r="C43" t="s">
         <v>0</v>
@@ -1106,11 +1107,11 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
-        <v>43539</v>
+        <v>43873</v>
       </c>
       <c r="C44" t="s">
         <v>0</v>
@@ -1122,11 +1123,11 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
-        <v>43540</v>
+        <v>43874</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
@@ -1135,14 +1136,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
-        <v>43541</v>
+        <v>43875</v>
       </c>
       <c r="C46" t="s">
         <v>0</v>
@@ -1154,11 +1155,11 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
-        <v>43542</v>
+        <v>43876</v>
       </c>
       <c r="C47" t="s">
         <v>0</v>
@@ -1170,11 +1171,11 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
-        <v>43543</v>
+        <v>43877</v>
       </c>
       <c r="C48" t="s">
         <v>0</v>
@@ -1186,11 +1187,11 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="1"/>
-        <v>43544</v>
+        <v>43878</v>
       </c>
       <c r="C49" t="s">
         <v>0</v>
@@ -1202,11 +1203,11 @@
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="1"/>
-        <v>43545</v>
+        <v>43879</v>
       </c>
       <c r="C50" t="s">
         <v>0</v>
@@ -1218,11 +1219,11 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
-        <v>43546</v>
+        <v>43880</v>
       </c>
       <c r="C51" t="s">
         <v>0</v>
@@ -1234,11 +1235,11 @@
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
-        <v>43547</v>
+        <v>43881</v>
       </c>
       <c r="C52" t="s">
         <v>0</v>
@@ -1247,14 +1248,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
-        <v>43548</v>
+        <v>43882</v>
       </c>
       <c r="C53" t="s">
         <v>0</v>
@@ -1266,11 +1267,11 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
-        <v>43549</v>
+        <v>43883</v>
       </c>
       <c r="C54" t="s">
         <v>0</v>
@@ -1282,11 +1283,11 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
-        <v>43550</v>
+        <v>43884</v>
       </c>
       <c r="C55" t="s">
         <v>0</v>
@@ -1298,11 +1299,11 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
-        <v>43551</v>
+        <v>43885</v>
       </c>
       <c r="C56" t="s">
         <v>0</v>
@@ -1314,11 +1315,11 @@
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
-        <v>43552</v>
+        <v>43886</v>
       </c>
       <c r="C57" t="s">
         <v>0</v>
@@ -1330,11 +1331,11 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
-        <v>43553</v>
+        <v>43887</v>
       </c>
       <c r="C58" t="s">
         <v>0</v>
@@ -1346,11 +1347,11 @@
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
-        <v>43554</v>
+        <v>43888</v>
       </c>
       <c r="C59" t="s">
         <v>0</v>
@@ -1359,14 +1360,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
-        <v>43555</v>
+        <v>43889</v>
       </c>
       <c r="C60" t="s">
         <v>0</v>
@@ -1378,11 +1379,11 @@
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="1"/>
-        <v>43556</v>
+        <v>43890</v>
       </c>
       <c r="C61" t="s">
         <v>0</v>
@@ -1394,11 +1395,11 @@
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
-        <v>43557</v>
+        <v>43891</v>
       </c>
       <c r="C62" t="s">
         <v>0</v>
@@ -1410,11 +1411,11 @@
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="1"/>
-        <v>43558</v>
+        <v>43892</v>
       </c>
       <c r="C63" t="s">
         <v>0</v>
@@ -1426,11 +1427,11 @@
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
-        <v>43559</v>
+        <v>43893</v>
       </c>
       <c r="C64" t="s">
         <v>0</v>
@@ -1442,11 +1443,11 @@
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
-        <v>43560</v>
+        <v>43894</v>
       </c>
       <c r="C65" t="s">
         <v>0</v>
@@ -1458,11 +1459,11 @@
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
-        <v>43561</v>
+        <v>43895</v>
       </c>
       <c r="C66" t="s">
         <v>0</v>
@@ -1471,14 +1472,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
-        <v>43562</v>
+        <v>43896</v>
       </c>
       <c r="C67" t="s">
         <v>0</v>
@@ -1490,11 +1491,11 @@
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" ref="B68:B69" si="3">+B67+1</f>
-        <v>43563</v>
+        <v>43897</v>
       </c>
       <c r="C68" t="s">
         <v>0</v>
@@ -1506,11 +1507,11 @@
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" si="3"/>
-        <v>43564</v>
+        <v>43898</v>
       </c>
       <c r="C69" t="s">
         <v>0</v>
@@ -1522,11 +1523,11 @@
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <f t="shared" ref="A70:A87" si="4">+WEEKDAY(B70,2)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" ref="B70:B87" si="5">+B69+1</f>
-        <v>43565</v>
+        <v>43899</v>
       </c>
       <c r="C70" t="s">
         <v>0</v>
@@ -1538,11 +1539,11 @@
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="5"/>
-        <v>43566</v>
+        <v>43900</v>
       </c>
       <c r="C71" t="s">
         <v>0</v>
@@ -1554,11 +1555,11 @@
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="5"/>
-        <v>43567</v>
+        <v>43901</v>
       </c>
       <c r="C72" t="s">
         <v>0</v>
@@ -1570,11 +1571,11 @@
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="5"/>
-        <v>43568</v>
+        <v>43902</v>
       </c>
       <c r="C73" t="s">
         <v>0</v>
@@ -1583,14 +1584,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="5"/>
-        <v>43569</v>
+        <v>43903</v>
       </c>
       <c r="C74" t="s">
         <v>0</v>
@@ -1602,11 +1603,11 @@
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="5"/>
-        <v>43570</v>
+        <v>43904</v>
       </c>
       <c r="C75" t="s">
         <v>0</v>
@@ -1618,11 +1619,11 @@
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="5"/>
-        <v>43571</v>
+        <v>43905</v>
       </c>
       <c r="C76" t="s">
         <v>0</v>
@@ -1634,11 +1635,11 @@
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="5"/>
-        <v>43572</v>
+        <v>43906</v>
       </c>
       <c r="C77" t="s">
         <v>0</v>
@@ -1650,37 +1651,43 @@
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="5"/>
-        <v>43573</v>
+        <v>43907</v>
       </c>
       <c r="C78" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="5"/>
-        <v>43574</v>
+        <v>43908</v>
       </c>
       <c r="C79" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="5"/>
-        <v>43575</v>
+        <v>43909</v>
       </c>
       <c r="C80" t="s">
         <v>0</v>
@@ -1689,14 +1696,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="5"/>
-        <v>43576</v>
+        <v>43910</v>
       </c>
       <c r="C81" t="s">
         <v>0</v>
@@ -1708,11 +1715,11 @@
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="5"/>
-        <v>43577</v>
+        <v>43911</v>
       </c>
       <c r="C82" t="s">
         <v>0</v>
@@ -1724,11 +1731,11 @@
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="5"/>
-        <v>43578</v>
+        <v>43912</v>
       </c>
       <c r="C83" t="s">
         <v>0</v>
@@ -1740,11 +1747,11 @@
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="5"/>
-        <v>43579</v>
+        <v>43913</v>
       </c>
       <c r="C84" t="s">
         <v>0</v>
@@ -1756,11 +1763,11 @@
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="5"/>
-        <v>43580</v>
+        <v>43914</v>
       </c>
       <c r="C85" t="s">
         <v>0</v>
@@ -1772,11 +1779,11 @@
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="5"/>
-        <v>43581</v>
+        <v>43915</v>
       </c>
       <c r="C86" t="s">
         <v>0</v>
@@ -1788,11 +1795,11 @@
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="5"/>
-        <v>43582</v>
+        <v>43916</v>
       </c>
       <c r="C87" t="s">
         <v>0</v>
@@ -1801,14 +1808,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <f t="shared" ref="A88:A107" si="6">+WEEKDAY(B88,2)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" ref="B88:B107" si="7">+B87+1</f>
-        <v>43583</v>
+        <v>43917</v>
       </c>
       <c r="C88" t="s">
         <v>0</v>
@@ -1820,11 +1827,11 @@
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="7"/>
-        <v>43584</v>
+        <v>43918</v>
       </c>
       <c r="C89" t="s">
         <v>0</v>
@@ -1836,11 +1843,11 @@
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B90" s="1">
         <f t="shared" si="7"/>
-        <v>43585</v>
+        <v>43919</v>
       </c>
       <c r="C90" t="s">
         <v>0</v>
@@ -1852,37 +1859,43 @@
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B91" s="1">
         <f t="shared" si="7"/>
-        <v>43586</v>
+        <v>43920</v>
       </c>
       <c r="C91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B92" s="1">
         <f t="shared" si="7"/>
-        <v>43587</v>
+        <v>43921</v>
       </c>
       <c r="C92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B93" s="1">
         <f t="shared" si="7"/>
-        <v>43588</v>
+        <v>43922</v>
       </c>
       <c r="C93" t="s">
         <v>0</v>
@@ -1894,11 +1907,11 @@
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B94" s="1">
         <f t="shared" si="7"/>
-        <v>43589</v>
+        <v>43923</v>
       </c>
       <c r="C94" t="s">
         <v>0</v>
@@ -1907,14 +1920,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B95" s="1">
         <f t="shared" si="7"/>
-        <v>43590</v>
+        <v>43924</v>
       </c>
       <c r="C95" t="s">
         <v>0</v>
@@ -1926,11 +1939,11 @@
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B96" s="1">
         <f t="shared" si="7"/>
-        <v>43591</v>
+        <v>43925</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
@@ -1942,11 +1955,11 @@
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B97" s="1">
         <f t="shared" si="7"/>
-        <v>43592</v>
+        <v>43926</v>
       </c>
       <c r="C97" t="s">
         <v>0</v>
@@ -1958,11 +1971,11 @@
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B98" s="1">
         <f t="shared" si="7"/>
-        <v>43593</v>
+        <v>43927</v>
       </c>
       <c r="C98" t="s">
         <v>0</v>
@@ -1974,11 +1987,11 @@
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B99" s="1">
         <f t="shared" si="7"/>
-        <v>43594</v>
+        <v>43928</v>
       </c>
       <c r="C99" t="s">
         <v>0</v>
@@ -1990,11 +2003,11 @@
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B100" s="1">
         <f t="shared" si="7"/>
-        <v>43595</v>
+        <v>43929</v>
       </c>
       <c r="C100" t="s">
         <v>0</v>
@@ -2006,43 +2019,37 @@
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <f t="shared" si="6"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B101" s="1">
         <f t="shared" si="7"/>
-        <v>43596</v>
+        <v>43930</v>
       </c>
       <c r="C101" t="s">
-        <v>0</v>
-      </c>
-      <c r="D101" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B102" s="1">
         <f t="shared" si="7"/>
-        <v>43597</v>
+        <v>43931</v>
       </c>
       <c r="C102" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B103" s="1">
         <f t="shared" si="7"/>
-        <v>43598</v>
+        <v>43932</v>
       </c>
       <c r="C103" t="s">
         <v>0</v>
@@ -2054,11 +2061,11 @@
     <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B104" s="1">
         <f t="shared" si="7"/>
-        <v>43599</v>
+        <v>43933</v>
       </c>
       <c r="C104" t="s">
         <v>0</v>
@@ -2070,24 +2077,27 @@
     <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" si="7"/>
-        <v>43600</v>
+        <v>43934</v>
       </c>
       <c r="C105" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B106" s="1">
         <f t="shared" si="7"/>
-        <v>43601</v>
+        <v>43935</v>
       </c>
       <c r="C106" t="s">
         <v>0</v>
@@ -2099,11 +2109,11 @@
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B107" s="1">
         <f t="shared" si="7"/>
-        <v>43602</v>
+        <v>43936</v>
       </c>
       <c r="C107" t="s">
         <v>0</v>
@@ -2115,11 +2125,11 @@
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <f t="shared" ref="A108:A171" si="8">+WEEKDAY(B108,2)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B108" s="1">
         <f t="shared" ref="B108:B171" si="9">+B107+1</f>
-        <v>43603</v>
+        <v>43937</v>
       </c>
       <c r="C108" t="s">
         <v>0</v>
@@ -2128,14 +2138,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B109" s="1">
         <f t="shared" si="9"/>
-        <v>43604</v>
+        <v>43938</v>
       </c>
       <c r="C109" t="s">
         <v>0</v>
@@ -2147,11 +2157,11 @@
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B110" s="1">
         <f t="shared" si="9"/>
-        <v>43605</v>
+        <v>43939</v>
       </c>
       <c r="C110" t="s">
         <v>0</v>
@@ -2163,11 +2173,11 @@
     <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B111" s="1">
         <f t="shared" si="9"/>
-        <v>43606</v>
+        <v>43940</v>
       </c>
       <c r="C111" t="s">
         <v>0</v>
@@ -2179,11 +2189,11 @@
     <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B112" s="1">
         <f t="shared" si="9"/>
-        <v>43607</v>
+        <v>43941</v>
       </c>
       <c r="C112" t="s">
         <v>0</v>
@@ -2195,11 +2205,11 @@
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B113" s="1">
         <f t="shared" si="9"/>
-        <v>43608</v>
+        <v>43942</v>
       </c>
       <c r="C113" t="s">
         <v>0</v>
@@ -2211,11 +2221,11 @@
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B114" s="1">
         <f t="shared" si="9"/>
-        <v>43609</v>
+        <v>43943</v>
       </c>
       <c r="C114" t="s">
         <v>0</v>
@@ -2227,11 +2237,11 @@
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B115" s="1">
         <f t="shared" si="9"/>
-        <v>43610</v>
+        <v>43944</v>
       </c>
       <c r="C115" t="s">
         <v>0</v>
@@ -2240,14 +2250,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B116" s="1">
         <f t="shared" si="9"/>
-        <v>43611</v>
+        <v>43945</v>
       </c>
       <c r="C116" t="s">
         <v>0</v>
@@ -2259,11 +2269,11 @@
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B117" s="1">
         <f t="shared" si="9"/>
-        <v>43612</v>
+        <v>43946</v>
       </c>
       <c r="C117" t="s">
         <v>0</v>
@@ -2275,11 +2285,11 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B118" s="1">
         <f t="shared" si="9"/>
-        <v>43613</v>
+        <v>43947</v>
       </c>
       <c r="C118" t="s">
         <v>0</v>
@@ -2291,11 +2301,11 @@
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B119" s="1">
         <f t="shared" si="9"/>
-        <v>43614</v>
+        <v>43948</v>
       </c>
       <c r="C119" t="s">
         <v>0</v>
@@ -2307,11 +2317,11 @@
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B120" s="1">
         <f t="shared" si="9"/>
-        <v>43615</v>
+        <v>43949</v>
       </c>
       <c r="C120" t="s">
         <v>0</v>
@@ -2323,11 +2333,11 @@
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B121" s="1">
         <f t="shared" si="9"/>
-        <v>43616</v>
+        <v>43950</v>
       </c>
       <c r="C121" t="s">
         <v>0</v>
@@ -2339,11 +2349,11 @@
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B122" s="1">
         <f t="shared" si="9"/>
-        <v>43617</v>
+        <v>43951</v>
       </c>
       <c r="C122" t="s">
         <v>0</v>
@@ -2352,46 +2362,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B123" s="1">
         <f t="shared" si="9"/>
-        <v>43618</v>
+        <v>43952</v>
       </c>
       <c r="C123" t="s">
-        <v>0</v>
-      </c>
-      <c r="D123" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B124" s="1">
         <f t="shared" si="9"/>
-        <v>43619</v>
+        <v>43953</v>
       </c>
       <c r="C124" t="s">
-        <v>0</v>
-      </c>
-      <c r="D124" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B125" s="1">
         <f t="shared" si="9"/>
-        <v>43620</v>
+        <v>43954</v>
       </c>
       <c r="C125" t="s">
         <v>0</v>
@@ -2403,11 +2407,11 @@
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B126" s="1">
         <f t="shared" si="9"/>
-        <v>43621</v>
+        <v>43955</v>
       </c>
       <c r="C126" t="s">
         <v>0</v>
@@ -2419,11 +2423,11 @@
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B127" s="1">
         <f t="shared" si="9"/>
-        <v>43622</v>
+        <v>43956</v>
       </c>
       <c r="C127" t="s">
         <v>0</v>
@@ -2435,11 +2439,11 @@
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B128" s="1">
         <f t="shared" si="9"/>
-        <v>43623</v>
+        <v>43957</v>
       </c>
       <c r="C128" t="s">
         <v>0</v>
@@ -2451,11 +2455,11 @@
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B129" s="1">
         <f t="shared" si="9"/>
-        <v>43624</v>
+        <v>43958</v>
       </c>
       <c r="C129" t="s">
         <v>0</v>
@@ -2464,14 +2468,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B130" s="1">
         <f t="shared" si="9"/>
-        <v>43625</v>
+        <v>43959</v>
       </c>
       <c r="C130" t="s">
         <v>0</v>
@@ -2483,11 +2487,11 @@
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B131" s="1">
         <f t="shared" si="9"/>
-        <v>43626</v>
+        <v>43960</v>
       </c>
       <c r="C131" t="s">
         <v>0</v>
@@ -2499,11 +2503,11 @@
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B132" s="1">
         <f t="shared" si="9"/>
-        <v>43627</v>
+        <v>43961</v>
       </c>
       <c r="C132" t="s">
         <v>0</v>
@@ -2515,11 +2519,11 @@
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B133" s="1">
         <f t="shared" si="9"/>
-        <v>43628</v>
+        <v>43962</v>
       </c>
       <c r="C133" t="s">
         <v>0</v>
@@ -2531,11 +2535,11 @@
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B134" s="1">
         <f t="shared" si="9"/>
-        <v>43629</v>
+        <v>43963</v>
       </c>
       <c r="C134" t="s">
         <v>0</v>
@@ -2547,11 +2551,11 @@
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B135" s="1">
         <f t="shared" si="9"/>
-        <v>43630</v>
+        <v>43964</v>
       </c>
       <c r="C135" t="s">
         <v>0</v>
@@ -2563,11 +2567,11 @@
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B136" s="1">
         <f t="shared" si="9"/>
-        <v>43631</v>
+        <v>43965</v>
       </c>
       <c r="C136" t="s">
         <v>0</v>
@@ -2576,14 +2580,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B137" s="1">
         <f t="shared" si="9"/>
-        <v>43632</v>
+        <v>43966</v>
       </c>
       <c r="C137" t="s">
         <v>0</v>
@@ -2595,11 +2599,11 @@
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B138" s="1">
         <f t="shared" si="9"/>
-        <v>43633</v>
+        <v>43967</v>
       </c>
       <c r="C138" t="s">
         <v>0</v>
@@ -2611,11 +2615,11 @@
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B139" s="1">
         <f t="shared" si="9"/>
-        <v>43634</v>
+        <v>43968</v>
       </c>
       <c r="C139" t="s">
         <v>0</v>
@@ -2627,11 +2631,11 @@
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B140" s="1">
         <f t="shared" si="9"/>
-        <v>43635</v>
+        <v>43969</v>
       </c>
       <c r="C140" t="s">
         <v>0</v>
@@ -2643,11 +2647,11 @@
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B141" s="1">
         <f t="shared" si="9"/>
-        <v>43636</v>
+        <v>43970</v>
       </c>
       <c r="C141" t="s">
         <v>0</v>
@@ -2659,11 +2663,11 @@
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B142" s="1">
         <f t="shared" si="9"/>
-        <v>43637</v>
+        <v>43971</v>
       </c>
       <c r="C142" t="s">
         <v>0</v>
@@ -2675,11 +2679,11 @@
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B143" s="1">
         <f t="shared" si="9"/>
-        <v>43638</v>
+        <v>43972</v>
       </c>
       <c r="C143" t="s">
         <v>0</v>
@@ -2688,14 +2692,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B144" s="1">
         <f t="shared" si="9"/>
-        <v>43639</v>
+        <v>43973</v>
       </c>
       <c r="C144" t="s">
         <v>0</v>
@@ -2707,11 +2711,11 @@
     <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B145" s="1">
         <f t="shared" si="9"/>
-        <v>43640</v>
+        <v>43974</v>
       </c>
       <c r="C145" t="s">
         <v>0</v>
@@ -2723,11 +2727,11 @@
     <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B146" s="1">
         <f t="shared" si="9"/>
-        <v>43641</v>
+        <v>43975</v>
       </c>
       <c r="C146" t="s">
         <v>0</v>
@@ -2739,11 +2743,11 @@
     <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B147" s="1">
         <f t="shared" si="9"/>
-        <v>43642</v>
+        <v>43976</v>
       </c>
       <c r="C147" t="s">
         <v>0</v>
@@ -2755,11 +2759,11 @@
     <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B148" s="1">
         <f t="shared" si="9"/>
-        <v>43643</v>
+        <v>43977</v>
       </c>
       <c r="C148" t="s">
         <v>0</v>
@@ -2771,11 +2775,11 @@
     <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B149" s="1">
         <f t="shared" si="9"/>
-        <v>43644</v>
+        <v>43978</v>
       </c>
       <c r="C149" t="s">
         <v>0</v>
@@ -2787,11 +2791,11 @@
     <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B150" s="1">
         <f t="shared" si="9"/>
-        <v>43645</v>
+        <v>43979</v>
       </c>
       <c r="C150" t="s">
         <v>0</v>
@@ -2800,14 +2804,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B151" s="1">
         <f t="shared" si="9"/>
-        <v>43646</v>
+        <v>43980</v>
       </c>
       <c r="C151" t="s">
         <v>0</v>
@@ -2819,11 +2823,11 @@
     <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B152" s="1">
         <f t="shared" si="9"/>
-        <v>43647</v>
+        <v>43981</v>
       </c>
       <c r="C152" t="s">
         <v>0</v>
@@ -2835,11 +2839,11 @@
     <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B153" s="1">
         <f t="shared" si="9"/>
-        <v>43648</v>
+        <v>43982</v>
       </c>
       <c r="C153" t="s">
         <v>0</v>
@@ -2851,11 +2855,11 @@
     <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B154" s="1">
         <f t="shared" si="9"/>
-        <v>43649</v>
+        <v>43983</v>
       </c>
       <c r="C154" t="s">
         <v>0</v>
@@ -2867,11 +2871,11 @@
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B155" s="1">
         <f t="shared" si="9"/>
-        <v>43650</v>
+        <v>43984</v>
       </c>
       <c r="C155" t="s">
         <v>0</v>
@@ -2883,11 +2887,11 @@
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B156" s="1">
         <f t="shared" si="9"/>
-        <v>43651</v>
+        <v>43985</v>
       </c>
       <c r="C156" t="s">
         <v>0</v>
@@ -2899,11 +2903,11 @@
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B157" s="1">
         <f t="shared" si="9"/>
-        <v>43652</v>
+        <v>43986</v>
       </c>
       <c r="C157" t="s">
         <v>0</v>
@@ -2912,14 +2916,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B158" s="1">
         <f t="shared" si="9"/>
-        <v>43653</v>
+        <v>43987</v>
       </c>
       <c r="C158" t="s">
         <v>0</v>
@@ -2931,11 +2935,11 @@
     <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B159" s="1">
         <f t="shared" si="9"/>
-        <v>43654</v>
+        <v>43988</v>
       </c>
       <c r="C159" t="s">
         <v>0</v>
@@ -2947,11 +2951,11 @@
     <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B160" s="1">
         <f t="shared" si="9"/>
-        <v>43655</v>
+        <v>43989</v>
       </c>
       <c r="C160" t="s">
         <v>0</v>
@@ -2963,11 +2967,11 @@
     <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B161" s="1">
         <f t="shared" si="9"/>
-        <v>43656</v>
+        <v>43990</v>
       </c>
       <c r="C161" t="s">
         <v>0</v>
@@ -2979,11 +2983,11 @@
     <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B162" s="1">
         <f t="shared" si="9"/>
-        <v>43657</v>
+        <v>43991</v>
       </c>
       <c r="C162" t="s">
         <v>0</v>
@@ -2995,11 +2999,11 @@
     <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B163" s="1">
         <f t="shared" si="9"/>
-        <v>43658</v>
+        <v>43992</v>
       </c>
       <c r="C163" t="s">
         <v>0</v>
@@ -3011,11 +3015,11 @@
     <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B164" s="1">
         <f t="shared" si="9"/>
-        <v>43659</v>
+        <v>43993</v>
       </c>
       <c r="C164" t="s">
         <v>0</v>
@@ -3024,14 +3028,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B165" s="1">
         <f t="shared" si="9"/>
-        <v>43660</v>
+        <v>43994</v>
       </c>
       <c r="C165" t="s">
         <v>0</v>
@@ -3043,11 +3047,11 @@
     <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B166" s="1">
         <f t="shared" si="9"/>
-        <v>43661</v>
+        <v>43995</v>
       </c>
       <c r="C166" t="s">
         <v>0</v>
@@ -3059,11 +3063,11 @@
     <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B167" s="1">
         <f t="shared" si="9"/>
-        <v>43662</v>
+        <v>43996</v>
       </c>
       <c r="C167" t="s">
         <v>0</v>
@@ -3075,11 +3079,11 @@
     <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B168" s="1">
         <f t="shared" si="9"/>
-        <v>43663</v>
+        <v>43997</v>
       </c>
       <c r="C168" t="s">
         <v>0</v>
@@ -3091,11 +3095,11 @@
     <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B169" s="1">
         <f t="shared" si="9"/>
-        <v>43664</v>
+        <v>43998</v>
       </c>
       <c r="C169" t="s">
         <v>0</v>
@@ -3107,11 +3111,11 @@
     <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170">
         <f t="shared" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B170" s="1">
         <f t="shared" si="9"/>
-        <v>43665</v>
+        <v>43999</v>
       </c>
       <c r="C170" t="s">
         <v>0</v>
@@ -3123,11 +3127,11 @@
     <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171">
         <f t="shared" si="8"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B171" s="1">
         <f t="shared" si="9"/>
-        <v>43666</v>
+        <v>44000</v>
       </c>
       <c r="C171" t="s">
         <v>0</v>
@@ -3136,14 +3140,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172">
         <f t="shared" ref="A172:A208" si="10">+WEEKDAY(B172,2)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B172" s="1">
         <f t="shared" ref="B172:B208" si="11">+B171+1</f>
-        <v>43667</v>
+        <v>44001</v>
       </c>
       <c r="C172" t="s">
         <v>0</v>
@@ -3155,11 +3159,11 @@
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B173" s="1">
         <f t="shared" si="11"/>
-        <v>43668</v>
+        <v>44002</v>
       </c>
       <c r="C173" t="s">
         <v>0</v>
@@ -3171,11 +3175,11 @@
     <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B174" s="1">
         <f t="shared" si="11"/>
-        <v>43669</v>
+        <v>44003</v>
       </c>
       <c r="C174" t="s">
         <v>0</v>
@@ -3187,11 +3191,11 @@
     <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B175" s="1">
         <f t="shared" si="11"/>
-        <v>43670</v>
+        <v>44004</v>
       </c>
       <c r="C175" t="s">
         <v>0</v>
@@ -3203,11 +3207,11 @@
     <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B176" s="1">
         <f t="shared" si="11"/>
-        <v>43671</v>
+        <v>44005</v>
       </c>
       <c r="C176" t="s">
         <v>0</v>
@@ -3219,11 +3223,11 @@
     <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B177" s="1">
         <f t="shared" si="11"/>
-        <v>43672</v>
+        <v>44006</v>
       </c>
       <c r="C177" t="s">
         <v>0</v>
@@ -3235,11 +3239,11 @@
     <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B178" s="1">
         <f t="shared" si="11"/>
-        <v>43673</v>
+        <v>44007</v>
       </c>
       <c r="C178" t="s">
         <v>0</v>
@@ -3248,14 +3252,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B179" s="1">
         <f t="shared" si="11"/>
-        <v>43674</v>
+        <v>44008</v>
       </c>
       <c r="C179" t="s">
         <v>0</v>
@@ -3267,11 +3271,11 @@
     <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B180" s="1">
         <f t="shared" si="11"/>
-        <v>43675</v>
+        <v>44009</v>
       </c>
       <c r="C180" t="s">
         <v>0</v>
@@ -3283,11 +3287,11 @@
     <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B181" s="1">
         <f t="shared" si="11"/>
-        <v>43676</v>
+        <v>44010</v>
       </c>
       <c r="C181" t="s">
         <v>0</v>
@@ -3299,11 +3303,11 @@
     <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B182" s="1">
         <f t="shared" si="11"/>
-        <v>43677</v>
+        <v>44011</v>
       </c>
       <c r="C182" t="s">
         <v>0</v>
@@ -3315,11 +3319,11 @@
     <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B183" s="1">
         <f t="shared" si="11"/>
-        <v>43678</v>
+        <v>44012</v>
       </c>
       <c r="C183" t="s">
         <v>0</v>
@@ -3331,11 +3335,11 @@
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B184" s="1">
         <f t="shared" si="11"/>
-        <v>43679</v>
+        <v>44013</v>
       </c>
       <c r="C184" t="s">
         <v>0</v>
@@ -3347,11 +3351,11 @@
     <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B185" s="1">
         <f t="shared" si="11"/>
-        <v>43680</v>
+        <v>44014</v>
       </c>
       <c r="C185" t="s">
         <v>0</v>
@@ -3360,14 +3364,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B186" s="1">
         <f t="shared" si="11"/>
-        <v>43681</v>
+        <v>44015</v>
       </c>
       <c r="C186" t="s">
         <v>0</v>
@@ -3379,11 +3383,11 @@
     <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B187" s="1">
         <f t="shared" si="11"/>
-        <v>43682</v>
+        <v>44016</v>
       </c>
       <c r="C187" t="s">
         <v>0</v>
@@ -3395,11 +3399,11 @@
     <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B188" s="1">
         <f t="shared" si="11"/>
-        <v>43683</v>
+        <v>44017</v>
       </c>
       <c r="C188" t="s">
         <v>0</v>
@@ -3411,11 +3415,11 @@
     <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B189" s="1">
         <f t="shared" si="11"/>
-        <v>43684</v>
+        <v>44018</v>
       </c>
       <c r="C189" t="s">
         <v>0</v>
@@ -3427,11 +3431,11 @@
     <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B190" s="1">
         <f t="shared" si="11"/>
-        <v>43685</v>
+        <v>44019</v>
       </c>
       <c r="C190" t="s">
         <v>0</v>
@@ -3443,11 +3447,11 @@
     <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B191" s="1">
         <f t="shared" si="11"/>
-        <v>43686</v>
+        <v>44020</v>
       </c>
       <c r="C191" t="s">
         <v>0</v>
@@ -3459,11 +3463,11 @@
     <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B192" s="1">
         <f t="shared" si="11"/>
-        <v>43687</v>
+        <v>44021</v>
       </c>
       <c r="C192" t="s">
         <v>0</v>
@@ -3472,14 +3476,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B193" s="1">
         <f t="shared" si="11"/>
-        <v>43688</v>
+        <v>44022</v>
       </c>
       <c r="C193" t="s">
         <v>0</v>
@@ -3491,11 +3495,11 @@
     <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B194" s="1">
         <f t="shared" si="11"/>
-        <v>43689</v>
+        <v>44023</v>
       </c>
       <c r="C194" t="s">
         <v>0</v>
@@ -3507,11 +3511,11 @@
     <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B195" s="1">
         <f t="shared" si="11"/>
-        <v>43690</v>
+        <v>44024</v>
       </c>
       <c r="C195" t="s">
         <v>0</v>
@@ -3523,11 +3527,11 @@
     <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B196" s="1">
         <f t="shared" si="11"/>
-        <v>43691</v>
+        <v>44025</v>
       </c>
       <c r="C196" t="s">
         <v>0</v>
@@ -3539,24 +3543,27 @@
     <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B197" s="1">
         <f t="shared" si="11"/>
-        <v>43692</v>
+        <v>44026</v>
       </c>
       <c r="C197" t="s">
+        <v>0</v>
+      </c>
+      <c r="D197" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B198" s="1">
         <f t="shared" si="11"/>
-        <v>43693</v>
+        <v>44027</v>
       </c>
       <c r="C198" t="s">
         <v>0</v>
@@ -3568,11 +3575,11 @@
     <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B199" s="1">
         <f t="shared" si="11"/>
-        <v>43694</v>
+        <v>44028</v>
       </c>
       <c r="C199" t="s">
         <v>0</v>
@@ -3581,14 +3588,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B200" s="1">
         <f t="shared" si="11"/>
-        <v>43695</v>
+        <v>44029</v>
       </c>
       <c r="C200" t="s">
         <v>0</v>
@@ -3600,11 +3607,11 @@
     <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B201" s="1">
         <f t="shared" si="11"/>
-        <v>43696</v>
+        <v>44030</v>
       </c>
       <c r="C201" t="s">
         <v>0</v>
@@ -3616,11 +3623,11 @@
     <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B202" s="1">
         <f t="shared" si="11"/>
-        <v>43697</v>
+        <v>44031</v>
       </c>
       <c r="C202" t="s">
         <v>0</v>
@@ -3632,11 +3639,11 @@
     <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B203" s="1">
         <f t="shared" si="11"/>
-        <v>43698</v>
+        <v>44032</v>
       </c>
       <c r="C203" t="s">
         <v>0</v>
@@ -3648,11 +3655,11 @@
     <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B204" s="1">
         <f t="shared" si="11"/>
-        <v>43699</v>
+        <v>44033</v>
       </c>
       <c r="C204" t="s">
         <v>0</v>
@@ -3664,11 +3671,11 @@
     <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B205" s="1">
         <f t="shared" si="11"/>
-        <v>43700</v>
+        <v>44034</v>
       </c>
       <c r="C205" t="s">
         <v>0</v>
@@ -3680,11 +3687,11 @@
     <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B206" s="1">
         <f t="shared" si="11"/>
-        <v>43701</v>
+        <v>44035</v>
       </c>
       <c r="C206" t="s">
         <v>0</v>
@@ -3693,14 +3700,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B207" s="1">
         <f t="shared" si="11"/>
-        <v>43702</v>
+        <v>44036</v>
       </c>
       <c r="C207" t="s">
         <v>0</v>
@@ -3712,27 +3719,24 @@
     <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B208" s="1">
         <f t="shared" si="11"/>
-        <v>43703</v>
+        <v>44037</v>
       </c>
       <c r="C208" t="s">
-        <v>0</v>
-      </c>
-      <c r="D208" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209">
         <f t="shared" ref="A209:A272" si="12">+WEEKDAY(B209,2)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B209" s="1">
         <f t="shared" ref="B209:B272" si="13">+B208+1</f>
-        <v>43704</v>
+        <v>44038</v>
       </c>
       <c r="C209" t="s">
         <v>0</v>
@@ -3744,11 +3748,11 @@
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B210" s="1">
         <f t="shared" si="13"/>
-        <v>43705</v>
+        <v>44039</v>
       </c>
       <c r="C210" t="s">
         <v>0</v>
@@ -3760,11 +3764,11 @@
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B211" s="1">
         <f t="shared" si="13"/>
-        <v>43706</v>
+        <v>44040</v>
       </c>
       <c r="C211" t="s">
         <v>0</v>
@@ -3776,11 +3780,11 @@
     <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B212" s="1">
         <f t="shared" si="13"/>
-        <v>43707</v>
+        <v>44041</v>
       </c>
       <c r="C212" t="s">
         <v>0</v>
@@ -3792,11 +3796,11 @@
     <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B213" s="1">
         <f t="shared" si="13"/>
-        <v>43708</v>
+        <v>44042</v>
       </c>
       <c r="C213" t="s">
         <v>0</v>
@@ -3805,14 +3809,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B214" s="1">
         <f t="shared" si="13"/>
-        <v>43709</v>
+        <v>44043</v>
       </c>
       <c r="C214" t="s">
         <v>0</v>
@@ -3824,11 +3828,11 @@
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B215" s="1">
         <f t="shared" si="13"/>
-        <v>43710</v>
+        <v>44044</v>
       </c>
       <c r="C215" t="s">
         <v>0</v>
@@ -3840,11 +3844,11 @@
     <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B216" s="1">
         <f t="shared" si="13"/>
-        <v>43711</v>
+        <v>44045</v>
       </c>
       <c r="C216" t="s">
         <v>0</v>
@@ -3856,11 +3860,11 @@
     <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B217" s="1">
         <f t="shared" si="13"/>
-        <v>43712</v>
+        <v>44046</v>
       </c>
       <c r="C217" t="s">
         <v>0</v>
@@ -3872,11 +3876,11 @@
     <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B218" s="1">
         <f t="shared" si="13"/>
-        <v>43713</v>
+        <v>44047</v>
       </c>
       <c r="C218" t="s">
         <v>0</v>
@@ -3888,11 +3892,11 @@
     <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B219" s="1">
         <f t="shared" si="13"/>
-        <v>43714</v>
+        <v>44048</v>
       </c>
       <c r="C219" t="s">
         <v>0</v>
@@ -3904,11 +3908,11 @@
     <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B220" s="1">
         <f t="shared" si="13"/>
-        <v>43715</v>
+        <v>44049</v>
       </c>
       <c r="C220" t="s">
         <v>0</v>
@@ -3917,14 +3921,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B221" s="1">
         <f t="shared" si="13"/>
-        <v>43716</v>
+        <v>44050</v>
       </c>
       <c r="C221" t="s">
         <v>0</v>
@@ -3936,11 +3940,11 @@
     <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B222" s="1">
         <f t="shared" si="13"/>
-        <v>43717</v>
+        <v>44051</v>
       </c>
       <c r="C222" t="s">
         <v>0</v>
@@ -3952,11 +3956,11 @@
     <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B223" s="1">
         <f t="shared" si="13"/>
-        <v>43718</v>
+        <v>44052</v>
       </c>
       <c r="C223" t="s">
         <v>0</v>
@@ -3968,11 +3972,11 @@
     <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B224" s="1">
         <f t="shared" si="13"/>
-        <v>43719</v>
+        <v>44053</v>
       </c>
       <c r="C224" t="s">
         <v>0</v>
@@ -3984,11 +3988,11 @@
     <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B225" s="1">
         <f t="shared" si="13"/>
-        <v>43720</v>
+        <v>44054</v>
       </c>
       <c r="C225" t="s">
         <v>0</v>
@@ -4000,11 +4004,11 @@
     <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B226" s="1">
         <f t="shared" si="13"/>
-        <v>43721</v>
+        <v>44055</v>
       </c>
       <c r="C226" t="s">
         <v>0</v>
@@ -4016,11 +4020,11 @@
     <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B227" s="1">
         <f t="shared" si="13"/>
-        <v>43722</v>
+        <v>44056</v>
       </c>
       <c r="C227" t="s">
         <v>0</v>
@@ -4029,14 +4033,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B228" s="1">
         <f t="shared" si="13"/>
-        <v>43723</v>
+        <v>44057</v>
       </c>
       <c r="C228" t="s">
         <v>0</v>
@@ -4048,27 +4052,24 @@
     <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B229" s="1">
         <f t="shared" si="13"/>
-        <v>43724</v>
+        <v>44058</v>
       </c>
       <c r="C229" t="s">
-        <v>0</v>
-      </c>
-      <c r="D229" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B230" s="1">
         <f t="shared" si="13"/>
-        <v>43725</v>
+        <v>44059</v>
       </c>
       <c r="C230" t="s">
         <v>0</v>
@@ -4080,11 +4081,11 @@
     <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B231" s="1">
         <f t="shared" si="13"/>
-        <v>43726</v>
+        <v>44060</v>
       </c>
       <c r="C231" t="s">
         <v>0</v>
@@ -4096,11 +4097,11 @@
     <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B232" s="1">
         <f t="shared" si="13"/>
-        <v>43727</v>
+        <v>44061</v>
       </c>
       <c r="C232" t="s">
         <v>0</v>
@@ -4112,11 +4113,11 @@
     <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B233" s="1">
         <f t="shared" si="13"/>
-        <v>43728</v>
+        <v>44062</v>
       </c>
       <c r="C233" t="s">
         <v>0</v>
@@ -4128,11 +4129,11 @@
     <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B234" s="1">
         <f t="shared" si="13"/>
-        <v>43729</v>
+        <v>44063</v>
       </c>
       <c r="C234" t="s">
         <v>0</v>
@@ -4141,14 +4142,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B235" s="1">
         <f t="shared" si="13"/>
-        <v>43730</v>
+        <v>44064</v>
       </c>
       <c r="C235" t="s">
         <v>0</v>
@@ -4160,11 +4161,11 @@
     <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B236" s="1">
         <f t="shared" si="13"/>
-        <v>43731</v>
+        <v>44065</v>
       </c>
       <c r="C236" t="s">
         <v>0</v>
@@ -4176,11 +4177,11 @@
     <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B237" s="1">
         <f t="shared" si="13"/>
-        <v>43732</v>
+        <v>44066</v>
       </c>
       <c r="C237" t="s">
         <v>0</v>
@@ -4192,11 +4193,11 @@
     <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B238" s="1">
         <f t="shared" si="13"/>
-        <v>43733</v>
+        <v>44067</v>
       </c>
       <c r="C238" t="s">
         <v>0</v>
@@ -4208,11 +4209,11 @@
     <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B239" s="1">
         <f t="shared" si="13"/>
-        <v>43734</v>
+        <v>44068</v>
       </c>
       <c r="C239" t="s">
         <v>0</v>
@@ -4224,11 +4225,11 @@
     <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B240" s="1">
         <f t="shared" si="13"/>
-        <v>43735</v>
+        <v>44069</v>
       </c>
       <c r="C240" t="s">
         <v>0</v>
@@ -4240,11 +4241,11 @@
     <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B241" s="1">
         <f t="shared" si="13"/>
-        <v>43736</v>
+        <v>44070</v>
       </c>
       <c r="C241" t="s">
         <v>0</v>
@@ -4253,14 +4254,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B242" s="1">
         <f t="shared" si="13"/>
-        <v>43737</v>
+        <v>44071</v>
       </c>
       <c r="C242" t="s">
         <v>0</v>
@@ -4272,11 +4273,11 @@
     <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B243" s="1">
         <f t="shared" si="13"/>
-        <v>43738</v>
+        <v>44072</v>
       </c>
       <c r="C243" t="s">
         <v>0</v>
@@ -4288,11 +4289,11 @@
     <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B244" s="1">
         <f t="shared" si="13"/>
-        <v>43739</v>
+        <v>44073</v>
       </c>
       <c r="C244" t="s">
         <v>0</v>
@@ -4304,11 +4305,11 @@
     <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B245" s="1">
         <f t="shared" si="13"/>
-        <v>43740</v>
+        <v>44074</v>
       </c>
       <c r="C245" t="s">
         <v>0</v>
@@ -4320,11 +4321,11 @@
     <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B246" s="1">
         <f t="shared" si="13"/>
-        <v>43741</v>
+        <v>44075</v>
       </c>
       <c r="C246" t="s">
         <v>0</v>
@@ -4336,11 +4337,11 @@
     <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B247" s="1">
         <f t="shared" si="13"/>
-        <v>43742</v>
+        <v>44076</v>
       </c>
       <c r="C247" t="s">
         <v>0</v>
@@ -4352,11 +4353,11 @@
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B248" s="1">
         <f t="shared" si="13"/>
-        <v>43743</v>
+        <v>44077</v>
       </c>
       <c r="C248" t="s">
         <v>0</v>
@@ -4365,14 +4366,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B249" s="1">
         <f t="shared" si="13"/>
-        <v>43744</v>
+        <v>44078</v>
       </c>
       <c r="C249" t="s">
         <v>0</v>
@@ -4384,11 +4385,11 @@
     <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B250" s="1">
         <f t="shared" si="13"/>
-        <v>43745</v>
+        <v>44079</v>
       </c>
       <c r="C250" t="s">
         <v>0</v>
@@ -4400,11 +4401,11 @@
     <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B251" s="1">
         <f t="shared" si="13"/>
-        <v>43746</v>
+        <v>44080</v>
       </c>
       <c r="C251" t="s">
         <v>0</v>
@@ -4416,11 +4417,11 @@
     <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B252" s="1">
         <f t="shared" si="13"/>
-        <v>43747</v>
+        <v>44081</v>
       </c>
       <c r="C252" t="s">
         <v>0</v>
@@ -4432,11 +4433,11 @@
     <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B253" s="1">
         <f t="shared" si="13"/>
-        <v>43748</v>
+        <v>44082</v>
       </c>
       <c r="C253" t="s">
         <v>0</v>
@@ -4448,40 +4449,40 @@
     <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B254" s="1">
         <f t="shared" si="13"/>
-        <v>43749</v>
+        <v>44083</v>
       </c>
       <c r="C254" t="s">
-        <v>0</v>
-      </c>
-      <c r="D254" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B255" s="1">
         <f t="shared" si="13"/>
-        <v>43750</v>
+        <v>44084</v>
       </c>
       <c r="C255" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="D255" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B256" s="1">
         <f t="shared" si="13"/>
-        <v>43751</v>
+        <v>44085</v>
       </c>
       <c r="C256" t="s">
         <v>0</v>
@@ -4493,11 +4494,11 @@
     <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B257" s="1">
         <f t="shared" si="13"/>
-        <v>43752</v>
+        <v>44086</v>
       </c>
       <c r="C257" t="s">
         <v>0</v>
@@ -4509,11 +4510,11 @@
     <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B258" s="1">
         <f t="shared" si="13"/>
-        <v>43753</v>
+        <v>44087</v>
       </c>
       <c r="C258" t="s">
         <v>0</v>
@@ -4525,11 +4526,11 @@
     <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B259" s="1">
         <f t="shared" si="13"/>
-        <v>43754</v>
+        <v>44088</v>
       </c>
       <c r="C259" t="s">
         <v>0</v>
@@ -4541,11 +4542,11 @@
     <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B260" s="1">
         <f t="shared" si="13"/>
-        <v>43755</v>
+        <v>44089</v>
       </c>
       <c r="C260" t="s">
         <v>0</v>
@@ -4557,11 +4558,11 @@
     <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B261" s="1">
         <f t="shared" si="13"/>
-        <v>43756</v>
+        <v>44090</v>
       </c>
       <c r="C261" t="s">
         <v>0</v>
@@ -4573,11 +4574,11 @@
     <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B262" s="1">
         <f t="shared" si="13"/>
-        <v>43757</v>
+        <v>44091</v>
       </c>
       <c r="C262" t="s">
         <v>0</v>
@@ -4586,14 +4587,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B263" s="1">
         <f t="shared" si="13"/>
-        <v>43758</v>
+        <v>44092</v>
       </c>
       <c r="C263" t="s">
         <v>0</v>
@@ -4605,11 +4606,11 @@
     <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B264" s="1">
         <f t="shared" si="13"/>
-        <v>43759</v>
+        <v>44093</v>
       </c>
       <c r="C264" t="s">
         <v>0</v>
@@ -4621,11 +4622,11 @@
     <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B265" s="1">
         <f t="shared" si="13"/>
-        <v>43760</v>
+        <v>44094</v>
       </c>
       <c r="C265" t="s">
         <v>0</v>
@@ -4637,11 +4638,11 @@
     <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B266" s="1">
         <f t="shared" si="13"/>
-        <v>43761</v>
+        <v>44095</v>
       </c>
       <c r="C266" t="s">
         <v>0</v>
@@ -4653,11 +4654,11 @@
     <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B267" s="1">
         <f t="shared" si="13"/>
-        <v>43762</v>
+        <v>44096</v>
       </c>
       <c r="C267" t="s">
         <v>0</v>
@@ -4669,11 +4670,11 @@
     <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B268" s="1">
         <f t="shared" si="13"/>
-        <v>43763</v>
+        <v>44097</v>
       </c>
       <c r="C268" t="s">
         <v>0</v>
@@ -4685,11 +4686,11 @@
     <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B269" s="1">
         <f t="shared" si="13"/>
-        <v>43764</v>
+        <v>44098</v>
       </c>
       <c r="C269" t="s">
         <v>0</v>
@@ -4698,14 +4699,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B270" s="1">
         <f t="shared" si="13"/>
-        <v>43765</v>
+        <v>44099</v>
       </c>
       <c r="C270" t="s">
         <v>0</v>
@@ -4717,11 +4718,11 @@
     <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B271" s="1">
         <f t="shared" si="13"/>
-        <v>43766</v>
+        <v>44100</v>
       </c>
       <c r="C271" t="s">
         <v>0</v>
@@ -4733,11 +4734,11 @@
     <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B272" s="1">
         <f t="shared" si="13"/>
-        <v>43767</v>
+        <v>44101</v>
       </c>
       <c r="C272" t="s">
         <v>0</v>
@@ -4748,12 +4749,12 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273">
-        <f t="shared" ref="A273:A336" si="14">+WEEKDAY(B273,2)</f>
-        <v>3</v>
+        <f t="shared" ref="A273:A335" si="14">+WEEKDAY(B273,2)</f>
+        <v>1</v>
       </c>
       <c r="B273" s="1">
         <f t="shared" ref="B273:B313" si="15">+B272+1</f>
-        <v>43768</v>
+        <v>44102</v>
       </c>
       <c r="C273" t="s">
         <v>0</v>
@@ -4765,11 +4766,11 @@
     <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B274" s="1">
         <f t="shared" si="15"/>
-        <v>43769</v>
+        <v>44103</v>
       </c>
       <c r="C274" t="s">
         <v>0</v>
@@ -4781,24 +4782,27 @@
     <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B275" s="1">
         <f t="shared" si="15"/>
-        <v>43770</v>
+        <v>44104</v>
       </c>
       <c r="C275" t="s">
+        <v>0</v>
+      </c>
+      <c r="D275" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B276" s="1">
         <f t="shared" si="15"/>
-        <v>43771</v>
+        <v>44105</v>
       </c>
       <c r="C276" t="s">
         <v>0</v>
@@ -4807,14 +4811,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B277" s="1">
         <f t="shared" si="15"/>
-        <v>43772</v>
+        <v>44106</v>
       </c>
       <c r="C277" t="s">
         <v>0</v>
@@ -4826,11 +4830,11 @@
     <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B278" s="1">
         <f t="shared" si="15"/>
-        <v>43773</v>
+        <v>44107</v>
       </c>
       <c r="C278" t="s">
         <v>0</v>
@@ -4842,11 +4846,11 @@
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B279" s="1">
         <f t="shared" si="15"/>
-        <v>43774</v>
+        <v>44108</v>
       </c>
       <c r="C279" t="s">
         <v>0</v>
@@ -4858,11 +4862,11 @@
     <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B280" s="1">
         <f t="shared" si="15"/>
-        <v>43775</v>
+        <v>44109</v>
       </c>
       <c r="C280" t="s">
         <v>0</v>
@@ -4874,11 +4878,11 @@
     <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B281" s="1">
         <f t="shared" si="15"/>
-        <v>43776</v>
+        <v>44110</v>
       </c>
       <c r="C281" t="s">
         <v>0</v>
@@ -4890,11 +4894,11 @@
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B282" s="1">
         <f t="shared" si="15"/>
-        <v>43777</v>
+        <v>44111</v>
       </c>
       <c r="C282" t="s">
         <v>0</v>
@@ -4906,24 +4910,27 @@
     <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B283" s="1">
         <f t="shared" si="15"/>
-        <v>43778</v>
+        <v>44112</v>
       </c>
       <c r="C283" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="D283" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B284" s="1">
         <f t="shared" si="15"/>
-        <v>43779</v>
+        <v>44113</v>
       </c>
       <c r="C284" t="s">
         <v>0</v>
@@ -4935,11 +4942,11 @@
     <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B285" s="1">
         <f t="shared" si="15"/>
-        <v>43780</v>
+        <v>44114</v>
       </c>
       <c r="C285" t="s">
         <v>0</v>
@@ -4951,11 +4958,11 @@
     <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B286" s="1">
         <f t="shared" si="15"/>
-        <v>43781</v>
+        <v>44115</v>
       </c>
       <c r="C286" t="s">
         <v>0</v>
@@ -4967,27 +4974,24 @@
     <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B287" s="1">
         <f t="shared" si="15"/>
-        <v>43782</v>
+        <v>44116</v>
       </c>
       <c r="C287" t="s">
-        <v>0</v>
-      </c>
-      <c r="D287" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B288" s="1">
         <f t="shared" si="15"/>
-        <v>43783</v>
+        <v>44117</v>
       </c>
       <c r="C288" t="s">
         <v>0</v>
@@ -4999,11 +5003,11 @@
     <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B289" s="1">
         <f t="shared" si="15"/>
-        <v>43784</v>
+        <v>44118</v>
       </c>
       <c r="C289" t="s">
         <v>0</v>
@@ -5015,11 +5019,11 @@
     <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B290" s="1">
         <f t="shared" si="15"/>
-        <v>43785</v>
+        <v>44119</v>
       </c>
       <c r="C290" t="s">
         <v>0</v>
@@ -5028,14 +5032,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B291" s="1">
         <f t="shared" si="15"/>
-        <v>43786</v>
+        <v>44120</v>
       </c>
       <c r="C291" t="s">
         <v>0</v>
@@ -5047,11 +5051,11 @@
     <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B292" s="1">
         <f t="shared" si="15"/>
-        <v>43787</v>
+        <v>44121</v>
       </c>
       <c r="C292" t="s">
         <v>0</v>
@@ -5063,11 +5067,11 @@
     <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B293" s="1">
         <f t="shared" si="15"/>
-        <v>43788</v>
+        <v>44122</v>
       </c>
       <c r="C293" t="s">
         <v>0</v>
@@ -5079,11 +5083,11 @@
     <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B294" s="1">
         <f t="shared" si="15"/>
-        <v>43789</v>
+        <v>44123</v>
       </c>
       <c r="C294" t="s">
         <v>0</v>
@@ -5095,11 +5099,11 @@
     <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B295" s="1">
         <f t="shared" si="15"/>
-        <v>43790</v>
+        <v>44124</v>
       </c>
       <c r="C295" t="s">
         <v>0</v>
@@ -5111,11 +5115,11 @@
     <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B296" s="1">
         <f t="shared" si="15"/>
-        <v>43791</v>
+        <v>44125</v>
       </c>
       <c r="C296" t="s">
         <v>0</v>
@@ -5127,11 +5131,11 @@
     <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B297" s="1">
         <f t="shared" si="15"/>
-        <v>43792</v>
+        <v>44126</v>
       </c>
       <c r="C297" t="s">
         <v>0</v>
@@ -5140,14 +5144,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B298" s="1">
         <f t="shared" si="15"/>
-        <v>43793</v>
+        <v>44127</v>
       </c>
       <c r="C298" t="s">
         <v>0</v>
@@ -5159,11 +5163,11 @@
     <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B299" s="1">
         <f t="shared" si="15"/>
-        <v>43794</v>
+        <v>44128</v>
       </c>
       <c r="C299" t="s">
         <v>0</v>
@@ -5175,11 +5179,11 @@
     <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B300" s="1">
         <f t="shared" si="15"/>
-        <v>43795</v>
+        <v>44129</v>
       </c>
       <c r="C300" t="s">
         <v>0</v>
@@ -5191,11 +5195,11 @@
     <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B301" s="1">
         <f t="shared" si="15"/>
-        <v>43796</v>
+        <v>44130</v>
       </c>
       <c r="C301" t="s">
         <v>0</v>
@@ -5207,11 +5211,11 @@
     <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B302" s="1">
         <f t="shared" si="15"/>
-        <v>43797</v>
+        <v>44131</v>
       </c>
       <c r="C302" t="s">
         <v>0</v>
@@ -5223,11 +5227,11 @@
     <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B303" s="1">
         <f t="shared" si="15"/>
-        <v>43798</v>
+        <v>44132</v>
       </c>
       <c r="C303" t="s">
         <v>0</v>
@@ -5239,11 +5243,11 @@
     <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B304" s="1">
         <f t="shared" si="15"/>
-        <v>43799</v>
+        <v>44133</v>
       </c>
       <c r="C304" t="s">
         <v>0</v>
@@ -5252,14 +5256,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="305" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B305" s="1">
         <f t="shared" si="15"/>
-        <v>43800</v>
+        <v>44134</v>
       </c>
       <c r="C305" t="s">
         <v>0</v>
@@ -5271,11 +5275,11 @@
     <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B306" s="1">
         <f t="shared" si="15"/>
-        <v>43801</v>
+        <v>44135</v>
       </c>
       <c r="C306" t="s">
         <v>0</v>
@@ -5287,11 +5291,11 @@
     <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B307" s="1">
         <f t="shared" si="15"/>
-        <v>43802</v>
+        <v>44136</v>
       </c>
       <c r="C307" t="s">
         <v>0</v>
@@ -5303,27 +5307,24 @@
     <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B308" s="1">
         <f t="shared" si="15"/>
-        <v>43803</v>
+        <v>44137</v>
       </c>
       <c r="C308" t="s">
-        <v>0</v>
-      </c>
-      <c r="D308" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B309" s="1">
         <f t="shared" si="15"/>
-        <v>43804</v>
+        <v>44138</v>
       </c>
       <c r="C309" t="s">
         <v>0</v>
@@ -5335,24 +5336,27 @@
     <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B310" s="1">
         <f t="shared" si="15"/>
-        <v>43805</v>
+        <v>44139</v>
       </c>
       <c r="C310" t="s">
+        <v>0</v>
+      </c>
+      <c r="D310" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B311" s="1">
         <f t="shared" si="15"/>
-        <v>43806</v>
+        <v>44140</v>
       </c>
       <c r="C311" t="s">
         <v>0</v>
@@ -5361,14 +5365,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="312" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B312" s="1">
         <f t="shared" si="15"/>
-        <v>43807</v>
+        <v>44141</v>
       </c>
       <c r="C312" t="s">
         <v>0</v>
@@ -5380,11 +5384,11 @@
     <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B313" s="1">
         <f t="shared" si="15"/>
-        <v>43808</v>
+        <v>44142</v>
       </c>
       <c r="C313" t="s">
         <v>0</v>
@@ -5396,11 +5400,11 @@
     <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B314" s="1">
         <f>+B313+1</f>
-        <v>43809</v>
+        <v>44143</v>
       </c>
       <c r="C314" t="s">
         <v>0</v>
@@ -5412,27 +5416,24 @@
     <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B315" s="1">
-        <f t="shared" ref="B315:B368" si="16">+B314+1</f>
-        <v>43810</v>
+        <f t="shared" ref="B315:B366" si="16">+B314+1</f>
+        <v>44144</v>
       </c>
       <c r="C315" t="s">
-        <v>0</v>
-      </c>
-      <c r="D315" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B316" s="1">
         <f t="shared" si="16"/>
-        <v>43811</v>
+        <v>44145</v>
       </c>
       <c r="C316" t="s">
         <v>0</v>
@@ -5444,11 +5445,11 @@
     <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B317" s="1">
         <f t="shared" si="16"/>
-        <v>43812</v>
+        <v>44146</v>
       </c>
       <c r="C317" t="s">
         <v>0</v>
@@ -5460,11 +5461,11 @@
     <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B318" s="1">
         <f t="shared" si="16"/>
-        <v>43813</v>
+        <v>44147</v>
       </c>
       <c r="C318" t="s">
         <v>0</v>
@@ -5473,14 +5474,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B319" s="1">
         <f t="shared" si="16"/>
-        <v>43814</v>
+        <v>44148</v>
       </c>
       <c r="C319" t="s">
         <v>0</v>
@@ -5492,11 +5493,11 @@
     <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B320" s="1">
         <f t="shared" si="16"/>
-        <v>43815</v>
+        <v>44149</v>
       </c>
       <c r="C320" t="s">
         <v>0</v>
@@ -5505,14 +5506,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B321" s="1">
         <f t="shared" si="16"/>
-        <v>43816</v>
+        <v>44150</v>
       </c>
       <c r="C321" t="s">
         <v>0</v>
@@ -5521,14 +5522,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B322" s="1">
         <f t="shared" si="16"/>
-        <v>43817</v>
+        <v>44151</v>
       </c>
       <c r="C322" t="s">
         <v>0</v>
@@ -5537,14 +5538,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B323" s="1">
         <f t="shared" si="16"/>
-        <v>43818</v>
+        <v>44152</v>
       </c>
       <c r="C323" t="s">
         <v>0</v>
@@ -5553,14 +5554,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B324" s="1">
         <f t="shared" si="16"/>
-        <v>43819</v>
+        <v>44153</v>
       </c>
       <c r="C324" t="s">
         <v>0</v>
@@ -5569,14 +5570,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B325" s="1">
         <f t="shared" si="16"/>
-        <v>43820</v>
+        <v>44154</v>
       </c>
       <c r="C325" t="s">
         <v>0</v>
@@ -5585,14 +5586,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B326" s="1">
         <f t="shared" si="16"/>
-        <v>43821</v>
+        <v>44155</v>
       </c>
       <c r="C326" t="s">
         <v>0</v>
@@ -5601,14 +5602,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B327" s="1">
         <f t="shared" si="16"/>
-        <v>43822</v>
+        <v>44156</v>
       </c>
       <c r="C327" t="s">
         <v>0</v>
@@ -5617,14 +5618,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B328" s="1">
         <f t="shared" si="16"/>
-        <v>43823</v>
+        <v>44157</v>
       </c>
       <c r="C328" t="s">
         <v>0</v>
@@ -5632,18 +5633,15 @@
       <c r="D328" t="s">
         <v>2</v>
       </c>
-      <c r="E328" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B329" s="1">
         <f t="shared" si="16"/>
-        <v>43824</v>
+        <v>44158</v>
       </c>
       <c r="C329" t="s">
         <v>0</v>
@@ -5651,18 +5649,15 @@
       <c r="D329" t="s">
         <v>2</v>
       </c>
-      <c r="E329" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B330" s="1">
         <f t="shared" si="16"/>
-        <v>43825</v>
+        <v>44159</v>
       </c>
       <c r="C330" t="s">
         <v>0</v>
@@ -5671,14 +5666,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B331" s="1">
         <f t="shared" si="16"/>
-        <v>43826</v>
+        <v>44160</v>
       </c>
       <c r="C331" t="s">
         <v>0</v>
@@ -5687,14 +5682,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B332" s="1">
         <f t="shared" si="16"/>
-        <v>43827</v>
+        <v>44161</v>
       </c>
       <c r="C332" t="s">
         <v>0</v>
@@ -5703,14 +5698,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B333" s="1">
         <f t="shared" si="16"/>
-        <v>43828</v>
+        <v>44162</v>
       </c>
       <c r="C333" t="s">
         <v>0</v>
@@ -5719,14 +5714,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B334" s="1">
         <f t="shared" si="16"/>
-        <v>43829</v>
+        <v>44163</v>
       </c>
       <c r="C334" t="s">
         <v>0</v>
@@ -5735,14 +5730,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B335" s="1">
         <f t="shared" si="16"/>
-        <v>43830</v>
+        <v>44164</v>
       </c>
       <c r="C335" t="s">
         <v>0</v>
@@ -5750,107 +5745,489 @@
       <c r="D335" t="s">
         <v>2</v>
       </c>
-      <c r="E335" s="3" t="s">
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A336">
+        <f t="shared" ref="A336:A361" si="17">+WEEKDAY(B336,2)</f>
+        <v>1</v>
+      </c>
+      <c r="B336" s="1">
+        <f t="shared" si="16"/>
+        <v>44165</v>
+      </c>
+      <c r="C336" t="s">
+        <v>0</v>
+      </c>
+      <c r="D336" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A337">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="B337" s="1">
+        <f t="shared" si="16"/>
+        <v>44166</v>
+      </c>
+      <c r="C337" t="s">
+        <v>0</v>
+      </c>
+      <c r="D337" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A338">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="B338" s="1">
+        <f t="shared" si="16"/>
+        <v>44167</v>
+      </c>
+      <c r="C338" t="s">
+        <v>0</v>
+      </c>
+      <c r="D338" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A339">
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B336" s="1"/>
-    </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B337" s="1"/>
-    </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B338" s="1"/>
-    </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B339" s="1"/>
-    </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B340" s="1"/>
-    </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B341" s="1"/>
-    </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B342" s="1"/>
-    </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B343" s="1"/>
-    </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B344" s="1"/>
-    </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B345" s="1"/>
-    </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B346" s="1"/>
-    </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B347" s="1"/>
-    </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B348" s="1"/>
-    </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B349" s="1"/>
-    </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B350" s="1"/>
-    </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B351" s="1"/>
-    </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B352" s="1"/>
-    </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B353" s="1"/>
-    </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B354" s="1"/>
-    </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B355" s="1"/>
-    </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B356" s="1"/>
-    </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B357" s="1"/>
-    </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B358" s="1"/>
-    </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B359" s="1"/>
-    </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B360" s="1"/>
-    </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B361" s="1"/>
-    </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B362" s="1"/>
-    </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B363" s="1"/>
-    </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B364" s="1"/>
-    </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B365" s="1"/>
-    </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B366" s="1"/>
-    </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B339" s="1">
+        <f t="shared" si="16"/>
+        <v>44168</v>
+      </c>
+      <c r="C339" t="s">
+        <v>0</v>
+      </c>
+      <c r="D339" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A340">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="B340" s="1">
+        <f t="shared" si="16"/>
+        <v>44169</v>
+      </c>
+      <c r="C340" t="s">
+        <v>0</v>
+      </c>
+      <c r="D340" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A341">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="B341" s="1">
+        <f t="shared" si="16"/>
+        <v>44170</v>
+      </c>
+      <c r="C341" t="s">
+        <v>0</v>
+      </c>
+      <c r="D341" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A342">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="B342" s="1">
+        <f t="shared" si="16"/>
+        <v>44171</v>
+      </c>
+      <c r="C342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D342" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A343">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B343" s="1">
+        <f t="shared" si="16"/>
+        <v>44172</v>
+      </c>
+      <c r="C343" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A344">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="B344" s="1">
+        <f t="shared" si="16"/>
+        <v>44173</v>
+      </c>
+      <c r="C344" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A345">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="B345" s="1">
+        <f t="shared" si="16"/>
+        <v>44174</v>
+      </c>
+      <c r="C345" t="s">
+        <v>0</v>
+      </c>
+      <c r="D345" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A346">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="B346" s="1">
+        <f t="shared" si="16"/>
+        <v>44175</v>
+      </c>
+      <c r="C346" t="s">
+        <v>0</v>
+      </c>
+      <c r="D346" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A347">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="B347" s="1">
+        <f t="shared" si="16"/>
+        <v>44176</v>
+      </c>
+      <c r="C347" t="s">
+        <v>0</v>
+      </c>
+      <c r="D347" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A348">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="B348" s="1">
+        <f t="shared" si="16"/>
+        <v>44177</v>
+      </c>
+      <c r="C348" t="s">
+        <v>0</v>
+      </c>
+      <c r="D348" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A349">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="B349" s="1">
+        <f t="shared" si="16"/>
+        <v>44178</v>
+      </c>
+      <c r="C349" t="s">
+        <v>0</v>
+      </c>
+      <c r="D349" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A350">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B350" s="1">
+        <f t="shared" si="16"/>
+        <v>44179</v>
+      </c>
+      <c r="C350" t="s">
+        <v>0</v>
+      </c>
+      <c r="D350" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A351">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="B351" s="1">
+        <f t="shared" si="16"/>
+        <v>44180</v>
+      </c>
+      <c r="C351" t="s">
+        <v>0</v>
+      </c>
+      <c r="D351" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A352">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="B352" s="1">
+        <f t="shared" si="16"/>
+        <v>44181</v>
+      </c>
+      <c r="C352" t="s">
+        <v>0</v>
+      </c>
+      <c r="D352" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A353">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="B353" s="1">
+        <f t="shared" si="16"/>
+        <v>44182</v>
+      </c>
+      <c r="C353" t="s">
+        <v>0</v>
+      </c>
+      <c r="D353" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A354">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="B354" s="1">
+        <f t="shared" si="16"/>
+        <v>44183</v>
+      </c>
+      <c r="C354" t="s">
+        <v>0</v>
+      </c>
+      <c r="D354" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A355">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="B355" s="1">
+        <f t="shared" si="16"/>
+        <v>44184</v>
+      </c>
+      <c r="C355" t="s">
+        <v>0</v>
+      </c>
+      <c r="D355" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A356">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="B356" s="1">
+        <f t="shared" si="16"/>
+        <v>44185</v>
+      </c>
+      <c r="C356" t="s">
+        <v>0</v>
+      </c>
+      <c r="D356" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A357">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="B357" s="1">
+        <f t="shared" si="16"/>
+        <v>44186</v>
+      </c>
+      <c r="C357" t="s">
+        <v>0</v>
+      </c>
+      <c r="D357" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A358">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="B358" s="1">
+        <f t="shared" si="16"/>
+        <v>44187</v>
+      </c>
+      <c r="C358" t="s">
+        <v>0</v>
+      </c>
+      <c r="D358" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A359">
+        <f t="shared" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="B359" s="1">
+        <f t="shared" si="16"/>
+        <v>44188</v>
+      </c>
+      <c r="C359" t="s">
+        <v>0</v>
+      </c>
+      <c r="D359" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A360">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="B360" s="1">
+        <f t="shared" si="16"/>
+        <v>44189</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A361">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="B361" s="1">
+        <f t="shared" si="16"/>
+        <v>44190</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A362">
+        <f t="shared" ref="A362:A366" si="18">+WEEKDAY(B362,2)</f>
+        <v>6</v>
+      </c>
+      <c r="B362" s="1">
+        <f t="shared" si="16"/>
+        <v>44191</v>
+      </c>
+      <c r="C362" t="s">
+        <v>0</v>
+      </c>
+      <c r="D362" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A363">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="B363" s="1">
+        <f t="shared" si="16"/>
+        <v>44192</v>
+      </c>
+      <c r="C363" t="s">
+        <v>0</v>
+      </c>
+      <c r="D363" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A364">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="B364" s="1">
+        <f t="shared" si="16"/>
+        <v>44193</v>
+      </c>
+      <c r="C364" t="s">
+        <v>0</v>
+      </c>
+      <c r="D364" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A365">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="B365" s="1">
+        <f t="shared" si="16"/>
+        <v>44194</v>
+      </c>
+      <c r="C365" t="s">
+        <v>0</v>
+      </c>
+      <c r="D365" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A366">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="B366" s="1">
+        <f t="shared" si="16"/>
+        <v>44195</v>
+      </c>
+      <c r="C366" t="s">
+        <v>0</v>
+      </c>
+      <c r="D366" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B367" s="1"/>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B368" s="1"/>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.35">
@@ -5893,23 +6270,9 @@
       <c r="B381" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E368" xr:uid="{614E4074-D85C-4624-8AAF-5837485E4D93}">
-    <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="1"/>
-        <filter val="2"/>
-        <filter val="3"/>
-        <filter val="4"/>
-        <filter val="5"/>
-        <filter val="6"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:D366" xr:uid="{96A57D41-D021-40F2-9509-6A286A85AB4D}"/>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/storage/app/eventbatch.xlsx
+++ b/storage/app/eventbatch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desarrollo\home\Eduardo\laravel\cooking-point\storage\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106B5BFA-68D2-4F8A-A4CE-E0C1E3E9AD86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B20368B-C461-44FD-BFB5-930ADD8567A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="eventbatch" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">eventbatch!$A$2:$D$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">eventbatch!$A$2:$D$155</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="13">
   <si>
     <t>DIA</t>
   </si>
@@ -53,22 +53,28 @@
     <t>clase2</t>
   </si>
   <si>
-    <t>ONLINE-SELECTION-MORNING</t>
+    <t>ONLINE-MORNING-SELECTION</t>
   </si>
   <si>
-    <t>ONLINE-SELECTION-EVENING</t>
+    <t>ONLINE-EVENING-SELECTION</t>
   </si>
   <si>
-    <t>ONLINE-SELECTION-LATENIGHT</t>
+    <t>ONLINE-LATENIGHT-SELECTION</t>
   </si>
   <si>
-    <t>ONLINE-PAELLA-MORNING</t>
+    <t>ONLINE-LATENIGHT-PAELLA</t>
   </si>
   <si>
-    <t>ONLINE-PAELLA-EVENING</t>
+    <t>ONLINE-MORNING-PAELLA</t>
   </si>
   <si>
-    <t>ONLINE-PAELLA-LATENIGHT</t>
+    <t>ONLINE-EVENING-PAELLA</t>
+  </si>
+  <si>
+    <t>PAELLA</t>
+  </si>
+  <si>
+    <t>TAPAS</t>
   </si>
 </sst>
 </file>
@@ -433,10 +439,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H251"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156:XFD251"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,13 +492,13 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -513,13 +520,13 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -541,13 +548,13 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -569,13 +576,13 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -597,16 +604,16 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -635,13 +642,13 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -663,13 +670,13 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -691,13 +698,13 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -719,13 +726,13 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -747,13 +754,13 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -775,16 +782,16 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -813,13 +820,13 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -841,13 +848,13 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -869,13 +876,13 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -897,13 +904,13 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -925,13 +932,13 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -953,16 +960,16 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -991,13 +998,13 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1019,13 +1026,13 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1047,13 +1054,13 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1075,13 +1082,13 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1103,13 +1110,13 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1131,16 +1138,16 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -1169,13 +1176,13 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1197,13 +1204,13 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1225,13 +1232,13 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1253,13 +1260,13 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1281,13 +1288,13 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1309,16 +1316,16 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H35" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -1326,24 +1333,6 @@
       <c r="B36" s="1">
         <f t="shared" si="1"/>
         <v>44108</v>
-      </c>
-      <c r="C36" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" t="s">
-        <v>7</v>
-      </c>
-      <c r="F36" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1365,13 +1354,13 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1393,13 +1382,13 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1421,13 +1410,13 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1449,13 +1438,13 @@
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1477,13 +1466,13 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1505,16 +1494,16 @@
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -1522,24 +1511,6 @@
       <c r="B43" s="1">
         <f t="shared" si="1"/>
         <v>44115</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F43" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1561,13 +1532,13 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1589,13 +1560,13 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1617,13 +1588,13 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1645,13 +1616,13 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1673,13 +1644,13 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1701,16 +1672,16 @@
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -1718,24 +1689,6 @@
       <c r="B50" s="1">
         <f t="shared" si="1"/>
         <v>44122</v>
-      </c>
-      <c r="C50" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1757,13 +1710,13 @@
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1785,13 +1738,13 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1813,13 +1766,13 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -1841,13 +1794,13 @@
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -1869,13 +1822,13 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -1897,16 +1850,16 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -1914,24 +1867,6 @@
       <c r="B57" s="1">
         <f t="shared" si="1"/>
         <v>44129</v>
-      </c>
-      <c r="C57" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" t="s">
-        <v>7</v>
-      </c>
-      <c r="F57" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -1953,13 +1888,13 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -1981,13 +1916,13 @@
         <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2009,13 +1944,13 @@
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2037,13 +1972,13 @@
         <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2065,13 +2000,13 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2093,16 +2028,16 @@
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -2110,24 +2045,6 @@
       <c r="B64" s="1">
         <f t="shared" si="1"/>
         <v>44136</v>
-      </c>
-      <c r="C64" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64" t="s">
-        <v>7</v>
-      </c>
-      <c r="F64" t="s">
-        <v>8</v>
-      </c>
-      <c r="G64" t="s">
-        <v>9</v>
-      </c>
-      <c r="H64" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2149,13 +2066,13 @@
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2177,13 +2094,13 @@
         <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2205,13 +2122,13 @@
         <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2233,13 +2150,13 @@
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2261,13 +2178,13 @@
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2289,16 +2206,16 @@
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H70" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -2306,24 +2223,6 @@
       <c r="B71" s="1">
         <f t="shared" si="4"/>
         <v>44143</v>
-      </c>
-      <c r="C71" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" t="s">
-        <v>7</v>
-      </c>
-      <c r="F71" t="s">
-        <v>8</v>
-      </c>
-      <c r="G71" t="s">
-        <v>9</v>
-      </c>
-      <c r="H71" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2345,13 +2244,13 @@
         <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2373,13 +2272,13 @@
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2401,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2429,13 +2328,13 @@
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2457,13 +2356,13 @@
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2485,16 +2384,16 @@
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H77" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -2502,24 +2401,6 @@
       <c r="B78" s="1">
         <f t="shared" si="4"/>
         <v>44150</v>
-      </c>
-      <c r="C78" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" t="s">
-        <v>7</v>
-      </c>
-      <c r="F78" t="s">
-        <v>8</v>
-      </c>
-      <c r="G78" t="s">
-        <v>9</v>
-      </c>
-      <c r="H78" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2541,13 +2422,13 @@
         <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2569,13 +2450,13 @@
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -2597,13 +2478,13 @@
         <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H81" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -2625,13 +2506,13 @@
         <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -2653,13 +2534,13 @@
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -2681,16 +2562,16 @@
         <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -2698,24 +2579,6 @@
       <c r="B85" s="1">
         <f t="shared" si="4"/>
         <v>44157</v>
-      </c>
-      <c r="C85" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" t="s">
-        <v>7</v>
-      </c>
-      <c r="F85" t="s">
-        <v>8</v>
-      </c>
-      <c r="G85" t="s">
-        <v>9</v>
-      </c>
-      <c r="H85" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -2737,13 +2600,13 @@
         <v>7</v>
       </c>
       <c r="F86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H86" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -2765,13 +2628,13 @@
         <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H87" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -2793,13 +2656,13 @@
         <v>7</v>
       </c>
       <c r="F88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H88" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -2821,13 +2684,13 @@
         <v>7</v>
       </c>
       <c r="F89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -2849,13 +2712,13 @@
         <v>7</v>
       </c>
       <c r="F90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -2877,16 +2740,16 @@
         <v>7</v>
       </c>
       <c r="F91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H91" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -2894,24 +2757,6 @@
       <c r="B92" s="1">
         <f t="shared" si="4"/>
         <v>44164</v>
-      </c>
-      <c r="C92" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" t="s">
-        <v>7</v>
-      </c>
-      <c r="F92" t="s">
-        <v>8</v>
-      </c>
-      <c r="G92" t="s">
-        <v>9</v>
-      </c>
-      <c r="H92" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -2933,13 +2778,13 @@
         <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H93" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -2961,13 +2806,13 @@
         <v>7</v>
       </c>
       <c r="F94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H94" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -2989,13 +2834,13 @@
         <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H95" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3017,18 +2862,18 @@
         <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H96" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f t="shared" ref="A97:A160" si="5">+WEEKDAY(B97,2)</f>
+        <f t="shared" ref="A97:A155" si="5">+WEEKDAY(B97,2)</f>
         <v>5</v>
       </c>
       <c r="B97" s="1">
@@ -3045,13 +2890,13 @@
         <v>7</v>
       </c>
       <c r="F97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H97" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3073,16 +2918,16 @@
         <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H98" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -3090,24 +2935,6 @@
       <c r="B99" s="1">
         <f t="shared" si="4"/>
         <v>44171</v>
-      </c>
-      <c r="C99" t="s">
-        <v>5</v>
-      </c>
-      <c r="D99" t="s">
-        <v>6</v>
-      </c>
-      <c r="E99" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" t="s">
-        <v>8</v>
-      </c>
-      <c r="G99" t="s">
-        <v>9</v>
-      </c>
-      <c r="H99" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3129,13 +2956,13 @@
         <v>7</v>
       </c>
       <c r="F100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H100" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3157,13 +2984,13 @@
         <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H101" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3185,13 +3012,13 @@
         <v>7</v>
       </c>
       <c r="F102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H102" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3213,13 +3040,13 @@
         <v>7</v>
       </c>
       <c r="F103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H103" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3241,13 +3068,13 @@
         <v>7</v>
       </c>
       <c r="F104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H104" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -3269,16 +3096,16 @@
         <v>7</v>
       </c>
       <c r="F105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H105" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -3286,24 +3113,6 @@
       <c r="B106" s="1">
         <f t="shared" si="4"/>
         <v>44178</v>
-      </c>
-      <c r="C106" t="s">
-        <v>5</v>
-      </c>
-      <c r="D106" t="s">
-        <v>6</v>
-      </c>
-      <c r="E106" t="s">
-        <v>7</v>
-      </c>
-      <c r="F106" t="s">
-        <v>8</v>
-      </c>
-      <c r="G106" t="s">
-        <v>9</v>
-      </c>
-      <c r="H106" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3325,13 +3134,13 @@
         <v>7</v>
       </c>
       <c r="F107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H107" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3353,13 +3162,13 @@
         <v>7</v>
       </c>
       <c r="F108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H108" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -3381,13 +3190,13 @@
         <v>7</v>
       </c>
       <c r="F109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H109" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -3409,13 +3218,13 @@
         <v>7</v>
       </c>
       <c r="F110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H110" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -3437,13 +3246,13 @@
         <v>7</v>
       </c>
       <c r="F111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H111" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -3465,16 +3274,16 @@
         <v>7</v>
       </c>
       <c r="F112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H112" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -3483,26 +3292,8 @@
         <f t="shared" si="4"/>
         <v>44185</v>
       </c>
-      <c r="C113" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" t="s">
-        <v>6</v>
-      </c>
-      <c r="E113" t="s">
-        <v>7</v>
-      </c>
-      <c r="F113" t="s">
-        <v>8</v>
-      </c>
-      <c r="G113" t="s">
-        <v>9</v>
-      </c>
-      <c r="H113" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -3521,16 +3312,16 @@
         <v>7</v>
       </c>
       <c r="F114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H114" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -3549,16 +3340,16 @@
         <v>7</v>
       </c>
       <c r="F115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H115" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -3577,16 +3368,16 @@
         <v>7</v>
       </c>
       <c r="F116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H116" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -3595,26 +3386,8 @@
         <f t="shared" si="4"/>
         <v>44189</v>
       </c>
-      <c r="C117" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117" t="s">
-        <v>6</v>
-      </c>
-      <c r="E117" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" t="s">
-        <v>8</v>
-      </c>
-      <c r="G117" t="s">
-        <v>9</v>
-      </c>
-      <c r="H117" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3623,26 +3396,8 @@
         <f t="shared" si="4"/>
         <v>44190</v>
       </c>
-      <c r="C118" t="s">
-        <v>5</v>
-      </c>
-      <c r="D118" t="s">
-        <v>6</v>
-      </c>
-      <c r="E118" t="s">
-        <v>7</v>
-      </c>
-      <c r="F118" t="s">
-        <v>8</v>
-      </c>
-      <c r="G118" t="s">
-        <v>9</v>
-      </c>
-      <c r="H118" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -3661,16 +3416,16 @@
         <v>7</v>
       </c>
       <c r="F119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H119" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -3679,26 +3434,8 @@
         <f t="shared" si="4"/>
         <v>44192</v>
       </c>
-      <c r="C120" t="s">
-        <v>5</v>
-      </c>
-      <c r="D120" t="s">
-        <v>6</v>
-      </c>
-      <c r="E120" t="s">
-        <v>7</v>
-      </c>
-      <c r="F120" t="s">
-        <v>8</v>
-      </c>
-      <c r="G120" t="s">
-        <v>9</v>
-      </c>
-      <c r="H120" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -3717,16 +3454,16 @@
         <v>7</v>
       </c>
       <c r="F121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H121" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -3745,16 +3482,16 @@
         <v>7</v>
       </c>
       <c r="F122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H122" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -3773,16 +3510,16 @@
         <v>7</v>
       </c>
       <c r="F123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H123" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -3801,16 +3538,16 @@
         <v>7</v>
       </c>
       <c r="F124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H124" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -3819,26 +3556,8 @@
         <f t="shared" si="4"/>
         <v>44197</v>
       </c>
-      <c r="C125" t="s">
-        <v>5</v>
-      </c>
-      <c r="D125" t="s">
-        <v>6</v>
-      </c>
-      <c r="E125" t="s">
-        <v>7</v>
-      </c>
-      <c r="F125" t="s">
-        <v>8</v>
-      </c>
-      <c r="G125" t="s">
-        <v>9</v>
-      </c>
-      <c r="H125" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -3847,26 +3566,8 @@
         <f t="shared" si="4"/>
         <v>44198</v>
       </c>
-      <c r="C126" t="s">
-        <v>5</v>
-      </c>
-      <c r="D126" t="s">
-        <v>6</v>
-      </c>
-      <c r="E126" t="s">
-        <v>7</v>
-      </c>
-      <c r="F126" t="s">
-        <v>8</v>
-      </c>
-      <c r="G126" t="s">
-        <v>9</v>
-      </c>
-      <c r="H126" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -3875,26 +3576,8 @@
         <f t="shared" si="4"/>
         <v>44199</v>
       </c>
-      <c r="C127" t="s">
-        <v>5</v>
-      </c>
-      <c r="D127" t="s">
-        <v>6</v>
-      </c>
-      <c r="E127" t="s">
-        <v>7</v>
-      </c>
-      <c r="F127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G127" t="s">
-        <v>9</v>
-      </c>
-      <c r="H127" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -3913,16 +3596,22 @@
         <v>7</v>
       </c>
       <c r="F128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H128" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I128" t="s">
+        <v>11</v>
+      </c>
+      <c r="J128" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -3941,16 +3630,22 @@
         <v>7</v>
       </c>
       <c r="F129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H129" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I129" t="s">
+        <v>11</v>
+      </c>
+      <c r="J129" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -3969,16 +3664,22 @@
         <v>7</v>
       </c>
       <c r="F130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H130" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I130" t="s">
+        <v>11</v>
+      </c>
+      <c r="J130" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -3997,16 +3698,22 @@
         <v>7</v>
       </c>
       <c r="F131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H131" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I131" t="s">
+        <v>11</v>
+      </c>
+      <c r="J131" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4025,22 +3732,28 @@
         <v>7</v>
       </c>
       <c r="F132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H132" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I132" t="s">
+        <v>11</v>
+      </c>
+      <c r="J132" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B133" s="1">
-        <f t="shared" ref="B133:B196" si="6">+B132+1</f>
+        <f t="shared" ref="B133:B155" si="6">+B132+1</f>
         <v>44205</v>
       </c>
       <c r="C133" t="s">
@@ -4053,16 +3766,19 @@
         <v>7</v>
       </c>
       <c r="F133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H133" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I133" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -4071,26 +3787,8 @@
         <f t="shared" si="6"/>
         <v>44206</v>
       </c>
-      <c r="C134" t="s">
-        <v>5</v>
-      </c>
-      <c r="D134" t="s">
-        <v>6</v>
-      </c>
-      <c r="E134" t="s">
-        <v>7</v>
-      </c>
-      <c r="F134" t="s">
-        <v>8</v>
-      </c>
-      <c r="G134" t="s">
-        <v>9</v>
-      </c>
-      <c r="H134" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -4109,16 +3807,22 @@
         <v>7</v>
       </c>
       <c r="F135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H135" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I135" t="s">
+        <v>11</v>
+      </c>
+      <c r="J135" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -4137,16 +3841,22 @@
         <v>7</v>
       </c>
       <c r="F136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H136" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I136" t="s">
+        <v>11</v>
+      </c>
+      <c r="J136" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -4165,16 +3875,22 @@
         <v>7</v>
       </c>
       <c r="F137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H137" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I137" t="s">
+        <v>11</v>
+      </c>
+      <c r="J137" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4193,16 +3909,22 @@
         <v>7</v>
       </c>
       <c r="F138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H138" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I138" t="s">
+        <v>11</v>
+      </c>
+      <c r="J138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4221,16 +3943,22 @@
         <v>7</v>
       </c>
       <c r="F139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H139" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I139" t="s">
+        <v>11</v>
+      </c>
+      <c r="J139" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -4249,16 +3977,22 @@
         <v>7</v>
       </c>
       <c r="F140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H140" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I140" t="s">
+        <v>11</v>
+      </c>
+      <c r="J140" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -4267,26 +4001,8 @@
         <f t="shared" si="6"/>
         <v>44213</v>
       </c>
-      <c r="C141" t="s">
-        <v>5</v>
-      </c>
-      <c r="D141" t="s">
-        <v>6</v>
-      </c>
-      <c r="E141" t="s">
-        <v>7</v>
-      </c>
-      <c r="F141" t="s">
-        <v>8</v>
-      </c>
-      <c r="G141" t="s">
-        <v>9</v>
-      </c>
-      <c r="H141" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -4305,16 +4021,22 @@
         <v>7</v>
       </c>
       <c r="F142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H142" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I142" t="s">
+        <v>11</v>
+      </c>
+      <c r="J142" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -4333,16 +4055,22 @@
         <v>7</v>
       </c>
       <c r="F143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H143" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I143" t="s">
+        <v>11</v>
+      </c>
+      <c r="J143" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -4361,16 +4089,22 @@
         <v>7</v>
       </c>
       <c r="F144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H144" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I144" t="s">
+        <v>11</v>
+      </c>
+      <c r="J144" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4389,16 +4123,22 @@
         <v>7</v>
       </c>
       <c r="F145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H145" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I145" t="s">
+        <v>11</v>
+      </c>
+      <c r="J145" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4417,16 +4157,22 @@
         <v>7</v>
       </c>
       <c r="F146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H146" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I146" t="s">
+        <v>11</v>
+      </c>
+      <c r="J146" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -4445,16 +4191,22 @@
         <v>7</v>
       </c>
       <c r="F147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H147" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I147" t="s">
+        <v>11</v>
+      </c>
+      <c r="J147" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -4463,26 +4215,8 @@
         <f t="shared" si="6"/>
         <v>44220</v>
       </c>
-      <c r="C148" t="s">
-        <v>5</v>
-      </c>
-      <c r="D148" t="s">
-        <v>6</v>
-      </c>
-      <c r="E148" t="s">
-        <v>7</v>
-      </c>
-      <c r="F148" t="s">
-        <v>8</v>
-      </c>
-      <c r="G148" t="s">
-        <v>9</v>
-      </c>
-      <c r="H148" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -4501,16 +4235,22 @@
         <v>7</v>
       </c>
       <c r="F149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H149" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I149" t="s">
+        <v>11</v>
+      </c>
+      <c r="J149" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -4529,16 +4269,22 @@
         <v>7</v>
       </c>
       <c r="F150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H150" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I150" t="s">
+        <v>11</v>
+      </c>
+      <c r="J150" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -4557,16 +4303,22 @@
         <v>7</v>
       </c>
       <c r="F151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H151" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I151" t="s">
+        <v>11</v>
+      </c>
+      <c r="J151" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -4585,16 +4337,22 @@
         <v>7</v>
       </c>
       <c r="F152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H152" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I152" t="s">
+        <v>11</v>
+      </c>
+      <c r="J152" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -4613,16 +4371,22 @@
         <v>7</v>
       </c>
       <c r="F153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H153" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I153" t="s">
+        <v>11</v>
+      </c>
+      <c r="J153" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -4641,16 +4405,22 @@
         <v>7</v>
       </c>
       <c r="F154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H154" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="I154" t="s">
+        <v>11</v>
+      </c>
+      <c r="J154" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -4659,38 +4429,20 @@
         <f t="shared" si="6"/>
         <v>44227</v>
       </c>
-      <c r="C155" t="s">
-        <v>5</v>
-      </c>
-      <c r="D155" t="s">
-        <v>6</v>
-      </c>
-      <c r="E155" t="s">
-        <v>7</v>
-      </c>
-      <c r="F155" t="s">
-        <v>8</v>
-      </c>
-      <c r="G155" t="s">
-        <v>9</v>
-      </c>
-      <c r="H155" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.25">
@@ -4967,7 +4719,18 @@
       <c r="B251" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:D32" xr:uid="{96A57D41-D021-40F2-9509-6A286A85AB4D}"/>
+  <autoFilter ref="A2:D155" xr:uid="{96A57D41-D021-40F2-9509-6A286A85AB4D}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="6"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>

--- a/storage/app/eventbatch.xlsx
+++ b/storage/app/eventbatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Desarrollo\home\Eduardo\laravel\cooking-point\storage\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBAACD52-1AE6-46DA-BEFA-90E3B977CBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0D9FB3-4E73-4AE2-966E-061ADA60AA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="21600" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eventbatch" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="7">
   <si>
     <t>DIA</t>
   </si>
@@ -423,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D396"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="D342" sqref="D342"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,10 +458,10 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A24" si="0">+WEEKDAY(B3,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>44593</v>
+        <v>44986</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -473,11 +473,11 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1">
         <f>+B3+1</f>
-        <v>44594</v>
+        <v>44987</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -489,11 +489,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <f t="shared" ref="B5:B68" si="1">+B4+1</f>
-        <v>44595</v>
+        <v>44988</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -505,11 +505,11 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" si="1"/>
-        <v>44596</v>
+        <v>44989</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -521,37 +521,37 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
-        <v>44597</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
+        <v>44990</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <f t="shared" si="1"/>
-        <v>44598</v>
+        <v>44991</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="1">
         <f t="shared" si="1"/>
-        <v>44599</v>
+        <v>44992</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -563,11 +563,11 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1">
         <f t="shared" si="1"/>
-        <v>44600</v>
+        <v>44993</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -579,11 +579,11 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
-        <v>44601</v>
+        <v>44994</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -595,11 +595,11 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
-        <v>44602</v>
+        <v>44995</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -611,11 +611,11 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1">
         <f t="shared" si="1"/>
-        <v>44603</v>
+        <v>44996</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -627,37 +627,37 @@
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" si="1"/>
-        <v>44604</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
+        <v>44997</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="1"/>
-        <v>44605</v>
+        <v>44998</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="1"/>
-        <v>44606</v>
+        <v>44999</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -669,11 +669,11 @@
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1">
         <f t="shared" si="1"/>
-        <v>44607</v>
+        <v>45000</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -685,11 +685,11 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1">
         <f t="shared" si="1"/>
-        <v>44608</v>
+        <v>45001</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -701,11 +701,11 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1">
         <f t="shared" si="1"/>
-        <v>44609</v>
+        <v>45002</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -717,11 +717,11 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
-        <v>44610</v>
+        <v>45003</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -733,37 +733,34 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" s="1">
         <f t="shared" si="1"/>
-        <v>44611</v>
-      </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
+        <v>45004</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
         <f t="shared" si="1"/>
-        <v>44612</v>
+        <v>45005</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1">
         <f t="shared" si="1"/>
-        <v>44613</v>
+        <v>45006</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -775,11 +772,11 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" s="1">
         <f t="shared" si="1"/>
-        <v>44614</v>
+        <v>45007</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -791,11 +788,11 @@
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ref="A25:A32" si="2">+WEEKDAY(B25,2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
-        <v>44615</v>
+        <v>45008</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -807,11 +804,11 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
-        <v>44616</v>
+        <v>45009</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -823,11 +820,11 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
-        <v>44617</v>
+        <v>45010</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -839,37 +836,37 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
-        <v>44618</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
+        <v>45011</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B29" s="1">
         <f t="shared" si="1"/>
-        <v>44619</v>
+        <v>45012</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
-        <v>44620</v>
+        <v>45013</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -881,11 +878,11 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
-        <v>44621</v>
+        <v>45014</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -897,11 +894,11 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
-        <v>44622</v>
+        <v>45015</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -913,11 +910,11 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ref="A33:A96" si="3">+WEEKDAY(B33,2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
-        <v>44623</v>
+        <v>45016</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -929,11 +926,11 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
-        <v>44624</v>
+        <v>45017</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -945,37 +942,37 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
-        <v>44625</v>
-      </c>
-      <c r="C35" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
+        <v>45018</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="1"/>
-        <v>44626</v>
+        <v>45019</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
-        <v>44627</v>
+        <v>45020</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -987,11 +984,11 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
-        <v>44628</v>
+        <v>45021</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1003,14 +1000,11 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
-        <v>44629</v>
-      </c>
-      <c r="C39" t="s">
-        <v>5</v>
+        <v>45022</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
@@ -1019,14 +1013,11 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B40" s="1">
         <f t="shared" si="1"/>
-        <v>44630</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
+        <v>45023</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
@@ -1035,11 +1026,11 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41" s="1">
         <f t="shared" si="1"/>
-        <v>44631</v>
+        <v>45024</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1051,37 +1042,37 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B42" s="1">
         <f t="shared" si="1"/>
-        <v>44632</v>
-      </c>
-      <c r="C42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
+        <v>45025</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
-        <v>44633</v>
+        <v>45026</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
-        <v>44634</v>
+        <v>45027</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1093,11 +1084,11 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B45" s="1">
         <f t="shared" si="1"/>
-        <v>44635</v>
+        <v>45028</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1109,11 +1100,11 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B46" s="1">
         <f t="shared" si="1"/>
-        <v>44636</v>
+        <v>45029</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1125,11 +1116,11 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B47" s="1">
         <f t="shared" si="1"/>
-        <v>44637</v>
+        <v>45030</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1141,11 +1132,11 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B48" s="1">
         <f t="shared" si="1"/>
-        <v>44638</v>
+        <v>45031</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1157,37 +1148,37 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B49" s="1">
         <f t="shared" si="1"/>
-        <v>44639</v>
-      </c>
-      <c r="C49" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" t="s">
-        <v>6</v>
+        <v>45032</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B50" s="1">
         <f t="shared" si="1"/>
-        <v>44640</v>
+        <v>45033</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51" s="1">
         <f t="shared" si="1"/>
-        <v>44641</v>
+        <v>45034</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1199,11 +1190,11 @@
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B52" s="1">
         <f t="shared" si="1"/>
-        <v>44642</v>
+        <v>45035</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1215,11 +1206,11 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53" s="1">
         <f t="shared" si="1"/>
-        <v>44643</v>
+        <v>45036</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1231,11 +1222,11 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B54" s="1">
         <f t="shared" si="1"/>
-        <v>44644</v>
+        <v>45037</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1247,11 +1238,11 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B55" s="1">
         <f t="shared" si="1"/>
-        <v>44645</v>
+        <v>45038</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -1263,37 +1254,37 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B56" s="1">
         <f t="shared" si="1"/>
-        <v>44646</v>
-      </c>
-      <c r="C56" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" t="s">
-        <v>6</v>
+        <v>45039</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B57" s="1">
         <f t="shared" si="1"/>
-        <v>44647</v>
+        <v>45040</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B58" s="1">
         <f t="shared" si="1"/>
-        <v>44648</v>
+        <v>45041</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -1305,11 +1296,11 @@
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B59" s="1">
         <f t="shared" si="1"/>
-        <v>44649</v>
+        <v>45042</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -1321,11 +1312,11 @@
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B60" s="1">
         <f t="shared" si="1"/>
-        <v>44650</v>
+        <v>45043</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -1337,11 +1328,11 @@
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B61" s="1">
         <f t="shared" si="1"/>
-        <v>44651</v>
+        <v>45044</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -1353,11 +1344,11 @@
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B62" s="1">
         <f t="shared" si="1"/>
-        <v>44652</v>
+        <v>45045</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1369,40 +1360,34 @@
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B63" s="1">
         <f t="shared" si="1"/>
-        <v>44653</v>
-      </c>
-      <c r="C63" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" t="s">
-        <v>6</v>
+        <v>45046</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B64" s="1">
         <f t="shared" si="1"/>
-        <v>44654</v>
+        <v>45047</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B65" s="1">
         <f t="shared" si="1"/>
-        <v>44655</v>
-      </c>
-      <c r="C65" t="s">
-        <v>5</v>
+        <v>45048</v>
       </c>
       <c r="D65" t="s">
         <v>6</v>
@@ -1411,11 +1396,11 @@
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
-        <v>44656</v>
+        <v>45049</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -1427,11 +1412,11 @@
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
-        <v>44657</v>
+        <v>45050</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -1443,11 +1428,11 @@
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B68" s="1">
         <f t="shared" si="1"/>
-        <v>44658</v>
+        <v>45051</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -1459,11 +1444,11 @@
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B69" s="1">
         <f t="shared" ref="B69:B132" si="4">+B68+1</f>
-        <v>44659</v>
+        <v>45052</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -1475,37 +1460,37 @@
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B70" s="1">
         <f t="shared" si="4"/>
-        <v>44660</v>
-      </c>
-      <c r="C70" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" t="s">
-        <v>6</v>
+        <v>45053</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="4"/>
-        <v>44661</v>
+        <v>45054</v>
+      </c>
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B72" s="1">
         <f t="shared" si="4"/>
-        <v>44662</v>
+        <v>45055</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -1517,11 +1502,11 @@
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B73" s="1">
         <f t="shared" si="4"/>
-        <v>44663</v>
+        <v>45056</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -1533,11 +1518,11 @@
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B74" s="1">
         <f t="shared" si="4"/>
-        <v>44664</v>
+        <v>45057</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -1549,63 +1534,66 @@
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B75" s="1">
         <f t="shared" si="4"/>
-        <v>44665</v>
+        <v>45058</v>
       </c>
       <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B76" s="1">
         <f t="shared" si="4"/>
-        <v>44666</v>
+        <v>45059</v>
       </c>
       <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B77" s="1">
         <f t="shared" si="4"/>
-        <v>44667</v>
-      </c>
-      <c r="C77" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" t="s">
-        <v>6</v>
+        <v>45060</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B78" s="1">
         <f t="shared" si="4"/>
-        <v>44668</v>
+        <v>45061</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B79" s="1">
         <f t="shared" si="4"/>
-        <v>44669</v>
+        <v>45062</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -1617,11 +1605,11 @@
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B80" s="1">
         <f t="shared" si="4"/>
-        <v>44670</v>
+        <v>45063</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -1633,43 +1621,37 @@
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B81" s="1">
         <f t="shared" si="4"/>
-        <v>44671</v>
+        <v>45064</v>
       </c>
       <c r="C81" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B82" s="1">
         <f t="shared" si="4"/>
-        <v>44672</v>
+        <v>45065</v>
       </c>
       <c r="C82" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B83" s="1">
         <f t="shared" si="4"/>
-        <v>44673</v>
+        <v>45066</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -1681,37 +1663,37 @@
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B84" s="1">
         <f t="shared" si="4"/>
-        <v>44674</v>
-      </c>
-      <c r="C84" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" t="s">
-        <v>6</v>
+        <v>45067</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B85" s="1">
         <f t="shared" si="4"/>
-        <v>44675</v>
+        <v>45068</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B86" s="1">
         <f t="shared" si="4"/>
-        <v>44676</v>
+        <v>45069</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -1723,11 +1705,11 @@
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B87" s="1">
         <f t="shared" si="4"/>
-        <v>44677</v>
+        <v>45070</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -1739,11 +1721,11 @@
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B88" s="1">
         <f t="shared" si="4"/>
-        <v>44678</v>
+        <v>45071</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -1755,11 +1737,11 @@
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B89" s="1">
         <f t="shared" si="4"/>
-        <v>44679</v>
+        <v>45072</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -1771,11 +1753,11 @@
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B90" s="1">
         <f t="shared" si="4"/>
-        <v>44680</v>
+        <v>45073</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -1787,50 +1769,53 @@
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B91" s="1">
         <f t="shared" si="4"/>
-        <v>44681</v>
-      </c>
-      <c r="C91" t="s">
-        <v>5</v>
-      </c>
-      <c r="D91" t="s">
-        <v>6</v>
+        <v>45074</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B92" s="1">
         <f t="shared" si="4"/>
-        <v>44682</v>
+        <v>45075</v>
+      </c>
+      <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B93" s="1">
         <f t="shared" si="4"/>
-        <v>44683</v>
+        <v>45076</v>
       </c>
       <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B94" s="1">
         <f t="shared" si="4"/>
-        <v>44684</v>
+        <v>45077</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -1842,11 +1827,11 @@
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B95" s="1">
         <f t="shared" si="4"/>
-        <v>44685</v>
+        <v>45078</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -1858,11 +1843,11 @@
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B96" s="1">
         <f t="shared" si="4"/>
-        <v>44686</v>
+        <v>45079</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -1874,11 +1859,11 @@
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" ref="A97:A155" si="5">+WEEKDAY(B97,2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B97" s="1">
         <f t="shared" si="4"/>
-        <v>44687</v>
+        <v>45080</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -1890,37 +1875,34 @@
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B98" s="1">
         <f t="shared" si="4"/>
-        <v>44688</v>
-      </c>
-      <c r="C98" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" t="s">
-        <v>6</v>
+        <v>45081</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B99" s="1">
         <f t="shared" si="4"/>
-        <v>44689</v>
+        <v>45082</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B100" s="1">
         <f t="shared" si="4"/>
-        <v>44690</v>
+        <v>45083</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -1932,11 +1914,11 @@
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B101" s="1">
         <f t="shared" si="4"/>
-        <v>44691</v>
+        <v>45084</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -1948,11 +1930,11 @@
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B102" s="1">
         <f t="shared" si="4"/>
-        <v>44692</v>
+        <v>45085</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -1964,11 +1946,11 @@
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B103" s="1">
         <f t="shared" si="4"/>
-        <v>44693</v>
+        <v>45086</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -1980,11 +1962,11 @@
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B104" s="1">
         <f t="shared" si="4"/>
-        <v>44694</v>
+        <v>45087</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -1996,50 +1978,53 @@
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B105" s="1">
         <f t="shared" si="4"/>
-        <v>44695</v>
-      </c>
-      <c r="C105" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" t="s">
-        <v>6</v>
+        <v>45088</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B106" s="1">
         <f t="shared" si="4"/>
-        <v>44696</v>
+        <v>45089</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B107" s="1">
         <f t="shared" si="4"/>
-        <v>44697</v>
+        <v>45090</v>
       </c>
       <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B108" s="1">
         <f t="shared" si="4"/>
-        <v>44698</v>
+        <v>45091</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2051,11 +2036,11 @@
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B109" s="1">
         <f t="shared" si="4"/>
-        <v>44699</v>
+        <v>45092</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2067,11 +2052,11 @@
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B110" s="1">
         <f t="shared" si="4"/>
-        <v>44700</v>
+        <v>45093</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2083,11 +2068,11 @@
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B111" s="1">
         <f t="shared" si="4"/>
-        <v>44701</v>
+        <v>45094</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2099,37 +2084,34 @@
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B112" s="1">
         <f t="shared" si="4"/>
-        <v>44702</v>
-      </c>
-      <c r="C112" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" t="s">
-        <v>6</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B113" s="1">
         <f t="shared" si="4"/>
-        <v>44703</v>
+        <v>45096</v>
+      </c>
+      <c r="C113" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B114" s="1">
         <f t="shared" si="4"/>
-        <v>44704</v>
+        <v>45097</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2141,11 +2123,11 @@
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B115" s="1">
         <f t="shared" si="4"/>
-        <v>44705</v>
+        <v>45098</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2157,11 +2139,11 @@
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B116" s="1">
         <f t="shared" si="4"/>
-        <v>44706</v>
+        <v>45099</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2173,11 +2155,11 @@
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B117" s="1">
         <f t="shared" si="4"/>
-        <v>44707</v>
+        <v>45100</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2189,11 +2171,11 @@
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B118" s="1">
         <f t="shared" si="4"/>
-        <v>44708</v>
+        <v>45101</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2205,37 +2187,37 @@
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B119" s="1">
         <f t="shared" si="4"/>
-        <v>44709</v>
-      </c>
-      <c r="C119" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119" t="s">
-        <v>6</v>
+        <v>45102</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B120" s="1">
         <f t="shared" si="4"/>
-        <v>44710</v>
+        <v>45103</v>
+      </c>
+      <c r="C120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B121" s="1">
         <f t="shared" si="4"/>
-        <v>44711</v>
+        <v>45104</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2247,11 +2229,11 @@
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B122" s="1">
         <f t="shared" si="4"/>
-        <v>44712</v>
+        <v>45105</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2263,11 +2245,11 @@
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B123" s="1">
         <f t="shared" si="4"/>
-        <v>44713</v>
+        <v>45106</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2279,11 +2261,11 @@
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B124" s="1">
         <f t="shared" si="4"/>
-        <v>44714</v>
+        <v>45107</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2295,11 +2277,11 @@
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B125" s="1">
         <f t="shared" si="4"/>
-        <v>44715</v>
+        <v>45108</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2311,37 +2293,37 @@
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B126" s="1">
         <f t="shared" si="4"/>
-        <v>44716</v>
-      </c>
-      <c r="C126" t="s">
-        <v>5</v>
-      </c>
-      <c r="D126" t="s">
-        <v>6</v>
+        <v>45109</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B127" s="1">
         <f t="shared" si="4"/>
-        <v>44717</v>
+        <v>45110</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B128" s="1">
         <f t="shared" si="4"/>
-        <v>44718</v>
+        <v>45111</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2353,11 +2335,11 @@
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B129" s="1">
         <f t="shared" si="4"/>
-        <v>44719</v>
+        <v>45112</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2369,11 +2351,11 @@
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B130" s="1">
         <f t="shared" si="4"/>
-        <v>44720</v>
+        <v>45113</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2385,11 +2367,11 @@
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B131" s="1">
         <f t="shared" si="4"/>
-        <v>44721</v>
+        <v>45114</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2401,11 +2383,11 @@
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B132" s="1">
         <f t="shared" si="4"/>
-        <v>44722</v>
+        <v>45115</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2417,37 +2399,37 @@
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B133" s="1">
         <f t="shared" ref="B133:B196" si="6">+B132+1</f>
-        <v>44723</v>
-      </c>
-      <c r="C133" t="s">
-        <v>5</v>
-      </c>
-      <c r="D133" t="s">
-        <v>6</v>
+        <v>45116</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B134" s="1">
         <f t="shared" si="6"/>
-        <v>44724</v>
+        <v>45117</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
+      </c>
+      <c r="D134" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B135" s="1">
         <f t="shared" si="6"/>
-        <v>44725</v>
+        <v>45118</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2459,11 +2441,11 @@
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B136" s="1">
         <f t="shared" si="6"/>
-        <v>44726</v>
+        <v>45119</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2475,11 +2457,11 @@
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B137" s="1">
         <f t="shared" si="6"/>
-        <v>44727</v>
+        <v>45120</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2491,11 +2473,11 @@
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B138" s="1">
         <f t="shared" si="6"/>
-        <v>44728</v>
+        <v>45121</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2507,11 +2489,11 @@
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B139" s="1">
         <f t="shared" si="6"/>
-        <v>44729</v>
+        <v>45122</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2523,37 +2505,37 @@
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B140" s="1">
         <f t="shared" si="6"/>
-        <v>44730</v>
-      </c>
-      <c r="C140" t="s">
-        <v>5</v>
-      </c>
-      <c r="D140" t="s">
-        <v>6</v>
+        <v>45123</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B141" s="1">
         <f t="shared" si="6"/>
-        <v>44731</v>
+        <v>45124</v>
+      </c>
+      <c r="C141" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B142" s="1">
         <f t="shared" si="6"/>
-        <v>44732</v>
+        <v>45125</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2565,11 +2547,11 @@
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B143" s="1">
         <f t="shared" si="6"/>
-        <v>44733</v>
+        <v>45126</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2581,11 +2563,11 @@
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B144" s="1">
         <f t="shared" si="6"/>
-        <v>44734</v>
+        <v>45127</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2597,11 +2579,11 @@
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B145" s="1">
         <f t="shared" si="6"/>
-        <v>44735</v>
+        <v>45128</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2613,11 +2595,11 @@
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B146" s="1">
         <f t="shared" si="6"/>
-        <v>44736</v>
+        <v>45129</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2629,37 +2611,37 @@
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B147" s="1">
         <f t="shared" si="6"/>
-        <v>44737</v>
-      </c>
-      <c r="C147" t="s">
-        <v>5</v>
-      </c>
-      <c r="D147" t="s">
-        <v>6</v>
+        <v>45130</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B148" s="1">
         <f t="shared" si="6"/>
-        <v>44738</v>
+        <v>45131</v>
+      </c>
+      <c r="C148" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B149" s="1">
         <f t="shared" si="6"/>
-        <v>44739</v>
+        <v>45132</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2671,11 +2653,11 @@
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B150" s="1">
         <f t="shared" si="6"/>
-        <v>44740</v>
+        <v>45133</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -2687,11 +2669,11 @@
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B151" s="1">
         <f t="shared" si="6"/>
-        <v>44741</v>
+        <v>45134</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -2703,11 +2685,11 @@
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B152" s="1">
         <f t="shared" si="6"/>
-        <v>44742</v>
+        <v>45135</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -2719,11 +2701,11 @@
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B153" s="1">
         <f t="shared" si="6"/>
-        <v>44743</v>
+        <v>45136</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -2735,37 +2717,37 @@
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B154" s="1">
         <f t="shared" si="6"/>
-        <v>44744</v>
-      </c>
-      <c r="C154" t="s">
-        <v>5</v>
-      </c>
-      <c r="D154" t="s">
-        <v>6</v>
+        <v>45137</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B155" s="1">
         <f t="shared" si="6"/>
-        <v>44745</v>
+        <v>45138</v>
+      </c>
+      <c r="C155" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" ref="A156:A219" si="7">+WEEKDAY(B156,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B156" s="1">
         <f t="shared" si="6"/>
-        <v>44746</v>
+        <v>45139</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -2777,11 +2759,11 @@
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B157" s="1">
         <f t="shared" si="6"/>
-        <v>44747</v>
+        <v>45140</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -2793,11 +2775,11 @@
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B158" s="1">
         <f t="shared" si="6"/>
-        <v>44748</v>
+        <v>45141</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -2809,11 +2791,11 @@
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B159" s="1">
         <f t="shared" si="6"/>
-        <v>44749</v>
+        <v>45142</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -2825,11 +2807,11 @@
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B160" s="1">
         <f t="shared" si="6"/>
-        <v>44750</v>
+        <v>45143</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -2841,37 +2823,37 @@
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B161" s="1">
         <f t="shared" si="6"/>
-        <v>44751</v>
-      </c>
-      <c r="C161" t="s">
-        <v>5</v>
-      </c>
-      <c r="D161" t="s">
-        <v>6</v>
+        <v>45144</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B162" s="1">
         <f t="shared" si="6"/>
-        <v>44752</v>
+        <v>45145</v>
+      </c>
+      <c r="C162" t="s">
+        <v>5</v>
+      </c>
+      <c r="D162" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B163" s="1">
         <f t="shared" si="6"/>
-        <v>44753</v>
+        <v>45146</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -2883,11 +2865,11 @@
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B164" s="1">
         <f t="shared" si="6"/>
-        <v>44754</v>
+        <v>45147</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -2899,11 +2881,11 @@
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B165" s="1">
         <f t="shared" si="6"/>
-        <v>44755</v>
+        <v>45148</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -2915,11 +2897,11 @@
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B166" s="1">
         <f t="shared" si="6"/>
-        <v>44756</v>
+        <v>45149</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -2931,11 +2913,11 @@
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B167" s="1">
         <f t="shared" si="6"/>
-        <v>44757</v>
+        <v>45150</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -2947,40 +2929,37 @@
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B168" s="1">
         <f t="shared" si="6"/>
-        <v>44758</v>
-      </c>
-      <c r="C168" t="s">
-        <v>5</v>
-      </c>
-      <c r="D168" t="s">
-        <v>6</v>
+        <v>45151</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B169" s="1">
         <f t="shared" si="6"/>
-        <v>44759</v>
+        <v>45152</v>
+      </c>
+      <c r="C169" t="s">
+        <v>5</v>
+      </c>
+      <c r="D169" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B170" s="1">
         <f t="shared" si="6"/>
-        <v>44760</v>
-      </c>
-      <c r="C170" t="s">
-        <v>5</v>
+        <v>45153</v>
       </c>
       <c r="D170" t="s">
         <v>6</v>
@@ -2989,11 +2968,11 @@
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B171" s="1">
         <f t="shared" si="6"/>
-        <v>44761</v>
+        <v>45154</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3005,11 +2984,11 @@
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B172" s="1">
         <f t="shared" si="6"/>
-        <v>44762</v>
+        <v>45155</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3021,11 +3000,11 @@
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B173" s="1">
         <f t="shared" si="6"/>
-        <v>44763</v>
+        <v>45156</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3037,11 +3016,11 @@
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B174" s="1">
         <f t="shared" si="6"/>
-        <v>44764</v>
+        <v>45157</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3053,50 +3032,53 @@
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B175" s="1">
         <f t="shared" si="6"/>
-        <v>44765</v>
-      </c>
-      <c r="C175" t="s">
-        <v>5</v>
-      </c>
-      <c r="D175" t="s">
-        <v>6</v>
+        <v>45158</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B176" s="1">
         <f t="shared" si="6"/>
-        <v>44766</v>
+        <v>45159</v>
+      </c>
+      <c r="C176" t="s">
+        <v>5</v>
+      </c>
+      <c r="D176" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B177" s="1">
         <f t="shared" si="6"/>
-        <v>44767</v>
+        <v>45160</v>
       </c>
       <c r="C177" t="s">
+        <v>5</v>
+      </c>
+      <c r="D177" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B178" s="1">
         <f t="shared" si="6"/>
-        <v>44768</v>
+        <v>45161</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3108,11 +3090,11 @@
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B179" s="1">
         <f t="shared" si="6"/>
-        <v>44769</v>
+        <v>45162</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3124,11 +3106,11 @@
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B180" s="1">
         <f t="shared" si="6"/>
-        <v>44770</v>
+        <v>45163</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3140,11 +3122,11 @@
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B181" s="1">
         <f t="shared" si="6"/>
-        <v>44771</v>
+        <v>45164</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3156,37 +3138,34 @@
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B182" s="1">
         <f t="shared" si="6"/>
-        <v>44772</v>
-      </c>
-      <c r="C182" t="s">
-        <v>5</v>
-      </c>
-      <c r="D182" t="s">
-        <v>6</v>
+        <v>45165</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B183" s="1">
         <f t="shared" si="6"/>
-        <v>44773</v>
+        <v>45166</v>
+      </c>
+      <c r="C183" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B184" s="1">
         <f t="shared" si="6"/>
-        <v>44774</v>
+        <v>45167</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3198,11 +3177,11 @@
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B185" s="1">
         <f t="shared" si="6"/>
-        <v>44775</v>
+        <v>45168</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3214,11 +3193,11 @@
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B186" s="1">
         <f t="shared" si="6"/>
-        <v>44776</v>
+        <v>45169</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3230,11 +3209,11 @@
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B187" s="1">
         <f t="shared" si="6"/>
-        <v>44777</v>
+        <v>45170</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3246,11 +3225,11 @@
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B188" s="1">
         <f t="shared" si="6"/>
-        <v>44778</v>
+        <v>45171</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3262,37 +3241,37 @@
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B189" s="1">
         <f t="shared" si="6"/>
-        <v>44779</v>
-      </c>
-      <c r="C189" t="s">
-        <v>5</v>
-      </c>
-      <c r="D189" t="s">
-        <v>6</v>
+        <v>45172</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B190" s="1">
         <f t="shared" si="6"/>
-        <v>44780</v>
+        <v>45173</v>
+      </c>
+      <c r="C190" t="s">
+        <v>5</v>
+      </c>
+      <c r="D190" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B191" s="1">
         <f t="shared" si="6"/>
-        <v>44781</v>
+        <v>45174</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3304,11 +3283,11 @@
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B192" s="1">
         <f t="shared" si="6"/>
-        <v>44782</v>
+        <v>45175</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3320,11 +3299,11 @@
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B193" s="1">
         <f t="shared" si="6"/>
-        <v>44783</v>
+        <v>45176</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3336,11 +3315,11 @@
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B194" s="1">
         <f t="shared" si="6"/>
-        <v>44784</v>
+        <v>45177</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3352,11 +3331,11 @@
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B195" s="1">
         <f t="shared" si="6"/>
-        <v>44785</v>
+        <v>45178</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3368,50 +3347,53 @@
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B196" s="1">
         <f t="shared" si="6"/>
-        <v>44786</v>
-      </c>
-      <c r="C196" t="s">
-        <v>5</v>
-      </c>
-      <c r="D196" t="s">
-        <v>6</v>
+        <v>45179</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B197" s="1">
         <f t="shared" ref="B197:B260" si="8">+B196+1</f>
-        <v>44787</v>
+        <v>45180</v>
+      </c>
+      <c r="C197" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B198" s="1">
         <f t="shared" si="8"/>
-        <v>44788</v>
+        <v>45181</v>
       </c>
       <c r="C198" t="s">
+        <v>5</v>
+      </c>
+      <c r="D198" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B199" s="1">
         <f t="shared" si="8"/>
-        <v>44789</v>
+        <v>45182</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3423,11 +3405,11 @@
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B200" s="1">
         <f t="shared" si="8"/>
-        <v>44790</v>
+        <v>45183</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3439,11 +3421,11 @@
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B201" s="1">
         <f t="shared" si="8"/>
-        <v>44791</v>
+        <v>45184</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3455,11 +3437,11 @@
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B202" s="1">
         <f t="shared" si="8"/>
-        <v>44792</v>
+        <v>45185</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3471,37 +3453,34 @@
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B203" s="1">
         <f t="shared" si="8"/>
-        <v>44793</v>
-      </c>
-      <c r="C203" t="s">
-        <v>5</v>
-      </c>
-      <c r="D203" t="s">
-        <v>6</v>
+        <v>45186</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B204" s="1">
         <f t="shared" si="8"/>
-        <v>44794</v>
+        <v>45187</v>
+      </c>
+      <c r="C204" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B205" s="1">
         <f t="shared" si="8"/>
-        <v>44795</v>
+        <v>45188</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3513,11 +3492,11 @@
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B206" s="1">
         <f t="shared" si="8"/>
-        <v>44796</v>
+        <v>45189</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3529,11 +3508,11 @@
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B207" s="1">
         <f t="shared" si="8"/>
-        <v>44797</v>
+        <v>45190</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3545,11 +3524,11 @@
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B208" s="1">
         <f t="shared" si="8"/>
-        <v>44798</v>
+        <v>45191</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3561,11 +3540,11 @@
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B209" s="1">
         <f t="shared" si="8"/>
-        <v>44799</v>
+        <v>45192</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3577,37 +3556,37 @@
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B210" s="1">
         <f t="shared" si="8"/>
-        <v>44800</v>
-      </c>
-      <c r="C210" t="s">
-        <v>5</v>
-      </c>
-      <c r="D210" t="s">
-        <v>6</v>
+        <v>45193</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B211" s="1">
         <f t="shared" si="8"/>
-        <v>44801</v>
+        <v>45194</v>
+      </c>
+      <c r="C211" t="s">
+        <v>5</v>
+      </c>
+      <c r="D211" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B212" s="1">
         <f t="shared" si="8"/>
-        <v>44802</v>
+        <v>45195</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -3619,11 +3598,11 @@
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B213" s="1">
         <f t="shared" si="8"/>
-        <v>44803</v>
+        <v>45196</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -3635,11 +3614,11 @@
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B214" s="1">
         <f t="shared" si="8"/>
-        <v>44804</v>
+        <v>45197</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -3651,11 +3630,11 @@
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B215" s="1">
         <f t="shared" si="8"/>
-        <v>44805</v>
+        <v>45198</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -3667,11 +3646,11 @@
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B216" s="1">
         <f t="shared" si="8"/>
-        <v>44806</v>
+        <v>45199</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -3683,37 +3662,37 @@
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B217" s="1">
         <f t="shared" si="8"/>
-        <v>44807</v>
-      </c>
-      <c r="C217" t="s">
-        <v>5</v>
-      </c>
-      <c r="D217" t="s">
-        <v>6</v>
+        <v>45200</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218">
         <f t="shared" si="7"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B218" s="1">
         <f t="shared" si="8"/>
-        <v>44808</v>
+        <v>45201</v>
+      </c>
+      <c r="C218" t="s">
+        <v>5</v>
+      </c>
+      <c r="D218" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B219" s="1">
         <f t="shared" si="8"/>
-        <v>44809</v>
+        <v>45202</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -3725,11 +3704,11 @@
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220">
         <f t="shared" ref="A220:A225" si="9">+WEEKDAY(B220,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B220" s="1">
         <f t="shared" si="8"/>
-        <v>44810</v>
+        <v>45203</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -3741,11 +3720,11 @@
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B221" s="1">
         <f t="shared" si="8"/>
-        <v>44811</v>
+        <v>45204</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -3757,11 +3736,11 @@
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222">
         <f t="shared" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B222" s="1">
         <f t="shared" si="8"/>
-        <v>44812</v>
+        <v>45205</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -3773,11 +3752,11 @@
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B223" s="1">
         <f t="shared" si="8"/>
-        <v>44813</v>
+        <v>45206</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -3789,50 +3768,53 @@
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B224" s="1">
         <f t="shared" si="8"/>
-        <v>44814</v>
-      </c>
-      <c r="C224" t="s">
-        <v>5</v>
-      </c>
-      <c r="D224" t="s">
-        <v>6</v>
+        <v>45207</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B225" s="1">
         <f t="shared" si="8"/>
-        <v>44815</v>
+        <v>45208</v>
+      </c>
+      <c r="C225" t="s">
+        <v>5</v>
+      </c>
+      <c r="D225" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226">
         <f t="shared" ref="A226:A289" si="10">+WEEKDAY(B226,2)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B226" s="1">
         <f t="shared" si="8"/>
-        <v>44816</v>
+        <v>45209</v>
       </c>
       <c r="C226" t="s">
+        <v>5</v>
+      </c>
+      <c r="D226" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B227" s="1">
         <f t="shared" si="8"/>
-        <v>44817</v>
+        <v>45210</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -3844,14 +3826,11 @@
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B228" s="1">
         <f t="shared" si="8"/>
-        <v>44818</v>
-      </c>
-      <c r="C228" t="s">
-        <v>5</v>
+        <v>45211</v>
       </c>
       <c r="D228" t="s">
         <v>6</v>
@@ -3860,11 +3839,11 @@
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B229" s="1">
         <f t="shared" si="8"/>
-        <v>44819</v>
+        <v>45212</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -3876,11 +3855,11 @@
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B230" s="1">
         <f t="shared" si="8"/>
-        <v>44820</v>
+        <v>45213</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -3892,37 +3871,34 @@
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B231" s="1">
         <f t="shared" si="8"/>
-        <v>44821</v>
-      </c>
-      <c r="C231" t="s">
-        <v>5</v>
-      </c>
-      <c r="D231" t="s">
-        <v>6</v>
+        <v>45214</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B232" s="1">
         <f t="shared" si="8"/>
-        <v>44822</v>
+        <v>45215</v>
+      </c>
+      <c r="C232" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B233" s="1">
         <f t="shared" si="8"/>
-        <v>44823</v>
+        <v>45216</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -3934,11 +3910,11 @@
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B234" s="1">
         <f t="shared" si="8"/>
-        <v>44824</v>
+        <v>45217</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -3950,11 +3926,11 @@
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B235" s="1">
         <f t="shared" si="8"/>
-        <v>44825</v>
+        <v>45218</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -3966,11 +3942,11 @@
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B236" s="1">
         <f t="shared" si="8"/>
-        <v>44826</v>
+        <v>45219</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -3982,11 +3958,11 @@
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B237" s="1">
         <f t="shared" si="8"/>
-        <v>44827</v>
+        <v>45220</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -3998,37 +3974,37 @@
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B238" s="1">
         <f t="shared" si="8"/>
-        <v>44828</v>
-      </c>
-      <c r="C238" t="s">
-        <v>5</v>
-      </c>
-      <c r="D238" t="s">
-        <v>6</v>
+        <v>45221</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B239" s="1">
         <f t="shared" si="8"/>
-        <v>44829</v>
+        <v>45222</v>
+      </c>
+      <c r="C239" t="s">
+        <v>5</v>
+      </c>
+      <c r="D239" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B240" s="1">
         <f t="shared" si="8"/>
-        <v>44830</v>
+        <v>45223</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4040,11 +4016,11 @@
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B241" s="1">
         <f t="shared" si="8"/>
-        <v>44831</v>
+        <v>45224</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4056,11 +4032,11 @@
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B242" s="1">
         <f t="shared" si="8"/>
-        <v>44832</v>
+        <v>45225</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4072,11 +4048,11 @@
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B243" s="1">
         <f t="shared" si="8"/>
-        <v>44833</v>
+        <v>45226</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4088,11 +4064,11 @@
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B244" s="1">
         <f t="shared" si="8"/>
-        <v>44834</v>
+        <v>45227</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4104,37 +4080,37 @@
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B245" s="1">
         <f t="shared" si="8"/>
-        <v>44835</v>
-      </c>
-      <c r="C245" t="s">
-        <v>5</v>
-      </c>
-      <c r="D245" t="s">
-        <v>6</v>
+        <v>45228</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B246" s="1">
         <f t="shared" si="8"/>
-        <v>44836</v>
+        <v>45229</v>
+      </c>
+      <c r="C246" t="s">
+        <v>5</v>
+      </c>
+      <c r="D246" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B247" s="1">
         <f t="shared" si="8"/>
-        <v>44837</v>
+        <v>45230</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4146,14 +4122,11 @@
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B248" s="1">
         <f t="shared" si="8"/>
-        <v>44838</v>
-      </c>
-      <c r="C248" t="s">
-        <v>5</v>
+        <v>45231</v>
       </c>
       <c r="D248" t="s">
         <v>6</v>
@@ -4162,11 +4135,11 @@
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B249" s="1">
         <f t="shared" si="8"/>
-        <v>44839</v>
+        <v>45232</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4178,11 +4151,11 @@
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B250" s="1">
         <f t="shared" si="8"/>
-        <v>44840</v>
+        <v>45233</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4194,11 +4167,11 @@
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B251" s="1">
         <f t="shared" si="8"/>
-        <v>44841</v>
+        <v>45234</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4210,37 +4183,37 @@
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B252" s="1">
         <f t="shared" si="8"/>
-        <v>44842</v>
-      </c>
-      <c r="C252" t="s">
-        <v>5</v>
-      </c>
-      <c r="D252" t="s">
-        <v>6</v>
+        <v>45235</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B253" s="1">
         <f t="shared" si="8"/>
-        <v>44843</v>
+        <v>45236</v>
+      </c>
+      <c r="C253" t="s">
+        <v>5</v>
+      </c>
+      <c r="D253" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B254" s="1">
         <f t="shared" si="8"/>
-        <v>44844</v>
+        <v>45237</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4252,11 +4225,11 @@
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B255" s="1">
         <f t="shared" si="8"/>
-        <v>44845</v>
+        <v>45238</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4268,14 +4241,11 @@
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B256" s="1">
         <f t="shared" si="8"/>
-        <v>44846</v>
-      </c>
-      <c r="C256" t="s">
-        <v>5</v>
+        <v>45239</v>
       </c>
       <c r="D256" t="s">
         <v>6</v>
@@ -4284,11 +4254,11 @@
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B257" s="1">
         <f t="shared" si="8"/>
-        <v>44847</v>
+        <v>45240</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4300,11 +4270,11 @@
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B258" s="1">
         <f t="shared" si="8"/>
-        <v>44848</v>
+        <v>45241</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4316,37 +4286,37 @@
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B259" s="1">
         <f t="shared" si="8"/>
-        <v>44849</v>
-      </c>
-      <c r="C259" t="s">
-        <v>5</v>
-      </c>
-      <c r="D259" t="s">
-        <v>6</v>
+        <v>45242</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B260" s="1">
         <f t="shared" si="8"/>
-        <v>44850</v>
+        <v>45243</v>
+      </c>
+      <c r="C260" t="s">
+        <v>5</v>
+      </c>
+      <c r="D260" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B261" s="1">
         <f t="shared" ref="B261:B324" si="11">+B260+1</f>
-        <v>44851</v>
+        <v>45244</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4358,11 +4328,11 @@
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B262" s="1">
         <f t="shared" si="11"/>
-        <v>44852</v>
+        <v>45245</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4374,11 +4344,11 @@
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B263" s="1">
         <f t="shared" si="11"/>
-        <v>44853</v>
+        <v>45246</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4390,11 +4360,11 @@
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B264" s="1">
         <f t="shared" si="11"/>
-        <v>44854</v>
+        <v>45247</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4406,11 +4376,11 @@
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B265" s="1">
         <f t="shared" si="11"/>
-        <v>44855</v>
+        <v>45248</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4422,37 +4392,37 @@
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B266" s="1">
         <f t="shared" si="11"/>
-        <v>44856</v>
-      </c>
-      <c r="C266" t="s">
-        <v>5</v>
-      </c>
-      <c r="D266" t="s">
-        <v>6</v>
+        <v>45249</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B267" s="1">
         <f t="shared" si="11"/>
-        <v>44857</v>
+        <v>45250</v>
+      </c>
+      <c r="C267" t="s">
+        <v>5</v>
+      </c>
+      <c r="D267" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B268" s="1">
         <f t="shared" si="11"/>
-        <v>44858</v>
+        <v>45251</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4464,11 +4434,11 @@
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B269" s="1">
         <f t="shared" si="11"/>
-        <v>44859</v>
+        <v>45252</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4480,11 +4450,11 @@
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B270" s="1">
         <f t="shared" si="11"/>
-        <v>44860</v>
+        <v>45253</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4496,11 +4466,11 @@
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B271" s="1">
         <f t="shared" si="11"/>
-        <v>44861</v>
+        <v>45254</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4512,11 +4482,11 @@
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B272" s="1">
         <f t="shared" si="11"/>
-        <v>44862</v>
+        <v>45255</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4528,37 +4498,37 @@
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B273" s="1">
         <f t="shared" si="11"/>
-        <v>44863</v>
-      </c>
-      <c r="C273" t="s">
-        <v>5</v>
-      </c>
-      <c r="D273" t="s">
-        <v>6</v>
+        <v>45256</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B274" s="1">
         <f t="shared" si="11"/>
-        <v>44864</v>
+        <v>45257</v>
+      </c>
+      <c r="C274" t="s">
+        <v>5</v>
+      </c>
+      <c r="D274" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B275" s="1">
         <f t="shared" si="11"/>
-        <v>44865</v>
+        <v>45258</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4570,24 +4540,27 @@
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B276" s="1">
         <f t="shared" si="11"/>
-        <v>44866</v>
+        <v>45259</v>
       </c>
       <c r="C276" t="s">
+        <v>5</v>
+      </c>
+      <c r="D276" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B277" s="1">
         <f t="shared" si="11"/>
-        <v>44867</v>
+        <v>45260</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -4599,11 +4572,11 @@
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B278" s="1">
         <f t="shared" si="11"/>
-        <v>44868</v>
+        <v>45261</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4615,11 +4588,11 @@
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B279" s="1">
         <f t="shared" si="11"/>
-        <v>44869</v>
+        <v>45262</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -4631,56 +4604,50 @@
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B280" s="1">
         <f t="shared" si="11"/>
-        <v>44870</v>
-      </c>
-      <c r="C280" t="s">
-        <v>5</v>
-      </c>
-      <c r="D280" t="s">
-        <v>6</v>
+        <v>45263</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B281" s="1">
         <f t="shared" si="11"/>
-        <v>44871</v>
+        <v>45264</v>
+      </c>
+      <c r="C281" t="s">
+        <v>5</v>
+      </c>
+      <c r="D281" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B282" s="1">
         <f t="shared" si="11"/>
-        <v>44872</v>
+        <v>45265</v>
       </c>
       <c r="C282" t="s">
-        <v>5</v>
-      </c>
-      <c r="D282" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B283" s="1">
         <f t="shared" si="11"/>
-        <v>44873</v>
-      </c>
-      <c r="C283" t="s">
-        <v>5</v>
+        <v>45266</v>
       </c>
       <c r="D283" t="s">
         <v>6</v>
@@ -4689,27 +4656,27 @@
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B284" s="1">
         <f t="shared" si="11"/>
-        <v>44874</v>
+        <v>45267</v>
       </c>
       <c r="C284" t="s">
+        <v>5</v>
+      </c>
+      <c r="D284" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B285" s="1">
         <f t="shared" si="11"/>
-        <v>44875</v>
-      </c>
-      <c r="C285" t="s">
-        <v>5</v>
+        <v>45268</v>
       </c>
       <c r="D285" t="s">
         <v>6</v>
@@ -4718,11 +4685,11 @@
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286">
         <f t="shared" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B286" s="1">
         <f t="shared" si="11"/>
-        <v>44876</v>
+        <v>45269</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -4734,37 +4701,37 @@
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287">
         <f t="shared" si="10"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B287" s="1">
         <f t="shared" si="11"/>
-        <v>44877</v>
-      </c>
-      <c r="C287" t="s">
-        <v>5</v>
-      </c>
-      <c r="D287" t="s">
-        <v>6</v>
+        <v>45270</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288">
         <f t="shared" si="10"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B288" s="1">
         <f t="shared" si="11"/>
-        <v>44878</v>
+        <v>45271</v>
+      </c>
+      <c r="C288" t="s">
+        <v>5</v>
+      </c>
+      <c r="D288" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B289" s="1">
         <f t="shared" si="11"/>
-        <v>44879</v>
+        <v>45272</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -4776,27 +4743,24 @@
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290">
         <f t="shared" ref="A290:A353" si="12">+WEEKDAY(B290,2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B290" s="1">
         <f t="shared" si="11"/>
-        <v>44880</v>
+        <v>45273</v>
       </c>
       <c r="C290" t="s">
-        <v>5</v>
-      </c>
-      <c r="D290" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B291" s="1">
         <f t="shared" si="11"/>
-        <v>44881</v>
+        <v>45274</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -4808,11 +4772,11 @@
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B292" s="1">
         <f t="shared" si="11"/>
-        <v>44882</v>
+        <v>45275</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -4824,11 +4788,11 @@
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B293" s="1">
         <f t="shared" si="11"/>
-        <v>44883</v>
+        <v>45276</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -4840,37 +4804,37 @@
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B294" s="1">
         <f t="shared" si="11"/>
-        <v>44884</v>
-      </c>
-      <c r="C294" t="s">
-        <v>5</v>
-      </c>
-      <c r="D294" t="s">
-        <v>6</v>
+        <v>45277</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B295" s="1">
         <f t="shared" si="11"/>
-        <v>44885</v>
+        <v>45278</v>
+      </c>
+      <c r="C295" t="s">
+        <v>5</v>
+      </c>
+      <c r="D295" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B296" s="1">
         <f t="shared" si="11"/>
-        <v>44886</v>
+        <v>45279</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -4882,11 +4846,11 @@
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B297" s="1">
         <f t="shared" si="11"/>
-        <v>44887</v>
+        <v>45280</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -4898,11 +4862,11 @@
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B298" s="1">
         <f t="shared" si="11"/>
-        <v>44888</v>
+        <v>45281</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -4914,11 +4878,11 @@
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B299" s="1">
         <f t="shared" si="11"/>
-        <v>44889</v>
+        <v>45282</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -4930,11 +4894,11 @@
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B300" s="1">
         <f t="shared" si="11"/>
-        <v>44890</v>
+        <v>45283</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -4946,37 +4910,31 @@
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B301" s="1">
         <f t="shared" si="11"/>
-        <v>44891</v>
-      </c>
-      <c r="C301" t="s">
-        <v>5</v>
-      </c>
-      <c r="D301" t="s">
-        <v>6</v>
+        <v>45284</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B302" s="1">
         <f t="shared" si="11"/>
-        <v>44892</v>
+        <v>45285</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B303" s="1">
         <f t="shared" si="11"/>
-        <v>44893</v>
+        <v>45286</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -4988,11 +4946,11 @@
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B304" s="1">
         <f t="shared" si="11"/>
-        <v>44894</v>
+        <v>45287</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5004,11 +4962,11 @@
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B305" s="1">
         <f t="shared" si="11"/>
-        <v>44895</v>
+        <v>45288</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5020,11 +4978,11 @@
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B306" s="1">
         <f t="shared" si="11"/>
-        <v>44896</v>
+        <v>45289</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5036,11 +4994,11 @@
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B307" s="1">
         <f t="shared" si="11"/>
-        <v>44897</v>
+        <v>45290</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5052,37 +5010,31 @@
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B308" s="1">
         <f t="shared" si="11"/>
-        <v>44898</v>
-      </c>
-      <c r="C308" t="s">
-        <v>5</v>
-      </c>
-      <c r="D308" t="s">
-        <v>6</v>
+        <v>45291</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B309" s="1">
         <f t="shared" si="11"/>
-        <v>44899</v>
+        <v>45292</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B310" s="1">
         <f t="shared" si="11"/>
-        <v>44900</v>
+        <v>45293</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5094,24 +5046,27 @@
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B311" s="1">
         <f t="shared" si="11"/>
-        <v>44901</v>
+        <v>45294</v>
       </c>
       <c r="C311" t="s">
+        <v>5</v>
+      </c>
+      <c r="D311" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B312" s="1">
         <f t="shared" si="11"/>
-        <v>44902</v>
+        <v>45295</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5123,27 +5078,27 @@
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B313" s="1">
         <f t="shared" si="11"/>
-        <v>44903</v>
+        <v>45296</v>
       </c>
       <c r="C313" t="s">
+        <v>5</v>
+      </c>
+      <c r="D313" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B314" s="1">
         <f t="shared" si="11"/>
-        <v>44904</v>
-      </c>
-      <c r="C314" t="s">
-        <v>5</v>
+        <v>45297</v>
       </c>
       <c r="D314" t="s">
         <v>6</v>
@@ -5152,53 +5107,50 @@
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B315" s="1">
         <f t="shared" si="11"/>
-        <v>44905</v>
-      </c>
-      <c r="C315" t="s">
-        <v>5</v>
-      </c>
-      <c r="D315" t="s">
-        <v>6</v>
+        <v>45298</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B316" s="1">
         <f t="shared" si="11"/>
-        <v>44906</v>
+        <v>45299</v>
+      </c>
+      <c r="C316" t="s">
+        <v>5</v>
+      </c>
+      <c r="D316" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B317" s="1">
         <f t="shared" si="11"/>
-        <v>44907</v>
+        <v>45300</v>
       </c>
       <c r="C317" t="s">
-        <v>5</v>
-      </c>
-      <c r="D317" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B318" s="1">
         <f t="shared" si="11"/>
-        <v>44908</v>
+        <v>45301</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5210,27 +5162,24 @@
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B319" s="1">
         <f t="shared" si="11"/>
-        <v>44909</v>
+        <v>45302</v>
       </c>
       <c r="C319" t="s">
-        <v>5</v>
-      </c>
-      <c r="D319" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B320" s="1">
         <f t="shared" si="11"/>
-        <v>44910</v>
+        <v>45303</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5242,11 +5191,11 @@
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B321" s="1">
         <f t="shared" si="11"/>
-        <v>44911</v>
+        <v>45304</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5258,37 +5207,37 @@
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B322" s="1">
         <f t="shared" si="11"/>
-        <v>44912</v>
-      </c>
-      <c r="C322" t="s">
-        <v>5</v>
-      </c>
-      <c r="D322" t="s">
-        <v>6</v>
+        <v>45305</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B323" s="1">
         <f t="shared" si="11"/>
-        <v>44913</v>
+        <v>45306</v>
+      </c>
+      <c r="C323" t="s">
+        <v>5</v>
+      </c>
+      <c r="D323" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B324" s="1">
         <f t="shared" si="11"/>
-        <v>44914</v>
+        <v>45307</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5300,11 +5249,11 @@
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B325" s="1">
         <f t="shared" ref="B325:B388" si="13">+B324+1</f>
-        <v>44915</v>
+        <v>45308</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5316,11 +5265,11 @@
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B326" s="1">
         <f t="shared" si="13"/>
-        <v>44916</v>
+        <v>45309</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5332,11 +5281,11 @@
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B327" s="1">
         <f t="shared" si="13"/>
-        <v>44917</v>
+        <v>45310</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5348,11 +5297,11 @@
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B328" s="1">
         <f t="shared" si="13"/>
-        <v>44918</v>
+        <v>45311</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5364,41 +5313,53 @@
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B329" s="1">
         <f t="shared" si="13"/>
-        <v>44919</v>
+        <v>45312</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B330" s="1">
         <f t="shared" si="13"/>
-        <v>44920</v>
+        <v>45313</v>
+      </c>
+      <c r="C330" t="s">
+        <v>5</v>
+      </c>
+      <c r="D330" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B331" s="1">
         <f t="shared" si="13"/>
-        <v>44921</v>
+        <v>45314</v>
+      </c>
+      <c r="C331" t="s">
+        <v>5</v>
+      </c>
+      <c r="D331" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B332" s="1">
         <f t="shared" si="13"/>
-        <v>44922</v>
+        <v>45315</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5410,11 +5371,11 @@
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B333" s="1">
         <f t="shared" si="13"/>
-        <v>44923</v>
+        <v>45316</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5426,11 +5387,11 @@
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B334" s="1">
         <f t="shared" si="13"/>
-        <v>44924</v>
+        <v>45317</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5442,57 +5403,63 @@
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B335" s="1">
         <f t="shared" si="13"/>
-        <v>44925</v>
-      </c>
-      <c r="C335" t="s">
-        <v>5</v>
-      </c>
-      <c r="D335" t="s">
-        <v>6</v>
+        <v>45318</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B336" s="1">
         <f t="shared" si="13"/>
-        <v>44926</v>
+        <v>45319</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B337" s="1">
         <f t="shared" si="13"/>
-        <v>44927</v>
+        <v>45320</v>
+      </c>
+      <c r="C337" t="s">
+        <v>5</v>
+      </c>
+      <c r="D337" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B338" s="1">
         <f t="shared" si="13"/>
-        <v>44928</v>
+        <v>45321</v>
+      </c>
+      <c r="C338" t="s">
+        <v>5</v>
+      </c>
+      <c r="D338" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B339" s="1">
         <f t="shared" si="13"/>
-        <v>44929</v>
+        <v>45322</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -5504,11 +5471,11 @@
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B340" s="1">
         <f t="shared" si="13"/>
-        <v>44930</v>
+        <v>45323</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -5520,11 +5487,11 @@
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B341" s="1">
         <f t="shared" si="13"/>
-        <v>44931</v>
+        <v>45324</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -5536,50 +5503,53 @@
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B342" s="1">
         <f t="shared" si="13"/>
-        <v>44932</v>
+        <v>45325</v>
       </c>
       <c r="C342" t="s">
+        <v>5</v>
+      </c>
+      <c r="D342" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B343" s="1">
         <f t="shared" si="13"/>
-        <v>44933</v>
-      </c>
-      <c r="C343" t="s">
-        <v>5</v>
-      </c>
-      <c r="D343" t="s">
-        <v>6</v>
+        <v>45326</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B344" s="1">
         <f t="shared" si="13"/>
-        <v>44934</v>
+        <v>45327</v>
+      </c>
+      <c r="C344" t="s">
+        <v>5</v>
+      </c>
+      <c r="D344" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B345" s="1">
         <f t="shared" si="13"/>
-        <v>44935</v>
+        <v>45328</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -5591,11 +5561,11 @@
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B346" s="1">
         <f t="shared" si="13"/>
-        <v>44936</v>
+        <v>45329</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -5607,11 +5577,11 @@
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B347" s="1">
         <f t="shared" si="13"/>
-        <v>44937</v>
+        <v>45330</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -5623,11 +5593,11 @@
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348">
         <f t="shared" si="12"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B348" s="1">
         <f t="shared" si="13"/>
-        <v>44938</v>
+        <v>45331</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -5639,11 +5609,11 @@
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349">
         <f t="shared" si="12"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B349" s="1">
         <f t="shared" si="13"/>
-        <v>44939</v>
+        <v>45332</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -5655,37 +5625,37 @@
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B350" s="1">
         <f t="shared" si="13"/>
-        <v>44940</v>
-      </c>
-      <c r="C350" t="s">
-        <v>5</v>
-      </c>
-      <c r="D350" t="s">
-        <v>6</v>
+        <v>45333</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351">
         <f t="shared" si="12"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B351" s="1">
         <f t="shared" si="13"/>
-        <v>44941</v>
+        <v>45334</v>
+      </c>
+      <c r="C351" t="s">
+        <v>5</v>
+      </c>
+      <c r="D351" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B352" s="1">
         <f t="shared" si="13"/>
-        <v>44942</v>
+        <v>45335</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -5697,11 +5667,11 @@
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B353" s="1">
         <f t="shared" si="13"/>
-        <v>44943</v>
+        <v>45336</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -5712,12 +5682,12 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354">
-        <f t="shared" ref="A354:A396" si="14">+WEEKDAY(B354,2)</f>
-        <v>3</v>
+        <f t="shared" ref="A354:A395" si="14">+WEEKDAY(B354,2)</f>
+        <v>4</v>
       </c>
       <c r="B354" s="1">
         <f t="shared" si="13"/>
-        <v>44944</v>
+        <v>45337</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -5729,11 +5699,11 @@
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B355" s="1">
         <f t="shared" si="13"/>
-        <v>44945</v>
+        <v>45338</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -5745,11 +5715,11 @@
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B356" s="1">
         <f t="shared" si="13"/>
-        <v>44946</v>
+        <v>45339</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -5761,37 +5731,37 @@
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B357" s="1">
         <f t="shared" si="13"/>
-        <v>44947</v>
-      </c>
-      <c r="C357" t="s">
-        <v>5</v>
-      </c>
-      <c r="D357" t="s">
-        <v>6</v>
+        <v>45340</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B358" s="1">
         <f t="shared" si="13"/>
-        <v>44948</v>
+        <v>45341</v>
+      </c>
+      <c r="C358" t="s">
+        <v>5</v>
+      </c>
+      <c r="D358" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B359" s="1">
         <f t="shared" si="13"/>
-        <v>44949</v>
+        <v>45342</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -5803,11 +5773,11 @@
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B360" s="1">
         <f t="shared" si="13"/>
-        <v>44950</v>
+        <v>45343</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -5819,11 +5789,11 @@
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B361" s="1">
         <f t="shared" si="13"/>
-        <v>44951</v>
+        <v>45344</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -5835,11 +5805,11 @@
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362">
         <f t="shared" si="14"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B362" s="1">
         <f t="shared" si="13"/>
-        <v>44952</v>
+        <v>45345</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -5851,11 +5821,11 @@
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363">
         <f t="shared" si="14"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B363" s="1">
         <f t="shared" si="13"/>
-        <v>44953</v>
+        <v>45346</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -5867,37 +5837,37 @@
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364">
         <f t="shared" si="14"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B364" s="1">
         <f t="shared" si="13"/>
-        <v>44954</v>
-      </c>
-      <c r="C364" t="s">
-        <v>5</v>
-      </c>
-      <c r="D364" t="s">
-        <v>6</v>
+        <v>45347</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B365" s="1">
         <f t="shared" si="13"/>
-        <v>44955</v>
+        <v>45348</v>
+      </c>
+      <c r="C365" t="s">
+        <v>5</v>
+      </c>
+      <c r="D365" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B366" s="1">
         <f t="shared" si="13"/>
-        <v>44956</v>
+        <v>45349</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -5909,11 +5879,11 @@
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B367" s="1">
         <f t="shared" si="13"/>
-        <v>44957</v>
+        <v>45350</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -5923,430 +5893,90 @@
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="B368" s="1">
-        <f t="shared" si="13"/>
-        <v>44958</v>
-      </c>
-      <c r="C368" t="s">
-        <v>5</v>
-      </c>
-      <c r="D368" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A369">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="B369" s="1">
-        <f t="shared" si="13"/>
-        <v>44959</v>
-      </c>
-      <c r="C369" t="s">
-        <v>5</v>
-      </c>
-      <c r="D369" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A370">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="B370" s="1">
-        <f t="shared" si="13"/>
-        <v>44960</v>
-      </c>
-      <c r="C370" t="s">
-        <v>5</v>
-      </c>
-      <c r="D370" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A371">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="B371" s="1">
-        <f t="shared" si="13"/>
-        <v>44961</v>
-      </c>
-      <c r="C371" t="s">
-        <v>5</v>
-      </c>
-      <c r="D371" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A372">
-        <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="B372" s="1">
-        <f t="shared" si="13"/>
-        <v>44962</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="B373" s="1">
-        <f t="shared" si="13"/>
-        <v>44963</v>
-      </c>
-      <c r="C373" t="s">
-        <v>5</v>
-      </c>
-      <c r="D373" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A374">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="B374" s="1">
-        <f t="shared" si="13"/>
-        <v>44964</v>
-      </c>
-      <c r="C374" t="s">
-        <v>5</v>
-      </c>
-      <c r="D374" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A375">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="B375" s="1">
-        <f t="shared" si="13"/>
-        <v>44965</v>
-      </c>
-      <c r="C375" t="s">
-        <v>5</v>
-      </c>
-      <c r="D375" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A376">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="B376" s="1">
-        <f t="shared" si="13"/>
-        <v>44966</v>
-      </c>
-      <c r="C376" t="s">
-        <v>5</v>
-      </c>
-      <c r="D376" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A377">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="B377" s="1">
-        <f t="shared" si="13"/>
-        <v>44967</v>
-      </c>
-      <c r="C377" t="s">
-        <v>5</v>
-      </c>
-      <c r="D377" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A378">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="B378" s="1">
-        <f t="shared" si="13"/>
-        <v>44968</v>
-      </c>
-      <c r="C378" t="s">
-        <v>5</v>
-      </c>
-      <c r="D378" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A379">
-        <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="B379" s="1">
-        <f t="shared" si="13"/>
-        <v>44969</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A380">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="B380" s="1">
-        <f t="shared" si="13"/>
-        <v>44970</v>
-      </c>
-      <c r="C380" t="s">
-        <v>5</v>
-      </c>
-      <c r="D380" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A381">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="B381" s="1">
-        <f t="shared" si="13"/>
-        <v>44971</v>
-      </c>
-      <c r="C381" t="s">
-        <v>5</v>
-      </c>
-      <c r="D381" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A382">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="B382" s="1">
-        <f t="shared" si="13"/>
-        <v>44972</v>
-      </c>
-      <c r="C382" t="s">
-        <v>5</v>
-      </c>
-      <c r="D382" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A383">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="B383" s="1">
-        <f t="shared" si="13"/>
-        <v>44973</v>
-      </c>
-      <c r="C383" t="s">
-        <v>5</v>
-      </c>
-      <c r="D383" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A384">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="B384" s="1">
-        <f t="shared" si="13"/>
-        <v>44974</v>
-      </c>
-      <c r="C384" t="s">
-        <v>5</v>
-      </c>
-      <c r="D384" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A385">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="B385" s="1">
-        <f t="shared" si="13"/>
-        <v>44975</v>
-      </c>
-      <c r="C385" t="s">
-        <v>5</v>
-      </c>
-      <c r="D385" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A386">
-        <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="B386" s="1">
-        <f t="shared" si="13"/>
-        <v>44976</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A387">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="B387" s="1">
-        <f t="shared" si="13"/>
-        <v>44977</v>
-      </c>
-      <c r="C387" t="s">
-        <v>5</v>
-      </c>
-      <c r="D387" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A388">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="B388" s="1">
-        <f t="shared" si="13"/>
-        <v>44978</v>
-      </c>
-      <c r="C388" t="s">
-        <v>5</v>
-      </c>
-      <c r="D388" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A389">
-        <f t="shared" si="14"/>
-        <v>3</v>
-      </c>
-      <c r="B389" s="1">
-        <f t="shared" ref="B389:B396" si="15">+B388+1</f>
-        <v>44979</v>
-      </c>
-      <c r="C389" t="s">
-        <v>5</v>
-      </c>
-      <c r="D389" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A390">
-        <f t="shared" si="14"/>
-        <v>4</v>
-      </c>
-      <c r="B390" s="1">
-        <f t="shared" si="15"/>
-        <v>44980</v>
-      </c>
-      <c r="C390" t="s">
-        <v>5</v>
-      </c>
-      <c r="D390" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A391">
-        <f t="shared" si="14"/>
-        <v>5</v>
-      </c>
-      <c r="B391" s="1">
-        <f t="shared" si="15"/>
-        <v>44981</v>
-      </c>
-      <c r="C391" t="s">
-        <v>5</v>
-      </c>
-      <c r="D391" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A392">
-        <f t="shared" si="14"/>
-        <v>6</v>
-      </c>
-      <c r="B392" s="1">
-        <f t="shared" si="15"/>
-        <v>44982</v>
-      </c>
-      <c r="C392" t="s">
-        <v>5</v>
-      </c>
-      <c r="D392" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A393">
-        <f t="shared" si="14"/>
-        <v>7</v>
-      </c>
-      <c r="B393" s="1">
-        <f t="shared" si="15"/>
-        <v>44983</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A394">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="B394" s="1">
-        <f t="shared" si="15"/>
-        <v>44984</v>
-      </c>
-      <c r="C394" t="s">
-        <v>5</v>
-      </c>
-      <c r="D394" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A395">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="B395" s="1">
-        <f t="shared" si="15"/>
-        <v>44985</v>
-      </c>
-      <c r="C395" t="s">
-        <v>5</v>
-      </c>
-      <c r="D395" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B368" s="1"/>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B369" s="1"/>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B370" s="1"/>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B371" s="1"/>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B372" s="1"/>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B373" s="1"/>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B374" s="1"/>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B375" s="1"/>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B376" s="1"/>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B377" s="1"/>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B378" s="1"/>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B379" s="1"/>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B380" s="1"/>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B381" s="1"/>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B382" s="1"/>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B383" s="1"/>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B384" s="1"/>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B385" s="1"/>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B386" s="1"/>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B387" s="1"/>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B388" s="1"/>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B389" s="1"/>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B390" s="1"/>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B391" s="1"/>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B392" s="1"/>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B393" s="1"/>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B394" s="1"/>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B395" s="1"/>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B396" s="1"/>
     </row>
   </sheetData>
